--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20659AEF-5892-4FA4-98B1-DE74D17F3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923108D-DA7B-4B5E-968B-D4DB65745FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="122">
   <si>
     <t>Database Name</t>
   </si>
@@ -147,9 +147,6 @@
     <t>People</t>
   </si>
   <si>
-    <t>IDNumber</t>
-  </si>
-  <si>
     <t>Starts with P</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>JobID</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>PK, FK</t>
   </si>
   <si>
-    <t>The IDNumber from People table</t>
-  </si>
-  <si>
     <t>The JobID from the Roles table</t>
   </si>
   <si>
@@ -210,33 +201,12 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>PeopleRoles</t>
-  </si>
-  <si>
-    <t>InvID</t>
-  </si>
-  <si>
     <t>Starts with I</t>
   </si>
   <si>
     <t>Check it starts with J and is integer</t>
   </si>
   <si>
-    <t>Check it starts with I and is integer</t>
-  </si>
-  <si>
-    <t>InvDescription</t>
-  </si>
-  <si>
-    <t>The unique number for inventory item</t>
-  </si>
-  <si>
-    <t>Description of inventory item</t>
-  </si>
-  <si>
-    <t>InventoryDescription</t>
-  </si>
-  <si>
     <t>SettlementInventory</t>
   </si>
   <si>
@@ -261,21 +231,6 @@
     <t>Weapons</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>WeaponID</t>
-  </si>
-  <si>
-    <t>Unique ID for weapon</t>
-  </si>
-  <si>
-    <t>Starts with W</t>
-  </si>
-  <si>
-    <t>Check it starts with W and is integer</t>
-  </si>
-  <si>
     <t>WeaponDescription</t>
   </si>
   <si>
@@ -285,24 +240,9 @@
     <t>How much the weapon costs</t>
   </si>
   <si>
-    <t>How much the inventory item costs</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
-    <t>FoodID</t>
-  </si>
-  <si>
-    <t>Unique ID for food item</t>
-  </si>
-  <si>
-    <t>Starts with F</t>
-  </si>
-  <si>
-    <t>Check it starts with F and is integer</t>
-  </si>
-  <si>
     <t>FoodDescription</t>
   </si>
   <si>
@@ -315,18 +255,6 @@
     <t>Vehicles</t>
   </si>
   <si>
-    <t>VehicleID</t>
-  </si>
-  <si>
-    <t>Unique ID for vehicle</t>
-  </si>
-  <si>
-    <t>Starts with V</t>
-  </si>
-  <si>
-    <t>Check it starts with V and is integer</t>
-  </si>
-  <si>
     <t>VehicleDescription</t>
   </si>
   <si>
@@ -336,18 +264,6 @@
     <t>Medicine</t>
   </si>
   <si>
-    <t>MedicineID</t>
-  </si>
-  <si>
-    <t>Unique ID for medicine</t>
-  </si>
-  <si>
-    <t>Starts with M</t>
-  </si>
-  <si>
-    <t>Check it starts with M and is integer</t>
-  </si>
-  <si>
     <t>MedicineDescription</t>
   </si>
   <si>
@@ -360,18 +276,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>HousingID</t>
-  </si>
-  <si>
-    <t>Unique ID for housing</t>
-  </si>
-  <si>
-    <t>Starts with H</t>
-  </si>
-  <si>
-    <t>Check it starts with H and is integer</t>
-  </si>
-  <si>
     <t>HousingDescription</t>
   </si>
   <si>
@@ -438,7 +342,64 @@
     <t>ItemID</t>
   </si>
   <si>
-    <t>ID of item purchased House/Med/Food/Weapon</t>
+    <t>PeopleID</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>PeopleJobs</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>The ID for item</t>
+  </si>
+  <si>
+    <t>Foreign Key to Items table</t>
+  </si>
+  <si>
+    <t>WeaponPrice</t>
+  </si>
+  <si>
+    <t>FoodPrice</t>
+  </si>
+  <si>
+    <t>VehiclePrice</t>
+  </si>
+  <si>
+    <t>MedicinePrice</t>
+  </si>
+  <si>
+    <t>HousingPrice</t>
+  </si>
+  <si>
+    <t>TransTimeStamp</t>
+  </si>
+  <si>
+    <t>Timestamp of when it was made</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>PeopleSettlements</t>
+  </si>
+  <si>
+    <t>The ID from the people table</t>
+  </si>
+  <si>
+    <t>The ID from settlement table</t>
+  </si>
+  <si>
+    <t>Check it starts with I</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>Type of item</t>
   </si>
 </sst>
 </file>
@@ -627,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -687,6 +648,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1477,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44498.470251967592</v>
+        <v>44502.209247222221</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1518,17 +1488,17 @@
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1692,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -1701,14 +1671,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
@@ -1718,10 +1688,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -1742,10 +1712,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -1766,13 +1736,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1791,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1836,47 +1806,47 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
         <v>19</v>
       </c>
@@ -1886,22 +1856,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="B25" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
@@ -1937,45 +1908,45 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
@@ -1984,103 +1955,116 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="13"/>
+        <v>47</v>
+      </c>
+      <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11" t="s">
         <v>22</v>
@@ -2089,13 +2073,13 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2108,94 +2092,96 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="11" t="s">
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+    </row>
+    <row r="39" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="11" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="11" t="s">
         <v>19</v>
       </c>
@@ -2205,1040 +2191,1107 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="11" t="s">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11" t="s">
+      <c r="E47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="11" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="11" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="11"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="11" t="s">
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="17"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="24"/>
+    </row>
+    <row r="59" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11" t="s">
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I62" s="11"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="11" t="s">
+    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="24"/>
+    </row>
+    <row r="66" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="11"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D70" s="11" t="s">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="24"/>
+    </row>
+    <row r="73" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I76" s="11"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="24"/>
+    </row>
+    <row r="80" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11" t="s">
+      <c r="C83" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I83" s="11"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
+    </row>
+    <row r="87" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="11" t="s">
+      <c r="B89" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11" t="s">
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11" t="s">
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16" t="s">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
       <c r="J90" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>134</v>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="11" t="s">
+    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="24"/>
+    </row>
+    <row r="95" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="12"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F97" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
       <c r="G97" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>126</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>128</v>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
       <c r="J98" s="11" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="24"/>
+    </row>
+    <row r="102" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="13"/>
+      <c r="G103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B25:J25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65497:F65512 WVO983000:WVP983015 WLS983000:WLT983015 WBW983000:WBX983015 VSA983000:VSB983015 VIE983000:VIF983015 UYI983000:UYJ983015 UOM983000:UON983015 UEQ983000:UER983015 TUU983000:TUV983015 TKY983000:TKZ983015 TBC983000:TBD983015 SRG983000:SRH983015 SHK983000:SHL983015 RXO983000:RXP983015 RNS983000:RNT983015 RDW983000:RDX983015 QUA983000:QUB983015 QKE983000:QKF983015 QAI983000:QAJ983015 PQM983000:PQN983015 PGQ983000:PGR983015 OWU983000:OWV983015 OMY983000:OMZ983015 ODC983000:ODD983015 NTG983000:NTH983015 NJK983000:NJL983015 MZO983000:MZP983015 MPS983000:MPT983015 MFW983000:MFX983015 LWA983000:LWB983015 LME983000:LMF983015 LCI983000:LCJ983015 KSM983000:KSN983015 KIQ983000:KIR983015 JYU983000:JYV983015 JOY983000:JOZ983015 JFC983000:JFD983015 IVG983000:IVH983015 ILK983000:ILL983015 IBO983000:IBP983015 HRS983000:HRT983015 HHW983000:HHX983015 GYA983000:GYB983015 GOE983000:GOF983015 GEI983000:GEJ983015 FUM983000:FUN983015 FKQ983000:FKR983015 FAU983000:FAV983015 EQY983000:EQZ983015 EHC983000:EHD983015 DXG983000:DXH983015 DNK983000:DNL983015 DDO983000:DDP983015 CTS983000:CTT983015 CJW983000:CJX983015 CAA983000:CAB983015 BQE983000:BQF983015 BGI983000:BGJ983015 AWM983000:AWN983015 AMQ983000:AMR983015 ACU983000:ACV983015 SY983000:SZ983015 JC983000:JD983015 F983001:F983016 WVO917464:WVP917479 WLS917464:WLT917479 WBW917464:WBX917479 VSA917464:VSB917479 VIE917464:VIF917479 UYI917464:UYJ917479 UOM917464:UON917479 UEQ917464:UER917479 TUU917464:TUV917479 TKY917464:TKZ917479 TBC917464:TBD917479 SRG917464:SRH917479 SHK917464:SHL917479 RXO917464:RXP917479 RNS917464:RNT917479 RDW917464:RDX917479 QUA917464:QUB917479 QKE917464:QKF917479 QAI917464:QAJ917479 PQM917464:PQN917479 PGQ917464:PGR917479 OWU917464:OWV917479 OMY917464:OMZ917479 ODC917464:ODD917479 NTG917464:NTH917479 NJK917464:NJL917479 MZO917464:MZP917479 MPS917464:MPT917479 MFW917464:MFX917479 LWA917464:LWB917479 LME917464:LMF917479 LCI917464:LCJ917479 KSM917464:KSN917479 KIQ917464:KIR917479 JYU917464:JYV917479 JOY917464:JOZ917479 JFC917464:JFD917479 IVG917464:IVH917479 ILK917464:ILL917479 IBO917464:IBP917479 HRS917464:HRT917479 HHW917464:HHX917479 GYA917464:GYB917479 GOE917464:GOF917479 GEI917464:GEJ917479 FUM917464:FUN917479 FKQ917464:FKR917479 FAU917464:FAV917479 EQY917464:EQZ917479 EHC917464:EHD917479 DXG917464:DXH917479 DNK917464:DNL917479 DDO917464:DDP917479 CTS917464:CTT917479 CJW917464:CJX917479 CAA917464:CAB917479 BQE917464:BQF917479 BGI917464:BGJ917479 AWM917464:AWN917479 AMQ917464:AMR917479 ACU917464:ACV917479 SY917464:SZ917479 JC917464:JD917479 F917465:F917480 WVO851928:WVP851943 WLS851928:WLT851943 WBW851928:WBX851943 VSA851928:VSB851943 VIE851928:VIF851943 UYI851928:UYJ851943 UOM851928:UON851943 UEQ851928:UER851943 TUU851928:TUV851943 TKY851928:TKZ851943 TBC851928:TBD851943 SRG851928:SRH851943 SHK851928:SHL851943 RXO851928:RXP851943 RNS851928:RNT851943 RDW851928:RDX851943 QUA851928:QUB851943 QKE851928:QKF851943 QAI851928:QAJ851943 PQM851928:PQN851943 PGQ851928:PGR851943 OWU851928:OWV851943 OMY851928:OMZ851943 ODC851928:ODD851943 NTG851928:NTH851943 NJK851928:NJL851943 MZO851928:MZP851943 MPS851928:MPT851943 MFW851928:MFX851943 LWA851928:LWB851943 LME851928:LMF851943 LCI851928:LCJ851943 KSM851928:KSN851943 KIQ851928:KIR851943 JYU851928:JYV851943 JOY851928:JOZ851943 JFC851928:JFD851943 IVG851928:IVH851943 ILK851928:ILL851943 IBO851928:IBP851943 HRS851928:HRT851943 HHW851928:HHX851943 GYA851928:GYB851943 GOE851928:GOF851943 GEI851928:GEJ851943 FUM851928:FUN851943 FKQ851928:FKR851943 FAU851928:FAV851943 EQY851928:EQZ851943 EHC851928:EHD851943 DXG851928:DXH851943 DNK851928:DNL851943 DDO851928:DDP851943 CTS851928:CTT851943 CJW851928:CJX851943 CAA851928:CAB851943 BQE851928:BQF851943 BGI851928:BGJ851943 AWM851928:AWN851943 AMQ851928:AMR851943 ACU851928:ACV851943 SY851928:SZ851943 JC851928:JD851943 F851929:F851944 WVO786392:WVP786407 WLS786392:WLT786407 WBW786392:WBX786407 VSA786392:VSB786407 VIE786392:VIF786407 UYI786392:UYJ786407 UOM786392:UON786407 UEQ786392:UER786407 TUU786392:TUV786407 TKY786392:TKZ786407 TBC786392:TBD786407 SRG786392:SRH786407 SHK786392:SHL786407 RXO786392:RXP786407 RNS786392:RNT786407 RDW786392:RDX786407 QUA786392:QUB786407 QKE786392:QKF786407 QAI786392:QAJ786407 PQM786392:PQN786407 PGQ786392:PGR786407 OWU786392:OWV786407 OMY786392:OMZ786407 ODC786392:ODD786407 NTG786392:NTH786407 NJK786392:NJL786407 MZO786392:MZP786407 MPS786392:MPT786407 MFW786392:MFX786407 LWA786392:LWB786407 LME786392:LMF786407 LCI786392:LCJ786407 KSM786392:KSN786407 KIQ786392:KIR786407 JYU786392:JYV786407 JOY786392:JOZ786407 JFC786392:JFD786407 IVG786392:IVH786407 ILK786392:ILL786407 IBO786392:IBP786407 HRS786392:HRT786407 HHW786392:HHX786407 GYA786392:GYB786407 GOE786392:GOF786407 GEI786392:GEJ786407 FUM786392:FUN786407 FKQ786392:FKR786407 FAU786392:FAV786407 EQY786392:EQZ786407 EHC786392:EHD786407 DXG786392:DXH786407 DNK786392:DNL786407 DDO786392:DDP786407 CTS786392:CTT786407 CJW786392:CJX786407 CAA786392:CAB786407 BQE786392:BQF786407 BGI786392:BGJ786407 AWM786392:AWN786407 AMQ786392:AMR786407 ACU786392:ACV786407 SY786392:SZ786407 JC786392:JD786407 F786393:F786408 WVO720856:WVP720871 WLS720856:WLT720871 WBW720856:WBX720871 VSA720856:VSB720871 VIE720856:VIF720871 UYI720856:UYJ720871 UOM720856:UON720871 UEQ720856:UER720871 TUU720856:TUV720871 TKY720856:TKZ720871 TBC720856:TBD720871 SRG720856:SRH720871 SHK720856:SHL720871 RXO720856:RXP720871 RNS720856:RNT720871 RDW720856:RDX720871 QUA720856:QUB720871 QKE720856:QKF720871 QAI720856:QAJ720871 PQM720856:PQN720871 PGQ720856:PGR720871 OWU720856:OWV720871 OMY720856:OMZ720871 ODC720856:ODD720871 NTG720856:NTH720871 NJK720856:NJL720871 MZO720856:MZP720871 MPS720856:MPT720871 MFW720856:MFX720871 LWA720856:LWB720871 LME720856:LMF720871 LCI720856:LCJ720871 KSM720856:KSN720871 KIQ720856:KIR720871 JYU720856:JYV720871 JOY720856:JOZ720871 JFC720856:JFD720871 IVG720856:IVH720871 ILK720856:ILL720871 IBO720856:IBP720871 HRS720856:HRT720871 HHW720856:HHX720871 GYA720856:GYB720871 GOE720856:GOF720871 GEI720856:GEJ720871 FUM720856:FUN720871 FKQ720856:FKR720871 FAU720856:FAV720871 EQY720856:EQZ720871 EHC720856:EHD720871 DXG720856:DXH720871 DNK720856:DNL720871 DDO720856:DDP720871 CTS720856:CTT720871 CJW720856:CJX720871 CAA720856:CAB720871 BQE720856:BQF720871 BGI720856:BGJ720871 AWM720856:AWN720871 AMQ720856:AMR720871 ACU720856:ACV720871 SY720856:SZ720871 JC720856:JD720871 F720857:F720872 WVO655320:WVP655335 WLS655320:WLT655335 WBW655320:WBX655335 VSA655320:VSB655335 VIE655320:VIF655335 UYI655320:UYJ655335 UOM655320:UON655335 UEQ655320:UER655335 TUU655320:TUV655335 TKY655320:TKZ655335 TBC655320:TBD655335 SRG655320:SRH655335 SHK655320:SHL655335 RXO655320:RXP655335 RNS655320:RNT655335 RDW655320:RDX655335 QUA655320:QUB655335 QKE655320:QKF655335 QAI655320:QAJ655335 PQM655320:PQN655335 PGQ655320:PGR655335 OWU655320:OWV655335 OMY655320:OMZ655335 ODC655320:ODD655335 NTG655320:NTH655335 NJK655320:NJL655335 MZO655320:MZP655335 MPS655320:MPT655335 MFW655320:MFX655335 LWA655320:LWB655335 LME655320:LMF655335 LCI655320:LCJ655335 KSM655320:KSN655335 KIQ655320:KIR655335 JYU655320:JYV655335 JOY655320:JOZ655335 JFC655320:JFD655335 IVG655320:IVH655335 ILK655320:ILL655335 IBO655320:IBP655335 HRS655320:HRT655335 HHW655320:HHX655335 GYA655320:GYB655335 GOE655320:GOF655335 GEI655320:GEJ655335 FUM655320:FUN655335 FKQ655320:FKR655335 FAU655320:FAV655335 EQY655320:EQZ655335 EHC655320:EHD655335 DXG655320:DXH655335 DNK655320:DNL655335 DDO655320:DDP655335 CTS655320:CTT655335 CJW655320:CJX655335 CAA655320:CAB655335 BQE655320:BQF655335 BGI655320:BGJ655335 AWM655320:AWN655335 AMQ655320:AMR655335 ACU655320:ACV655335 SY655320:SZ655335 JC655320:JD655335 F655321:F655336 WVO589784:WVP589799 WLS589784:WLT589799 WBW589784:WBX589799 VSA589784:VSB589799 VIE589784:VIF589799 UYI589784:UYJ589799 UOM589784:UON589799 UEQ589784:UER589799 TUU589784:TUV589799 TKY589784:TKZ589799 TBC589784:TBD589799 SRG589784:SRH589799 SHK589784:SHL589799 RXO589784:RXP589799 RNS589784:RNT589799 RDW589784:RDX589799 QUA589784:QUB589799 QKE589784:QKF589799 QAI589784:QAJ589799 PQM589784:PQN589799 PGQ589784:PGR589799 OWU589784:OWV589799 OMY589784:OMZ589799 ODC589784:ODD589799 NTG589784:NTH589799 NJK589784:NJL589799 MZO589784:MZP589799 MPS589784:MPT589799 MFW589784:MFX589799 LWA589784:LWB589799 LME589784:LMF589799 LCI589784:LCJ589799 KSM589784:KSN589799 KIQ589784:KIR589799 JYU589784:JYV589799 JOY589784:JOZ589799 JFC589784:JFD589799 IVG589784:IVH589799 ILK589784:ILL589799 IBO589784:IBP589799 HRS589784:HRT589799 HHW589784:HHX589799 GYA589784:GYB589799 GOE589784:GOF589799 GEI589784:GEJ589799 FUM589784:FUN589799 FKQ589784:FKR589799 FAU589784:FAV589799 EQY589784:EQZ589799 EHC589784:EHD589799 DXG589784:DXH589799 DNK589784:DNL589799 DDO589784:DDP589799 CTS589784:CTT589799 CJW589784:CJX589799 CAA589784:CAB589799 BQE589784:BQF589799 BGI589784:BGJ589799 AWM589784:AWN589799 AMQ589784:AMR589799 ACU589784:ACV589799 SY589784:SZ589799 JC589784:JD589799 F589785:F589800 WVO524248:WVP524263 WLS524248:WLT524263 WBW524248:WBX524263 VSA524248:VSB524263 VIE524248:VIF524263 UYI524248:UYJ524263 UOM524248:UON524263 UEQ524248:UER524263 TUU524248:TUV524263 TKY524248:TKZ524263 TBC524248:TBD524263 SRG524248:SRH524263 SHK524248:SHL524263 RXO524248:RXP524263 RNS524248:RNT524263 RDW524248:RDX524263 QUA524248:QUB524263 QKE524248:QKF524263 QAI524248:QAJ524263 PQM524248:PQN524263 PGQ524248:PGR524263 OWU524248:OWV524263 OMY524248:OMZ524263 ODC524248:ODD524263 NTG524248:NTH524263 NJK524248:NJL524263 MZO524248:MZP524263 MPS524248:MPT524263 MFW524248:MFX524263 LWA524248:LWB524263 LME524248:LMF524263 LCI524248:LCJ524263 KSM524248:KSN524263 KIQ524248:KIR524263 JYU524248:JYV524263 JOY524248:JOZ524263 JFC524248:JFD524263 IVG524248:IVH524263 ILK524248:ILL524263 IBO524248:IBP524263 HRS524248:HRT524263 HHW524248:HHX524263 GYA524248:GYB524263 GOE524248:GOF524263 GEI524248:GEJ524263 FUM524248:FUN524263 FKQ524248:FKR524263 FAU524248:FAV524263 EQY524248:EQZ524263 EHC524248:EHD524263 DXG524248:DXH524263 DNK524248:DNL524263 DDO524248:DDP524263 CTS524248:CTT524263 CJW524248:CJX524263 CAA524248:CAB524263 BQE524248:BQF524263 BGI524248:BGJ524263 AWM524248:AWN524263 AMQ524248:AMR524263 ACU524248:ACV524263 SY524248:SZ524263 JC524248:JD524263 F524249:F524264 WVO458712:WVP458727 WLS458712:WLT458727 WBW458712:WBX458727 VSA458712:VSB458727 VIE458712:VIF458727 UYI458712:UYJ458727 UOM458712:UON458727 UEQ458712:UER458727 TUU458712:TUV458727 TKY458712:TKZ458727 TBC458712:TBD458727 SRG458712:SRH458727 SHK458712:SHL458727 RXO458712:RXP458727 RNS458712:RNT458727 RDW458712:RDX458727 QUA458712:QUB458727 QKE458712:QKF458727 QAI458712:QAJ458727 PQM458712:PQN458727 PGQ458712:PGR458727 OWU458712:OWV458727 OMY458712:OMZ458727 ODC458712:ODD458727 NTG458712:NTH458727 NJK458712:NJL458727 MZO458712:MZP458727 MPS458712:MPT458727 MFW458712:MFX458727 LWA458712:LWB458727 LME458712:LMF458727 LCI458712:LCJ458727 KSM458712:KSN458727 KIQ458712:KIR458727 JYU458712:JYV458727 JOY458712:JOZ458727 JFC458712:JFD458727 IVG458712:IVH458727 ILK458712:ILL458727 IBO458712:IBP458727 HRS458712:HRT458727 HHW458712:HHX458727 GYA458712:GYB458727 GOE458712:GOF458727 GEI458712:GEJ458727 FUM458712:FUN458727 FKQ458712:FKR458727 FAU458712:FAV458727 EQY458712:EQZ458727 EHC458712:EHD458727 DXG458712:DXH458727 DNK458712:DNL458727 DDO458712:DDP458727 CTS458712:CTT458727 CJW458712:CJX458727 CAA458712:CAB458727 BQE458712:BQF458727 BGI458712:BGJ458727 AWM458712:AWN458727 AMQ458712:AMR458727 ACU458712:ACV458727 SY458712:SZ458727 JC458712:JD458727 F458713:F458728 WVO393176:WVP393191 WLS393176:WLT393191 WBW393176:WBX393191 VSA393176:VSB393191 VIE393176:VIF393191 UYI393176:UYJ393191 UOM393176:UON393191 UEQ393176:UER393191 TUU393176:TUV393191 TKY393176:TKZ393191 TBC393176:TBD393191 SRG393176:SRH393191 SHK393176:SHL393191 RXO393176:RXP393191 RNS393176:RNT393191 RDW393176:RDX393191 QUA393176:QUB393191 QKE393176:QKF393191 QAI393176:QAJ393191 PQM393176:PQN393191 PGQ393176:PGR393191 OWU393176:OWV393191 OMY393176:OMZ393191 ODC393176:ODD393191 NTG393176:NTH393191 NJK393176:NJL393191 MZO393176:MZP393191 MPS393176:MPT393191 MFW393176:MFX393191 LWA393176:LWB393191 LME393176:LMF393191 LCI393176:LCJ393191 KSM393176:KSN393191 KIQ393176:KIR393191 JYU393176:JYV393191 JOY393176:JOZ393191 JFC393176:JFD393191 IVG393176:IVH393191 ILK393176:ILL393191 IBO393176:IBP393191 HRS393176:HRT393191 HHW393176:HHX393191 GYA393176:GYB393191 GOE393176:GOF393191 GEI393176:GEJ393191 FUM393176:FUN393191 FKQ393176:FKR393191 FAU393176:FAV393191 EQY393176:EQZ393191 EHC393176:EHD393191 DXG393176:DXH393191 DNK393176:DNL393191 DDO393176:DDP393191 CTS393176:CTT393191 CJW393176:CJX393191 CAA393176:CAB393191 BQE393176:BQF393191 BGI393176:BGJ393191 AWM393176:AWN393191 AMQ393176:AMR393191 ACU393176:ACV393191 SY393176:SZ393191 JC393176:JD393191 F393177:F393192 WVO327640:WVP327655 WLS327640:WLT327655 WBW327640:WBX327655 VSA327640:VSB327655 VIE327640:VIF327655 UYI327640:UYJ327655 UOM327640:UON327655 UEQ327640:UER327655 TUU327640:TUV327655 TKY327640:TKZ327655 TBC327640:TBD327655 SRG327640:SRH327655 SHK327640:SHL327655 RXO327640:RXP327655 RNS327640:RNT327655 RDW327640:RDX327655 QUA327640:QUB327655 QKE327640:QKF327655 QAI327640:QAJ327655 PQM327640:PQN327655 PGQ327640:PGR327655 OWU327640:OWV327655 OMY327640:OMZ327655 ODC327640:ODD327655 NTG327640:NTH327655 NJK327640:NJL327655 MZO327640:MZP327655 MPS327640:MPT327655 MFW327640:MFX327655 LWA327640:LWB327655 LME327640:LMF327655 LCI327640:LCJ327655 KSM327640:KSN327655 KIQ327640:KIR327655 JYU327640:JYV327655 JOY327640:JOZ327655 JFC327640:JFD327655 IVG327640:IVH327655 ILK327640:ILL327655 IBO327640:IBP327655 HRS327640:HRT327655 HHW327640:HHX327655 GYA327640:GYB327655 GOE327640:GOF327655 GEI327640:GEJ327655 FUM327640:FUN327655 FKQ327640:FKR327655 FAU327640:FAV327655 EQY327640:EQZ327655 EHC327640:EHD327655 DXG327640:DXH327655 DNK327640:DNL327655 DDO327640:DDP327655 CTS327640:CTT327655 CJW327640:CJX327655 CAA327640:CAB327655 BQE327640:BQF327655 BGI327640:BGJ327655 AWM327640:AWN327655 AMQ327640:AMR327655 ACU327640:ACV327655 SY327640:SZ327655 JC327640:JD327655 F327641:F327656 WVO262104:WVP262119 WLS262104:WLT262119 WBW262104:WBX262119 VSA262104:VSB262119 VIE262104:VIF262119 UYI262104:UYJ262119 UOM262104:UON262119 UEQ262104:UER262119 TUU262104:TUV262119 TKY262104:TKZ262119 TBC262104:TBD262119 SRG262104:SRH262119 SHK262104:SHL262119 RXO262104:RXP262119 RNS262104:RNT262119 RDW262104:RDX262119 QUA262104:QUB262119 QKE262104:QKF262119 QAI262104:QAJ262119 PQM262104:PQN262119 PGQ262104:PGR262119 OWU262104:OWV262119 OMY262104:OMZ262119 ODC262104:ODD262119 NTG262104:NTH262119 NJK262104:NJL262119 MZO262104:MZP262119 MPS262104:MPT262119 MFW262104:MFX262119 LWA262104:LWB262119 LME262104:LMF262119 LCI262104:LCJ262119 KSM262104:KSN262119 KIQ262104:KIR262119 JYU262104:JYV262119 JOY262104:JOZ262119 JFC262104:JFD262119 IVG262104:IVH262119 ILK262104:ILL262119 IBO262104:IBP262119 HRS262104:HRT262119 HHW262104:HHX262119 GYA262104:GYB262119 GOE262104:GOF262119 GEI262104:GEJ262119 FUM262104:FUN262119 FKQ262104:FKR262119 FAU262104:FAV262119 EQY262104:EQZ262119 EHC262104:EHD262119 DXG262104:DXH262119 DNK262104:DNL262119 DDO262104:DDP262119 CTS262104:CTT262119 CJW262104:CJX262119 CAA262104:CAB262119 BQE262104:BQF262119 BGI262104:BGJ262119 AWM262104:AWN262119 AMQ262104:AMR262119 ACU262104:ACV262119 SY262104:SZ262119 JC262104:JD262119 F262105:F262120 WVO196568:WVP196583 WLS196568:WLT196583 WBW196568:WBX196583 VSA196568:VSB196583 VIE196568:VIF196583 UYI196568:UYJ196583 UOM196568:UON196583 UEQ196568:UER196583 TUU196568:TUV196583 TKY196568:TKZ196583 TBC196568:TBD196583 SRG196568:SRH196583 SHK196568:SHL196583 RXO196568:RXP196583 RNS196568:RNT196583 RDW196568:RDX196583 QUA196568:QUB196583 QKE196568:QKF196583 QAI196568:QAJ196583 PQM196568:PQN196583 PGQ196568:PGR196583 OWU196568:OWV196583 OMY196568:OMZ196583 ODC196568:ODD196583 NTG196568:NTH196583 NJK196568:NJL196583 MZO196568:MZP196583 MPS196568:MPT196583 MFW196568:MFX196583 LWA196568:LWB196583 LME196568:LMF196583 LCI196568:LCJ196583 KSM196568:KSN196583 KIQ196568:KIR196583 JYU196568:JYV196583 JOY196568:JOZ196583 JFC196568:JFD196583 IVG196568:IVH196583 ILK196568:ILL196583 IBO196568:IBP196583 HRS196568:HRT196583 HHW196568:HHX196583 GYA196568:GYB196583 GOE196568:GOF196583 GEI196568:GEJ196583 FUM196568:FUN196583 FKQ196568:FKR196583 FAU196568:FAV196583 EQY196568:EQZ196583 EHC196568:EHD196583 DXG196568:DXH196583 DNK196568:DNL196583 DDO196568:DDP196583 CTS196568:CTT196583 CJW196568:CJX196583 CAA196568:CAB196583 BQE196568:BQF196583 BGI196568:BGJ196583 AWM196568:AWN196583 AMQ196568:AMR196583 ACU196568:ACV196583 SY196568:SZ196583 JC196568:JD196583 F196569:F196584 WVO131032:WVP131047 WLS131032:WLT131047 WBW131032:WBX131047 VSA131032:VSB131047 VIE131032:VIF131047 UYI131032:UYJ131047 UOM131032:UON131047 UEQ131032:UER131047 TUU131032:TUV131047 TKY131032:TKZ131047 TBC131032:TBD131047 SRG131032:SRH131047 SHK131032:SHL131047 RXO131032:RXP131047 RNS131032:RNT131047 RDW131032:RDX131047 QUA131032:QUB131047 QKE131032:QKF131047 QAI131032:QAJ131047 PQM131032:PQN131047 PGQ131032:PGR131047 OWU131032:OWV131047 OMY131032:OMZ131047 ODC131032:ODD131047 NTG131032:NTH131047 NJK131032:NJL131047 MZO131032:MZP131047 MPS131032:MPT131047 MFW131032:MFX131047 LWA131032:LWB131047 LME131032:LMF131047 LCI131032:LCJ131047 KSM131032:KSN131047 KIQ131032:KIR131047 JYU131032:JYV131047 JOY131032:JOZ131047 JFC131032:JFD131047 IVG131032:IVH131047 ILK131032:ILL131047 IBO131032:IBP131047 HRS131032:HRT131047 HHW131032:HHX131047 GYA131032:GYB131047 GOE131032:GOF131047 GEI131032:GEJ131047 FUM131032:FUN131047 FKQ131032:FKR131047 FAU131032:FAV131047 EQY131032:EQZ131047 EHC131032:EHD131047 DXG131032:DXH131047 DNK131032:DNL131047 DDO131032:DDP131047 CTS131032:CTT131047 CJW131032:CJX131047 CAA131032:CAB131047 BQE131032:BQF131047 BGI131032:BGJ131047 AWM131032:AWN131047 AMQ131032:AMR131047 ACU131032:ACV131047 SY131032:SZ131047 JC131032:JD131047 F131033:F131048 WVO65496:WVP65511 WLS65496:WLT65511 WBW65496:WBX65511 VSA65496:VSB65511 VIE65496:VIF65511 UYI65496:UYJ65511 UOM65496:UON65511 UEQ65496:UER65511 TUU65496:TUV65511 TKY65496:TKZ65511 TBC65496:TBD65511 SRG65496:SRH65511 SHK65496:SHL65511 RXO65496:RXP65511 RNS65496:RNT65511 RDW65496:RDX65511 QUA65496:QUB65511 QKE65496:QKF65511 QAI65496:QAJ65511 PQM65496:PQN65511 PGQ65496:PGR65511 OWU65496:OWV65511 OMY65496:OMZ65511 ODC65496:ODD65511 NTG65496:NTH65511 NJK65496:NJL65511 MZO65496:MZP65511 MPS65496:MPT65511 MFW65496:MFX65511 LWA65496:LWB65511 LME65496:LMF65511 LCI65496:LCJ65511 KSM65496:KSN65511 KIQ65496:KIR65511 JYU65496:JYV65511 JOY65496:JOZ65511 JFC65496:JFD65511 IVG65496:IVH65511 ILK65496:ILL65511 IBO65496:IBP65511 HRS65496:HRT65511 HHW65496:HHX65511 GYA65496:GYB65511 GOE65496:GOF65511 GEI65496:GEJ65511 FUM65496:FUN65511 FKQ65496:FKR65511 FAU65496:FAV65511 EQY65496:EQZ65511 EHC65496:EHD65511 DXG65496:DXH65511 DNK65496:DNL65511 DDO65496:DDP65511 CTS65496:CTT65511 CJW65496:CJX65511 CAA65496:CAB65511 BQE65496:BQF65511 BGI65496:BGJ65511 AWM65496:AWN65511 AMQ65496:AMR65511 ACU65496:ACV65511 SY65496:SZ65511 JC65496:JD65511 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65490:F65505 WVO982993:WVP983008 WLS982993:WLT983008 WBW982993:WBX983008 VSA982993:VSB983008 VIE982993:VIF983008 UYI982993:UYJ983008 UOM982993:UON983008 UEQ982993:UER983008 TUU982993:TUV983008 TKY982993:TKZ983008 TBC982993:TBD983008 SRG982993:SRH983008 SHK982993:SHL983008 RXO982993:RXP983008 RNS982993:RNT983008 RDW982993:RDX983008 QUA982993:QUB983008 QKE982993:QKF983008 QAI982993:QAJ983008 PQM982993:PQN983008 PGQ982993:PGR983008 OWU982993:OWV983008 OMY982993:OMZ983008 ODC982993:ODD983008 NTG982993:NTH983008 NJK982993:NJL983008 MZO982993:MZP983008 MPS982993:MPT983008 MFW982993:MFX983008 LWA982993:LWB983008 LME982993:LMF983008 LCI982993:LCJ983008 KSM982993:KSN983008 KIQ982993:KIR983008 JYU982993:JYV983008 JOY982993:JOZ983008 JFC982993:JFD983008 IVG982993:IVH983008 ILK982993:ILL983008 IBO982993:IBP983008 HRS982993:HRT983008 HHW982993:HHX983008 GYA982993:GYB983008 GOE982993:GOF983008 GEI982993:GEJ983008 FUM982993:FUN983008 FKQ982993:FKR983008 FAU982993:FAV983008 EQY982993:EQZ983008 EHC982993:EHD983008 DXG982993:DXH983008 DNK982993:DNL983008 DDO982993:DDP983008 CTS982993:CTT983008 CJW982993:CJX983008 CAA982993:CAB983008 BQE982993:BQF983008 BGI982993:BGJ983008 AWM982993:AWN983008 AMQ982993:AMR983008 ACU982993:ACV983008 SY982993:SZ983008 JC982993:JD983008 F982994:F983009 WVO917457:WVP917472 WLS917457:WLT917472 WBW917457:WBX917472 VSA917457:VSB917472 VIE917457:VIF917472 UYI917457:UYJ917472 UOM917457:UON917472 UEQ917457:UER917472 TUU917457:TUV917472 TKY917457:TKZ917472 TBC917457:TBD917472 SRG917457:SRH917472 SHK917457:SHL917472 RXO917457:RXP917472 RNS917457:RNT917472 RDW917457:RDX917472 QUA917457:QUB917472 QKE917457:QKF917472 QAI917457:QAJ917472 PQM917457:PQN917472 PGQ917457:PGR917472 OWU917457:OWV917472 OMY917457:OMZ917472 ODC917457:ODD917472 NTG917457:NTH917472 NJK917457:NJL917472 MZO917457:MZP917472 MPS917457:MPT917472 MFW917457:MFX917472 LWA917457:LWB917472 LME917457:LMF917472 LCI917457:LCJ917472 KSM917457:KSN917472 KIQ917457:KIR917472 JYU917457:JYV917472 JOY917457:JOZ917472 JFC917457:JFD917472 IVG917457:IVH917472 ILK917457:ILL917472 IBO917457:IBP917472 HRS917457:HRT917472 HHW917457:HHX917472 GYA917457:GYB917472 GOE917457:GOF917472 GEI917457:GEJ917472 FUM917457:FUN917472 FKQ917457:FKR917472 FAU917457:FAV917472 EQY917457:EQZ917472 EHC917457:EHD917472 DXG917457:DXH917472 DNK917457:DNL917472 DDO917457:DDP917472 CTS917457:CTT917472 CJW917457:CJX917472 CAA917457:CAB917472 BQE917457:BQF917472 BGI917457:BGJ917472 AWM917457:AWN917472 AMQ917457:AMR917472 ACU917457:ACV917472 SY917457:SZ917472 JC917457:JD917472 F917458:F917473 WVO851921:WVP851936 WLS851921:WLT851936 WBW851921:WBX851936 VSA851921:VSB851936 VIE851921:VIF851936 UYI851921:UYJ851936 UOM851921:UON851936 UEQ851921:UER851936 TUU851921:TUV851936 TKY851921:TKZ851936 TBC851921:TBD851936 SRG851921:SRH851936 SHK851921:SHL851936 RXO851921:RXP851936 RNS851921:RNT851936 RDW851921:RDX851936 QUA851921:QUB851936 QKE851921:QKF851936 QAI851921:QAJ851936 PQM851921:PQN851936 PGQ851921:PGR851936 OWU851921:OWV851936 OMY851921:OMZ851936 ODC851921:ODD851936 NTG851921:NTH851936 NJK851921:NJL851936 MZO851921:MZP851936 MPS851921:MPT851936 MFW851921:MFX851936 LWA851921:LWB851936 LME851921:LMF851936 LCI851921:LCJ851936 KSM851921:KSN851936 KIQ851921:KIR851936 JYU851921:JYV851936 JOY851921:JOZ851936 JFC851921:JFD851936 IVG851921:IVH851936 ILK851921:ILL851936 IBO851921:IBP851936 HRS851921:HRT851936 HHW851921:HHX851936 GYA851921:GYB851936 GOE851921:GOF851936 GEI851921:GEJ851936 FUM851921:FUN851936 FKQ851921:FKR851936 FAU851921:FAV851936 EQY851921:EQZ851936 EHC851921:EHD851936 DXG851921:DXH851936 DNK851921:DNL851936 DDO851921:DDP851936 CTS851921:CTT851936 CJW851921:CJX851936 CAA851921:CAB851936 BQE851921:BQF851936 BGI851921:BGJ851936 AWM851921:AWN851936 AMQ851921:AMR851936 ACU851921:ACV851936 SY851921:SZ851936 JC851921:JD851936 F851922:F851937 WVO786385:WVP786400 WLS786385:WLT786400 WBW786385:WBX786400 VSA786385:VSB786400 VIE786385:VIF786400 UYI786385:UYJ786400 UOM786385:UON786400 UEQ786385:UER786400 TUU786385:TUV786400 TKY786385:TKZ786400 TBC786385:TBD786400 SRG786385:SRH786400 SHK786385:SHL786400 RXO786385:RXP786400 RNS786385:RNT786400 RDW786385:RDX786400 QUA786385:QUB786400 QKE786385:QKF786400 QAI786385:QAJ786400 PQM786385:PQN786400 PGQ786385:PGR786400 OWU786385:OWV786400 OMY786385:OMZ786400 ODC786385:ODD786400 NTG786385:NTH786400 NJK786385:NJL786400 MZO786385:MZP786400 MPS786385:MPT786400 MFW786385:MFX786400 LWA786385:LWB786400 LME786385:LMF786400 LCI786385:LCJ786400 KSM786385:KSN786400 KIQ786385:KIR786400 JYU786385:JYV786400 JOY786385:JOZ786400 JFC786385:JFD786400 IVG786385:IVH786400 ILK786385:ILL786400 IBO786385:IBP786400 HRS786385:HRT786400 HHW786385:HHX786400 GYA786385:GYB786400 GOE786385:GOF786400 GEI786385:GEJ786400 FUM786385:FUN786400 FKQ786385:FKR786400 FAU786385:FAV786400 EQY786385:EQZ786400 EHC786385:EHD786400 DXG786385:DXH786400 DNK786385:DNL786400 DDO786385:DDP786400 CTS786385:CTT786400 CJW786385:CJX786400 CAA786385:CAB786400 BQE786385:BQF786400 BGI786385:BGJ786400 AWM786385:AWN786400 AMQ786385:AMR786400 ACU786385:ACV786400 SY786385:SZ786400 JC786385:JD786400 F786386:F786401 WVO720849:WVP720864 WLS720849:WLT720864 WBW720849:WBX720864 VSA720849:VSB720864 VIE720849:VIF720864 UYI720849:UYJ720864 UOM720849:UON720864 UEQ720849:UER720864 TUU720849:TUV720864 TKY720849:TKZ720864 TBC720849:TBD720864 SRG720849:SRH720864 SHK720849:SHL720864 RXO720849:RXP720864 RNS720849:RNT720864 RDW720849:RDX720864 QUA720849:QUB720864 QKE720849:QKF720864 QAI720849:QAJ720864 PQM720849:PQN720864 PGQ720849:PGR720864 OWU720849:OWV720864 OMY720849:OMZ720864 ODC720849:ODD720864 NTG720849:NTH720864 NJK720849:NJL720864 MZO720849:MZP720864 MPS720849:MPT720864 MFW720849:MFX720864 LWA720849:LWB720864 LME720849:LMF720864 LCI720849:LCJ720864 KSM720849:KSN720864 KIQ720849:KIR720864 JYU720849:JYV720864 JOY720849:JOZ720864 JFC720849:JFD720864 IVG720849:IVH720864 ILK720849:ILL720864 IBO720849:IBP720864 HRS720849:HRT720864 HHW720849:HHX720864 GYA720849:GYB720864 GOE720849:GOF720864 GEI720849:GEJ720864 FUM720849:FUN720864 FKQ720849:FKR720864 FAU720849:FAV720864 EQY720849:EQZ720864 EHC720849:EHD720864 DXG720849:DXH720864 DNK720849:DNL720864 DDO720849:DDP720864 CTS720849:CTT720864 CJW720849:CJX720864 CAA720849:CAB720864 BQE720849:BQF720864 BGI720849:BGJ720864 AWM720849:AWN720864 AMQ720849:AMR720864 ACU720849:ACV720864 SY720849:SZ720864 JC720849:JD720864 F720850:F720865 WVO655313:WVP655328 WLS655313:WLT655328 WBW655313:WBX655328 VSA655313:VSB655328 VIE655313:VIF655328 UYI655313:UYJ655328 UOM655313:UON655328 UEQ655313:UER655328 TUU655313:TUV655328 TKY655313:TKZ655328 TBC655313:TBD655328 SRG655313:SRH655328 SHK655313:SHL655328 RXO655313:RXP655328 RNS655313:RNT655328 RDW655313:RDX655328 QUA655313:QUB655328 QKE655313:QKF655328 QAI655313:QAJ655328 PQM655313:PQN655328 PGQ655313:PGR655328 OWU655313:OWV655328 OMY655313:OMZ655328 ODC655313:ODD655328 NTG655313:NTH655328 NJK655313:NJL655328 MZO655313:MZP655328 MPS655313:MPT655328 MFW655313:MFX655328 LWA655313:LWB655328 LME655313:LMF655328 LCI655313:LCJ655328 KSM655313:KSN655328 KIQ655313:KIR655328 JYU655313:JYV655328 JOY655313:JOZ655328 JFC655313:JFD655328 IVG655313:IVH655328 ILK655313:ILL655328 IBO655313:IBP655328 HRS655313:HRT655328 HHW655313:HHX655328 GYA655313:GYB655328 GOE655313:GOF655328 GEI655313:GEJ655328 FUM655313:FUN655328 FKQ655313:FKR655328 FAU655313:FAV655328 EQY655313:EQZ655328 EHC655313:EHD655328 DXG655313:DXH655328 DNK655313:DNL655328 DDO655313:DDP655328 CTS655313:CTT655328 CJW655313:CJX655328 CAA655313:CAB655328 BQE655313:BQF655328 BGI655313:BGJ655328 AWM655313:AWN655328 AMQ655313:AMR655328 ACU655313:ACV655328 SY655313:SZ655328 JC655313:JD655328 F655314:F655329 WVO589777:WVP589792 WLS589777:WLT589792 WBW589777:WBX589792 VSA589777:VSB589792 VIE589777:VIF589792 UYI589777:UYJ589792 UOM589777:UON589792 UEQ589777:UER589792 TUU589777:TUV589792 TKY589777:TKZ589792 TBC589777:TBD589792 SRG589777:SRH589792 SHK589777:SHL589792 RXO589777:RXP589792 RNS589777:RNT589792 RDW589777:RDX589792 QUA589777:QUB589792 QKE589777:QKF589792 QAI589777:QAJ589792 PQM589777:PQN589792 PGQ589777:PGR589792 OWU589777:OWV589792 OMY589777:OMZ589792 ODC589777:ODD589792 NTG589777:NTH589792 NJK589777:NJL589792 MZO589777:MZP589792 MPS589777:MPT589792 MFW589777:MFX589792 LWA589777:LWB589792 LME589777:LMF589792 LCI589777:LCJ589792 KSM589777:KSN589792 KIQ589777:KIR589792 JYU589777:JYV589792 JOY589777:JOZ589792 JFC589777:JFD589792 IVG589777:IVH589792 ILK589777:ILL589792 IBO589777:IBP589792 HRS589777:HRT589792 HHW589777:HHX589792 GYA589777:GYB589792 GOE589777:GOF589792 GEI589777:GEJ589792 FUM589777:FUN589792 FKQ589777:FKR589792 FAU589777:FAV589792 EQY589777:EQZ589792 EHC589777:EHD589792 DXG589777:DXH589792 DNK589777:DNL589792 DDO589777:DDP589792 CTS589777:CTT589792 CJW589777:CJX589792 CAA589777:CAB589792 BQE589777:BQF589792 BGI589777:BGJ589792 AWM589777:AWN589792 AMQ589777:AMR589792 ACU589777:ACV589792 SY589777:SZ589792 JC589777:JD589792 F589778:F589793 WVO524241:WVP524256 WLS524241:WLT524256 WBW524241:WBX524256 VSA524241:VSB524256 VIE524241:VIF524256 UYI524241:UYJ524256 UOM524241:UON524256 UEQ524241:UER524256 TUU524241:TUV524256 TKY524241:TKZ524256 TBC524241:TBD524256 SRG524241:SRH524256 SHK524241:SHL524256 RXO524241:RXP524256 RNS524241:RNT524256 RDW524241:RDX524256 QUA524241:QUB524256 QKE524241:QKF524256 QAI524241:QAJ524256 PQM524241:PQN524256 PGQ524241:PGR524256 OWU524241:OWV524256 OMY524241:OMZ524256 ODC524241:ODD524256 NTG524241:NTH524256 NJK524241:NJL524256 MZO524241:MZP524256 MPS524241:MPT524256 MFW524241:MFX524256 LWA524241:LWB524256 LME524241:LMF524256 LCI524241:LCJ524256 KSM524241:KSN524256 KIQ524241:KIR524256 JYU524241:JYV524256 JOY524241:JOZ524256 JFC524241:JFD524256 IVG524241:IVH524256 ILK524241:ILL524256 IBO524241:IBP524256 HRS524241:HRT524256 HHW524241:HHX524256 GYA524241:GYB524256 GOE524241:GOF524256 GEI524241:GEJ524256 FUM524241:FUN524256 FKQ524241:FKR524256 FAU524241:FAV524256 EQY524241:EQZ524256 EHC524241:EHD524256 DXG524241:DXH524256 DNK524241:DNL524256 DDO524241:DDP524256 CTS524241:CTT524256 CJW524241:CJX524256 CAA524241:CAB524256 BQE524241:BQF524256 BGI524241:BGJ524256 AWM524241:AWN524256 AMQ524241:AMR524256 ACU524241:ACV524256 SY524241:SZ524256 JC524241:JD524256 F524242:F524257 WVO458705:WVP458720 WLS458705:WLT458720 WBW458705:WBX458720 VSA458705:VSB458720 VIE458705:VIF458720 UYI458705:UYJ458720 UOM458705:UON458720 UEQ458705:UER458720 TUU458705:TUV458720 TKY458705:TKZ458720 TBC458705:TBD458720 SRG458705:SRH458720 SHK458705:SHL458720 RXO458705:RXP458720 RNS458705:RNT458720 RDW458705:RDX458720 QUA458705:QUB458720 QKE458705:QKF458720 QAI458705:QAJ458720 PQM458705:PQN458720 PGQ458705:PGR458720 OWU458705:OWV458720 OMY458705:OMZ458720 ODC458705:ODD458720 NTG458705:NTH458720 NJK458705:NJL458720 MZO458705:MZP458720 MPS458705:MPT458720 MFW458705:MFX458720 LWA458705:LWB458720 LME458705:LMF458720 LCI458705:LCJ458720 KSM458705:KSN458720 KIQ458705:KIR458720 JYU458705:JYV458720 JOY458705:JOZ458720 JFC458705:JFD458720 IVG458705:IVH458720 ILK458705:ILL458720 IBO458705:IBP458720 HRS458705:HRT458720 HHW458705:HHX458720 GYA458705:GYB458720 GOE458705:GOF458720 GEI458705:GEJ458720 FUM458705:FUN458720 FKQ458705:FKR458720 FAU458705:FAV458720 EQY458705:EQZ458720 EHC458705:EHD458720 DXG458705:DXH458720 DNK458705:DNL458720 DDO458705:DDP458720 CTS458705:CTT458720 CJW458705:CJX458720 CAA458705:CAB458720 BQE458705:BQF458720 BGI458705:BGJ458720 AWM458705:AWN458720 AMQ458705:AMR458720 ACU458705:ACV458720 SY458705:SZ458720 JC458705:JD458720 F458706:F458721 WVO393169:WVP393184 WLS393169:WLT393184 WBW393169:WBX393184 VSA393169:VSB393184 VIE393169:VIF393184 UYI393169:UYJ393184 UOM393169:UON393184 UEQ393169:UER393184 TUU393169:TUV393184 TKY393169:TKZ393184 TBC393169:TBD393184 SRG393169:SRH393184 SHK393169:SHL393184 RXO393169:RXP393184 RNS393169:RNT393184 RDW393169:RDX393184 QUA393169:QUB393184 QKE393169:QKF393184 QAI393169:QAJ393184 PQM393169:PQN393184 PGQ393169:PGR393184 OWU393169:OWV393184 OMY393169:OMZ393184 ODC393169:ODD393184 NTG393169:NTH393184 NJK393169:NJL393184 MZO393169:MZP393184 MPS393169:MPT393184 MFW393169:MFX393184 LWA393169:LWB393184 LME393169:LMF393184 LCI393169:LCJ393184 KSM393169:KSN393184 KIQ393169:KIR393184 JYU393169:JYV393184 JOY393169:JOZ393184 JFC393169:JFD393184 IVG393169:IVH393184 ILK393169:ILL393184 IBO393169:IBP393184 HRS393169:HRT393184 HHW393169:HHX393184 GYA393169:GYB393184 GOE393169:GOF393184 GEI393169:GEJ393184 FUM393169:FUN393184 FKQ393169:FKR393184 FAU393169:FAV393184 EQY393169:EQZ393184 EHC393169:EHD393184 DXG393169:DXH393184 DNK393169:DNL393184 DDO393169:DDP393184 CTS393169:CTT393184 CJW393169:CJX393184 CAA393169:CAB393184 BQE393169:BQF393184 BGI393169:BGJ393184 AWM393169:AWN393184 AMQ393169:AMR393184 ACU393169:ACV393184 SY393169:SZ393184 JC393169:JD393184 F393170:F393185 WVO327633:WVP327648 WLS327633:WLT327648 WBW327633:WBX327648 VSA327633:VSB327648 VIE327633:VIF327648 UYI327633:UYJ327648 UOM327633:UON327648 UEQ327633:UER327648 TUU327633:TUV327648 TKY327633:TKZ327648 TBC327633:TBD327648 SRG327633:SRH327648 SHK327633:SHL327648 RXO327633:RXP327648 RNS327633:RNT327648 RDW327633:RDX327648 QUA327633:QUB327648 QKE327633:QKF327648 QAI327633:QAJ327648 PQM327633:PQN327648 PGQ327633:PGR327648 OWU327633:OWV327648 OMY327633:OMZ327648 ODC327633:ODD327648 NTG327633:NTH327648 NJK327633:NJL327648 MZO327633:MZP327648 MPS327633:MPT327648 MFW327633:MFX327648 LWA327633:LWB327648 LME327633:LMF327648 LCI327633:LCJ327648 KSM327633:KSN327648 KIQ327633:KIR327648 JYU327633:JYV327648 JOY327633:JOZ327648 JFC327633:JFD327648 IVG327633:IVH327648 ILK327633:ILL327648 IBO327633:IBP327648 HRS327633:HRT327648 HHW327633:HHX327648 GYA327633:GYB327648 GOE327633:GOF327648 GEI327633:GEJ327648 FUM327633:FUN327648 FKQ327633:FKR327648 FAU327633:FAV327648 EQY327633:EQZ327648 EHC327633:EHD327648 DXG327633:DXH327648 DNK327633:DNL327648 DDO327633:DDP327648 CTS327633:CTT327648 CJW327633:CJX327648 CAA327633:CAB327648 BQE327633:BQF327648 BGI327633:BGJ327648 AWM327633:AWN327648 AMQ327633:AMR327648 ACU327633:ACV327648 SY327633:SZ327648 JC327633:JD327648 F327634:F327649 WVO262097:WVP262112 WLS262097:WLT262112 WBW262097:WBX262112 VSA262097:VSB262112 VIE262097:VIF262112 UYI262097:UYJ262112 UOM262097:UON262112 UEQ262097:UER262112 TUU262097:TUV262112 TKY262097:TKZ262112 TBC262097:TBD262112 SRG262097:SRH262112 SHK262097:SHL262112 RXO262097:RXP262112 RNS262097:RNT262112 RDW262097:RDX262112 QUA262097:QUB262112 QKE262097:QKF262112 QAI262097:QAJ262112 PQM262097:PQN262112 PGQ262097:PGR262112 OWU262097:OWV262112 OMY262097:OMZ262112 ODC262097:ODD262112 NTG262097:NTH262112 NJK262097:NJL262112 MZO262097:MZP262112 MPS262097:MPT262112 MFW262097:MFX262112 LWA262097:LWB262112 LME262097:LMF262112 LCI262097:LCJ262112 KSM262097:KSN262112 KIQ262097:KIR262112 JYU262097:JYV262112 JOY262097:JOZ262112 JFC262097:JFD262112 IVG262097:IVH262112 ILK262097:ILL262112 IBO262097:IBP262112 HRS262097:HRT262112 HHW262097:HHX262112 GYA262097:GYB262112 GOE262097:GOF262112 GEI262097:GEJ262112 FUM262097:FUN262112 FKQ262097:FKR262112 FAU262097:FAV262112 EQY262097:EQZ262112 EHC262097:EHD262112 DXG262097:DXH262112 DNK262097:DNL262112 DDO262097:DDP262112 CTS262097:CTT262112 CJW262097:CJX262112 CAA262097:CAB262112 BQE262097:BQF262112 BGI262097:BGJ262112 AWM262097:AWN262112 AMQ262097:AMR262112 ACU262097:ACV262112 SY262097:SZ262112 JC262097:JD262112 F262098:F262113 WVO196561:WVP196576 WLS196561:WLT196576 WBW196561:WBX196576 VSA196561:VSB196576 VIE196561:VIF196576 UYI196561:UYJ196576 UOM196561:UON196576 UEQ196561:UER196576 TUU196561:TUV196576 TKY196561:TKZ196576 TBC196561:TBD196576 SRG196561:SRH196576 SHK196561:SHL196576 RXO196561:RXP196576 RNS196561:RNT196576 RDW196561:RDX196576 QUA196561:QUB196576 QKE196561:QKF196576 QAI196561:QAJ196576 PQM196561:PQN196576 PGQ196561:PGR196576 OWU196561:OWV196576 OMY196561:OMZ196576 ODC196561:ODD196576 NTG196561:NTH196576 NJK196561:NJL196576 MZO196561:MZP196576 MPS196561:MPT196576 MFW196561:MFX196576 LWA196561:LWB196576 LME196561:LMF196576 LCI196561:LCJ196576 KSM196561:KSN196576 KIQ196561:KIR196576 JYU196561:JYV196576 JOY196561:JOZ196576 JFC196561:JFD196576 IVG196561:IVH196576 ILK196561:ILL196576 IBO196561:IBP196576 HRS196561:HRT196576 HHW196561:HHX196576 GYA196561:GYB196576 GOE196561:GOF196576 GEI196561:GEJ196576 FUM196561:FUN196576 FKQ196561:FKR196576 FAU196561:FAV196576 EQY196561:EQZ196576 EHC196561:EHD196576 DXG196561:DXH196576 DNK196561:DNL196576 DDO196561:DDP196576 CTS196561:CTT196576 CJW196561:CJX196576 CAA196561:CAB196576 BQE196561:BQF196576 BGI196561:BGJ196576 AWM196561:AWN196576 AMQ196561:AMR196576 ACU196561:ACV196576 SY196561:SZ196576 JC196561:JD196576 F196562:F196577 WVO131025:WVP131040 WLS131025:WLT131040 WBW131025:WBX131040 VSA131025:VSB131040 VIE131025:VIF131040 UYI131025:UYJ131040 UOM131025:UON131040 UEQ131025:UER131040 TUU131025:TUV131040 TKY131025:TKZ131040 TBC131025:TBD131040 SRG131025:SRH131040 SHK131025:SHL131040 RXO131025:RXP131040 RNS131025:RNT131040 RDW131025:RDX131040 QUA131025:QUB131040 QKE131025:QKF131040 QAI131025:QAJ131040 PQM131025:PQN131040 PGQ131025:PGR131040 OWU131025:OWV131040 OMY131025:OMZ131040 ODC131025:ODD131040 NTG131025:NTH131040 NJK131025:NJL131040 MZO131025:MZP131040 MPS131025:MPT131040 MFW131025:MFX131040 LWA131025:LWB131040 LME131025:LMF131040 LCI131025:LCJ131040 KSM131025:KSN131040 KIQ131025:KIR131040 JYU131025:JYV131040 JOY131025:JOZ131040 JFC131025:JFD131040 IVG131025:IVH131040 ILK131025:ILL131040 IBO131025:IBP131040 HRS131025:HRT131040 HHW131025:HHX131040 GYA131025:GYB131040 GOE131025:GOF131040 GEI131025:GEJ131040 FUM131025:FUN131040 FKQ131025:FKR131040 FAU131025:FAV131040 EQY131025:EQZ131040 EHC131025:EHD131040 DXG131025:DXH131040 DNK131025:DNL131040 DDO131025:DDP131040 CTS131025:CTT131040 CJW131025:CJX131040 CAA131025:CAB131040 BQE131025:BQF131040 BGI131025:BGJ131040 AWM131025:AWN131040 AMQ131025:AMR131040 ACU131025:ACV131040 SY131025:SZ131040 JC131025:JD131040 F131026:F131041 WVO65489:WVP65504 WLS65489:WLT65504 WBW65489:WBX65504 VSA65489:VSB65504 VIE65489:VIF65504 UYI65489:UYJ65504 UOM65489:UON65504 UEQ65489:UER65504 TUU65489:TUV65504 TKY65489:TKZ65504 TBC65489:TBD65504 SRG65489:SRH65504 SHK65489:SHL65504 RXO65489:RXP65504 RNS65489:RNT65504 RDW65489:RDX65504 QUA65489:QUB65504 QKE65489:QKF65504 QAI65489:QAJ65504 PQM65489:PQN65504 PGQ65489:PGR65504 OWU65489:OWV65504 OMY65489:OMZ65504 ODC65489:ODD65504 NTG65489:NTH65504 NJK65489:NJL65504 MZO65489:MZP65504 MPS65489:MPT65504 MFW65489:MFX65504 LWA65489:LWB65504 LME65489:LMF65504 LCI65489:LCJ65504 KSM65489:KSN65504 KIQ65489:KIR65504 JYU65489:JYV65504 JOY65489:JOZ65504 JFC65489:JFD65504 IVG65489:IVH65504 ILK65489:ILL65504 IBO65489:IBP65504 HRS65489:HRT65504 HHW65489:HHX65504 GYA65489:GYB65504 GOE65489:GOF65504 GEI65489:GEJ65504 FUM65489:FUN65504 FKQ65489:FKR65504 FAU65489:FAV65504 EQY65489:EQZ65504 EHC65489:EHD65504 DXG65489:DXH65504 DNK65489:DNL65504 DDO65489:DDP65504 CTS65489:CTT65504 CJW65489:CJX65504 CAA65489:CAB65504 BQE65489:BQF65504 BGI65489:BGJ65504 AWM65489:AWN65504 AMQ65489:AMR65504 ACU65489:ACV65504 SY65489:SZ65504 JC65489:JD65504 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65489:C65512 IZ65488:IZ65511 SV65488:SV65511 ACR65488:ACR65511 AMN65488:AMN65511 AWJ65488:AWJ65511 BGF65488:BGF65511 BQB65488:BQB65511 BZX65488:BZX65511 CJT65488:CJT65511 CTP65488:CTP65511 DDL65488:DDL65511 DNH65488:DNH65511 DXD65488:DXD65511 EGZ65488:EGZ65511 EQV65488:EQV65511 FAR65488:FAR65511 FKN65488:FKN65511 FUJ65488:FUJ65511 GEF65488:GEF65511 GOB65488:GOB65511 GXX65488:GXX65511 HHT65488:HHT65511 HRP65488:HRP65511 IBL65488:IBL65511 ILH65488:ILH65511 IVD65488:IVD65511 JEZ65488:JEZ65511 JOV65488:JOV65511 JYR65488:JYR65511 KIN65488:KIN65511 KSJ65488:KSJ65511 LCF65488:LCF65511 LMB65488:LMB65511 LVX65488:LVX65511 MFT65488:MFT65511 MPP65488:MPP65511 MZL65488:MZL65511 NJH65488:NJH65511 NTD65488:NTD65511 OCZ65488:OCZ65511 OMV65488:OMV65511 OWR65488:OWR65511 PGN65488:PGN65511 PQJ65488:PQJ65511 QAF65488:QAF65511 QKB65488:QKB65511 QTX65488:QTX65511 RDT65488:RDT65511 RNP65488:RNP65511 RXL65488:RXL65511 SHH65488:SHH65511 SRD65488:SRD65511 TAZ65488:TAZ65511 TKV65488:TKV65511 TUR65488:TUR65511 UEN65488:UEN65511 UOJ65488:UOJ65511 UYF65488:UYF65511 VIB65488:VIB65511 VRX65488:VRX65511 WBT65488:WBT65511 WLP65488:WLP65511 WVL65488:WVL65511 C131025:C131048 IZ131024:IZ131047 SV131024:SV131047 ACR131024:ACR131047 AMN131024:AMN131047 AWJ131024:AWJ131047 BGF131024:BGF131047 BQB131024:BQB131047 BZX131024:BZX131047 CJT131024:CJT131047 CTP131024:CTP131047 DDL131024:DDL131047 DNH131024:DNH131047 DXD131024:DXD131047 EGZ131024:EGZ131047 EQV131024:EQV131047 FAR131024:FAR131047 FKN131024:FKN131047 FUJ131024:FUJ131047 GEF131024:GEF131047 GOB131024:GOB131047 GXX131024:GXX131047 HHT131024:HHT131047 HRP131024:HRP131047 IBL131024:IBL131047 ILH131024:ILH131047 IVD131024:IVD131047 JEZ131024:JEZ131047 JOV131024:JOV131047 JYR131024:JYR131047 KIN131024:KIN131047 KSJ131024:KSJ131047 LCF131024:LCF131047 LMB131024:LMB131047 LVX131024:LVX131047 MFT131024:MFT131047 MPP131024:MPP131047 MZL131024:MZL131047 NJH131024:NJH131047 NTD131024:NTD131047 OCZ131024:OCZ131047 OMV131024:OMV131047 OWR131024:OWR131047 PGN131024:PGN131047 PQJ131024:PQJ131047 QAF131024:QAF131047 QKB131024:QKB131047 QTX131024:QTX131047 RDT131024:RDT131047 RNP131024:RNP131047 RXL131024:RXL131047 SHH131024:SHH131047 SRD131024:SRD131047 TAZ131024:TAZ131047 TKV131024:TKV131047 TUR131024:TUR131047 UEN131024:UEN131047 UOJ131024:UOJ131047 UYF131024:UYF131047 VIB131024:VIB131047 VRX131024:VRX131047 WBT131024:WBT131047 WLP131024:WLP131047 WVL131024:WVL131047 C196561:C196584 IZ196560:IZ196583 SV196560:SV196583 ACR196560:ACR196583 AMN196560:AMN196583 AWJ196560:AWJ196583 BGF196560:BGF196583 BQB196560:BQB196583 BZX196560:BZX196583 CJT196560:CJT196583 CTP196560:CTP196583 DDL196560:DDL196583 DNH196560:DNH196583 DXD196560:DXD196583 EGZ196560:EGZ196583 EQV196560:EQV196583 FAR196560:FAR196583 FKN196560:FKN196583 FUJ196560:FUJ196583 GEF196560:GEF196583 GOB196560:GOB196583 GXX196560:GXX196583 HHT196560:HHT196583 HRP196560:HRP196583 IBL196560:IBL196583 ILH196560:ILH196583 IVD196560:IVD196583 JEZ196560:JEZ196583 JOV196560:JOV196583 JYR196560:JYR196583 KIN196560:KIN196583 KSJ196560:KSJ196583 LCF196560:LCF196583 LMB196560:LMB196583 LVX196560:LVX196583 MFT196560:MFT196583 MPP196560:MPP196583 MZL196560:MZL196583 NJH196560:NJH196583 NTD196560:NTD196583 OCZ196560:OCZ196583 OMV196560:OMV196583 OWR196560:OWR196583 PGN196560:PGN196583 PQJ196560:PQJ196583 QAF196560:QAF196583 QKB196560:QKB196583 QTX196560:QTX196583 RDT196560:RDT196583 RNP196560:RNP196583 RXL196560:RXL196583 SHH196560:SHH196583 SRD196560:SRD196583 TAZ196560:TAZ196583 TKV196560:TKV196583 TUR196560:TUR196583 UEN196560:UEN196583 UOJ196560:UOJ196583 UYF196560:UYF196583 VIB196560:VIB196583 VRX196560:VRX196583 WBT196560:WBT196583 WLP196560:WLP196583 WVL196560:WVL196583 C262097:C262120 IZ262096:IZ262119 SV262096:SV262119 ACR262096:ACR262119 AMN262096:AMN262119 AWJ262096:AWJ262119 BGF262096:BGF262119 BQB262096:BQB262119 BZX262096:BZX262119 CJT262096:CJT262119 CTP262096:CTP262119 DDL262096:DDL262119 DNH262096:DNH262119 DXD262096:DXD262119 EGZ262096:EGZ262119 EQV262096:EQV262119 FAR262096:FAR262119 FKN262096:FKN262119 FUJ262096:FUJ262119 GEF262096:GEF262119 GOB262096:GOB262119 GXX262096:GXX262119 HHT262096:HHT262119 HRP262096:HRP262119 IBL262096:IBL262119 ILH262096:ILH262119 IVD262096:IVD262119 JEZ262096:JEZ262119 JOV262096:JOV262119 JYR262096:JYR262119 KIN262096:KIN262119 KSJ262096:KSJ262119 LCF262096:LCF262119 LMB262096:LMB262119 LVX262096:LVX262119 MFT262096:MFT262119 MPP262096:MPP262119 MZL262096:MZL262119 NJH262096:NJH262119 NTD262096:NTD262119 OCZ262096:OCZ262119 OMV262096:OMV262119 OWR262096:OWR262119 PGN262096:PGN262119 PQJ262096:PQJ262119 QAF262096:QAF262119 QKB262096:QKB262119 QTX262096:QTX262119 RDT262096:RDT262119 RNP262096:RNP262119 RXL262096:RXL262119 SHH262096:SHH262119 SRD262096:SRD262119 TAZ262096:TAZ262119 TKV262096:TKV262119 TUR262096:TUR262119 UEN262096:UEN262119 UOJ262096:UOJ262119 UYF262096:UYF262119 VIB262096:VIB262119 VRX262096:VRX262119 WBT262096:WBT262119 WLP262096:WLP262119 WVL262096:WVL262119 C327633:C327656 IZ327632:IZ327655 SV327632:SV327655 ACR327632:ACR327655 AMN327632:AMN327655 AWJ327632:AWJ327655 BGF327632:BGF327655 BQB327632:BQB327655 BZX327632:BZX327655 CJT327632:CJT327655 CTP327632:CTP327655 DDL327632:DDL327655 DNH327632:DNH327655 DXD327632:DXD327655 EGZ327632:EGZ327655 EQV327632:EQV327655 FAR327632:FAR327655 FKN327632:FKN327655 FUJ327632:FUJ327655 GEF327632:GEF327655 GOB327632:GOB327655 GXX327632:GXX327655 HHT327632:HHT327655 HRP327632:HRP327655 IBL327632:IBL327655 ILH327632:ILH327655 IVD327632:IVD327655 JEZ327632:JEZ327655 JOV327632:JOV327655 JYR327632:JYR327655 KIN327632:KIN327655 KSJ327632:KSJ327655 LCF327632:LCF327655 LMB327632:LMB327655 LVX327632:LVX327655 MFT327632:MFT327655 MPP327632:MPP327655 MZL327632:MZL327655 NJH327632:NJH327655 NTD327632:NTD327655 OCZ327632:OCZ327655 OMV327632:OMV327655 OWR327632:OWR327655 PGN327632:PGN327655 PQJ327632:PQJ327655 QAF327632:QAF327655 QKB327632:QKB327655 QTX327632:QTX327655 RDT327632:RDT327655 RNP327632:RNP327655 RXL327632:RXL327655 SHH327632:SHH327655 SRD327632:SRD327655 TAZ327632:TAZ327655 TKV327632:TKV327655 TUR327632:TUR327655 UEN327632:UEN327655 UOJ327632:UOJ327655 UYF327632:UYF327655 VIB327632:VIB327655 VRX327632:VRX327655 WBT327632:WBT327655 WLP327632:WLP327655 WVL327632:WVL327655 C393169:C393192 IZ393168:IZ393191 SV393168:SV393191 ACR393168:ACR393191 AMN393168:AMN393191 AWJ393168:AWJ393191 BGF393168:BGF393191 BQB393168:BQB393191 BZX393168:BZX393191 CJT393168:CJT393191 CTP393168:CTP393191 DDL393168:DDL393191 DNH393168:DNH393191 DXD393168:DXD393191 EGZ393168:EGZ393191 EQV393168:EQV393191 FAR393168:FAR393191 FKN393168:FKN393191 FUJ393168:FUJ393191 GEF393168:GEF393191 GOB393168:GOB393191 GXX393168:GXX393191 HHT393168:HHT393191 HRP393168:HRP393191 IBL393168:IBL393191 ILH393168:ILH393191 IVD393168:IVD393191 JEZ393168:JEZ393191 JOV393168:JOV393191 JYR393168:JYR393191 KIN393168:KIN393191 KSJ393168:KSJ393191 LCF393168:LCF393191 LMB393168:LMB393191 LVX393168:LVX393191 MFT393168:MFT393191 MPP393168:MPP393191 MZL393168:MZL393191 NJH393168:NJH393191 NTD393168:NTD393191 OCZ393168:OCZ393191 OMV393168:OMV393191 OWR393168:OWR393191 PGN393168:PGN393191 PQJ393168:PQJ393191 QAF393168:QAF393191 QKB393168:QKB393191 QTX393168:QTX393191 RDT393168:RDT393191 RNP393168:RNP393191 RXL393168:RXL393191 SHH393168:SHH393191 SRD393168:SRD393191 TAZ393168:TAZ393191 TKV393168:TKV393191 TUR393168:TUR393191 UEN393168:UEN393191 UOJ393168:UOJ393191 UYF393168:UYF393191 VIB393168:VIB393191 VRX393168:VRX393191 WBT393168:WBT393191 WLP393168:WLP393191 WVL393168:WVL393191 C458705:C458728 IZ458704:IZ458727 SV458704:SV458727 ACR458704:ACR458727 AMN458704:AMN458727 AWJ458704:AWJ458727 BGF458704:BGF458727 BQB458704:BQB458727 BZX458704:BZX458727 CJT458704:CJT458727 CTP458704:CTP458727 DDL458704:DDL458727 DNH458704:DNH458727 DXD458704:DXD458727 EGZ458704:EGZ458727 EQV458704:EQV458727 FAR458704:FAR458727 FKN458704:FKN458727 FUJ458704:FUJ458727 GEF458704:GEF458727 GOB458704:GOB458727 GXX458704:GXX458727 HHT458704:HHT458727 HRP458704:HRP458727 IBL458704:IBL458727 ILH458704:ILH458727 IVD458704:IVD458727 JEZ458704:JEZ458727 JOV458704:JOV458727 JYR458704:JYR458727 KIN458704:KIN458727 KSJ458704:KSJ458727 LCF458704:LCF458727 LMB458704:LMB458727 LVX458704:LVX458727 MFT458704:MFT458727 MPP458704:MPP458727 MZL458704:MZL458727 NJH458704:NJH458727 NTD458704:NTD458727 OCZ458704:OCZ458727 OMV458704:OMV458727 OWR458704:OWR458727 PGN458704:PGN458727 PQJ458704:PQJ458727 QAF458704:QAF458727 QKB458704:QKB458727 QTX458704:QTX458727 RDT458704:RDT458727 RNP458704:RNP458727 RXL458704:RXL458727 SHH458704:SHH458727 SRD458704:SRD458727 TAZ458704:TAZ458727 TKV458704:TKV458727 TUR458704:TUR458727 UEN458704:UEN458727 UOJ458704:UOJ458727 UYF458704:UYF458727 VIB458704:VIB458727 VRX458704:VRX458727 WBT458704:WBT458727 WLP458704:WLP458727 WVL458704:WVL458727 C524241:C524264 IZ524240:IZ524263 SV524240:SV524263 ACR524240:ACR524263 AMN524240:AMN524263 AWJ524240:AWJ524263 BGF524240:BGF524263 BQB524240:BQB524263 BZX524240:BZX524263 CJT524240:CJT524263 CTP524240:CTP524263 DDL524240:DDL524263 DNH524240:DNH524263 DXD524240:DXD524263 EGZ524240:EGZ524263 EQV524240:EQV524263 FAR524240:FAR524263 FKN524240:FKN524263 FUJ524240:FUJ524263 GEF524240:GEF524263 GOB524240:GOB524263 GXX524240:GXX524263 HHT524240:HHT524263 HRP524240:HRP524263 IBL524240:IBL524263 ILH524240:ILH524263 IVD524240:IVD524263 JEZ524240:JEZ524263 JOV524240:JOV524263 JYR524240:JYR524263 KIN524240:KIN524263 KSJ524240:KSJ524263 LCF524240:LCF524263 LMB524240:LMB524263 LVX524240:LVX524263 MFT524240:MFT524263 MPP524240:MPP524263 MZL524240:MZL524263 NJH524240:NJH524263 NTD524240:NTD524263 OCZ524240:OCZ524263 OMV524240:OMV524263 OWR524240:OWR524263 PGN524240:PGN524263 PQJ524240:PQJ524263 QAF524240:QAF524263 QKB524240:QKB524263 QTX524240:QTX524263 RDT524240:RDT524263 RNP524240:RNP524263 RXL524240:RXL524263 SHH524240:SHH524263 SRD524240:SRD524263 TAZ524240:TAZ524263 TKV524240:TKV524263 TUR524240:TUR524263 UEN524240:UEN524263 UOJ524240:UOJ524263 UYF524240:UYF524263 VIB524240:VIB524263 VRX524240:VRX524263 WBT524240:WBT524263 WLP524240:WLP524263 WVL524240:WVL524263 C589777:C589800 IZ589776:IZ589799 SV589776:SV589799 ACR589776:ACR589799 AMN589776:AMN589799 AWJ589776:AWJ589799 BGF589776:BGF589799 BQB589776:BQB589799 BZX589776:BZX589799 CJT589776:CJT589799 CTP589776:CTP589799 DDL589776:DDL589799 DNH589776:DNH589799 DXD589776:DXD589799 EGZ589776:EGZ589799 EQV589776:EQV589799 FAR589776:FAR589799 FKN589776:FKN589799 FUJ589776:FUJ589799 GEF589776:GEF589799 GOB589776:GOB589799 GXX589776:GXX589799 HHT589776:HHT589799 HRP589776:HRP589799 IBL589776:IBL589799 ILH589776:ILH589799 IVD589776:IVD589799 JEZ589776:JEZ589799 JOV589776:JOV589799 JYR589776:JYR589799 KIN589776:KIN589799 KSJ589776:KSJ589799 LCF589776:LCF589799 LMB589776:LMB589799 LVX589776:LVX589799 MFT589776:MFT589799 MPP589776:MPP589799 MZL589776:MZL589799 NJH589776:NJH589799 NTD589776:NTD589799 OCZ589776:OCZ589799 OMV589776:OMV589799 OWR589776:OWR589799 PGN589776:PGN589799 PQJ589776:PQJ589799 QAF589776:QAF589799 QKB589776:QKB589799 QTX589776:QTX589799 RDT589776:RDT589799 RNP589776:RNP589799 RXL589776:RXL589799 SHH589776:SHH589799 SRD589776:SRD589799 TAZ589776:TAZ589799 TKV589776:TKV589799 TUR589776:TUR589799 UEN589776:UEN589799 UOJ589776:UOJ589799 UYF589776:UYF589799 VIB589776:VIB589799 VRX589776:VRX589799 WBT589776:WBT589799 WLP589776:WLP589799 WVL589776:WVL589799 C655313:C655336 IZ655312:IZ655335 SV655312:SV655335 ACR655312:ACR655335 AMN655312:AMN655335 AWJ655312:AWJ655335 BGF655312:BGF655335 BQB655312:BQB655335 BZX655312:BZX655335 CJT655312:CJT655335 CTP655312:CTP655335 DDL655312:DDL655335 DNH655312:DNH655335 DXD655312:DXD655335 EGZ655312:EGZ655335 EQV655312:EQV655335 FAR655312:FAR655335 FKN655312:FKN655335 FUJ655312:FUJ655335 GEF655312:GEF655335 GOB655312:GOB655335 GXX655312:GXX655335 HHT655312:HHT655335 HRP655312:HRP655335 IBL655312:IBL655335 ILH655312:ILH655335 IVD655312:IVD655335 JEZ655312:JEZ655335 JOV655312:JOV655335 JYR655312:JYR655335 KIN655312:KIN655335 KSJ655312:KSJ655335 LCF655312:LCF655335 LMB655312:LMB655335 LVX655312:LVX655335 MFT655312:MFT655335 MPP655312:MPP655335 MZL655312:MZL655335 NJH655312:NJH655335 NTD655312:NTD655335 OCZ655312:OCZ655335 OMV655312:OMV655335 OWR655312:OWR655335 PGN655312:PGN655335 PQJ655312:PQJ655335 QAF655312:QAF655335 QKB655312:QKB655335 QTX655312:QTX655335 RDT655312:RDT655335 RNP655312:RNP655335 RXL655312:RXL655335 SHH655312:SHH655335 SRD655312:SRD655335 TAZ655312:TAZ655335 TKV655312:TKV655335 TUR655312:TUR655335 UEN655312:UEN655335 UOJ655312:UOJ655335 UYF655312:UYF655335 VIB655312:VIB655335 VRX655312:VRX655335 WBT655312:WBT655335 WLP655312:WLP655335 WVL655312:WVL655335 C720849:C720872 IZ720848:IZ720871 SV720848:SV720871 ACR720848:ACR720871 AMN720848:AMN720871 AWJ720848:AWJ720871 BGF720848:BGF720871 BQB720848:BQB720871 BZX720848:BZX720871 CJT720848:CJT720871 CTP720848:CTP720871 DDL720848:DDL720871 DNH720848:DNH720871 DXD720848:DXD720871 EGZ720848:EGZ720871 EQV720848:EQV720871 FAR720848:FAR720871 FKN720848:FKN720871 FUJ720848:FUJ720871 GEF720848:GEF720871 GOB720848:GOB720871 GXX720848:GXX720871 HHT720848:HHT720871 HRP720848:HRP720871 IBL720848:IBL720871 ILH720848:ILH720871 IVD720848:IVD720871 JEZ720848:JEZ720871 JOV720848:JOV720871 JYR720848:JYR720871 KIN720848:KIN720871 KSJ720848:KSJ720871 LCF720848:LCF720871 LMB720848:LMB720871 LVX720848:LVX720871 MFT720848:MFT720871 MPP720848:MPP720871 MZL720848:MZL720871 NJH720848:NJH720871 NTD720848:NTD720871 OCZ720848:OCZ720871 OMV720848:OMV720871 OWR720848:OWR720871 PGN720848:PGN720871 PQJ720848:PQJ720871 QAF720848:QAF720871 QKB720848:QKB720871 QTX720848:QTX720871 RDT720848:RDT720871 RNP720848:RNP720871 RXL720848:RXL720871 SHH720848:SHH720871 SRD720848:SRD720871 TAZ720848:TAZ720871 TKV720848:TKV720871 TUR720848:TUR720871 UEN720848:UEN720871 UOJ720848:UOJ720871 UYF720848:UYF720871 VIB720848:VIB720871 VRX720848:VRX720871 WBT720848:WBT720871 WLP720848:WLP720871 WVL720848:WVL720871 C786385:C786408 IZ786384:IZ786407 SV786384:SV786407 ACR786384:ACR786407 AMN786384:AMN786407 AWJ786384:AWJ786407 BGF786384:BGF786407 BQB786384:BQB786407 BZX786384:BZX786407 CJT786384:CJT786407 CTP786384:CTP786407 DDL786384:DDL786407 DNH786384:DNH786407 DXD786384:DXD786407 EGZ786384:EGZ786407 EQV786384:EQV786407 FAR786384:FAR786407 FKN786384:FKN786407 FUJ786384:FUJ786407 GEF786384:GEF786407 GOB786384:GOB786407 GXX786384:GXX786407 HHT786384:HHT786407 HRP786384:HRP786407 IBL786384:IBL786407 ILH786384:ILH786407 IVD786384:IVD786407 JEZ786384:JEZ786407 JOV786384:JOV786407 JYR786384:JYR786407 KIN786384:KIN786407 KSJ786384:KSJ786407 LCF786384:LCF786407 LMB786384:LMB786407 LVX786384:LVX786407 MFT786384:MFT786407 MPP786384:MPP786407 MZL786384:MZL786407 NJH786384:NJH786407 NTD786384:NTD786407 OCZ786384:OCZ786407 OMV786384:OMV786407 OWR786384:OWR786407 PGN786384:PGN786407 PQJ786384:PQJ786407 QAF786384:QAF786407 QKB786384:QKB786407 QTX786384:QTX786407 RDT786384:RDT786407 RNP786384:RNP786407 RXL786384:RXL786407 SHH786384:SHH786407 SRD786384:SRD786407 TAZ786384:TAZ786407 TKV786384:TKV786407 TUR786384:TUR786407 UEN786384:UEN786407 UOJ786384:UOJ786407 UYF786384:UYF786407 VIB786384:VIB786407 VRX786384:VRX786407 WBT786384:WBT786407 WLP786384:WLP786407 WVL786384:WVL786407 C851921:C851944 IZ851920:IZ851943 SV851920:SV851943 ACR851920:ACR851943 AMN851920:AMN851943 AWJ851920:AWJ851943 BGF851920:BGF851943 BQB851920:BQB851943 BZX851920:BZX851943 CJT851920:CJT851943 CTP851920:CTP851943 DDL851920:DDL851943 DNH851920:DNH851943 DXD851920:DXD851943 EGZ851920:EGZ851943 EQV851920:EQV851943 FAR851920:FAR851943 FKN851920:FKN851943 FUJ851920:FUJ851943 GEF851920:GEF851943 GOB851920:GOB851943 GXX851920:GXX851943 HHT851920:HHT851943 HRP851920:HRP851943 IBL851920:IBL851943 ILH851920:ILH851943 IVD851920:IVD851943 JEZ851920:JEZ851943 JOV851920:JOV851943 JYR851920:JYR851943 KIN851920:KIN851943 KSJ851920:KSJ851943 LCF851920:LCF851943 LMB851920:LMB851943 LVX851920:LVX851943 MFT851920:MFT851943 MPP851920:MPP851943 MZL851920:MZL851943 NJH851920:NJH851943 NTD851920:NTD851943 OCZ851920:OCZ851943 OMV851920:OMV851943 OWR851920:OWR851943 PGN851920:PGN851943 PQJ851920:PQJ851943 QAF851920:QAF851943 QKB851920:QKB851943 QTX851920:QTX851943 RDT851920:RDT851943 RNP851920:RNP851943 RXL851920:RXL851943 SHH851920:SHH851943 SRD851920:SRD851943 TAZ851920:TAZ851943 TKV851920:TKV851943 TUR851920:TUR851943 UEN851920:UEN851943 UOJ851920:UOJ851943 UYF851920:UYF851943 VIB851920:VIB851943 VRX851920:VRX851943 WBT851920:WBT851943 WLP851920:WLP851943 WVL851920:WVL851943 C917457:C917480 IZ917456:IZ917479 SV917456:SV917479 ACR917456:ACR917479 AMN917456:AMN917479 AWJ917456:AWJ917479 BGF917456:BGF917479 BQB917456:BQB917479 BZX917456:BZX917479 CJT917456:CJT917479 CTP917456:CTP917479 DDL917456:DDL917479 DNH917456:DNH917479 DXD917456:DXD917479 EGZ917456:EGZ917479 EQV917456:EQV917479 FAR917456:FAR917479 FKN917456:FKN917479 FUJ917456:FUJ917479 GEF917456:GEF917479 GOB917456:GOB917479 GXX917456:GXX917479 HHT917456:HHT917479 HRP917456:HRP917479 IBL917456:IBL917479 ILH917456:ILH917479 IVD917456:IVD917479 JEZ917456:JEZ917479 JOV917456:JOV917479 JYR917456:JYR917479 KIN917456:KIN917479 KSJ917456:KSJ917479 LCF917456:LCF917479 LMB917456:LMB917479 LVX917456:LVX917479 MFT917456:MFT917479 MPP917456:MPP917479 MZL917456:MZL917479 NJH917456:NJH917479 NTD917456:NTD917479 OCZ917456:OCZ917479 OMV917456:OMV917479 OWR917456:OWR917479 PGN917456:PGN917479 PQJ917456:PQJ917479 QAF917456:QAF917479 QKB917456:QKB917479 QTX917456:QTX917479 RDT917456:RDT917479 RNP917456:RNP917479 RXL917456:RXL917479 SHH917456:SHH917479 SRD917456:SRD917479 TAZ917456:TAZ917479 TKV917456:TKV917479 TUR917456:TUR917479 UEN917456:UEN917479 UOJ917456:UOJ917479 UYF917456:UYF917479 VIB917456:VIB917479 VRX917456:VRX917479 WBT917456:WBT917479 WLP917456:WLP917479 WVL917456:WVL917479 C982993:C983016 IZ982992:IZ983015 SV982992:SV983015 ACR982992:ACR983015 AMN982992:AMN983015 AWJ982992:AWJ983015 BGF982992:BGF983015 BQB982992:BQB983015 BZX982992:BZX983015 CJT982992:CJT983015 CTP982992:CTP983015 DDL982992:DDL983015 DNH982992:DNH983015 DXD982992:DXD983015 EGZ982992:EGZ983015 EQV982992:EQV983015 FAR982992:FAR983015 FKN982992:FKN983015 FUJ982992:FUJ983015 GEF982992:GEF983015 GOB982992:GOB983015 GXX982992:GXX983015 HHT982992:HHT983015 HRP982992:HRP983015 IBL982992:IBL983015 ILH982992:ILH983015 IVD982992:IVD983015 JEZ982992:JEZ983015 JOV982992:JOV983015 JYR982992:JYR983015 KIN982992:KIN983015 KSJ982992:KSJ983015 LCF982992:LCF983015 LMB982992:LMB983015 LVX982992:LVX983015 MFT982992:MFT983015 MPP982992:MPP983015 MZL982992:MZL983015 NJH982992:NJH983015 NTD982992:NTD983015 OCZ982992:OCZ983015 OMV982992:OMV983015 OWR982992:OWR983015 PGN982992:PGN983015 PQJ982992:PQJ983015 QAF982992:QAF983015 QKB982992:QKB983015 QTX982992:QTX983015 RDT982992:RDT983015 RNP982992:RNP983015 RXL982992:RXL983015 SHH982992:SHH983015 SRD982992:SRD983015 TAZ982992:TAZ983015 TKV982992:TKV983015 TUR982992:TUR983015 UEN982992:UEN983015 UOJ982992:UOJ983015 UYF982992:UYF983015 VIB982992:VIB983015 VRX982992:VRX983015 WBT982992:WBT983015 WLP982992:WLP983015 WVL982992:WVL983015 D13:D16 SL25:SL29 D48:D50 D6:D8 D34:D36 WLF14:WLF21 WBJ14:WBJ21 VRN14:VRN21 VHR14:VHR21 UXV14:UXV21 UNZ14:UNZ21 UED14:UED21 TUH14:TUH21 TKL14:TKL21 TAP14:TAP21 SQT14:SQT21 SGX14:SGX21 RXB14:RXB21 RNF14:RNF21 RDJ14:RDJ21 QTN14:QTN21 QJR14:QJR21 PZV14:PZV21 PPZ14:PPZ21 PGD14:PGD21 OWH14:OWH21 OML14:OML21 OCP14:OCP21 NST14:NST21 NIX14:NIX21 MZB14:MZB21 MPF14:MPF21 MFJ14:MFJ21 LVN14:LVN21 LLR14:LLR21 LBV14:LBV21 KRZ14:KRZ21 KID14:KID21 JYH14:JYH21 JOL14:JOL21 JEP14:JEP21 IUT14:IUT21 IKX14:IKX21 IBB14:IBB21 HRF14:HRF21 HHJ14:HHJ21 GXN14:GXN21 GNR14:GNR21 GDV14:GDV21 FTZ14:FTZ21 FKD14:FKD21 FAH14:FAH21 EQL14:EQL21 EGP14:EGP21 DWT14:DWT21 DMX14:DMX21 DDB14:DDB21 CTF14:CTF21 CJJ14:CJJ21 BZN14:BZN21 BPR14:BPR21 BFV14:BFV21 AVZ14:AVZ21 AMD14:AMD21 ACH14:ACH21 SL14:SL21 IP14:IP21 WVB14:WVB21 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D21:D22 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D27:D29 D41:D43 D55:D57 D62:D64 D69:D71 D76:D78 D83:D85 D97:D98 D90:D92" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65482:C65505 IZ65481:IZ65504 SV65481:SV65504 ACR65481:ACR65504 AMN65481:AMN65504 AWJ65481:AWJ65504 BGF65481:BGF65504 BQB65481:BQB65504 BZX65481:BZX65504 CJT65481:CJT65504 CTP65481:CTP65504 DDL65481:DDL65504 DNH65481:DNH65504 DXD65481:DXD65504 EGZ65481:EGZ65504 EQV65481:EQV65504 FAR65481:FAR65504 FKN65481:FKN65504 FUJ65481:FUJ65504 GEF65481:GEF65504 GOB65481:GOB65504 GXX65481:GXX65504 HHT65481:HHT65504 HRP65481:HRP65504 IBL65481:IBL65504 ILH65481:ILH65504 IVD65481:IVD65504 JEZ65481:JEZ65504 JOV65481:JOV65504 JYR65481:JYR65504 KIN65481:KIN65504 KSJ65481:KSJ65504 LCF65481:LCF65504 LMB65481:LMB65504 LVX65481:LVX65504 MFT65481:MFT65504 MPP65481:MPP65504 MZL65481:MZL65504 NJH65481:NJH65504 NTD65481:NTD65504 OCZ65481:OCZ65504 OMV65481:OMV65504 OWR65481:OWR65504 PGN65481:PGN65504 PQJ65481:PQJ65504 QAF65481:QAF65504 QKB65481:QKB65504 QTX65481:QTX65504 RDT65481:RDT65504 RNP65481:RNP65504 RXL65481:RXL65504 SHH65481:SHH65504 SRD65481:SRD65504 TAZ65481:TAZ65504 TKV65481:TKV65504 TUR65481:TUR65504 UEN65481:UEN65504 UOJ65481:UOJ65504 UYF65481:UYF65504 VIB65481:VIB65504 VRX65481:VRX65504 WBT65481:WBT65504 WLP65481:WLP65504 WVL65481:WVL65504 C131018:C131041 IZ131017:IZ131040 SV131017:SV131040 ACR131017:ACR131040 AMN131017:AMN131040 AWJ131017:AWJ131040 BGF131017:BGF131040 BQB131017:BQB131040 BZX131017:BZX131040 CJT131017:CJT131040 CTP131017:CTP131040 DDL131017:DDL131040 DNH131017:DNH131040 DXD131017:DXD131040 EGZ131017:EGZ131040 EQV131017:EQV131040 FAR131017:FAR131040 FKN131017:FKN131040 FUJ131017:FUJ131040 GEF131017:GEF131040 GOB131017:GOB131040 GXX131017:GXX131040 HHT131017:HHT131040 HRP131017:HRP131040 IBL131017:IBL131040 ILH131017:ILH131040 IVD131017:IVD131040 JEZ131017:JEZ131040 JOV131017:JOV131040 JYR131017:JYR131040 KIN131017:KIN131040 KSJ131017:KSJ131040 LCF131017:LCF131040 LMB131017:LMB131040 LVX131017:LVX131040 MFT131017:MFT131040 MPP131017:MPP131040 MZL131017:MZL131040 NJH131017:NJH131040 NTD131017:NTD131040 OCZ131017:OCZ131040 OMV131017:OMV131040 OWR131017:OWR131040 PGN131017:PGN131040 PQJ131017:PQJ131040 QAF131017:QAF131040 QKB131017:QKB131040 QTX131017:QTX131040 RDT131017:RDT131040 RNP131017:RNP131040 RXL131017:RXL131040 SHH131017:SHH131040 SRD131017:SRD131040 TAZ131017:TAZ131040 TKV131017:TKV131040 TUR131017:TUR131040 UEN131017:UEN131040 UOJ131017:UOJ131040 UYF131017:UYF131040 VIB131017:VIB131040 VRX131017:VRX131040 WBT131017:WBT131040 WLP131017:WLP131040 WVL131017:WVL131040 C196554:C196577 IZ196553:IZ196576 SV196553:SV196576 ACR196553:ACR196576 AMN196553:AMN196576 AWJ196553:AWJ196576 BGF196553:BGF196576 BQB196553:BQB196576 BZX196553:BZX196576 CJT196553:CJT196576 CTP196553:CTP196576 DDL196553:DDL196576 DNH196553:DNH196576 DXD196553:DXD196576 EGZ196553:EGZ196576 EQV196553:EQV196576 FAR196553:FAR196576 FKN196553:FKN196576 FUJ196553:FUJ196576 GEF196553:GEF196576 GOB196553:GOB196576 GXX196553:GXX196576 HHT196553:HHT196576 HRP196553:HRP196576 IBL196553:IBL196576 ILH196553:ILH196576 IVD196553:IVD196576 JEZ196553:JEZ196576 JOV196553:JOV196576 JYR196553:JYR196576 KIN196553:KIN196576 KSJ196553:KSJ196576 LCF196553:LCF196576 LMB196553:LMB196576 LVX196553:LVX196576 MFT196553:MFT196576 MPP196553:MPP196576 MZL196553:MZL196576 NJH196553:NJH196576 NTD196553:NTD196576 OCZ196553:OCZ196576 OMV196553:OMV196576 OWR196553:OWR196576 PGN196553:PGN196576 PQJ196553:PQJ196576 QAF196553:QAF196576 QKB196553:QKB196576 QTX196553:QTX196576 RDT196553:RDT196576 RNP196553:RNP196576 RXL196553:RXL196576 SHH196553:SHH196576 SRD196553:SRD196576 TAZ196553:TAZ196576 TKV196553:TKV196576 TUR196553:TUR196576 UEN196553:UEN196576 UOJ196553:UOJ196576 UYF196553:UYF196576 VIB196553:VIB196576 VRX196553:VRX196576 WBT196553:WBT196576 WLP196553:WLP196576 WVL196553:WVL196576 C262090:C262113 IZ262089:IZ262112 SV262089:SV262112 ACR262089:ACR262112 AMN262089:AMN262112 AWJ262089:AWJ262112 BGF262089:BGF262112 BQB262089:BQB262112 BZX262089:BZX262112 CJT262089:CJT262112 CTP262089:CTP262112 DDL262089:DDL262112 DNH262089:DNH262112 DXD262089:DXD262112 EGZ262089:EGZ262112 EQV262089:EQV262112 FAR262089:FAR262112 FKN262089:FKN262112 FUJ262089:FUJ262112 GEF262089:GEF262112 GOB262089:GOB262112 GXX262089:GXX262112 HHT262089:HHT262112 HRP262089:HRP262112 IBL262089:IBL262112 ILH262089:ILH262112 IVD262089:IVD262112 JEZ262089:JEZ262112 JOV262089:JOV262112 JYR262089:JYR262112 KIN262089:KIN262112 KSJ262089:KSJ262112 LCF262089:LCF262112 LMB262089:LMB262112 LVX262089:LVX262112 MFT262089:MFT262112 MPP262089:MPP262112 MZL262089:MZL262112 NJH262089:NJH262112 NTD262089:NTD262112 OCZ262089:OCZ262112 OMV262089:OMV262112 OWR262089:OWR262112 PGN262089:PGN262112 PQJ262089:PQJ262112 QAF262089:QAF262112 QKB262089:QKB262112 QTX262089:QTX262112 RDT262089:RDT262112 RNP262089:RNP262112 RXL262089:RXL262112 SHH262089:SHH262112 SRD262089:SRD262112 TAZ262089:TAZ262112 TKV262089:TKV262112 TUR262089:TUR262112 UEN262089:UEN262112 UOJ262089:UOJ262112 UYF262089:UYF262112 VIB262089:VIB262112 VRX262089:VRX262112 WBT262089:WBT262112 WLP262089:WLP262112 WVL262089:WVL262112 C327626:C327649 IZ327625:IZ327648 SV327625:SV327648 ACR327625:ACR327648 AMN327625:AMN327648 AWJ327625:AWJ327648 BGF327625:BGF327648 BQB327625:BQB327648 BZX327625:BZX327648 CJT327625:CJT327648 CTP327625:CTP327648 DDL327625:DDL327648 DNH327625:DNH327648 DXD327625:DXD327648 EGZ327625:EGZ327648 EQV327625:EQV327648 FAR327625:FAR327648 FKN327625:FKN327648 FUJ327625:FUJ327648 GEF327625:GEF327648 GOB327625:GOB327648 GXX327625:GXX327648 HHT327625:HHT327648 HRP327625:HRP327648 IBL327625:IBL327648 ILH327625:ILH327648 IVD327625:IVD327648 JEZ327625:JEZ327648 JOV327625:JOV327648 JYR327625:JYR327648 KIN327625:KIN327648 KSJ327625:KSJ327648 LCF327625:LCF327648 LMB327625:LMB327648 LVX327625:LVX327648 MFT327625:MFT327648 MPP327625:MPP327648 MZL327625:MZL327648 NJH327625:NJH327648 NTD327625:NTD327648 OCZ327625:OCZ327648 OMV327625:OMV327648 OWR327625:OWR327648 PGN327625:PGN327648 PQJ327625:PQJ327648 QAF327625:QAF327648 QKB327625:QKB327648 QTX327625:QTX327648 RDT327625:RDT327648 RNP327625:RNP327648 RXL327625:RXL327648 SHH327625:SHH327648 SRD327625:SRD327648 TAZ327625:TAZ327648 TKV327625:TKV327648 TUR327625:TUR327648 UEN327625:UEN327648 UOJ327625:UOJ327648 UYF327625:UYF327648 VIB327625:VIB327648 VRX327625:VRX327648 WBT327625:WBT327648 WLP327625:WLP327648 WVL327625:WVL327648 C393162:C393185 IZ393161:IZ393184 SV393161:SV393184 ACR393161:ACR393184 AMN393161:AMN393184 AWJ393161:AWJ393184 BGF393161:BGF393184 BQB393161:BQB393184 BZX393161:BZX393184 CJT393161:CJT393184 CTP393161:CTP393184 DDL393161:DDL393184 DNH393161:DNH393184 DXD393161:DXD393184 EGZ393161:EGZ393184 EQV393161:EQV393184 FAR393161:FAR393184 FKN393161:FKN393184 FUJ393161:FUJ393184 GEF393161:GEF393184 GOB393161:GOB393184 GXX393161:GXX393184 HHT393161:HHT393184 HRP393161:HRP393184 IBL393161:IBL393184 ILH393161:ILH393184 IVD393161:IVD393184 JEZ393161:JEZ393184 JOV393161:JOV393184 JYR393161:JYR393184 KIN393161:KIN393184 KSJ393161:KSJ393184 LCF393161:LCF393184 LMB393161:LMB393184 LVX393161:LVX393184 MFT393161:MFT393184 MPP393161:MPP393184 MZL393161:MZL393184 NJH393161:NJH393184 NTD393161:NTD393184 OCZ393161:OCZ393184 OMV393161:OMV393184 OWR393161:OWR393184 PGN393161:PGN393184 PQJ393161:PQJ393184 QAF393161:QAF393184 QKB393161:QKB393184 QTX393161:QTX393184 RDT393161:RDT393184 RNP393161:RNP393184 RXL393161:RXL393184 SHH393161:SHH393184 SRD393161:SRD393184 TAZ393161:TAZ393184 TKV393161:TKV393184 TUR393161:TUR393184 UEN393161:UEN393184 UOJ393161:UOJ393184 UYF393161:UYF393184 VIB393161:VIB393184 VRX393161:VRX393184 WBT393161:WBT393184 WLP393161:WLP393184 WVL393161:WVL393184 C458698:C458721 IZ458697:IZ458720 SV458697:SV458720 ACR458697:ACR458720 AMN458697:AMN458720 AWJ458697:AWJ458720 BGF458697:BGF458720 BQB458697:BQB458720 BZX458697:BZX458720 CJT458697:CJT458720 CTP458697:CTP458720 DDL458697:DDL458720 DNH458697:DNH458720 DXD458697:DXD458720 EGZ458697:EGZ458720 EQV458697:EQV458720 FAR458697:FAR458720 FKN458697:FKN458720 FUJ458697:FUJ458720 GEF458697:GEF458720 GOB458697:GOB458720 GXX458697:GXX458720 HHT458697:HHT458720 HRP458697:HRP458720 IBL458697:IBL458720 ILH458697:ILH458720 IVD458697:IVD458720 JEZ458697:JEZ458720 JOV458697:JOV458720 JYR458697:JYR458720 KIN458697:KIN458720 KSJ458697:KSJ458720 LCF458697:LCF458720 LMB458697:LMB458720 LVX458697:LVX458720 MFT458697:MFT458720 MPP458697:MPP458720 MZL458697:MZL458720 NJH458697:NJH458720 NTD458697:NTD458720 OCZ458697:OCZ458720 OMV458697:OMV458720 OWR458697:OWR458720 PGN458697:PGN458720 PQJ458697:PQJ458720 QAF458697:QAF458720 QKB458697:QKB458720 QTX458697:QTX458720 RDT458697:RDT458720 RNP458697:RNP458720 RXL458697:RXL458720 SHH458697:SHH458720 SRD458697:SRD458720 TAZ458697:TAZ458720 TKV458697:TKV458720 TUR458697:TUR458720 UEN458697:UEN458720 UOJ458697:UOJ458720 UYF458697:UYF458720 VIB458697:VIB458720 VRX458697:VRX458720 WBT458697:WBT458720 WLP458697:WLP458720 WVL458697:WVL458720 C524234:C524257 IZ524233:IZ524256 SV524233:SV524256 ACR524233:ACR524256 AMN524233:AMN524256 AWJ524233:AWJ524256 BGF524233:BGF524256 BQB524233:BQB524256 BZX524233:BZX524256 CJT524233:CJT524256 CTP524233:CTP524256 DDL524233:DDL524256 DNH524233:DNH524256 DXD524233:DXD524256 EGZ524233:EGZ524256 EQV524233:EQV524256 FAR524233:FAR524256 FKN524233:FKN524256 FUJ524233:FUJ524256 GEF524233:GEF524256 GOB524233:GOB524256 GXX524233:GXX524256 HHT524233:HHT524256 HRP524233:HRP524256 IBL524233:IBL524256 ILH524233:ILH524256 IVD524233:IVD524256 JEZ524233:JEZ524256 JOV524233:JOV524256 JYR524233:JYR524256 KIN524233:KIN524256 KSJ524233:KSJ524256 LCF524233:LCF524256 LMB524233:LMB524256 LVX524233:LVX524256 MFT524233:MFT524256 MPP524233:MPP524256 MZL524233:MZL524256 NJH524233:NJH524256 NTD524233:NTD524256 OCZ524233:OCZ524256 OMV524233:OMV524256 OWR524233:OWR524256 PGN524233:PGN524256 PQJ524233:PQJ524256 QAF524233:QAF524256 QKB524233:QKB524256 QTX524233:QTX524256 RDT524233:RDT524256 RNP524233:RNP524256 RXL524233:RXL524256 SHH524233:SHH524256 SRD524233:SRD524256 TAZ524233:TAZ524256 TKV524233:TKV524256 TUR524233:TUR524256 UEN524233:UEN524256 UOJ524233:UOJ524256 UYF524233:UYF524256 VIB524233:VIB524256 VRX524233:VRX524256 WBT524233:WBT524256 WLP524233:WLP524256 WVL524233:WVL524256 C589770:C589793 IZ589769:IZ589792 SV589769:SV589792 ACR589769:ACR589792 AMN589769:AMN589792 AWJ589769:AWJ589792 BGF589769:BGF589792 BQB589769:BQB589792 BZX589769:BZX589792 CJT589769:CJT589792 CTP589769:CTP589792 DDL589769:DDL589792 DNH589769:DNH589792 DXD589769:DXD589792 EGZ589769:EGZ589792 EQV589769:EQV589792 FAR589769:FAR589792 FKN589769:FKN589792 FUJ589769:FUJ589792 GEF589769:GEF589792 GOB589769:GOB589792 GXX589769:GXX589792 HHT589769:HHT589792 HRP589769:HRP589792 IBL589769:IBL589792 ILH589769:ILH589792 IVD589769:IVD589792 JEZ589769:JEZ589792 JOV589769:JOV589792 JYR589769:JYR589792 KIN589769:KIN589792 KSJ589769:KSJ589792 LCF589769:LCF589792 LMB589769:LMB589792 LVX589769:LVX589792 MFT589769:MFT589792 MPP589769:MPP589792 MZL589769:MZL589792 NJH589769:NJH589792 NTD589769:NTD589792 OCZ589769:OCZ589792 OMV589769:OMV589792 OWR589769:OWR589792 PGN589769:PGN589792 PQJ589769:PQJ589792 QAF589769:QAF589792 QKB589769:QKB589792 QTX589769:QTX589792 RDT589769:RDT589792 RNP589769:RNP589792 RXL589769:RXL589792 SHH589769:SHH589792 SRD589769:SRD589792 TAZ589769:TAZ589792 TKV589769:TKV589792 TUR589769:TUR589792 UEN589769:UEN589792 UOJ589769:UOJ589792 UYF589769:UYF589792 VIB589769:VIB589792 VRX589769:VRX589792 WBT589769:WBT589792 WLP589769:WLP589792 WVL589769:WVL589792 C655306:C655329 IZ655305:IZ655328 SV655305:SV655328 ACR655305:ACR655328 AMN655305:AMN655328 AWJ655305:AWJ655328 BGF655305:BGF655328 BQB655305:BQB655328 BZX655305:BZX655328 CJT655305:CJT655328 CTP655305:CTP655328 DDL655305:DDL655328 DNH655305:DNH655328 DXD655305:DXD655328 EGZ655305:EGZ655328 EQV655305:EQV655328 FAR655305:FAR655328 FKN655305:FKN655328 FUJ655305:FUJ655328 GEF655305:GEF655328 GOB655305:GOB655328 GXX655305:GXX655328 HHT655305:HHT655328 HRP655305:HRP655328 IBL655305:IBL655328 ILH655305:ILH655328 IVD655305:IVD655328 JEZ655305:JEZ655328 JOV655305:JOV655328 JYR655305:JYR655328 KIN655305:KIN655328 KSJ655305:KSJ655328 LCF655305:LCF655328 LMB655305:LMB655328 LVX655305:LVX655328 MFT655305:MFT655328 MPP655305:MPP655328 MZL655305:MZL655328 NJH655305:NJH655328 NTD655305:NTD655328 OCZ655305:OCZ655328 OMV655305:OMV655328 OWR655305:OWR655328 PGN655305:PGN655328 PQJ655305:PQJ655328 QAF655305:QAF655328 QKB655305:QKB655328 QTX655305:QTX655328 RDT655305:RDT655328 RNP655305:RNP655328 RXL655305:RXL655328 SHH655305:SHH655328 SRD655305:SRD655328 TAZ655305:TAZ655328 TKV655305:TKV655328 TUR655305:TUR655328 UEN655305:UEN655328 UOJ655305:UOJ655328 UYF655305:UYF655328 VIB655305:VIB655328 VRX655305:VRX655328 WBT655305:WBT655328 WLP655305:WLP655328 WVL655305:WVL655328 C720842:C720865 IZ720841:IZ720864 SV720841:SV720864 ACR720841:ACR720864 AMN720841:AMN720864 AWJ720841:AWJ720864 BGF720841:BGF720864 BQB720841:BQB720864 BZX720841:BZX720864 CJT720841:CJT720864 CTP720841:CTP720864 DDL720841:DDL720864 DNH720841:DNH720864 DXD720841:DXD720864 EGZ720841:EGZ720864 EQV720841:EQV720864 FAR720841:FAR720864 FKN720841:FKN720864 FUJ720841:FUJ720864 GEF720841:GEF720864 GOB720841:GOB720864 GXX720841:GXX720864 HHT720841:HHT720864 HRP720841:HRP720864 IBL720841:IBL720864 ILH720841:ILH720864 IVD720841:IVD720864 JEZ720841:JEZ720864 JOV720841:JOV720864 JYR720841:JYR720864 KIN720841:KIN720864 KSJ720841:KSJ720864 LCF720841:LCF720864 LMB720841:LMB720864 LVX720841:LVX720864 MFT720841:MFT720864 MPP720841:MPP720864 MZL720841:MZL720864 NJH720841:NJH720864 NTD720841:NTD720864 OCZ720841:OCZ720864 OMV720841:OMV720864 OWR720841:OWR720864 PGN720841:PGN720864 PQJ720841:PQJ720864 QAF720841:QAF720864 QKB720841:QKB720864 QTX720841:QTX720864 RDT720841:RDT720864 RNP720841:RNP720864 RXL720841:RXL720864 SHH720841:SHH720864 SRD720841:SRD720864 TAZ720841:TAZ720864 TKV720841:TKV720864 TUR720841:TUR720864 UEN720841:UEN720864 UOJ720841:UOJ720864 UYF720841:UYF720864 VIB720841:VIB720864 VRX720841:VRX720864 WBT720841:WBT720864 WLP720841:WLP720864 WVL720841:WVL720864 C786378:C786401 IZ786377:IZ786400 SV786377:SV786400 ACR786377:ACR786400 AMN786377:AMN786400 AWJ786377:AWJ786400 BGF786377:BGF786400 BQB786377:BQB786400 BZX786377:BZX786400 CJT786377:CJT786400 CTP786377:CTP786400 DDL786377:DDL786400 DNH786377:DNH786400 DXD786377:DXD786400 EGZ786377:EGZ786400 EQV786377:EQV786400 FAR786377:FAR786400 FKN786377:FKN786400 FUJ786377:FUJ786400 GEF786377:GEF786400 GOB786377:GOB786400 GXX786377:GXX786400 HHT786377:HHT786400 HRP786377:HRP786400 IBL786377:IBL786400 ILH786377:ILH786400 IVD786377:IVD786400 JEZ786377:JEZ786400 JOV786377:JOV786400 JYR786377:JYR786400 KIN786377:KIN786400 KSJ786377:KSJ786400 LCF786377:LCF786400 LMB786377:LMB786400 LVX786377:LVX786400 MFT786377:MFT786400 MPP786377:MPP786400 MZL786377:MZL786400 NJH786377:NJH786400 NTD786377:NTD786400 OCZ786377:OCZ786400 OMV786377:OMV786400 OWR786377:OWR786400 PGN786377:PGN786400 PQJ786377:PQJ786400 QAF786377:QAF786400 QKB786377:QKB786400 QTX786377:QTX786400 RDT786377:RDT786400 RNP786377:RNP786400 RXL786377:RXL786400 SHH786377:SHH786400 SRD786377:SRD786400 TAZ786377:TAZ786400 TKV786377:TKV786400 TUR786377:TUR786400 UEN786377:UEN786400 UOJ786377:UOJ786400 UYF786377:UYF786400 VIB786377:VIB786400 VRX786377:VRX786400 WBT786377:WBT786400 WLP786377:WLP786400 WVL786377:WVL786400 C851914:C851937 IZ851913:IZ851936 SV851913:SV851936 ACR851913:ACR851936 AMN851913:AMN851936 AWJ851913:AWJ851936 BGF851913:BGF851936 BQB851913:BQB851936 BZX851913:BZX851936 CJT851913:CJT851936 CTP851913:CTP851936 DDL851913:DDL851936 DNH851913:DNH851936 DXD851913:DXD851936 EGZ851913:EGZ851936 EQV851913:EQV851936 FAR851913:FAR851936 FKN851913:FKN851936 FUJ851913:FUJ851936 GEF851913:GEF851936 GOB851913:GOB851936 GXX851913:GXX851936 HHT851913:HHT851936 HRP851913:HRP851936 IBL851913:IBL851936 ILH851913:ILH851936 IVD851913:IVD851936 JEZ851913:JEZ851936 JOV851913:JOV851936 JYR851913:JYR851936 KIN851913:KIN851936 KSJ851913:KSJ851936 LCF851913:LCF851936 LMB851913:LMB851936 LVX851913:LVX851936 MFT851913:MFT851936 MPP851913:MPP851936 MZL851913:MZL851936 NJH851913:NJH851936 NTD851913:NTD851936 OCZ851913:OCZ851936 OMV851913:OMV851936 OWR851913:OWR851936 PGN851913:PGN851936 PQJ851913:PQJ851936 QAF851913:QAF851936 QKB851913:QKB851936 QTX851913:QTX851936 RDT851913:RDT851936 RNP851913:RNP851936 RXL851913:RXL851936 SHH851913:SHH851936 SRD851913:SRD851936 TAZ851913:TAZ851936 TKV851913:TKV851936 TUR851913:TUR851936 UEN851913:UEN851936 UOJ851913:UOJ851936 UYF851913:UYF851936 VIB851913:VIB851936 VRX851913:VRX851936 WBT851913:WBT851936 WLP851913:WLP851936 WVL851913:WVL851936 C917450:C917473 IZ917449:IZ917472 SV917449:SV917472 ACR917449:ACR917472 AMN917449:AMN917472 AWJ917449:AWJ917472 BGF917449:BGF917472 BQB917449:BQB917472 BZX917449:BZX917472 CJT917449:CJT917472 CTP917449:CTP917472 DDL917449:DDL917472 DNH917449:DNH917472 DXD917449:DXD917472 EGZ917449:EGZ917472 EQV917449:EQV917472 FAR917449:FAR917472 FKN917449:FKN917472 FUJ917449:FUJ917472 GEF917449:GEF917472 GOB917449:GOB917472 GXX917449:GXX917472 HHT917449:HHT917472 HRP917449:HRP917472 IBL917449:IBL917472 ILH917449:ILH917472 IVD917449:IVD917472 JEZ917449:JEZ917472 JOV917449:JOV917472 JYR917449:JYR917472 KIN917449:KIN917472 KSJ917449:KSJ917472 LCF917449:LCF917472 LMB917449:LMB917472 LVX917449:LVX917472 MFT917449:MFT917472 MPP917449:MPP917472 MZL917449:MZL917472 NJH917449:NJH917472 NTD917449:NTD917472 OCZ917449:OCZ917472 OMV917449:OMV917472 OWR917449:OWR917472 PGN917449:PGN917472 PQJ917449:PQJ917472 QAF917449:QAF917472 QKB917449:QKB917472 QTX917449:QTX917472 RDT917449:RDT917472 RNP917449:RNP917472 RXL917449:RXL917472 SHH917449:SHH917472 SRD917449:SRD917472 TAZ917449:TAZ917472 TKV917449:TKV917472 TUR917449:TUR917472 UEN917449:UEN917472 UOJ917449:UOJ917472 UYF917449:UYF917472 VIB917449:VIB917472 VRX917449:VRX917472 WBT917449:WBT917472 WLP917449:WLP917472 WVL917449:WVL917472 C982986:C983009 IZ982985:IZ983008 SV982985:SV983008 ACR982985:ACR983008 AMN982985:AMN983008 AWJ982985:AWJ983008 BGF982985:BGF983008 BQB982985:BQB983008 BZX982985:BZX983008 CJT982985:CJT983008 CTP982985:CTP983008 DDL982985:DDL983008 DNH982985:DNH983008 DXD982985:DXD983008 EGZ982985:EGZ983008 EQV982985:EQV983008 FAR982985:FAR983008 FKN982985:FKN983008 FUJ982985:FUJ983008 GEF982985:GEF983008 GOB982985:GOB983008 GXX982985:GXX983008 HHT982985:HHT983008 HRP982985:HRP983008 IBL982985:IBL983008 ILH982985:ILH983008 IVD982985:IVD983008 JEZ982985:JEZ983008 JOV982985:JOV983008 JYR982985:JYR983008 KIN982985:KIN983008 KSJ982985:KSJ983008 LCF982985:LCF983008 LMB982985:LMB983008 LVX982985:LVX983008 MFT982985:MFT983008 MPP982985:MPP983008 MZL982985:MZL983008 NJH982985:NJH983008 NTD982985:NTD983008 OCZ982985:OCZ983008 OMV982985:OMV983008 OWR982985:OWR983008 PGN982985:PGN983008 PQJ982985:PQJ983008 QAF982985:QAF983008 QKB982985:QKB983008 QTX982985:QTX983008 RDT982985:RDT983008 RNP982985:RNP983008 RXL982985:RXL983008 SHH982985:SHH983008 SRD982985:SRD983008 TAZ982985:TAZ983008 TKV982985:TKV983008 TUR982985:TUR983008 UEN982985:UEN983008 UOJ982985:UOJ983008 UYF982985:UYF983008 VIB982985:VIB983008 VRX982985:VRX983008 WBT982985:WBT983008 WLP982985:WLP983008 WVL982985:WVL983008 D13:D16 SL24:SL28 D53:D55 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D33:D35 D46:D48 D40:D41 D60:D62 D67:D69 D74:D76 D81:D83 D103:D104 D96:D98 D88:D91 D21:D22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3427,15 +3480,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3460,10 +3517,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20659AEF-5892-4FA4-98B1-DE74D17F3AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5363143-8DAF-40E1-A39E-CD3464265D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="900" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="145">
   <si>
     <t>Database Name</t>
   </si>
@@ -439,6 +439,36 @@
   </si>
   <si>
     <t>ID of item purchased House/Med/Food/Weapon</t>
+  </si>
+  <si>
+    <t>Missions</t>
+  </si>
+  <si>
+    <t>MissionsID</t>
+  </si>
+  <si>
+    <t>Unique ID for missions</t>
+  </si>
+  <si>
+    <t>MissionObjective</t>
+  </si>
+  <si>
+    <t>Description of the mission</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>MissionDate</t>
+  </si>
+  <si>
+    <t>Date of the mission</t>
+  </si>
+  <si>
+    <t>PricePerKill</t>
+  </si>
+  <si>
+    <t>Price for killing a zombie of this type</t>
   </si>
 </sst>
 </file>
@@ -627,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -687,6 +717,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1546,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44498.470251967592</v>
+        <v>44502.63261296296</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1518,17 +1557,17 @@
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1790,17 +1829,17 @@
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -1891,17 +1930,17 @@
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
@@ -3216,6 +3255,149 @@
         <v>16</v>
       </c>
     </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="24"/>
+    </row>
+    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:J4"/>
@@ -3226,7 +3408,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65497:F65512 WVO983000:WVP983015 WLS983000:WLT983015 WBW983000:WBX983015 VSA983000:VSB983015 VIE983000:VIF983015 UYI983000:UYJ983015 UOM983000:UON983015 UEQ983000:UER983015 TUU983000:TUV983015 TKY983000:TKZ983015 TBC983000:TBD983015 SRG983000:SRH983015 SHK983000:SHL983015 RXO983000:RXP983015 RNS983000:RNT983015 RDW983000:RDX983015 QUA983000:QUB983015 QKE983000:QKF983015 QAI983000:QAJ983015 PQM983000:PQN983015 PGQ983000:PGR983015 OWU983000:OWV983015 OMY983000:OMZ983015 ODC983000:ODD983015 NTG983000:NTH983015 NJK983000:NJL983015 MZO983000:MZP983015 MPS983000:MPT983015 MFW983000:MFX983015 LWA983000:LWB983015 LME983000:LMF983015 LCI983000:LCJ983015 KSM983000:KSN983015 KIQ983000:KIR983015 JYU983000:JYV983015 JOY983000:JOZ983015 JFC983000:JFD983015 IVG983000:IVH983015 ILK983000:ILL983015 IBO983000:IBP983015 HRS983000:HRT983015 HHW983000:HHX983015 GYA983000:GYB983015 GOE983000:GOF983015 GEI983000:GEJ983015 FUM983000:FUN983015 FKQ983000:FKR983015 FAU983000:FAV983015 EQY983000:EQZ983015 EHC983000:EHD983015 DXG983000:DXH983015 DNK983000:DNL983015 DDO983000:DDP983015 CTS983000:CTT983015 CJW983000:CJX983015 CAA983000:CAB983015 BQE983000:BQF983015 BGI983000:BGJ983015 AWM983000:AWN983015 AMQ983000:AMR983015 ACU983000:ACV983015 SY983000:SZ983015 JC983000:JD983015 F983001:F983016 WVO917464:WVP917479 WLS917464:WLT917479 WBW917464:WBX917479 VSA917464:VSB917479 VIE917464:VIF917479 UYI917464:UYJ917479 UOM917464:UON917479 UEQ917464:UER917479 TUU917464:TUV917479 TKY917464:TKZ917479 TBC917464:TBD917479 SRG917464:SRH917479 SHK917464:SHL917479 RXO917464:RXP917479 RNS917464:RNT917479 RDW917464:RDX917479 QUA917464:QUB917479 QKE917464:QKF917479 QAI917464:QAJ917479 PQM917464:PQN917479 PGQ917464:PGR917479 OWU917464:OWV917479 OMY917464:OMZ917479 ODC917464:ODD917479 NTG917464:NTH917479 NJK917464:NJL917479 MZO917464:MZP917479 MPS917464:MPT917479 MFW917464:MFX917479 LWA917464:LWB917479 LME917464:LMF917479 LCI917464:LCJ917479 KSM917464:KSN917479 KIQ917464:KIR917479 JYU917464:JYV917479 JOY917464:JOZ917479 JFC917464:JFD917479 IVG917464:IVH917479 ILK917464:ILL917479 IBO917464:IBP917479 HRS917464:HRT917479 HHW917464:HHX917479 GYA917464:GYB917479 GOE917464:GOF917479 GEI917464:GEJ917479 FUM917464:FUN917479 FKQ917464:FKR917479 FAU917464:FAV917479 EQY917464:EQZ917479 EHC917464:EHD917479 DXG917464:DXH917479 DNK917464:DNL917479 DDO917464:DDP917479 CTS917464:CTT917479 CJW917464:CJX917479 CAA917464:CAB917479 BQE917464:BQF917479 BGI917464:BGJ917479 AWM917464:AWN917479 AMQ917464:AMR917479 ACU917464:ACV917479 SY917464:SZ917479 JC917464:JD917479 F917465:F917480 WVO851928:WVP851943 WLS851928:WLT851943 WBW851928:WBX851943 VSA851928:VSB851943 VIE851928:VIF851943 UYI851928:UYJ851943 UOM851928:UON851943 UEQ851928:UER851943 TUU851928:TUV851943 TKY851928:TKZ851943 TBC851928:TBD851943 SRG851928:SRH851943 SHK851928:SHL851943 RXO851928:RXP851943 RNS851928:RNT851943 RDW851928:RDX851943 QUA851928:QUB851943 QKE851928:QKF851943 QAI851928:QAJ851943 PQM851928:PQN851943 PGQ851928:PGR851943 OWU851928:OWV851943 OMY851928:OMZ851943 ODC851928:ODD851943 NTG851928:NTH851943 NJK851928:NJL851943 MZO851928:MZP851943 MPS851928:MPT851943 MFW851928:MFX851943 LWA851928:LWB851943 LME851928:LMF851943 LCI851928:LCJ851943 KSM851928:KSN851943 KIQ851928:KIR851943 JYU851928:JYV851943 JOY851928:JOZ851943 JFC851928:JFD851943 IVG851928:IVH851943 ILK851928:ILL851943 IBO851928:IBP851943 HRS851928:HRT851943 HHW851928:HHX851943 GYA851928:GYB851943 GOE851928:GOF851943 GEI851928:GEJ851943 FUM851928:FUN851943 FKQ851928:FKR851943 FAU851928:FAV851943 EQY851928:EQZ851943 EHC851928:EHD851943 DXG851928:DXH851943 DNK851928:DNL851943 DDO851928:DDP851943 CTS851928:CTT851943 CJW851928:CJX851943 CAA851928:CAB851943 BQE851928:BQF851943 BGI851928:BGJ851943 AWM851928:AWN851943 AMQ851928:AMR851943 ACU851928:ACV851943 SY851928:SZ851943 JC851928:JD851943 F851929:F851944 WVO786392:WVP786407 WLS786392:WLT786407 WBW786392:WBX786407 VSA786392:VSB786407 VIE786392:VIF786407 UYI786392:UYJ786407 UOM786392:UON786407 UEQ786392:UER786407 TUU786392:TUV786407 TKY786392:TKZ786407 TBC786392:TBD786407 SRG786392:SRH786407 SHK786392:SHL786407 RXO786392:RXP786407 RNS786392:RNT786407 RDW786392:RDX786407 QUA786392:QUB786407 QKE786392:QKF786407 QAI786392:QAJ786407 PQM786392:PQN786407 PGQ786392:PGR786407 OWU786392:OWV786407 OMY786392:OMZ786407 ODC786392:ODD786407 NTG786392:NTH786407 NJK786392:NJL786407 MZO786392:MZP786407 MPS786392:MPT786407 MFW786392:MFX786407 LWA786392:LWB786407 LME786392:LMF786407 LCI786392:LCJ786407 KSM786392:KSN786407 KIQ786392:KIR786407 JYU786392:JYV786407 JOY786392:JOZ786407 JFC786392:JFD786407 IVG786392:IVH786407 ILK786392:ILL786407 IBO786392:IBP786407 HRS786392:HRT786407 HHW786392:HHX786407 GYA786392:GYB786407 GOE786392:GOF786407 GEI786392:GEJ786407 FUM786392:FUN786407 FKQ786392:FKR786407 FAU786392:FAV786407 EQY786392:EQZ786407 EHC786392:EHD786407 DXG786392:DXH786407 DNK786392:DNL786407 DDO786392:DDP786407 CTS786392:CTT786407 CJW786392:CJX786407 CAA786392:CAB786407 BQE786392:BQF786407 BGI786392:BGJ786407 AWM786392:AWN786407 AMQ786392:AMR786407 ACU786392:ACV786407 SY786392:SZ786407 JC786392:JD786407 F786393:F786408 WVO720856:WVP720871 WLS720856:WLT720871 WBW720856:WBX720871 VSA720856:VSB720871 VIE720856:VIF720871 UYI720856:UYJ720871 UOM720856:UON720871 UEQ720856:UER720871 TUU720856:TUV720871 TKY720856:TKZ720871 TBC720856:TBD720871 SRG720856:SRH720871 SHK720856:SHL720871 RXO720856:RXP720871 RNS720856:RNT720871 RDW720856:RDX720871 QUA720856:QUB720871 QKE720856:QKF720871 QAI720856:QAJ720871 PQM720856:PQN720871 PGQ720856:PGR720871 OWU720856:OWV720871 OMY720856:OMZ720871 ODC720856:ODD720871 NTG720856:NTH720871 NJK720856:NJL720871 MZO720856:MZP720871 MPS720856:MPT720871 MFW720856:MFX720871 LWA720856:LWB720871 LME720856:LMF720871 LCI720856:LCJ720871 KSM720856:KSN720871 KIQ720856:KIR720871 JYU720856:JYV720871 JOY720856:JOZ720871 JFC720856:JFD720871 IVG720856:IVH720871 ILK720856:ILL720871 IBO720856:IBP720871 HRS720856:HRT720871 HHW720856:HHX720871 GYA720856:GYB720871 GOE720856:GOF720871 GEI720856:GEJ720871 FUM720856:FUN720871 FKQ720856:FKR720871 FAU720856:FAV720871 EQY720856:EQZ720871 EHC720856:EHD720871 DXG720856:DXH720871 DNK720856:DNL720871 DDO720856:DDP720871 CTS720856:CTT720871 CJW720856:CJX720871 CAA720856:CAB720871 BQE720856:BQF720871 BGI720856:BGJ720871 AWM720856:AWN720871 AMQ720856:AMR720871 ACU720856:ACV720871 SY720856:SZ720871 JC720856:JD720871 F720857:F720872 WVO655320:WVP655335 WLS655320:WLT655335 WBW655320:WBX655335 VSA655320:VSB655335 VIE655320:VIF655335 UYI655320:UYJ655335 UOM655320:UON655335 UEQ655320:UER655335 TUU655320:TUV655335 TKY655320:TKZ655335 TBC655320:TBD655335 SRG655320:SRH655335 SHK655320:SHL655335 RXO655320:RXP655335 RNS655320:RNT655335 RDW655320:RDX655335 QUA655320:QUB655335 QKE655320:QKF655335 QAI655320:QAJ655335 PQM655320:PQN655335 PGQ655320:PGR655335 OWU655320:OWV655335 OMY655320:OMZ655335 ODC655320:ODD655335 NTG655320:NTH655335 NJK655320:NJL655335 MZO655320:MZP655335 MPS655320:MPT655335 MFW655320:MFX655335 LWA655320:LWB655335 LME655320:LMF655335 LCI655320:LCJ655335 KSM655320:KSN655335 KIQ655320:KIR655335 JYU655320:JYV655335 JOY655320:JOZ655335 JFC655320:JFD655335 IVG655320:IVH655335 ILK655320:ILL655335 IBO655320:IBP655335 HRS655320:HRT655335 HHW655320:HHX655335 GYA655320:GYB655335 GOE655320:GOF655335 GEI655320:GEJ655335 FUM655320:FUN655335 FKQ655320:FKR655335 FAU655320:FAV655335 EQY655320:EQZ655335 EHC655320:EHD655335 DXG655320:DXH655335 DNK655320:DNL655335 DDO655320:DDP655335 CTS655320:CTT655335 CJW655320:CJX655335 CAA655320:CAB655335 BQE655320:BQF655335 BGI655320:BGJ655335 AWM655320:AWN655335 AMQ655320:AMR655335 ACU655320:ACV655335 SY655320:SZ655335 JC655320:JD655335 F655321:F655336 WVO589784:WVP589799 WLS589784:WLT589799 WBW589784:WBX589799 VSA589784:VSB589799 VIE589784:VIF589799 UYI589784:UYJ589799 UOM589784:UON589799 UEQ589784:UER589799 TUU589784:TUV589799 TKY589784:TKZ589799 TBC589784:TBD589799 SRG589784:SRH589799 SHK589784:SHL589799 RXO589784:RXP589799 RNS589784:RNT589799 RDW589784:RDX589799 QUA589784:QUB589799 QKE589784:QKF589799 QAI589784:QAJ589799 PQM589784:PQN589799 PGQ589784:PGR589799 OWU589784:OWV589799 OMY589784:OMZ589799 ODC589784:ODD589799 NTG589784:NTH589799 NJK589784:NJL589799 MZO589784:MZP589799 MPS589784:MPT589799 MFW589784:MFX589799 LWA589784:LWB589799 LME589784:LMF589799 LCI589784:LCJ589799 KSM589784:KSN589799 KIQ589784:KIR589799 JYU589784:JYV589799 JOY589784:JOZ589799 JFC589784:JFD589799 IVG589784:IVH589799 ILK589784:ILL589799 IBO589784:IBP589799 HRS589784:HRT589799 HHW589784:HHX589799 GYA589784:GYB589799 GOE589784:GOF589799 GEI589784:GEJ589799 FUM589784:FUN589799 FKQ589784:FKR589799 FAU589784:FAV589799 EQY589784:EQZ589799 EHC589784:EHD589799 DXG589784:DXH589799 DNK589784:DNL589799 DDO589784:DDP589799 CTS589784:CTT589799 CJW589784:CJX589799 CAA589784:CAB589799 BQE589784:BQF589799 BGI589784:BGJ589799 AWM589784:AWN589799 AMQ589784:AMR589799 ACU589784:ACV589799 SY589784:SZ589799 JC589784:JD589799 F589785:F589800 WVO524248:WVP524263 WLS524248:WLT524263 WBW524248:WBX524263 VSA524248:VSB524263 VIE524248:VIF524263 UYI524248:UYJ524263 UOM524248:UON524263 UEQ524248:UER524263 TUU524248:TUV524263 TKY524248:TKZ524263 TBC524248:TBD524263 SRG524248:SRH524263 SHK524248:SHL524263 RXO524248:RXP524263 RNS524248:RNT524263 RDW524248:RDX524263 QUA524248:QUB524263 QKE524248:QKF524263 QAI524248:QAJ524263 PQM524248:PQN524263 PGQ524248:PGR524263 OWU524248:OWV524263 OMY524248:OMZ524263 ODC524248:ODD524263 NTG524248:NTH524263 NJK524248:NJL524263 MZO524248:MZP524263 MPS524248:MPT524263 MFW524248:MFX524263 LWA524248:LWB524263 LME524248:LMF524263 LCI524248:LCJ524263 KSM524248:KSN524263 KIQ524248:KIR524263 JYU524248:JYV524263 JOY524248:JOZ524263 JFC524248:JFD524263 IVG524248:IVH524263 ILK524248:ILL524263 IBO524248:IBP524263 HRS524248:HRT524263 HHW524248:HHX524263 GYA524248:GYB524263 GOE524248:GOF524263 GEI524248:GEJ524263 FUM524248:FUN524263 FKQ524248:FKR524263 FAU524248:FAV524263 EQY524248:EQZ524263 EHC524248:EHD524263 DXG524248:DXH524263 DNK524248:DNL524263 DDO524248:DDP524263 CTS524248:CTT524263 CJW524248:CJX524263 CAA524248:CAB524263 BQE524248:BQF524263 BGI524248:BGJ524263 AWM524248:AWN524263 AMQ524248:AMR524263 ACU524248:ACV524263 SY524248:SZ524263 JC524248:JD524263 F524249:F524264 WVO458712:WVP458727 WLS458712:WLT458727 WBW458712:WBX458727 VSA458712:VSB458727 VIE458712:VIF458727 UYI458712:UYJ458727 UOM458712:UON458727 UEQ458712:UER458727 TUU458712:TUV458727 TKY458712:TKZ458727 TBC458712:TBD458727 SRG458712:SRH458727 SHK458712:SHL458727 RXO458712:RXP458727 RNS458712:RNT458727 RDW458712:RDX458727 QUA458712:QUB458727 QKE458712:QKF458727 QAI458712:QAJ458727 PQM458712:PQN458727 PGQ458712:PGR458727 OWU458712:OWV458727 OMY458712:OMZ458727 ODC458712:ODD458727 NTG458712:NTH458727 NJK458712:NJL458727 MZO458712:MZP458727 MPS458712:MPT458727 MFW458712:MFX458727 LWA458712:LWB458727 LME458712:LMF458727 LCI458712:LCJ458727 KSM458712:KSN458727 KIQ458712:KIR458727 JYU458712:JYV458727 JOY458712:JOZ458727 JFC458712:JFD458727 IVG458712:IVH458727 ILK458712:ILL458727 IBO458712:IBP458727 HRS458712:HRT458727 HHW458712:HHX458727 GYA458712:GYB458727 GOE458712:GOF458727 GEI458712:GEJ458727 FUM458712:FUN458727 FKQ458712:FKR458727 FAU458712:FAV458727 EQY458712:EQZ458727 EHC458712:EHD458727 DXG458712:DXH458727 DNK458712:DNL458727 DDO458712:DDP458727 CTS458712:CTT458727 CJW458712:CJX458727 CAA458712:CAB458727 BQE458712:BQF458727 BGI458712:BGJ458727 AWM458712:AWN458727 AMQ458712:AMR458727 ACU458712:ACV458727 SY458712:SZ458727 JC458712:JD458727 F458713:F458728 WVO393176:WVP393191 WLS393176:WLT393191 WBW393176:WBX393191 VSA393176:VSB393191 VIE393176:VIF393191 UYI393176:UYJ393191 UOM393176:UON393191 UEQ393176:UER393191 TUU393176:TUV393191 TKY393176:TKZ393191 TBC393176:TBD393191 SRG393176:SRH393191 SHK393176:SHL393191 RXO393176:RXP393191 RNS393176:RNT393191 RDW393176:RDX393191 QUA393176:QUB393191 QKE393176:QKF393191 QAI393176:QAJ393191 PQM393176:PQN393191 PGQ393176:PGR393191 OWU393176:OWV393191 OMY393176:OMZ393191 ODC393176:ODD393191 NTG393176:NTH393191 NJK393176:NJL393191 MZO393176:MZP393191 MPS393176:MPT393191 MFW393176:MFX393191 LWA393176:LWB393191 LME393176:LMF393191 LCI393176:LCJ393191 KSM393176:KSN393191 KIQ393176:KIR393191 JYU393176:JYV393191 JOY393176:JOZ393191 JFC393176:JFD393191 IVG393176:IVH393191 ILK393176:ILL393191 IBO393176:IBP393191 HRS393176:HRT393191 HHW393176:HHX393191 GYA393176:GYB393191 GOE393176:GOF393191 GEI393176:GEJ393191 FUM393176:FUN393191 FKQ393176:FKR393191 FAU393176:FAV393191 EQY393176:EQZ393191 EHC393176:EHD393191 DXG393176:DXH393191 DNK393176:DNL393191 DDO393176:DDP393191 CTS393176:CTT393191 CJW393176:CJX393191 CAA393176:CAB393191 BQE393176:BQF393191 BGI393176:BGJ393191 AWM393176:AWN393191 AMQ393176:AMR393191 ACU393176:ACV393191 SY393176:SZ393191 JC393176:JD393191 F393177:F393192 WVO327640:WVP327655 WLS327640:WLT327655 WBW327640:WBX327655 VSA327640:VSB327655 VIE327640:VIF327655 UYI327640:UYJ327655 UOM327640:UON327655 UEQ327640:UER327655 TUU327640:TUV327655 TKY327640:TKZ327655 TBC327640:TBD327655 SRG327640:SRH327655 SHK327640:SHL327655 RXO327640:RXP327655 RNS327640:RNT327655 RDW327640:RDX327655 QUA327640:QUB327655 QKE327640:QKF327655 QAI327640:QAJ327655 PQM327640:PQN327655 PGQ327640:PGR327655 OWU327640:OWV327655 OMY327640:OMZ327655 ODC327640:ODD327655 NTG327640:NTH327655 NJK327640:NJL327655 MZO327640:MZP327655 MPS327640:MPT327655 MFW327640:MFX327655 LWA327640:LWB327655 LME327640:LMF327655 LCI327640:LCJ327655 KSM327640:KSN327655 KIQ327640:KIR327655 JYU327640:JYV327655 JOY327640:JOZ327655 JFC327640:JFD327655 IVG327640:IVH327655 ILK327640:ILL327655 IBO327640:IBP327655 HRS327640:HRT327655 HHW327640:HHX327655 GYA327640:GYB327655 GOE327640:GOF327655 GEI327640:GEJ327655 FUM327640:FUN327655 FKQ327640:FKR327655 FAU327640:FAV327655 EQY327640:EQZ327655 EHC327640:EHD327655 DXG327640:DXH327655 DNK327640:DNL327655 DDO327640:DDP327655 CTS327640:CTT327655 CJW327640:CJX327655 CAA327640:CAB327655 BQE327640:BQF327655 BGI327640:BGJ327655 AWM327640:AWN327655 AMQ327640:AMR327655 ACU327640:ACV327655 SY327640:SZ327655 JC327640:JD327655 F327641:F327656 WVO262104:WVP262119 WLS262104:WLT262119 WBW262104:WBX262119 VSA262104:VSB262119 VIE262104:VIF262119 UYI262104:UYJ262119 UOM262104:UON262119 UEQ262104:UER262119 TUU262104:TUV262119 TKY262104:TKZ262119 TBC262104:TBD262119 SRG262104:SRH262119 SHK262104:SHL262119 RXO262104:RXP262119 RNS262104:RNT262119 RDW262104:RDX262119 QUA262104:QUB262119 QKE262104:QKF262119 QAI262104:QAJ262119 PQM262104:PQN262119 PGQ262104:PGR262119 OWU262104:OWV262119 OMY262104:OMZ262119 ODC262104:ODD262119 NTG262104:NTH262119 NJK262104:NJL262119 MZO262104:MZP262119 MPS262104:MPT262119 MFW262104:MFX262119 LWA262104:LWB262119 LME262104:LMF262119 LCI262104:LCJ262119 KSM262104:KSN262119 KIQ262104:KIR262119 JYU262104:JYV262119 JOY262104:JOZ262119 JFC262104:JFD262119 IVG262104:IVH262119 ILK262104:ILL262119 IBO262104:IBP262119 HRS262104:HRT262119 HHW262104:HHX262119 GYA262104:GYB262119 GOE262104:GOF262119 GEI262104:GEJ262119 FUM262104:FUN262119 FKQ262104:FKR262119 FAU262104:FAV262119 EQY262104:EQZ262119 EHC262104:EHD262119 DXG262104:DXH262119 DNK262104:DNL262119 DDO262104:DDP262119 CTS262104:CTT262119 CJW262104:CJX262119 CAA262104:CAB262119 BQE262104:BQF262119 BGI262104:BGJ262119 AWM262104:AWN262119 AMQ262104:AMR262119 ACU262104:ACV262119 SY262104:SZ262119 JC262104:JD262119 F262105:F262120 WVO196568:WVP196583 WLS196568:WLT196583 WBW196568:WBX196583 VSA196568:VSB196583 VIE196568:VIF196583 UYI196568:UYJ196583 UOM196568:UON196583 UEQ196568:UER196583 TUU196568:TUV196583 TKY196568:TKZ196583 TBC196568:TBD196583 SRG196568:SRH196583 SHK196568:SHL196583 RXO196568:RXP196583 RNS196568:RNT196583 RDW196568:RDX196583 QUA196568:QUB196583 QKE196568:QKF196583 QAI196568:QAJ196583 PQM196568:PQN196583 PGQ196568:PGR196583 OWU196568:OWV196583 OMY196568:OMZ196583 ODC196568:ODD196583 NTG196568:NTH196583 NJK196568:NJL196583 MZO196568:MZP196583 MPS196568:MPT196583 MFW196568:MFX196583 LWA196568:LWB196583 LME196568:LMF196583 LCI196568:LCJ196583 KSM196568:KSN196583 KIQ196568:KIR196583 JYU196568:JYV196583 JOY196568:JOZ196583 JFC196568:JFD196583 IVG196568:IVH196583 ILK196568:ILL196583 IBO196568:IBP196583 HRS196568:HRT196583 HHW196568:HHX196583 GYA196568:GYB196583 GOE196568:GOF196583 GEI196568:GEJ196583 FUM196568:FUN196583 FKQ196568:FKR196583 FAU196568:FAV196583 EQY196568:EQZ196583 EHC196568:EHD196583 DXG196568:DXH196583 DNK196568:DNL196583 DDO196568:DDP196583 CTS196568:CTT196583 CJW196568:CJX196583 CAA196568:CAB196583 BQE196568:BQF196583 BGI196568:BGJ196583 AWM196568:AWN196583 AMQ196568:AMR196583 ACU196568:ACV196583 SY196568:SZ196583 JC196568:JD196583 F196569:F196584 WVO131032:WVP131047 WLS131032:WLT131047 WBW131032:WBX131047 VSA131032:VSB131047 VIE131032:VIF131047 UYI131032:UYJ131047 UOM131032:UON131047 UEQ131032:UER131047 TUU131032:TUV131047 TKY131032:TKZ131047 TBC131032:TBD131047 SRG131032:SRH131047 SHK131032:SHL131047 RXO131032:RXP131047 RNS131032:RNT131047 RDW131032:RDX131047 QUA131032:QUB131047 QKE131032:QKF131047 QAI131032:QAJ131047 PQM131032:PQN131047 PGQ131032:PGR131047 OWU131032:OWV131047 OMY131032:OMZ131047 ODC131032:ODD131047 NTG131032:NTH131047 NJK131032:NJL131047 MZO131032:MZP131047 MPS131032:MPT131047 MFW131032:MFX131047 LWA131032:LWB131047 LME131032:LMF131047 LCI131032:LCJ131047 KSM131032:KSN131047 KIQ131032:KIR131047 JYU131032:JYV131047 JOY131032:JOZ131047 JFC131032:JFD131047 IVG131032:IVH131047 ILK131032:ILL131047 IBO131032:IBP131047 HRS131032:HRT131047 HHW131032:HHX131047 GYA131032:GYB131047 GOE131032:GOF131047 GEI131032:GEJ131047 FUM131032:FUN131047 FKQ131032:FKR131047 FAU131032:FAV131047 EQY131032:EQZ131047 EHC131032:EHD131047 DXG131032:DXH131047 DNK131032:DNL131047 DDO131032:DDP131047 CTS131032:CTT131047 CJW131032:CJX131047 CAA131032:CAB131047 BQE131032:BQF131047 BGI131032:BGJ131047 AWM131032:AWN131047 AMQ131032:AMR131047 ACU131032:ACV131047 SY131032:SZ131047 JC131032:JD131047 F131033:F131048 WVO65496:WVP65511 WLS65496:WLT65511 WBW65496:WBX65511 VSA65496:VSB65511 VIE65496:VIF65511 UYI65496:UYJ65511 UOM65496:UON65511 UEQ65496:UER65511 TUU65496:TUV65511 TKY65496:TKZ65511 TBC65496:TBD65511 SRG65496:SRH65511 SHK65496:SHL65511 RXO65496:RXP65511 RNS65496:RNT65511 RDW65496:RDX65511 QUA65496:QUB65511 QKE65496:QKF65511 QAI65496:QAJ65511 PQM65496:PQN65511 PGQ65496:PGR65511 OWU65496:OWV65511 OMY65496:OMZ65511 ODC65496:ODD65511 NTG65496:NTH65511 NJK65496:NJL65511 MZO65496:MZP65511 MPS65496:MPT65511 MFW65496:MFX65511 LWA65496:LWB65511 LME65496:LMF65511 LCI65496:LCJ65511 KSM65496:KSN65511 KIQ65496:KIR65511 JYU65496:JYV65511 JOY65496:JOZ65511 JFC65496:JFD65511 IVG65496:IVH65511 ILK65496:ILL65511 IBO65496:IBP65511 HRS65496:HRT65511 HHW65496:HHX65511 GYA65496:GYB65511 GOE65496:GOF65511 GEI65496:GEJ65511 FUM65496:FUN65511 FKQ65496:FKR65511 FAU65496:FAV65511 EQY65496:EQZ65511 EHC65496:EHD65511 DXG65496:DXH65511 DNK65496:DNL65511 DDO65496:DDP65511 CTS65496:CTT65511 CJW65496:CJX65511 CAA65496:CAB65511 BQE65496:BQF65511 BGI65496:BGJ65511 AWM65496:AWN65511 AMQ65496:AMR65511 ACU65496:ACV65511 SY65496:SZ65511 JC65496:JD65511 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65489:C65512 IZ65488:IZ65511 SV65488:SV65511 ACR65488:ACR65511 AMN65488:AMN65511 AWJ65488:AWJ65511 BGF65488:BGF65511 BQB65488:BQB65511 BZX65488:BZX65511 CJT65488:CJT65511 CTP65488:CTP65511 DDL65488:DDL65511 DNH65488:DNH65511 DXD65488:DXD65511 EGZ65488:EGZ65511 EQV65488:EQV65511 FAR65488:FAR65511 FKN65488:FKN65511 FUJ65488:FUJ65511 GEF65488:GEF65511 GOB65488:GOB65511 GXX65488:GXX65511 HHT65488:HHT65511 HRP65488:HRP65511 IBL65488:IBL65511 ILH65488:ILH65511 IVD65488:IVD65511 JEZ65488:JEZ65511 JOV65488:JOV65511 JYR65488:JYR65511 KIN65488:KIN65511 KSJ65488:KSJ65511 LCF65488:LCF65511 LMB65488:LMB65511 LVX65488:LVX65511 MFT65488:MFT65511 MPP65488:MPP65511 MZL65488:MZL65511 NJH65488:NJH65511 NTD65488:NTD65511 OCZ65488:OCZ65511 OMV65488:OMV65511 OWR65488:OWR65511 PGN65488:PGN65511 PQJ65488:PQJ65511 QAF65488:QAF65511 QKB65488:QKB65511 QTX65488:QTX65511 RDT65488:RDT65511 RNP65488:RNP65511 RXL65488:RXL65511 SHH65488:SHH65511 SRD65488:SRD65511 TAZ65488:TAZ65511 TKV65488:TKV65511 TUR65488:TUR65511 UEN65488:UEN65511 UOJ65488:UOJ65511 UYF65488:UYF65511 VIB65488:VIB65511 VRX65488:VRX65511 WBT65488:WBT65511 WLP65488:WLP65511 WVL65488:WVL65511 C131025:C131048 IZ131024:IZ131047 SV131024:SV131047 ACR131024:ACR131047 AMN131024:AMN131047 AWJ131024:AWJ131047 BGF131024:BGF131047 BQB131024:BQB131047 BZX131024:BZX131047 CJT131024:CJT131047 CTP131024:CTP131047 DDL131024:DDL131047 DNH131024:DNH131047 DXD131024:DXD131047 EGZ131024:EGZ131047 EQV131024:EQV131047 FAR131024:FAR131047 FKN131024:FKN131047 FUJ131024:FUJ131047 GEF131024:GEF131047 GOB131024:GOB131047 GXX131024:GXX131047 HHT131024:HHT131047 HRP131024:HRP131047 IBL131024:IBL131047 ILH131024:ILH131047 IVD131024:IVD131047 JEZ131024:JEZ131047 JOV131024:JOV131047 JYR131024:JYR131047 KIN131024:KIN131047 KSJ131024:KSJ131047 LCF131024:LCF131047 LMB131024:LMB131047 LVX131024:LVX131047 MFT131024:MFT131047 MPP131024:MPP131047 MZL131024:MZL131047 NJH131024:NJH131047 NTD131024:NTD131047 OCZ131024:OCZ131047 OMV131024:OMV131047 OWR131024:OWR131047 PGN131024:PGN131047 PQJ131024:PQJ131047 QAF131024:QAF131047 QKB131024:QKB131047 QTX131024:QTX131047 RDT131024:RDT131047 RNP131024:RNP131047 RXL131024:RXL131047 SHH131024:SHH131047 SRD131024:SRD131047 TAZ131024:TAZ131047 TKV131024:TKV131047 TUR131024:TUR131047 UEN131024:UEN131047 UOJ131024:UOJ131047 UYF131024:UYF131047 VIB131024:VIB131047 VRX131024:VRX131047 WBT131024:WBT131047 WLP131024:WLP131047 WVL131024:WVL131047 C196561:C196584 IZ196560:IZ196583 SV196560:SV196583 ACR196560:ACR196583 AMN196560:AMN196583 AWJ196560:AWJ196583 BGF196560:BGF196583 BQB196560:BQB196583 BZX196560:BZX196583 CJT196560:CJT196583 CTP196560:CTP196583 DDL196560:DDL196583 DNH196560:DNH196583 DXD196560:DXD196583 EGZ196560:EGZ196583 EQV196560:EQV196583 FAR196560:FAR196583 FKN196560:FKN196583 FUJ196560:FUJ196583 GEF196560:GEF196583 GOB196560:GOB196583 GXX196560:GXX196583 HHT196560:HHT196583 HRP196560:HRP196583 IBL196560:IBL196583 ILH196560:ILH196583 IVD196560:IVD196583 JEZ196560:JEZ196583 JOV196560:JOV196583 JYR196560:JYR196583 KIN196560:KIN196583 KSJ196560:KSJ196583 LCF196560:LCF196583 LMB196560:LMB196583 LVX196560:LVX196583 MFT196560:MFT196583 MPP196560:MPP196583 MZL196560:MZL196583 NJH196560:NJH196583 NTD196560:NTD196583 OCZ196560:OCZ196583 OMV196560:OMV196583 OWR196560:OWR196583 PGN196560:PGN196583 PQJ196560:PQJ196583 QAF196560:QAF196583 QKB196560:QKB196583 QTX196560:QTX196583 RDT196560:RDT196583 RNP196560:RNP196583 RXL196560:RXL196583 SHH196560:SHH196583 SRD196560:SRD196583 TAZ196560:TAZ196583 TKV196560:TKV196583 TUR196560:TUR196583 UEN196560:UEN196583 UOJ196560:UOJ196583 UYF196560:UYF196583 VIB196560:VIB196583 VRX196560:VRX196583 WBT196560:WBT196583 WLP196560:WLP196583 WVL196560:WVL196583 C262097:C262120 IZ262096:IZ262119 SV262096:SV262119 ACR262096:ACR262119 AMN262096:AMN262119 AWJ262096:AWJ262119 BGF262096:BGF262119 BQB262096:BQB262119 BZX262096:BZX262119 CJT262096:CJT262119 CTP262096:CTP262119 DDL262096:DDL262119 DNH262096:DNH262119 DXD262096:DXD262119 EGZ262096:EGZ262119 EQV262096:EQV262119 FAR262096:FAR262119 FKN262096:FKN262119 FUJ262096:FUJ262119 GEF262096:GEF262119 GOB262096:GOB262119 GXX262096:GXX262119 HHT262096:HHT262119 HRP262096:HRP262119 IBL262096:IBL262119 ILH262096:ILH262119 IVD262096:IVD262119 JEZ262096:JEZ262119 JOV262096:JOV262119 JYR262096:JYR262119 KIN262096:KIN262119 KSJ262096:KSJ262119 LCF262096:LCF262119 LMB262096:LMB262119 LVX262096:LVX262119 MFT262096:MFT262119 MPP262096:MPP262119 MZL262096:MZL262119 NJH262096:NJH262119 NTD262096:NTD262119 OCZ262096:OCZ262119 OMV262096:OMV262119 OWR262096:OWR262119 PGN262096:PGN262119 PQJ262096:PQJ262119 QAF262096:QAF262119 QKB262096:QKB262119 QTX262096:QTX262119 RDT262096:RDT262119 RNP262096:RNP262119 RXL262096:RXL262119 SHH262096:SHH262119 SRD262096:SRD262119 TAZ262096:TAZ262119 TKV262096:TKV262119 TUR262096:TUR262119 UEN262096:UEN262119 UOJ262096:UOJ262119 UYF262096:UYF262119 VIB262096:VIB262119 VRX262096:VRX262119 WBT262096:WBT262119 WLP262096:WLP262119 WVL262096:WVL262119 C327633:C327656 IZ327632:IZ327655 SV327632:SV327655 ACR327632:ACR327655 AMN327632:AMN327655 AWJ327632:AWJ327655 BGF327632:BGF327655 BQB327632:BQB327655 BZX327632:BZX327655 CJT327632:CJT327655 CTP327632:CTP327655 DDL327632:DDL327655 DNH327632:DNH327655 DXD327632:DXD327655 EGZ327632:EGZ327655 EQV327632:EQV327655 FAR327632:FAR327655 FKN327632:FKN327655 FUJ327632:FUJ327655 GEF327632:GEF327655 GOB327632:GOB327655 GXX327632:GXX327655 HHT327632:HHT327655 HRP327632:HRP327655 IBL327632:IBL327655 ILH327632:ILH327655 IVD327632:IVD327655 JEZ327632:JEZ327655 JOV327632:JOV327655 JYR327632:JYR327655 KIN327632:KIN327655 KSJ327632:KSJ327655 LCF327632:LCF327655 LMB327632:LMB327655 LVX327632:LVX327655 MFT327632:MFT327655 MPP327632:MPP327655 MZL327632:MZL327655 NJH327632:NJH327655 NTD327632:NTD327655 OCZ327632:OCZ327655 OMV327632:OMV327655 OWR327632:OWR327655 PGN327632:PGN327655 PQJ327632:PQJ327655 QAF327632:QAF327655 QKB327632:QKB327655 QTX327632:QTX327655 RDT327632:RDT327655 RNP327632:RNP327655 RXL327632:RXL327655 SHH327632:SHH327655 SRD327632:SRD327655 TAZ327632:TAZ327655 TKV327632:TKV327655 TUR327632:TUR327655 UEN327632:UEN327655 UOJ327632:UOJ327655 UYF327632:UYF327655 VIB327632:VIB327655 VRX327632:VRX327655 WBT327632:WBT327655 WLP327632:WLP327655 WVL327632:WVL327655 C393169:C393192 IZ393168:IZ393191 SV393168:SV393191 ACR393168:ACR393191 AMN393168:AMN393191 AWJ393168:AWJ393191 BGF393168:BGF393191 BQB393168:BQB393191 BZX393168:BZX393191 CJT393168:CJT393191 CTP393168:CTP393191 DDL393168:DDL393191 DNH393168:DNH393191 DXD393168:DXD393191 EGZ393168:EGZ393191 EQV393168:EQV393191 FAR393168:FAR393191 FKN393168:FKN393191 FUJ393168:FUJ393191 GEF393168:GEF393191 GOB393168:GOB393191 GXX393168:GXX393191 HHT393168:HHT393191 HRP393168:HRP393191 IBL393168:IBL393191 ILH393168:ILH393191 IVD393168:IVD393191 JEZ393168:JEZ393191 JOV393168:JOV393191 JYR393168:JYR393191 KIN393168:KIN393191 KSJ393168:KSJ393191 LCF393168:LCF393191 LMB393168:LMB393191 LVX393168:LVX393191 MFT393168:MFT393191 MPP393168:MPP393191 MZL393168:MZL393191 NJH393168:NJH393191 NTD393168:NTD393191 OCZ393168:OCZ393191 OMV393168:OMV393191 OWR393168:OWR393191 PGN393168:PGN393191 PQJ393168:PQJ393191 QAF393168:QAF393191 QKB393168:QKB393191 QTX393168:QTX393191 RDT393168:RDT393191 RNP393168:RNP393191 RXL393168:RXL393191 SHH393168:SHH393191 SRD393168:SRD393191 TAZ393168:TAZ393191 TKV393168:TKV393191 TUR393168:TUR393191 UEN393168:UEN393191 UOJ393168:UOJ393191 UYF393168:UYF393191 VIB393168:VIB393191 VRX393168:VRX393191 WBT393168:WBT393191 WLP393168:WLP393191 WVL393168:WVL393191 C458705:C458728 IZ458704:IZ458727 SV458704:SV458727 ACR458704:ACR458727 AMN458704:AMN458727 AWJ458704:AWJ458727 BGF458704:BGF458727 BQB458704:BQB458727 BZX458704:BZX458727 CJT458704:CJT458727 CTP458704:CTP458727 DDL458704:DDL458727 DNH458704:DNH458727 DXD458704:DXD458727 EGZ458704:EGZ458727 EQV458704:EQV458727 FAR458704:FAR458727 FKN458704:FKN458727 FUJ458704:FUJ458727 GEF458704:GEF458727 GOB458704:GOB458727 GXX458704:GXX458727 HHT458704:HHT458727 HRP458704:HRP458727 IBL458704:IBL458727 ILH458704:ILH458727 IVD458704:IVD458727 JEZ458704:JEZ458727 JOV458704:JOV458727 JYR458704:JYR458727 KIN458704:KIN458727 KSJ458704:KSJ458727 LCF458704:LCF458727 LMB458704:LMB458727 LVX458704:LVX458727 MFT458704:MFT458727 MPP458704:MPP458727 MZL458704:MZL458727 NJH458704:NJH458727 NTD458704:NTD458727 OCZ458704:OCZ458727 OMV458704:OMV458727 OWR458704:OWR458727 PGN458704:PGN458727 PQJ458704:PQJ458727 QAF458704:QAF458727 QKB458704:QKB458727 QTX458704:QTX458727 RDT458704:RDT458727 RNP458704:RNP458727 RXL458704:RXL458727 SHH458704:SHH458727 SRD458704:SRD458727 TAZ458704:TAZ458727 TKV458704:TKV458727 TUR458704:TUR458727 UEN458704:UEN458727 UOJ458704:UOJ458727 UYF458704:UYF458727 VIB458704:VIB458727 VRX458704:VRX458727 WBT458704:WBT458727 WLP458704:WLP458727 WVL458704:WVL458727 C524241:C524264 IZ524240:IZ524263 SV524240:SV524263 ACR524240:ACR524263 AMN524240:AMN524263 AWJ524240:AWJ524263 BGF524240:BGF524263 BQB524240:BQB524263 BZX524240:BZX524263 CJT524240:CJT524263 CTP524240:CTP524263 DDL524240:DDL524263 DNH524240:DNH524263 DXD524240:DXD524263 EGZ524240:EGZ524263 EQV524240:EQV524263 FAR524240:FAR524263 FKN524240:FKN524263 FUJ524240:FUJ524263 GEF524240:GEF524263 GOB524240:GOB524263 GXX524240:GXX524263 HHT524240:HHT524263 HRP524240:HRP524263 IBL524240:IBL524263 ILH524240:ILH524263 IVD524240:IVD524263 JEZ524240:JEZ524263 JOV524240:JOV524263 JYR524240:JYR524263 KIN524240:KIN524263 KSJ524240:KSJ524263 LCF524240:LCF524263 LMB524240:LMB524263 LVX524240:LVX524263 MFT524240:MFT524263 MPP524240:MPP524263 MZL524240:MZL524263 NJH524240:NJH524263 NTD524240:NTD524263 OCZ524240:OCZ524263 OMV524240:OMV524263 OWR524240:OWR524263 PGN524240:PGN524263 PQJ524240:PQJ524263 QAF524240:QAF524263 QKB524240:QKB524263 QTX524240:QTX524263 RDT524240:RDT524263 RNP524240:RNP524263 RXL524240:RXL524263 SHH524240:SHH524263 SRD524240:SRD524263 TAZ524240:TAZ524263 TKV524240:TKV524263 TUR524240:TUR524263 UEN524240:UEN524263 UOJ524240:UOJ524263 UYF524240:UYF524263 VIB524240:VIB524263 VRX524240:VRX524263 WBT524240:WBT524263 WLP524240:WLP524263 WVL524240:WVL524263 C589777:C589800 IZ589776:IZ589799 SV589776:SV589799 ACR589776:ACR589799 AMN589776:AMN589799 AWJ589776:AWJ589799 BGF589776:BGF589799 BQB589776:BQB589799 BZX589776:BZX589799 CJT589776:CJT589799 CTP589776:CTP589799 DDL589776:DDL589799 DNH589776:DNH589799 DXD589776:DXD589799 EGZ589776:EGZ589799 EQV589776:EQV589799 FAR589776:FAR589799 FKN589776:FKN589799 FUJ589776:FUJ589799 GEF589776:GEF589799 GOB589776:GOB589799 GXX589776:GXX589799 HHT589776:HHT589799 HRP589776:HRP589799 IBL589776:IBL589799 ILH589776:ILH589799 IVD589776:IVD589799 JEZ589776:JEZ589799 JOV589776:JOV589799 JYR589776:JYR589799 KIN589776:KIN589799 KSJ589776:KSJ589799 LCF589776:LCF589799 LMB589776:LMB589799 LVX589776:LVX589799 MFT589776:MFT589799 MPP589776:MPP589799 MZL589776:MZL589799 NJH589776:NJH589799 NTD589776:NTD589799 OCZ589776:OCZ589799 OMV589776:OMV589799 OWR589776:OWR589799 PGN589776:PGN589799 PQJ589776:PQJ589799 QAF589776:QAF589799 QKB589776:QKB589799 QTX589776:QTX589799 RDT589776:RDT589799 RNP589776:RNP589799 RXL589776:RXL589799 SHH589776:SHH589799 SRD589776:SRD589799 TAZ589776:TAZ589799 TKV589776:TKV589799 TUR589776:TUR589799 UEN589776:UEN589799 UOJ589776:UOJ589799 UYF589776:UYF589799 VIB589776:VIB589799 VRX589776:VRX589799 WBT589776:WBT589799 WLP589776:WLP589799 WVL589776:WVL589799 C655313:C655336 IZ655312:IZ655335 SV655312:SV655335 ACR655312:ACR655335 AMN655312:AMN655335 AWJ655312:AWJ655335 BGF655312:BGF655335 BQB655312:BQB655335 BZX655312:BZX655335 CJT655312:CJT655335 CTP655312:CTP655335 DDL655312:DDL655335 DNH655312:DNH655335 DXD655312:DXD655335 EGZ655312:EGZ655335 EQV655312:EQV655335 FAR655312:FAR655335 FKN655312:FKN655335 FUJ655312:FUJ655335 GEF655312:GEF655335 GOB655312:GOB655335 GXX655312:GXX655335 HHT655312:HHT655335 HRP655312:HRP655335 IBL655312:IBL655335 ILH655312:ILH655335 IVD655312:IVD655335 JEZ655312:JEZ655335 JOV655312:JOV655335 JYR655312:JYR655335 KIN655312:KIN655335 KSJ655312:KSJ655335 LCF655312:LCF655335 LMB655312:LMB655335 LVX655312:LVX655335 MFT655312:MFT655335 MPP655312:MPP655335 MZL655312:MZL655335 NJH655312:NJH655335 NTD655312:NTD655335 OCZ655312:OCZ655335 OMV655312:OMV655335 OWR655312:OWR655335 PGN655312:PGN655335 PQJ655312:PQJ655335 QAF655312:QAF655335 QKB655312:QKB655335 QTX655312:QTX655335 RDT655312:RDT655335 RNP655312:RNP655335 RXL655312:RXL655335 SHH655312:SHH655335 SRD655312:SRD655335 TAZ655312:TAZ655335 TKV655312:TKV655335 TUR655312:TUR655335 UEN655312:UEN655335 UOJ655312:UOJ655335 UYF655312:UYF655335 VIB655312:VIB655335 VRX655312:VRX655335 WBT655312:WBT655335 WLP655312:WLP655335 WVL655312:WVL655335 C720849:C720872 IZ720848:IZ720871 SV720848:SV720871 ACR720848:ACR720871 AMN720848:AMN720871 AWJ720848:AWJ720871 BGF720848:BGF720871 BQB720848:BQB720871 BZX720848:BZX720871 CJT720848:CJT720871 CTP720848:CTP720871 DDL720848:DDL720871 DNH720848:DNH720871 DXD720848:DXD720871 EGZ720848:EGZ720871 EQV720848:EQV720871 FAR720848:FAR720871 FKN720848:FKN720871 FUJ720848:FUJ720871 GEF720848:GEF720871 GOB720848:GOB720871 GXX720848:GXX720871 HHT720848:HHT720871 HRP720848:HRP720871 IBL720848:IBL720871 ILH720848:ILH720871 IVD720848:IVD720871 JEZ720848:JEZ720871 JOV720848:JOV720871 JYR720848:JYR720871 KIN720848:KIN720871 KSJ720848:KSJ720871 LCF720848:LCF720871 LMB720848:LMB720871 LVX720848:LVX720871 MFT720848:MFT720871 MPP720848:MPP720871 MZL720848:MZL720871 NJH720848:NJH720871 NTD720848:NTD720871 OCZ720848:OCZ720871 OMV720848:OMV720871 OWR720848:OWR720871 PGN720848:PGN720871 PQJ720848:PQJ720871 QAF720848:QAF720871 QKB720848:QKB720871 QTX720848:QTX720871 RDT720848:RDT720871 RNP720848:RNP720871 RXL720848:RXL720871 SHH720848:SHH720871 SRD720848:SRD720871 TAZ720848:TAZ720871 TKV720848:TKV720871 TUR720848:TUR720871 UEN720848:UEN720871 UOJ720848:UOJ720871 UYF720848:UYF720871 VIB720848:VIB720871 VRX720848:VRX720871 WBT720848:WBT720871 WLP720848:WLP720871 WVL720848:WVL720871 C786385:C786408 IZ786384:IZ786407 SV786384:SV786407 ACR786384:ACR786407 AMN786384:AMN786407 AWJ786384:AWJ786407 BGF786384:BGF786407 BQB786384:BQB786407 BZX786384:BZX786407 CJT786384:CJT786407 CTP786384:CTP786407 DDL786384:DDL786407 DNH786384:DNH786407 DXD786384:DXD786407 EGZ786384:EGZ786407 EQV786384:EQV786407 FAR786384:FAR786407 FKN786384:FKN786407 FUJ786384:FUJ786407 GEF786384:GEF786407 GOB786384:GOB786407 GXX786384:GXX786407 HHT786384:HHT786407 HRP786384:HRP786407 IBL786384:IBL786407 ILH786384:ILH786407 IVD786384:IVD786407 JEZ786384:JEZ786407 JOV786384:JOV786407 JYR786384:JYR786407 KIN786384:KIN786407 KSJ786384:KSJ786407 LCF786384:LCF786407 LMB786384:LMB786407 LVX786384:LVX786407 MFT786384:MFT786407 MPP786384:MPP786407 MZL786384:MZL786407 NJH786384:NJH786407 NTD786384:NTD786407 OCZ786384:OCZ786407 OMV786384:OMV786407 OWR786384:OWR786407 PGN786384:PGN786407 PQJ786384:PQJ786407 QAF786384:QAF786407 QKB786384:QKB786407 QTX786384:QTX786407 RDT786384:RDT786407 RNP786384:RNP786407 RXL786384:RXL786407 SHH786384:SHH786407 SRD786384:SRD786407 TAZ786384:TAZ786407 TKV786384:TKV786407 TUR786384:TUR786407 UEN786384:UEN786407 UOJ786384:UOJ786407 UYF786384:UYF786407 VIB786384:VIB786407 VRX786384:VRX786407 WBT786384:WBT786407 WLP786384:WLP786407 WVL786384:WVL786407 C851921:C851944 IZ851920:IZ851943 SV851920:SV851943 ACR851920:ACR851943 AMN851920:AMN851943 AWJ851920:AWJ851943 BGF851920:BGF851943 BQB851920:BQB851943 BZX851920:BZX851943 CJT851920:CJT851943 CTP851920:CTP851943 DDL851920:DDL851943 DNH851920:DNH851943 DXD851920:DXD851943 EGZ851920:EGZ851943 EQV851920:EQV851943 FAR851920:FAR851943 FKN851920:FKN851943 FUJ851920:FUJ851943 GEF851920:GEF851943 GOB851920:GOB851943 GXX851920:GXX851943 HHT851920:HHT851943 HRP851920:HRP851943 IBL851920:IBL851943 ILH851920:ILH851943 IVD851920:IVD851943 JEZ851920:JEZ851943 JOV851920:JOV851943 JYR851920:JYR851943 KIN851920:KIN851943 KSJ851920:KSJ851943 LCF851920:LCF851943 LMB851920:LMB851943 LVX851920:LVX851943 MFT851920:MFT851943 MPP851920:MPP851943 MZL851920:MZL851943 NJH851920:NJH851943 NTD851920:NTD851943 OCZ851920:OCZ851943 OMV851920:OMV851943 OWR851920:OWR851943 PGN851920:PGN851943 PQJ851920:PQJ851943 QAF851920:QAF851943 QKB851920:QKB851943 QTX851920:QTX851943 RDT851920:RDT851943 RNP851920:RNP851943 RXL851920:RXL851943 SHH851920:SHH851943 SRD851920:SRD851943 TAZ851920:TAZ851943 TKV851920:TKV851943 TUR851920:TUR851943 UEN851920:UEN851943 UOJ851920:UOJ851943 UYF851920:UYF851943 VIB851920:VIB851943 VRX851920:VRX851943 WBT851920:WBT851943 WLP851920:WLP851943 WVL851920:WVL851943 C917457:C917480 IZ917456:IZ917479 SV917456:SV917479 ACR917456:ACR917479 AMN917456:AMN917479 AWJ917456:AWJ917479 BGF917456:BGF917479 BQB917456:BQB917479 BZX917456:BZX917479 CJT917456:CJT917479 CTP917456:CTP917479 DDL917456:DDL917479 DNH917456:DNH917479 DXD917456:DXD917479 EGZ917456:EGZ917479 EQV917456:EQV917479 FAR917456:FAR917479 FKN917456:FKN917479 FUJ917456:FUJ917479 GEF917456:GEF917479 GOB917456:GOB917479 GXX917456:GXX917479 HHT917456:HHT917479 HRP917456:HRP917479 IBL917456:IBL917479 ILH917456:ILH917479 IVD917456:IVD917479 JEZ917456:JEZ917479 JOV917456:JOV917479 JYR917456:JYR917479 KIN917456:KIN917479 KSJ917456:KSJ917479 LCF917456:LCF917479 LMB917456:LMB917479 LVX917456:LVX917479 MFT917456:MFT917479 MPP917456:MPP917479 MZL917456:MZL917479 NJH917456:NJH917479 NTD917456:NTD917479 OCZ917456:OCZ917479 OMV917456:OMV917479 OWR917456:OWR917479 PGN917456:PGN917479 PQJ917456:PQJ917479 QAF917456:QAF917479 QKB917456:QKB917479 QTX917456:QTX917479 RDT917456:RDT917479 RNP917456:RNP917479 RXL917456:RXL917479 SHH917456:SHH917479 SRD917456:SRD917479 TAZ917456:TAZ917479 TKV917456:TKV917479 TUR917456:TUR917479 UEN917456:UEN917479 UOJ917456:UOJ917479 UYF917456:UYF917479 VIB917456:VIB917479 VRX917456:VRX917479 WBT917456:WBT917479 WLP917456:WLP917479 WVL917456:WVL917479 C982993:C983016 IZ982992:IZ983015 SV982992:SV983015 ACR982992:ACR983015 AMN982992:AMN983015 AWJ982992:AWJ983015 BGF982992:BGF983015 BQB982992:BQB983015 BZX982992:BZX983015 CJT982992:CJT983015 CTP982992:CTP983015 DDL982992:DDL983015 DNH982992:DNH983015 DXD982992:DXD983015 EGZ982992:EGZ983015 EQV982992:EQV983015 FAR982992:FAR983015 FKN982992:FKN983015 FUJ982992:FUJ983015 GEF982992:GEF983015 GOB982992:GOB983015 GXX982992:GXX983015 HHT982992:HHT983015 HRP982992:HRP983015 IBL982992:IBL983015 ILH982992:ILH983015 IVD982992:IVD983015 JEZ982992:JEZ983015 JOV982992:JOV983015 JYR982992:JYR983015 KIN982992:KIN983015 KSJ982992:KSJ983015 LCF982992:LCF983015 LMB982992:LMB983015 LVX982992:LVX983015 MFT982992:MFT983015 MPP982992:MPP983015 MZL982992:MZL983015 NJH982992:NJH983015 NTD982992:NTD983015 OCZ982992:OCZ983015 OMV982992:OMV983015 OWR982992:OWR983015 PGN982992:PGN983015 PQJ982992:PQJ983015 QAF982992:QAF983015 QKB982992:QKB983015 QTX982992:QTX983015 RDT982992:RDT983015 RNP982992:RNP983015 RXL982992:RXL983015 SHH982992:SHH983015 SRD982992:SRD983015 TAZ982992:TAZ983015 TKV982992:TKV983015 TUR982992:TUR983015 UEN982992:UEN983015 UOJ982992:UOJ983015 UYF982992:UYF983015 VIB982992:VIB983015 VRX982992:VRX983015 WBT982992:WBT983015 WLP982992:WLP983015 WVL982992:WVL983015 D13:D16 SL25:SL29 D48:D50 D6:D8 D34:D36 WLF14:WLF21 WBJ14:WBJ21 VRN14:VRN21 VHR14:VHR21 UXV14:UXV21 UNZ14:UNZ21 UED14:UED21 TUH14:TUH21 TKL14:TKL21 TAP14:TAP21 SQT14:SQT21 SGX14:SGX21 RXB14:RXB21 RNF14:RNF21 RDJ14:RDJ21 QTN14:QTN21 QJR14:QJR21 PZV14:PZV21 PPZ14:PPZ21 PGD14:PGD21 OWH14:OWH21 OML14:OML21 OCP14:OCP21 NST14:NST21 NIX14:NIX21 MZB14:MZB21 MPF14:MPF21 MFJ14:MFJ21 LVN14:LVN21 LLR14:LLR21 LBV14:LBV21 KRZ14:KRZ21 KID14:KID21 JYH14:JYH21 JOL14:JOL21 JEP14:JEP21 IUT14:IUT21 IKX14:IKX21 IBB14:IBB21 HRF14:HRF21 HHJ14:HHJ21 GXN14:GXN21 GNR14:GNR21 GDV14:GDV21 FTZ14:FTZ21 FKD14:FKD21 FAH14:FAH21 EQL14:EQL21 EGP14:EGP21 DWT14:DWT21 DMX14:DMX21 DDB14:DDB21 CTF14:CTF21 CJJ14:CJJ21 BZN14:BZN21 BPR14:BPR21 BFV14:BFV21 AVZ14:AVZ21 AMD14:AMD21 ACH14:ACH21 SL14:SL21 IP14:IP21 WVB14:WVB21 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D21:D22 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D27:D29 D41:D43 D55:D57 D62:D64 D69:D71 D76:D78 D83:D85 D97:D98 D90:D92" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65489:C65512 IZ65488:IZ65511 SV65488:SV65511 ACR65488:ACR65511 AMN65488:AMN65511 AWJ65488:AWJ65511 BGF65488:BGF65511 BQB65488:BQB65511 BZX65488:BZX65511 CJT65488:CJT65511 CTP65488:CTP65511 DDL65488:DDL65511 DNH65488:DNH65511 DXD65488:DXD65511 EGZ65488:EGZ65511 EQV65488:EQV65511 FAR65488:FAR65511 FKN65488:FKN65511 FUJ65488:FUJ65511 GEF65488:GEF65511 GOB65488:GOB65511 GXX65488:GXX65511 HHT65488:HHT65511 HRP65488:HRP65511 IBL65488:IBL65511 ILH65488:ILH65511 IVD65488:IVD65511 JEZ65488:JEZ65511 JOV65488:JOV65511 JYR65488:JYR65511 KIN65488:KIN65511 KSJ65488:KSJ65511 LCF65488:LCF65511 LMB65488:LMB65511 LVX65488:LVX65511 MFT65488:MFT65511 MPP65488:MPP65511 MZL65488:MZL65511 NJH65488:NJH65511 NTD65488:NTD65511 OCZ65488:OCZ65511 OMV65488:OMV65511 OWR65488:OWR65511 PGN65488:PGN65511 PQJ65488:PQJ65511 QAF65488:QAF65511 QKB65488:QKB65511 QTX65488:QTX65511 RDT65488:RDT65511 RNP65488:RNP65511 RXL65488:RXL65511 SHH65488:SHH65511 SRD65488:SRD65511 TAZ65488:TAZ65511 TKV65488:TKV65511 TUR65488:TUR65511 UEN65488:UEN65511 UOJ65488:UOJ65511 UYF65488:UYF65511 VIB65488:VIB65511 VRX65488:VRX65511 WBT65488:WBT65511 WLP65488:WLP65511 WVL65488:WVL65511 C131025:C131048 IZ131024:IZ131047 SV131024:SV131047 ACR131024:ACR131047 AMN131024:AMN131047 AWJ131024:AWJ131047 BGF131024:BGF131047 BQB131024:BQB131047 BZX131024:BZX131047 CJT131024:CJT131047 CTP131024:CTP131047 DDL131024:DDL131047 DNH131024:DNH131047 DXD131024:DXD131047 EGZ131024:EGZ131047 EQV131024:EQV131047 FAR131024:FAR131047 FKN131024:FKN131047 FUJ131024:FUJ131047 GEF131024:GEF131047 GOB131024:GOB131047 GXX131024:GXX131047 HHT131024:HHT131047 HRP131024:HRP131047 IBL131024:IBL131047 ILH131024:ILH131047 IVD131024:IVD131047 JEZ131024:JEZ131047 JOV131024:JOV131047 JYR131024:JYR131047 KIN131024:KIN131047 KSJ131024:KSJ131047 LCF131024:LCF131047 LMB131024:LMB131047 LVX131024:LVX131047 MFT131024:MFT131047 MPP131024:MPP131047 MZL131024:MZL131047 NJH131024:NJH131047 NTD131024:NTD131047 OCZ131024:OCZ131047 OMV131024:OMV131047 OWR131024:OWR131047 PGN131024:PGN131047 PQJ131024:PQJ131047 QAF131024:QAF131047 QKB131024:QKB131047 QTX131024:QTX131047 RDT131024:RDT131047 RNP131024:RNP131047 RXL131024:RXL131047 SHH131024:SHH131047 SRD131024:SRD131047 TAZ131024:TAZ131047 TKV131024:TKV131047 TUR131024:TUR131047 UEN131024:UEN131047 UOJ131024:UOJ131047 UYF131024:UYF131047 VIB131024:VIB131047 VRX131024:VRX131047 WBT131024:WBT131047 WLP131024:WLP131047 WVL131024:WVL131047 C196561:C196584 IZ196560:IZ196583 SV196560:SV196583 ACR196560:ACR196583 AMN196560:AMN196583 AWJ196560:AWJ196583 BGF196560:BGF196583 BQB196560:BQB196583 BZX196560:BZX196583 CJT196560:CJT196583 CTP196560:CTP196583 DDL196560:DDL196583 DNH196560:DNH196583 DXD196560:DXD196583 EGZ196560:EGZ196583 EQV196560:EQV196583 FAR196560:FAR196583 FKN196560:FKN196583 FUJ196560:FUJ196583 GEF196560:GEF196583 GOB196560:GOB196583 GXX196560:GXX196583 HHT196560:HHT196583 HRP196560:HRP196583 IBL196560:IBL196583 ILH196560:ILH196583 IVD196560:IVD196583 JEZ196560:JEZ196583 JOV196560:JOV196583 JYR196560:JYR196583 KIN196560:KIN196583 KSJ196560:KSJ196583 LCF196560:LCF196583 LMB196560:LMB196583 LVX196560:LVX196583 MFT196560:MFT196583 MPP196560:MPP196583 MZL196560:MZL196583 NJH196560:NJH196583 NTD196560:NTD196583 OCZ196560:OCZ196583 OMV196560:OMV196583 OWR196560:OWR196583 PGN196560:PGN196583 PQJ196560:PQJ196583 QAF196560:QAF196583 QKB196560:QKB196583 QTX196560:QTX196583 RDT196560:RDT196583 RNP196560:RNP196583 RXL196560:RXL196583 SHH196560:SHH196583 SRD196560:SRD196583 TAZ196560:TAZ196583 TKV196560:TKV196583 TUR196560:TUR196583 UEN196560:UEN196583 UOJ196560:UOJ196583 UYF196560:UYF196583 VIB196560:VIB196583 VRX196560:VRX196583 WBT196560:WBT196583 WLP196560:WLP196583 WVL196560:WVL196583 C262097:C262120 IZ262096:IZ262119 SV262096:SV262119 ACR262096:ACR262119 AMN262096:AMN262119 AWJ262096:AWJ262119 BGF262096:BGF262119 BQB262096:BQB262119 BZX262096:BZX262119 CJT262096:CJT262119 CTP262096:CTP262119 DDL262096:DDL262119 DNH262096:DNH262119 DXD262096:DXD262119 EGZ262096:EGZ262119 EQV262096:EQV262119 FAR262096:FAR262119 FKN262096:FKN262119 FUJ262096:FUJ262119 GEF262096:GEF262119 GOB262096:GOB262119 GXX262096:GXX262119 HHT262096:HHT262119 HRP262096:HRP262119 IBL262096:IBL262119 ILH262096:ILH262119 IVD262096:IVD262119 JEZ262096:JEZ262119 JOV262096:JOV262119 JYR262096:JYR262119 KIN262096:KIN262119 KSJ262096:KSJ262119 LCF262096:LCF262119 LMB262096:LMB262119 LVX262096:LVX262119 MFT262096:MFT262119 MPP262096:MPP262119 MZL262096:MZL262119 NJH262096:NJH262119 NTD262096:NTD262119 OCZ262096:OCZ262119 OMV262096:OMV262119 OWR262096:OWR262119 PGN262096:PGN262119 PQJ262096:PQJ262119 QAF262096:QAF262119 QKB262096:QKB262119 QTX262096:QTX262119 RDT262096:RDT262119 RNP262096:RNP262119 RXL262096:RXL262119 SHH262096:SHH262119 SRD262096:SRD262119 TAZ262096:TAZ262119 TKV262096:TKV262119 TUR262096:TUR262119 UEN262096:UEN262119 UOJ262096:UOJ262119 UYF262096:UYF262119 VIB262096:VIB262119 VRX262096:VRX262119 WBT262096:WBT262119 WLP262096:WLP262119 WVL262096:WVL262119 C327633:C327656 IZ327632:IZ327655 SV327632:SV327655 ACR327632:ACR327655 AMN327632:AMN327655 AWJ327632:AWJ327655 BGF327632:BGF327655 BQB327632:BQB327655 BZX327632:BZX327655 CJT327632:CJT327655 CTP327632:CTP327655 DDL327632:DDL327655 DNH327632:DNH327655 DXD327632:DXD327655 EGZ327632:EGZ327655 EQV327632:EQV327655 FAR327632:FAR327655 FKN327632:FKN327655 FUJ327632:FUJ327655 GEF327632:GEF327655 GOB327632:GOB327655 GXX327632:GXX327655 HHT327632:HHT327655 HRP327632:HRP327655 IBL327632:IBL327655 ILH327632:ILH327655 IVD327632:IVD327655 JEZ327632:JEZ327655 JOV327632:JOV327655 JYR327632:JYR327655 KIN327632:KIN327655 KSJ327632:KSJ327655 LCF327632:LCF327655 LMB327632:LMB327655 LVX327632:LVX327655 MFT327632:MFT327655 MPP327632:MPP327655 MZL327632:MZL327655 NJH327632:NJH327655 NTD327632:NTD327655 OCZ327632:OCZ327655 OMV327632:OMV327655 OWR327632:OWR327655 PGN327632:PGN327655 PQJ327632:PQJ327655 QAF327632:QAF327655 QKB327632:QKB327655 QTX327632:QTX327655 RDT327632:RDT327655 RNP327632:RNP327655 RXL327632:RXL327655 SHH327632:SHH327655 SRD327632:SRD327655 TAZ327632:TAZ327655 TKV327632:TKV327655 TUR327632:TUR327655 UEN327632:UEN327655 UOJ327632:UOJ327655 UYF327632:UYF327655 VIB327632:VIB327655 VRX327632:VRX327655 WBT327632:WBT327655 WLP327632:WLP327655 WVL327632:WVL327655 C393169:C393192 IZ393168:IZ393191 SV393168:SV393191 ACR393168:ACR393191 AMN393168:AMN393191 AWJ393168:AWJ393191 BGF393168:BGF393191 BQB393168:BQB393191 BZX393168:BZX393191 CJT393168:CJT393191 CTP393168:CTP393191 DDL393168:DDL393191 DNH393168:DNH393191 DXD393168:DXD393191 EGZ393168:EGZ393191 EQV393168:EQV393191 FAR393168:FAR393191 FKN393168:FKN393191 FUJ393168:FUJ393191 GEF393168:GEF393191 GOB393168:GOB393191 GXX393168:GXX393191 HHT393168:HHT393191 HRP393168:HRP393191 IBL393168:IBL393191 ILH393168:ILH393191 IVD393168:IVD393191 JEZ393168:JEZ393191 JOV393168:JOV393191 JYR393168:JYR393191 KIN393168:KIN393191 KSJ393168:KSJ393191 LCF393168:LCF393191 LMB393168:LMB393191 LVX393168:LVX393191 MFT393168:MFT393191 MPP393168:MPP393191 MZL393168:MZL393191 NJH393168:NJH393191 NTD393168:NTD393191 OCZ393168:OCZ393191 OMV393168:OMV393191 OWR393168:OWR393191 PGN393168:PGN393191 PQJ393168:PQJ393191 QAF393168:QAF393191 QKB393168:QKB393191 QTX393168:QTX393191 RDT393168:RDT393191 RNP393168:RNP393191 RXL393168:RXL393191 SHH393168:SHH393191 SRD393168:SRD393191 TAZ393168:TAZ393191 TKV393168:TKV393191 TUR393168:TUR393191 UEN393168:UEN393191 UOJ393168:UOJ393191 UYF393168:UYF393191 VIB393168:VIB393191 VRX393168:VRX393191 WBT393168:WBT393191 WLP393168:WLP393191 WVL393168:WVL393191 C458705:C458728 IZ458704:IZ458727 SV458704:SV458727 ACR458704:ACR458727 AMN458704:AMN458727 AWJ458704:AWJ458727 BGF458704:BGF458727 BQB458704:BQB458727 BZX458704:BZX458727 CJT458704:CJT458727 CTP458704:CTP458727 DDL458704:DDL458727 DNH458704:DNH458727 DXD458704:DXD458727 EGZ458704:EGZ458727 EQV458704:EQV458727 FAR458704:FAR458727 FKN458704:FKN458727 FUJ458704:FUJ458727 GEF458704:GEF458727 GOB458704:GOB458727 GXX458704:GXX458727 HHT458704:HHT458727 HRP458704:HRP458727 IBL458704:IBL458727 ILH458704:ILH458727 IVD458704:IVD458727 JEZ458704:JEZ458727 JOV458704:JOV458727 JYR458704:JYR458727 KIN458704:KIN458727 KSJ458704:KSJ458727 LCF458704:LCF458727 LMB458704:LMB458727 LVX458704:LVX458727 MFT458704:MFT458727 MPP458704:MPP458727 MZL458704:MZL458727 NJH458704:NJH458727 NTD458704:NTD458727 OCZ458704:OCZ458727 OMV458704:OMV458727 OWR458704:OWR458727 PGN458704:PGN458727 PQJ458704:PQJ458727 QAF458704:QAF458727 QKB458704:QKB458727 QTX458704:QTX458727 RDT458704:RDT458727 RNP458704:RNP458727 RXL458704:RXL458727 SHH458704:SHH458727 SRD458704:SRD458727 TAZ458704:TAZ458727 TKV458704:TKV458727 TUR458704:TUR458727 UEN458704:UEN458727 UOJ458704:UOJ458727 UYF458704:UYF458727 VIB458704:VIB458727 VRX458704:VRX458727 WBT458704:WBT458727 WLP458704:WLP458727 WVL458704:WVL458727 C524241:C524264 IZ524240:IZ524263 SV524240:SV524263 ACR524240:ACR524263 AMN524240:AMN524263 AWJ524240:AWJ524263 BGF524240:BGF524263 BQB524240:BQB524263 BZX524240:BZX524263 CJT524240:CJT524263 CTP524240:CTP524263 DDL524240:DDL524263 DNH524240:DNH524263 DXD524240:DXD524263 EGZ524240:EGZ524263 EQV524240:EQV524263 FAR524240:FAR524263 FKN524240:FKN524263 FUJ524240:FUJ524263 GEF524240:GEF524263 GOB524240:GOB524263 GXX524240:GXX524263 HHT524240:HHT524263 HRP524240:HRP524263 IBL524240:IBL524263 ILH524240:ILH524263 IVD524240:IVD524263 JEZ524240:JEZ524263 JOV524240:JOV524263 JYR524240:JYR524263 KIN524240:KIN524263 KSJ524240:KSJ524263 LCF524240:LCF524263 LMB524240:LMB524263 LVX524240:LVX524263 MFT524240:MFT524263 MPP524240:MPP524263 MZL524240:MZL524263 NJH524240:NJH524263 NTD524240:NTD524263 OCZ524240:OCZ524263 OMV524240:OMV524263 OWR524240:OWR524263 PGN524240:PGN524263 PQJ524240:PQJ524263 QAF524240:QAF524263 QKB524240:QKB524263 QTX524240:QTX524263 RDT524240:RDT524263 RNP524240:RNP524263 RXL524240:RXL524263 SHH524240:SHH524263 SRD524240:SRD524263 TAZ524240:TAZ524263 TKV524240:TKV524263 TUR524240:TUR524263 UEN524240:UEN524263 UOJ524240:UOJ524263 UYF524240:UYF524263 VIB524240:VIB524263 VRX524240:VRX524263 WBT524240:WBT524263 WLP524240:WLP524263 WVL524240:WVL524263 C589777:C589800 IZ589776:IZ589799 SV589776:SV589799 ACR589776:ACR589799 AMN589776:AMN589799 AWJ589776:AWJ589799 BGF589776:BGF589799 BQB589776:BQB589799 BZX589776:BZX589799 CJT589776:CJT589799 CTP589776:CTP589799 DDL589776:DDL589799 DNH589776:DNH589799 DXD589776:DXD589799 EGZ589776:EGZ589799 EQV589776:EQV589799 FAR589776:FAR589799 FKN589776:FKN589799 FUJ589776:FUJ589799 GEF589776:GEF589799 GOB589776:GOB589799 GXX589776:GXX589799 HHT589776:HHT589799 HRP589776:HRP589799 IBL589776:IBL589799 ILH589776:ILH589799 IVD589776:IVD589799 JEZ589776:JEZ589799 JOV589776:JOV589799 JYR589776:JYR589799 KIN589776:KIN589799 KSJ589776:KSJ589799 LCF589776:LCF589799 LMB589776:LMB589799 LVX589776:LVX589799 MFT589776:MFT589799 MPP589776:MPP589799 MZL589776:MZL589799 NJH589776:NJH589799 NTD589776:NTD589799 OCZ589776:OCZ589799 OMV589776:OMV589799 OWR589776:OWR589799 PGN589776:PGN589799 PQJ589776:PQJ589799 QAF589776:QAF589799 QKB589776:QKB589799 QTX589776:QTX589799 RDT589776:RDT589799 RNP589776:RNP589799 RXL589776:RXL589799 SHH589776:SHH589799 SRD589776:SRD589799 TAZ589776:TAZ589799 TKV589776:TKV589799 TUR589776:TUR589799 UEN589776:UEN589799 UOJ589776:UOJ589799 UYF589776:UYF589799 VIB589776:VIB589799 VRX589776:VRX589799 WBT589776:WBT589799 WLP589776:WLP589799 WVL589776:WVL589799 C655313:C655336 IZ655312:IZ655335 SV655312:SV655335 ACR655312:ACR655335 AMN655312:AMN655335 AWJ655312:AWJ655335 BGF655312:BGF655335 BQB655312:BQB655335 BZX655312:BZX655335 CJT655312:CJT655335 CTP655312:CTP655335 DDL655312:DDL655335 DNH655312:DNH655335 DXD655312:DXD655335 EGZ655312:EGZ655335 EQV655312:EQV655335 FAR655312:FAR655335 FKN655312:FKN655335 FUJ655312:FUJ655335 GEF655312:GEF655335 GOB655312:GOB655335 GXX655312:GXX655335 HHT655312:HHT655335 HRP655312:HRP655335 IBL655312:IBL655335 ILH655312:ILH655335 IVD655312:IVD655335 JEZ655312:JEZ655335 JOV655312:JOV655335 JYR655312:JYR655335 KIN655312:KIN655335 KSJ655312:KSJ655335 LCF655312:LCF655335 LMB655312:LMB655335 LVX655312:LVX655335 MFT655312:MFT655335 MPP655312:MPP655335 MZL655312:MZL655335 NJH655312:NJH655335 NTD655312:NTD655335 OCZ655312:OCZ655335 OMV655312:OMV655335 OWR655312:OWR655335 PGN655312:PGN655335 PQJ655312:PQJ655335 QAF655312:QAF655335 QKB655312:QKB655335 QTX655312:QTX655335 RDT655312:RDT655335 RNP655312:RNP655335 RXL655312:RXL655335 SHH655312:SHH655335 SRD655312:SRD655335 TAZ655312:TAZ655335 TKV655312:TKV655335 TUR655312:TUR655335 UEN655312:UEN655335 UOJ655312:UOJ655335 UYF655312:UYF655335 VIB655312:VIB655335 VRX655312:VRX655335 WBT655312:WBT655335 WLP655312:WLP655335 WVL655312:WVL655335 C720849:C720872 IZ720848:IZ720871 SV720848:SV720871 ACR720848:ACR720871 AMN720848:AMN720871 AWJ720848:AWJ720871 BGF720848:BGF720871 BQB720848:BQB720871 BZX720848:BZX720871 CJT720848:CJT720871 CTP720848:CTP720871 DDL720848:DDL720871 DNH720848:DNH720871 DXD720848:DXD720871 EGZ720848:EGZ720871 EQV720848:EQV720871 FAR720848:FAR720871 FKN720848:FKN720871 FUJ720848:FUJ720871 GEF720848:GEF720871 GOB720848:GOB720871 GXX720848:GXX720871 HHT720848:HHT720871 HRP720848:HRP720871 IBL720848:IBL720871 ILH720848:ILH720871 IVD720848:IVD720871 JEZ720848:JEZ720871 JOV720848:JOV720871 JYR720848:JYR720871 KIN720848:KIN720871 KSJ720848:KSJ720871 LCF720848:LCF720871 LMB720848:LMB720871 LVX720848:LVX720871 MFT720848:MFT720871 MPP720848:MPP720871 MZL720848:MZL720871 NJH720848:NJH720871 NTD720848:NTD720871 OCZ720848:OCZ720871 OMV720848:OMV720871 OWR720848:OWR720871 PGN720848:PGN720871 PQJ720848:PQJ720871 QAF720848:QAF720871 QKB720848:QKB720871 QTX720848:QTX720871 RDT720848:RDT720871 RNP720848:RNP720871 RXL720848:RXL720871 SHH720848:SHH720871 SRD720848:SRD720871 TAZ720848:TAZ720871 TKV720848:TKV720871 TUR720848:TUR720871 UEN720848:UEN720871 UOJ720848:UOJ720871 UYF720848:UYF720871 VIB720848:VIB720871 VRX720848:VRX720871 WBT720848:WBT720871 WLP720848:WLP720871 WVL720848:WVL720871 C786385:C786408 IZ786384:IZ786407 SV786384:SV786407 ACR786384:ACR786407 AMN786384:AMN786407 AWJ786384:AWJ786407 BGF786384:BGF786407 BQB786384:BQB786407 BZX786384:BZX786407 CJT786384:CJT786407 CTP786384:CTP786407 DDL786384:DDL786407 DNH786384:DNH786407 DXD786384:DXD786407 EGZ786384:EGZ786407 EQV786384:EQV786407 FAR786384:FAR786407 FKN786384:FKN786407 FUJ786384:FUJ786407 GEF786384:GEF786407 GOB786384:GOB786407 GXX786384:GXX786407 HHT786384:HHT786407 HRP786384:HRP786407 IBL786384:IBL786407 ILH786384:ILH786407 IVD786384:IVD786407 JEZ786384:JEZ786407 JOV786384:JOV786407 JYR786384:JYR786407 KIN786384:KIN786407 KSJ786384:KSJ786407 LCF786384:LCF786407 LMB786384:LMB786407 LVX786384:LVX786407 MFT786384:MFT786407 MPP786384:MPP786407 MZL786384:MZL786407 NJH786384:NJH786407 NTD786384:NTD786407 OCZ786384:OCZ786407 OMV786384:OMV786407 OWR786384:OWR786407 PGN786384:PGN786407 PQJ786384:PQJ786407 QAF786384:QAF786407 QKB786384:QKB786407 QTX786384:QTX786407 RDT786384:RDT786407 RNP786384:RNP786407 RXL786384:RXL786407 SHH786384:SHH786407 SRD786384:SRD786407 TAZ786384:TAZ786407 TKV786384:TKV786407 TUR786384:TUR786407 UEN786384:UEN786407 UOJ786384:UOJ786407 UYF786384:UYF786407 VIB786384:VIB786407 VRX786384:VRX786407 WBT786384:WBT786407 WLP786384:WLP786407 WVL786384:WVL786407 C851921:C851944 IZ851920:IZ851943 SV851920:SV851943 ACR851920:ACR851943 AMN851920:AMN851943 AWJ851920:AWJ851943 BGF851920:BGF851943 BQB851920:BQB851943 BZX851920:BZX851943 CJT851920:CJT851943 CTP851920:CTP851943 DDL851920:DDL851943 DNH851920:DNH851943 DXD851920:DXD851943 EGZ851920:EGZ851943 EQV851920:EQV851943 FAR851920:FAR851943 FKN851920:FKN851943 FUJ851920:FUJ851943 GEF851920:GEF851943 GOB851920:GOB851943 GXX851920:GXX851943 HHT851920:HHT851943 HRP851920:HRP851943 IBL851920:IBL851943 ILH851920:ILH851943 IVD851920:IVD851943 JEZ851920:JEZ851943 JOV851920:JOV851943 JYR851920:JYR851943 KIN851920:KIN851943 KSJ851920:KSJ851943 LCF851920:LCF851943 LMB851920:LMB851943 LVX851920:LVX851943 MFT851920:MFT851943 MPP851920:MPP851943 MZL851920:MZL851943 NJH851920:NJH851943 NTD851920:NTD851943 OCZ851920:OCZ851943 OMV851920:OMV851943 OWR851920:OWR851943 PGN851920:PGN851943 PQJ851920:PQJ851943 QAF851920:QAF851943 QKB851920:QKB851943 QTX851920:QTX851943 RDT851920:RDT851943 RNP851920:RNP851943 RXL851920:RXL851943 SHH851920:SHH851943 SRD851920:SRD851943 TAZ851920:TAZ851943 TKV851920:TKV851943 TUR851920:TUR851943 UEN851920:UEN851943 UOJ851920:UOJ851943 UYF851920:UYF851943 VIB851920:VIB851943 VRX851920:VRX851943 WBT851920:WBT851943 WLP851920:WLP851943 WVL851920:WVL851943 C917457:C917480 IZ917456:IZ917479 SV917456:SV917479 ACR917456:ACR917479 AMN917456:AMN917479 AWJ917456:AWJ917479 BGF917456:BGF917479 BQB917456:BQB917479 BZX917456:BZX917479 CJT917456:CJT917479 CTP917456:CTP917479 DDL917456:DDL917479 DNH917456:DNH917479 DXD917456:DXD917479 EGZ917456:EGZ917479 EQV917456:EQV917479 FAR917456:FAR917479 FKN917456:FKN917479 FUJ917456:FUJ917479 GEF917456:GEF917479 GOB917456:GOB917479 GXX917456:GXX917479 HHT917456:HHT917479 HRP917456:HRP917479 IBL917456:IBL917479 ILH917456:ILH917479 IVD917456:IVD917479 JEZ917456:JEZ917479 JOV917456:JOV917479 JYR917456:JYR917479 KIN917456:KIN917479 KSJ917456:KSJ917479 LCF917456:LCF917479 LMB917456:LMB917479 LVX917456:LVX917479 MFT917456:MFT917479 MPP917456:MPP917479 MZL917456:MZL917479 NJH917456:NJH917479 NTD917456:NTD917479 OCZ917456:OCZ917479 OMV917456:OMV917479 OWR917456:OWR917479 PGN917456:PGN917479 PQJ917456:PQJ917479 QAF917456:QAF917479 QKB917456:QKB917479 QTX917456:QTX917479 RDT917456:RDT917479 RNP917456:RNP917479 RXL917456:RXL917479 SHH917456:SHH917479 SRD917456:SRD917479 TAZ917456:TAZ917479 TKV917456:TKV917479 TUR917456:TUR917479 UEN917456:UEN917479 UOJ917456:UOJ917479 UYF917456:UYF917479 VIB917456:VIB917479 VRX917456:VRX917479 WBT917456:WBT917479 WLP917456:WLP917479 WVL917456:WVL917479 C982993:C983016 IZ982992:IZ983015 SV982992:SV983015 ACR982992:ACR983015 AMN982992:AMN983015 AWJ982992:AWJ983015 BGF982992:BGF983015 BQB982992:BQB983015 BZX982992:BZX983015 CJT982992:CJT983015 CTP982992:CTP983015 DDL982992:DDL983015 DNH982992:DNH983015 DXD982992:DXD983015 EGZ982992:EGZ983015 EQV982992:EQV983015 FAR982992:FAR983015 FKN982992:FKN983015 FUJ982992:FUJ983015 GEF982992:GEF983015 GOB982992:GOB983015 GXX982992:GXX983015 HHT982992:HHT983015 HRP982992:HRP983015 IBL982992:IBL983015 ILH982992:ILH983015 IVD982992:IVD983015 JEZ982992:JEZ983015 JOV982992:JOV983015 JYR982992:JYR983015 KIN982992:KIN983015 KSJ982992:KSJ983015 LCF982992:LCF983015 LMB982992:LMB983015 LVX982992:LVX983015 MFT982992:MFT983015 MPP982992:MPP983015 MZL982992:MZL983015 NJH982992:NJH983015 NTD982992:NTD983015 OCZ982992:OCZ983015 OMV982992:OMV983015 OWR982992:OWR983015 PGN982992:PGN983015 PQJ982992:PQJ983015 QAF982992:QAF983015 QKB982992:QKB983015 QTX982992:QTX983015 RDT982992:RDT983015 RNP982992:RNP983015 RXL982992:RXL983015 SHH982992:SHH983015 SRD982992:SRD983015 TAZ982992:TAZ983015 TKV982992:TKV983015 TUR982992:TUR983015 UEN982992:UEN983015 UOJ982992:UOJ983015 UYF982992:UYF983015 VIB982992:VIB983015 VRX982992:VRX983015 WBT982992:WBT983015 WLP982992:WLP983015 WVL982992:WVL983015 D13:D16 SL25:SL29 D48:D50 D6:D8 D34:D36 WLF14:WLF21 WBJ14:WBJ21 VRN14:VRN21 VHR14:VHR21 UXV14:UXV21 UNZ14:UNZ21 UED14:UED21 TUH14:TUH21 TKL14:TKL21 TAP14:TAP21 SQT14:SQT21 SGX14:SGX21 RXB14:RXB21 RNF14:RNF21 RDJ14:RDJ21 QTN14:QTN21 QJR14:QJR21 PZV14:PZV21 PPZ14:PPZ21 PGD14:PGD21 OWH14:OWH21 OML14:OML21 OCP14:OCP21 NST14:NST21 NIX14:NIX21 MZB14:MZB21 MPF14:MPF21 MFJ14:MFJ21 LVN14:LVN21 LLR14:LLR21 LBV14:LBV21 KRZ14:KRZ21 KID14:KID21 JYH14:JYH21 JOL14:JOL21 JEP14:JEP21 IUT14:IUT21 IKX14:IKX21 IBB14:IBB21 HRF14:HRF21 HHJ14:HHJ21 GXN14:GXN21 GNR14:GNR21 GDV14:GDV21 FTZ14:FTZ21 FKD14:FKD21 FAH14:FAH21 EQL14:EQL21 EGP14:EGP21 DWT14:DWT21 DMX14:DMX21 DDB14:DDB21 CTF14:CTF21 CJJ14:CJJ21 BZN14:BZN21 BPR14:BPR21 BFV14:BFV21 AVZ14:AVZ21 AMD14:AMD21 ACH14:ACH21 SL14:SL21 IP14:IP21 WVB14:WVB21 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D21:D22 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D27:D29 D41:D43 D55:D57 D62:D64 D69:D71 D76:D78 D83:D85 D97:D99 D90:D92 D104:D106" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3242,6 +3424,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -3426,12 +3614,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
@@ -3441,6 +3623,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3457,13 +3648,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E923108D-DA7B-4B5E-968B-D4DB65745FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5776B-1094-484B-90CC-845B261460DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="135">
   <si>
     <t>Database Name</t>
   </si>
@@ -400,6 +400,45 @@
   </si>
   <si>
     <t>Type of item</t>
+  </si>
+  <si>
+    <t>Missions</t>
+  </si>
+  <si>
+    <t>MissionsID</t>
+  </si>
+  <si>
+    <t>Unique ID for missions</t>
+  </si>
+  <si>
+    <t>Starts with M</t>
+  </si>
+  <si>
+    <t>Check it starts with M and is integer</t>
+  </si>
+  <si>
+    <t>MissionDate</t>
+  </si>
+  <si>
+    <t>Date of the mission</t>
+  </si>
+  <si>
+    <t>MissionObjective</t>
+  </si>
+  <si>
+    <t>Description of the mission</t>
+  </si>
+  <si>
+    <t>PeopleMissions</t>
+  </si>
+  <si>
+    <t>MissionID</t>
+  </si>
+  <si>
+    <t>ID from missions table</t>
+  </si>
+  <si>
+    <t>ID from people table</t>
   </si>
 </sst>
 </file>
@@ -588,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,6 +687,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -938,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1546,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44502.209247222221</v>
+        <v>44502.834875</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1488,17 +1557,17 @@
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1862,17 +1931,17 @@
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
@@ -3273,28 +3342,255 @@
         <v>16</v>
       </c>
     </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="35"/>
+    </row>
+    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="30"/>
+      <c r="G109" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="35"/>
+    </row>
+    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I115" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="29"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B25:J25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65490:F65505 WVO982993:WVP983008 WLS982993:WLT983008 WBW982993:WBX983008 VSA982993:VSB983008 VIE982993:VIF983008 UYI982993:UYJ983008 UOM982993:UON983008 UEQ982993:UER983008 TUU982993:TUV983008 TKY982993:TKZ983008 TBC982993:TBD983008 SRG982993:SRH983008 SHK982993:SHL983008 RXO982993:RXP983008 RNS982993:RNT983008 RDW982993:RDX983008 QUA982993:QUB983008 QKE982993:QKF983008 QAI982993:QAJ983008 PQM982993:PQN983008 PGQ982993:PGR983008 OWU982993:OWV983008 OMY982993:OMZ983008 ODC982993:ODD983008 NTG982993:NTH983008 NJK982993:NJL983008 MZO982993:MZP983008 MPS982993:MPT983008 MFW982993:MFX983008 LWA982993:LWB983008 LME982993:LMF983008 LCI982993:LCJ983008 KSM982993:KSN983008 KIQ982993:KIR983008 JYU982993:JYV983008 JOY982993:JOZ983008 JFC982993:JFD983008 IVG982993:IVH983008 ILK982993:ILL983008 IBO982993:IBP983008 HRS982993:HRT983008 HHW982993:HHX983008 GYA982993:GYB983008 GOE982993:GOF983008 GEI982993:GEJ983008 FUM982993:FUN983008 FKQ982993:FKR983008 FAU982993:FAV983008 EQY982993:EQZ983008 EHC982993:EHD983008 DXG982993:DXH983008 DNK982993:DNL983008 DDO982993:DDP983008 CTS982993:CTT983008 CJW982993:CJX983008 CAA982993:CAB983008 BQE982993:BQF983008 BGI982993:BGJ983008 AWM982993:AWN983008 AMQ982993:AMR983008 ACU982993:ACV983008 SY982993:SZ983008 JC982993:JD983008 F982994:F983009 WVO917457:WVP917472 WLS917457:WLT917472 WBW917457:WBX917472 VSA917457:VSB917472 VIE917457:VIF917472 UYI917457:UYJ917472 UOM917457:UON917472 UEQ917457:UER917472 TUU917457:TUV917472 TKY917457:TKZ917472 TBC917457:TBD917472 SRG917457:SRH917472 SHK917457:SHL917472 RXO917457:RXP917472 RNS917457:RNT917472 RDW917457:RDX917472 QUA917457:QUB917472 QKE917457:QKF917472 QAI917457:QAJ917472 PQM917457:PQN917472 PGQ917457:PGR917472 OWU917457:OWV917472 OMY917457:OMZ917472 ODC917457:ODD917472 NTG917457:NTH917472 NJK917457:NJL917472 MZO917457:MZP917472 MPS917457:MPT917472 MFW917457:MFX917472 LWA917457:LWB917472 LME917457:LMF917472 LCI917457:LCJ917472 KSM917457:KSN917472 KIQ917457:KIR917472 JYU917457:JYV917472 JOY917457:JOZ917472 JFC917457:JFD917472 IVG917457:IVH917472 ILK917457:ILL917472 IBO917457:IBP917472 HRS917457:HRT917472 HHW917457:HHX917472 GYA917457:GYB917472 GOE917457:GOF917472 GEI917457:GEJ917472 FUM917457:FUN917472 FKQ917457:FKR917472 FAU917457:FAV917472 EQY917457:EQZ917472 EHC917457:EHD917472 DXG917457:DXH917472 DNK917457:DNL917472 DDO917457:DDP917472 CTS917457:CTT917472 CJW917457:CJX917472 CAA917457:CAB917472 BQE917457:BQF917472 BGI917457:BGJ917472 AWM917457:AWN917472 AMQ917457:AMR917472 ACU917457:ACV917472 SY917457:SZ917472 JC917457:JD917472 F917458:F917473 WVO851921:WVP851936 WLS851921:WLT851936 WBW851921:WBX851936 VSA851921:VSB851936 VIE851921:VIF851936 UYI851921:UYJ851936 UOM851921:UON851936 UEQ851921:UER851936 TUU851921:TUV851936 TKY851921:TKZ851936 TBC851921:TBD851936 SRG851921:SRH851936 SHK851921:SHL851936 RXO851921:RXP851936 RNS851921:RNT851936 RDW851921:RDX851936 QUA851921:QUB851936 QKE851921:QKF851936 QAI851921:QAJ851936 PQM851921:PQN851936 PGQ851921:PGR851936 OWU851921:OWV851936 OMY851921:OMZ851936 ODC851921:ODD851936 NTG851921:NTH851936 NJK851921:NJL851936 MZO851921:MZP851936 MPS851921:MPT851936 MFW851921:MFX851936 LWA851921:LWB851936 LME851921:LMF851936 LCI851921:LCJ851936 KSM851921:KSN851936 KIQ851921:KIR851936 JYU851921:JYV851936 JOY851921:JOZ851936 JFC851921:JFD851936 IVG851921:IVH851936 ILK851921:ILL851936 IBO851921:IBP851936 HRS851921:HRT851936 HHW851921:HHX851936 GYA851921:GYB851936 GOE851921:GOF851936 GEI851921:GEJ851936 FUM851921:FUN851936 FKQ851921:FKR851936 FAU851921:FAV851936 EQY851921:EQZ851936 EHC851921:EHD851936 DXG851921:DXH851936 DNK851921:DNL851936 DDO851921:DDP851936 CTS851921:CTT851936 CJW851921:CJX851936 CAA851921:CAB851936 BQE851921:BQF851936 BGI851921:BGJ851936 AWM851921:AWN851936 AMQ851921:AMR851936 ACU851921:ACV851936 SY851921:SZ851936 JC851921:JD851936 F851922:F851937 WVO786385:WVP786400 WLS786385:WLT786400 WBW786385:WBX786400 VSA786385:VSB786400 VIE786385:VIF786400 UYI786385:UYJ786400 UOM786385:UON786400 UEQ786385:UER786400 TUU786385:TUV786400 TKY786385:TKZ786400 TBC786385:TBD786400 SRG786385:SRH786400 SHK786385:SHL786400 RXO786385:RXP786400 RNS786385:RNT786400 RDW786385:RDX786400 QUA786385:QUB786400 QKE786385:QKF786400 QAI786385:QAJ786400 PQM786385:PQN786400 PGQ786385:PGR786400 OWU786385:OWV786400 OMY786385:OMZ786400 ODC786385:ODD786400 NTG786385:NTH786400 NJK786385:NJL786400 MZO786385:MZP786400 MPS786385:MPT786400 MFW786385:MFX786400 LWA786385:LWB786400 LME786385:LMF786400 LCI786385:LCJ786400 KSM786385:KSN786400 KIQ786385:KIR786400 JYU786385:JYV786400 JOY786385:JOZ786400 JFC786385:JFD786400 IVG786385:IVH786400 ILK786385:ILL786400 IBO786385:IBP786400 HRS786385:HRT786400 HHW786385:HHX786400 GYA786385:GYB786400 GOE786385:GOF786400 GEI786385:GEJ786400 FUM786385:FUN786400 FKQ786385:FKR786400 FAU786385:FAV786400 EQY786385:EQZ786400 EHC786385:EHD786400 DXG786385:DXH786400 DNK786385:DNL786400 DDO786385:DDP786400 CTS786385:CTT786400 CJW786385:CJX786400 CAA786385:CAB786400 BQE786385:BQF786400 BGI786385:BGJ786400 AWM786385:AWN786400 AMQ786385:AMR786400 ACU786385:ACV786400 SY786385:SZ786400 JC786385:JD786400 F786386:F786401 WVO720849:WVP720864 WLS720849:WLT720864 WBW720849:WBX720864 VSA720849:VSB720864 VIE720849:VIF720864 UYI720849:UYJ720864 UOM720849:UON720864 UEQ720849:UER720864 TUU720849:TUV720864 TKY720849:TKZ720864 TBC720849:TBD720864 SRG720849:SRH720864 SHK720849:SHL720864 RXO720849:RXP720864 RNS720849:RNT720864 RDW720849:RDX720864 QUA720849:QUB720864 QKE720849:QKF720864 QAI720849:QAJ720864 PQM720849:PQN720864 PGQ720849:PGR720864 OWU720849:OWV720864 OMY720849:OMZ720864 ODC720849:ODD720864 NTG720849:NTH720864 NJK720849:NJL720864 MZO720849:MZP720864 MPS720849:MPT720864 MFW720849:MFX720864 LWA720849:LWB720864 LME720849:LMF720864 LCI720849:LCJ720864 KSM720849:KSN720864 KIQ720849:KIR720864 JYU720849:JYV720864 JOY720849:JOZ720864 JFC720849:JFD720864 IVG720849:IVH720864 ILK720849:ILL720864 IBO720849:IBP720864 HRS720849:HRT720864 HHW720849:HHX720864 GYA720849:GYB720864 GOE720849:GOF720864 GEI720849:GEJ720864 FUM720849:FUN720864 FKQ720849:FKR720864 FAU720849:FAV720864 EQY720849:EQZ720864 EHC720849:EHD720864 DXG720849:DXH720864 DNK720849:DNL720864 DDO720849:DDP720864 CTS720849:CTT720864 CJW720849:CJX720864 CAA720849:CAB720864 BQE720849:BQF720864 BGI720849:BGJ720864 AWM720849:AWN720864 AMQ720849:AMR720864 ACU720849:ACV720864 SY720849:SZ720864 JC720849:JD720864 F720850:F720865 WVO655313:WVP655328 WLS655313:WLT655328 WBW655313:WBX655328 VSA655313:VSB655328 VIE655313:VIF655328 UYI655313:UYJ655328 UOM655313:UON655328 UEQ655313:UER655328 TUU655313:TUV655328 TKY655313:TKZ655328 TBC655313:TBD655328 SRG655313:SRH655328 SHK655313:SHL655328 RXO655313:RXP655328 RNS655313:RNT655328 RDW655313:RDX655328 QUA655313:QUB655328 QKE655313:QKF655328 QAI655313:QAJ655328 PQM655313:PQN655328 PGQ655313:PGR655328 OWU655313:OWV655328 OMY655313:OMZ655328 ODC655313:ODD655328 NTG655313:NTH655328 NJK655313:NJL655328 MZO655313:MZP655328 MPS655313:MPT655328 MFW655313:MFX655328 LWA655313:LWB655328 LME655313:LMF655328 LCI655313:LCJ655328 KSM655313:KSN655328 KIQ655313:KIR655328 JYU655313:JYV655328 JOY655313:JOZ655328 JFC655313:JFD655328 IVG655313:IVH655328 ILK655313:ILL655328 IBO655313:IBP655328 HRS655313:HRT655328 HHW655313:HHX655328 GYA655313:GYB655328 GOE655313:GOF655328 GEI655313:GEJ655328 FUM655313:FUN655328 FKQ655313:FKR655328 FAU655313:FAV655328 EQY655313:EQZ655328 EHC655313:EHD655328 DXG655313:DXH655328 DNK655313:DNL655328 DDO655313:DDP655328 CTS655313:CTT655328 CJW655313:CJX655328 CAA655313:CAB655328 BQE655313:BQF655328 BGI655313:BGJ655328 AWM655313:AWN655328 AMQ655313:AMR655328 ACU655313:ACV655328 SY655313:SZ655328 JC655313:JD655328 F655314:F655329 WVO589777:WVP589792 WLS589777:WLT589792 WBW589777:WBX589792 VSA589777:VSB589792 VIE589777:VIF589792 UYI589777:UYJ589792 UOM589777:UON589792 UEQ589777:UER589792 TUU589777:TUV589792 TKY589777:TKZ589792 TBC589777:TBD589792 SRG589777:SRH589792 SHK589777:SHL589792 RXO589777:RXP589792 RNS589777:RNT589792 RDW589777:RDX589792 QUA589777:QUB589792 QKE589777:QKF589792 QAI589777:QAJ589792 PQM589777:PQN589792 PGQ589777:PGR589792 OWU589777:OWV589792 OMY589777:OMZ589792 ODC589777:ODD589792 NTG589777:NTH589792 NJK589777:NJL589792 MZO589777:MZP589792 MPS589777:MPT589792 MFW589777:MFX589792 LWA589777:LWB589792 LME589777:LMF589792 LCI589777:LCJ589792 KSM589777:KSN589792 KIQ589777:KIR589792 JYU589777:JYV589792 JOY589777:JOZ589792 JFC589777:JFD589792 IVG589777:IVH589792 ILK589777:ILL589792 IBO589777:IBP589792 HRS589777:HRT589792 HHW589777:HHX589792 GYA589777:GYB589792 GOE589777:GOF589792 GEI589777:GEJ589792 FUM589777:FUN589792 FKQ589777:FKR589792 FAU589777:FAV589792 EQY589777:EQZ589792 EHC589777:EHD589792 DXG589777:DXH589792 DNK589777:DNL589792 DDO589777:DDP589792 CTS589777:CTT589792 CJW589777:CJX589792 CAA589777:CAB589792 BQE589777:BQF589792 BGI589777:BGJ589792 AWM589777:AWN589792 AMQ589777:AMR589792 ACU589777:ACV589792 SY589777:SZ589792 JC589777:JD589792 F589778:F589793 WVO524241:WVP524256 WLS524241:WLT524256 WBW524241:WBX524256 VSA524241:VSB524256 VIE524241:VIF524256 UYI524241:UYJ524256 UOM524241:UON524256 UEQ524241:UER524256 TUU524241:TUV524256 TKY524241:TKZ524256 TBC524241:TBD524256 SRG524241:SRH524256 SHK524241:SHL524256 RXO524241:RXP524256 RNS524241:RNT524256 RDW524241:RDX524256 QUA524241:QUB524256 QKE524241:QKF524256 QAI524241:QAJ524256 PQM524241:PQN524256 PGQ524241:PGR524256 OWU524241:OWV524256 OMY524241:OMZ524256 ODC524241:ODD524256 NTG524241:NTH524256 NJK524241:NJL524256 MZO524241:MZP524256 MPS524241:MPT524256 MFW524241:MFX524256 LWA524241:LWB524256 LME524241:LMF524256 LCI524241:LCJ524256 KSM524241:KSN524256 KIQ524241:KIR524256 JYU524241:JYV524256 JOY524241:JOZ524256 JFC524241:JFD524256 IVG524241:IVH524256 ILK524241:ILL524256 IBO524241:IBP524256 HRS524241:HRT524256 HHW524241:HHX524256 GYA524241:GYB524256 GOE524241:GOF524256 GEI524241:GEJ524256 FUM524241:FUN524256 FKQ524241:FKR524256 FAU524241:FAV524256 EQY524241:EQZ524256 EHC524241:EHD524256 DXG524241:DXH524256 DNK524241:DNL524256 DDO524241:DDP524256 CTS524241:CTT524256 CJW524241:CJX524256 CAA524241:CAB524256 BQE524241:BQF524256 BGI524241:BGJ524256 AWM524241:AWN524256 AMQ524241:AMR524256 ACU524241:ACV524256 SY524241:SZ524256 JC524241:JD524256 F524242:F524257 WVO458705:WVP458720 WLS458705:WLT458720 WBW458705:WBX458720 VSA458705:VSB458720 VIE458705:VIF458720 UYI458705:UYJ458720 UOM458705:UON458720 UEQ458705:UER458720 TUU458705:TUV458720 TKY458705:TKZ458720 TBC458705:TBD458720 SRG458705:SRH458720 SHK458705:SHL458720 RXO458705:RXP458720 RNS458705:RNT458720 RDW458705:RDX458720 QUA458705:QUB458720 QKE458705:QKF458720 QAI458705:QAJ458720 PQM458705:PQN458720 PGQ458705:PGR458720 OWU458705:OWV458720 OMY458705:OMZ458720 ODC458705:ODD458720 NTG458705:NTH458720 NJK458705:NJL458720 MZO458705:MZP458720 MPS458705:MPT458720 MFW458705:MFX458720 LWA458705:LWB458720 LME458705:LMF458720 LCI458705:LCJ458720 KSM458705:KSN458720 KIQ458705:KIR458720 JYU458705:JYV458720 JOY458705:JOZ458720 JFC458705:JFD458720 IVG458705:IVH458720 ILK458705:ILL458720 IBO458705:IBP458720 HRS458705:HRT458720 HHW458705:HHX458720 GYA458705:GYB458720 GOE458705:GOF458720 GEI458705:GEJ458720 FUM458705:FUN458720 FKQ458705:FKR458720 FAU458705:FAV458720 EQY458705:EQZ458720 EHC458705:EHD458720 DXG458705:DXH458720 DNK458705:DNL458720 DDO458705:DDP458720 CTS458705:CTT458720 CJW458705:CJX458720 CAA458705:CAB458720 BQE458705:BQF458720 BGI458705:BGJ458720 AWM458705:AWN458720 AMQ458705:AMR458720 ACU458705:ACV458720 SY458705:SZ458720 JC458705:JD458720 F458706:F458721 WVO393169:WVP393184 WLS393169:WLT393184 WBW393169:WBX393184 VSA393169:VSB393184 VIE393169:VIF393184 UYI393169:UYJ393184 UOM393169:UON393184 UEQ393169:UER393184 TUU393169:TUV393184 TKY393169:TKZ393184 TBC393169:TBD393184 SRG393169:SRH393184 SHK393169:SHL393184 RXO393169:RXP393184 RNS393169:RNT393184 RDW393169:RDX393184 QUA393169:QUB393184 QKE393169:QKF393184 QAI393169:QAJ393184 PQM393169:PQN393184 PGQ393169:PGR393184 OWU393169:OWV393184 OMY393169:OMZ393184 ODC393169:ODD393184 NTG393169:NTH393184 NJK393169:NJL393184 MZO393169:MZP393184 MPS393169:MPT393184 MFW393169:MFX393184 LWA393169:LWB393184 LME393169:LMF393184 LCI393169:LCJ393184 KSM393169:KSN393184 KIQ393169:KIR393184 JYU393169:JYV393184 JOY393169:JOZ393184 JFC393169:JFD393184 IVG393169:IVH393184 ILK393169:ILL393184 IBO393169:IBP393184 HRS393169:HRT393184 HHW393169:HHX393184 GYA393169:GYB393184 GOE393169:GOF393184 GEI393169:GEJ393184 FUM393169:FUN393184 FKQ393169:FKR393184 FAU393169:FAV393184 EQY393169:EQZ393184 EHC393169:EHD393184 DXG393169:DXH393184 DNK393169:DNL393184 DDO393169:DDP393184 CTS393169:CTT393184 CJW393169:CJX393184 CAA393169:CAB393184 BQE393169:BQF393184 BGI393169:BGJ393184 AWM393169:AWN393184 AMQ393169:AMR393184 ACU393169:ACV393184 SY393169:SZ393184 JC393169:JD393184 F393170:F393185 WVO327633:WVP327648 WLS327633:WLT327648 WBW327633:WBX327648 VSA327633:VSB327648 VIE327633:VIF327648 UYI327633:UYJ327648 UOM327633:UON327648 UEQ327633:UER327648 TUU327633:TUV327648 TKY327633:TKZ327648 TBC327633:TBD327648 SRG327633:SRH327648 SHK327633:SHL327648 RXO327633:RXP327648 RNS327633:RNT327648 RDW327633:RDX327648 QUA327633:QUB327648 QKE327633:QKF327648 QAI327633:QAJ327648 PQM327633:PQN327648 PGQ327633:PGR327648 OWU327633:OWV327648 OMY327633:OMZ327648 ODC327633:ODD327648 NTG327633:NTH327648 NJK327633:NJL327648 MZO327633:MZP327648 MPS327633:MPT327648 MFW327633:MFX327648 LWA327633:LWB327648 LME327633:LMF327648 LCI327633:LCJ327648 KSM327633:KSN327648 KIQ327633:KIR327648 JYU327633:JYV327648 JOY327633:JOZ327648 JFC327633:JFD327648 IVG327633:IVH327648 ILK327633:ILL327648 IBO327633:IBP327648 HRS327633:HRT327648 HHW327633:HHX327648 GYA327633:GYB327648 GOE327633:GOF327648 GEI327633:GEJ327648 FUM327633:FUN327648 FKQ327633:FKR327648 FAU327633:FAV327648 EQY327633:EQZ327648 EHC327633:EHD327648 DXG327633:DXH327648 DNK327633:DNL327648 DDO327633:DDP327648 CTS327633:CTT327648 CJW327633:CJX327648 CAA327633:CAB327648 BQE327633:BQF327648 BGI327633:BGJ327648 AWM327633:AWN327648 AMQ327633:AMR327648 ACU327633:ACV327648 SY327633:SZ327648 JC327633:JD327648 F327634:F327649 WVO262097:WVP262112 WLS262097:WLT262112 WBW262097:WBX262112 VSA262097:VSB262112 VIE262097:VIF262112 UYI262097:UYJ262112 UOM262097:UON262112 UEQ262097:UER262112 TUU262097:TUV262112 TKY262097:TKZ262112 TBC262097:TBD262112 SRG262097:SRH262112 SHK262097:SHL262112 RXO262097:RXP262112 RNS262097:RNT262112 RDW262097:RDX262112 QUA262097:QUB262112 QKE262097:QKF262112 QAI262097:QAJ262112 PQM262097:PQN262112 PGQ262097:PGR262112 OWU262097:OWV262112 OMY262097:OMZ262112 ODC262097:ODD262112 NTG262097:NTH262112 NJK262097:NJL262112 MZO262097:MZP262112 MPS262097:MPT262112 MFW262097:MFX262112 LWA262097:LWB262112 LME262097:LMF262112 LCI262097:LCJ262112 KSM262097:KSN262112 KIQ262097:KIR262112 JYU262097:JYV262112 JOY262097:JOZ262112 JFC262097:JFD262112 IVG262097:IVH262112 ILK262097:ILL262112 IBO262097:IBP262112 HRS262097:HRT262112 HHW262097:HHX262112 GYA262097:GYB262112 GOE262097:GOF262112 GEI262097:GEJ262112 FUM262097:FUN262112 FKQ262097:FKR262112 FAU262097:FAV262112 EQY262097:EQZ262112 EHC262097:EHD262112 DXG262097:DXH262112 DNK262097:DNL262112 DDO262097:DDP262112 CTS262097:CTT262112 CJW262097:CJX262112 CAA262097:CAB262112 BQE262097:BQF262112 BGI262097:BGJ262112 AWM262097:AWN262112 AMQ262097:AMR262112 ACU262097:ACV262112 SY262097:SZ262112 JC262097:JD262112 F262098:F262113 WVO196561:WVP196576 WLS196561:WLT196576 WBW196561:WBX196576 VSA196561:VSB196576 VIE196561:VIF196576 UYI196561:UYJ196576 UOM196561:UON196576 UEQ196561:UER196576 TUU196561:TUV196576 TKY196561:TKZ196576 TBC196561:TBD196576 SRG196561:SRH196576 SHK196561:SHL196576 RXO196561:RXP196576 RNS196561:RNT196576 RDW196561:RDX196576 QUA196561:QUB196576 QKE196561:QKF196576 QAI196561:QAJ196576 PQM196561:PQN196576 PGQ196561:PGR196576 OWU196561:OWV196576 OMY196561:OMZ196576 ODC196561:ODD196576 NTG196561:NTH196576 NJK196561:NJL196576 MZO196561:MZP196576 MPS196561:MPT196576 MFW196561:MFX196576 LWA196561:LWB196576 LME196561:LMF196576 LCI196561:LCJ196576 KSM196561:KSN196576 KIQ196561:KIR196576 JYU196561:JYV196576 JOY196561:JOZ196576 JFC196561:JFD196576 IVG196561:IVH196576 ILK196561:ILL196576 IBO196561:IBP196576 HRS196561:HRT196576 HHW196561:HHX196576 GYA196561:GYB196576 GOE196561:GOF196576 GEI196561:GEJ196576 FUM196561:FUN196576 FKQ196561:FKR196576 FAU196561:FAV196576 EQY196561:EQZ196576 EHC196561:EHD196576 DXG196561:DXH196576 DNK196561:DNL196576 DDO196561:DDP196576 CTS196561:CTT196576 CJW196561:CJX196576 CAA196561:CAB196576 BQE196561:BQF196576 BGI196561:BGJ196576 AWM196561:AWN196576 AMQ196561:AMR196576 ACU196561:ACV196576 SY196561:SZ196576 JC196561:JD196576 F196562:F196577 WVO131025:WVP131040 WLS131025:WLT131040 WBW131025:WBX131040 VSA131025:VSB131040 VIE131025:VIF131040 UYI131025:UYJ131040 UOM131025:UON131040 UEQ131025:UER131040 TUU131025:TUV131040 TKY131025:TKZ131040 TBC131025:TBD131040 SRG131025:SRH131040 SHK131025:SHL131040 RXO131025:RXP131040 RNS131025:RNT131040 RDW131025:RDX131040 QUA131025:QUB131040 QKE131025:QKF131040 QAI131025:QAJ131040 PQM131025:PQN131040 PGQ131025:PGR131040 OWU131025:OWV131040 OMY131025:OMZ131040 ODC131025:ODD131040 NTG131025:NTH131040 NJK131025:NJL131040 MZO131025:MZP131040 MPS131025:MPT131040 MFW131025:MFX131040 LWA131025:LWB131040 LME131025:LMF131040 LCI131025:LCJ131040 KSM131025:KSN131040 KIQ131025:KIR131040 JYU131025:JYV131040 JOY131025:JOZ131040 JFC131025:JFD131040 IVG131025:IVH131040 ILK131025:ILL131040 IBO131025:IBP131040 HRS131025:HRT131040 HHW131025:HHX131040 GYA131025:GYB131040 GOE131025:GOF131040 GEI131025:GEJ131040 FUM131025:FUN131040 FKQ131025:FKR131040 FAU131025:FAV131040 EQY131025:EQZ131040 EHC131025:EHD131040 DXG131025:DXH131040 DNK131025:DNL131040 DDO131025:DDP131040 CTS131025:CTT131040 CJW131025:CJX131040 CAA131025:CAB131040 BQE131025:BQF131040 BGI131025:BGJ131040 AWM131025:AWN131040 AMQ131025:AMR131040 ACU131025:ACV131040 SY131025:SZ131040 JC131025:JD131040 F131026:F131041 WVO65489:WVP65504 WLS65489:WLT65504 WBW65489:WBX65504 VSA65489:VSB65504 VIE65489:VIF65504 UYI65489:UYJ65504 UOM65489:UON65504 UEQ65489:UER65504 TUU65489:TUV65504 TKY65489:TKZ65504 TBC65489:TBD65504 SRG65489:SRH65504 SHK65489:SHL65504 RXO65489:RXP65504 RNS65489:RNT65504 RDW65489:RDX65504 QUA65489:QUB65504 QKE65489:QKF65504 QAI65489:QAJ65504 PQM65489:PQN65504 PGQ65489:PGR65504 OWU65489:OWV65504 OMY65489:OMZ65504 ODC65489:ODD65504 NTG65489:NTH65504 NJK65489:NJL65504 MZO65489:MZP65504 MPS65489:MPT65504 MFW65489:MFX65504 LWA65489:LWB65504 LME65489:LMF65504 LCI65489:LCJ65504 KSM65489:KSN65504 KIQ65489:KIR65504 JYU65489:JYV65504 JOY65489:JOZ65504 JFC65489:JFD65504 IVG65489:IVH65504 ILK65489:ILL65504 IBO65489:IBP65504 HRS65489:HRT65504 HHW65489:HHX65504 GYA65489:GYB65504 GOE65489:GOF65504 GEI65489:GEJ65504 FUM65489:FUN65504 FKQ65489:FKR65504 FAU65489:FAV65504 EQY65489:EQZ65504 EHC65489:EHD65504 DXG65489:DXH65504 DNK65489:DNL65504 DDO65489:DDP65504 CTS65489:CTT65504 CJW65489:CJX65504 CAA65489:CAB65504 BQE65489:BQF65504 BGI65489:BGJ65504 AWM65489:AWN65504 AMQ65489:AMR65504 ACU65489:ACV65504 SY65489:SZ65504 JC65489:JD65504 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65482:C65505 IZ65481:IZ65504 SV65481:SV65504 ACR65481:ACR65504 AMN65481:AMN65504 AWJ65481:AWJ65504 BGF65481:BGF65504 BQB65481:BQB65504 BZX65481:BZX65504 CJT65481:CJT65504 CTP65481:CTP65504 DDL65481:DDL65504 DNH65481:DNH65504 DXD65481:DXD65504 EGZ65481:EGZ65504 EQV65481:EQV65504 FAR65481:FAR65504 FKN65481:FKN65504 FUJ65481:FUJ65504 GEF65481:GEF65504 GOB65481:GOB65504 GXX65481:GXX65504 HHT65481:HHT65504 HRP65481:HRP65504 IBL65481:IBL65504 ILH65481:ILH65504 IVD65481:IVD65504 JEZ65481:JEZ65504 JOV65481:JOV65504 JYR65481:JYR65504 KIN65481:KIN65504 KSJ65481:KSJ65504 LCF65481:LCF65504 LMB65481:LMB65504 LVX65481:LVX65504 MFT65481:MFT65504 MPP65481:MPP65504 MZL65481:MZL65504 NJH65481:NJH65504 NTD65481:NTD65504 OCZ65481:OCZ65504 OMV65481:OMV65504 OWR65481:OWR65504 PGN65481:PGN65504 PQJ65481:PQJ65504 QAF65481:QAF65504 QKB65481:QKB65504 QTX65481:QTX65504 RDT65481:RDT65504 RNP65481:RNP65504 RXL65481:RXL65504 SHH65481:SHH65504 SRD65481:SRD65504 TAZ65481:TAZ65504 TKV65481:TKV65504 TUR65481:TUR65504 UEN65481:UEN65504 UOJ65481:UOJ65504 UYF65481:UYF65504 VIB65481:VIB65504 VRX65481:VRX65504 WBT65481:WBT65504 WLP65481:WLP65504 WVL65481:WVL65504 C131018:C131041 IZ131017:IZ131040 SV131017:SV131040 ACR131017:ACR131040 AMN131017:AMN131040 AWJ131017:AWJ131040 BGF131017:BGF131040 BQB131017:BQB131040 BZX131017:BZX131040 CJT131017:CJT131040 CTP131017:CTP131040 DDL131017:DDL131040 DNH131017:DNH131040 DXD131017:DXD131040 EGZ131017:EGZ131040 EQV131017:EQV131040 FAR131017:FAR131040 FKN131017:FKN131040 FUJ131017:FUJ131040 GEF131017:GEF131040 GOB131017:GOB131040 GXX131017:GXX131040 HHT131017:HHT131040 HRP131017:HRP131040 IBL131017:IBL131040 ILH131017:ILH131040 IVD131017:IVD131040 JEZ131017:JEZ131040 JOV131017:JOV131040 JYR131017:JYR131040 KIN131017:KIN131040 KSJ131017:KSJ131040 LCF131017:LCF131040 LMB131017:LMB131040 LVX131017:LVX131040 MFT131017:MFT131040 MPP131017:MPP131040 MZL131017:MZL131040 NJH131017:NJH131040 NTD131017:NTD131040 OCZ131017:OCZ131040 OMV131017:OMV131040 OWR131017:OWR131040 PGN131017:PGN131040 PQJ131017:PQJ131040 QAF131017:QAF131040 QKB131017:QKB131040 QTX131017:QTX131040 RDT131017:RDT131040 RNP131017:RNP131040 RXL131017:RXL131040 SHH131017:SHH131040 SRD131017:SRD131040 TAZ131017:TAZ131040 TKV131017:TKV131040 TUR131017:TUR131040 UEN131017:UEN131040 UOJ131017:UOJ131040 UYF131017:UYF131040 VIB131017:VIB131040 VRX131017:VRX131040 WBT131017:WBT131040 WLP131017:WLP131040 WVL131017:WVL131040 C196554:C196577 IZ196553:IZ196576 SV196553:SV196576 ACR196553:ACR196576 AMN196553:AMN196576 AWJ196553:AWJ196576 BGF196553:BGF196576 BQB196553:BQB196576 BZX196553:BZX196576 CJT196553:CJT196576 CTP196553:CTP196576 DDL196553:DDL196576 DNH196553:DNH196576 DXD196553:DXD196576 EGZ196553:EGZ196576 EQV196553:EQV196576 FAR196553:FAR196576 FKN196553:FKN196576 FUJ196553:FUJ196576 GEF196553:GEF196576 GOB196553:GOB196576 GXX196553:GXX196576 HHT196553:HHT196576 HRP196553:HRP196576 IBL196553:IBL196576 ILH196553:ILH196576 IVD196553:IVD196576 JEZ196553:JEZ196576 JOV196553:JOV196576 JYR196553:JYR196576 KIN196553:KIN196576 KSJ196553:KSJ196576 LCF196553:LCF196576 LMB196553:LMB196576 LVX196553:LVX196576 MFT196553:MFT196576 MPP196553:MPP196576 MZL196553:MZL196576 NJH196553:NJH196576 NTD196553:NTD196576 OCZ196553:OCZ196576 OMV196553:OMV196576 OWR196553:OWR196576 PGN196553:PGN196576 PQJ196553:PQJ196576 QAF196553:QAF196576 QKB196553:QKB196576 QTX196553:QTX196576 RDT196553:RDT196576 RNP196553:RNP196576 RXL196553:RXL196576 SHH196553:SHH196576 SRD196553:SRD196576 TAZ196553:TAZ196576 TKV196553:TKV196576 TUR196553:TUR196576 UEN196553:UEN196576 UOJ196553:UOJ196576 UYF196553:UYF196576 VIB196553:VIB196576 VRX196553:VRX196576 WBT196553:WBT196576 WLP196553:WLP196576 WVL196553:WVL196576 C262090:C262113 IZ262089:IZ262112 SV262089:SV262112 ACR262089:ACR262112 AMN262089:AMN262112 AWJ262089:AWJ262112 BGF262089:BGF262112 BQB262089:BQB262112 BZX262089:BZX262112 CJT262089:CJT262112 CTP262089:CTP262112 DDL262089:DDL262112 DNH262089:DNH262112 DXD262089:DXD262112 EGZ262089:EGZ262112 EQV262089:EQV262112 FAR262089:FAR262112 FKN262089:FKN262112 FUJ262089:FUJ262112 GEF262089:GEF262112 GOB262089:GOB262112 GXX262089:GXX262112 HHT262089:HHT262112 HRP262089:HRP262112 IBL262089:IBL262112 ILH262089:ILH262112 IVD262089:IVD262112 JEZ262089:JEZ262112 JOV262089:JOV262112 JYR262089:JYR262112 KIN262089:KIN262112 KSJ262089:KSJ262112 LCF262089:LCF262112 LMB262089:LMB262112 LVX262089:LVX262112 MFT262089:MFT262112 MPP262089:MPP262112 MZL262089:MZL262112 NJH262089:NJH262112 NTD262089:NTD262112 OCZ262089:OCZ262112 OMV262089:OMV262112 OWR262089:OWR262112 PGN262089:PGN262112 PQJ262089:PQJ262112 QAF262089:QAF262112 QKB262089:QKB262112 QTX262089:QTX262112 RDT262089:RDT262112 RNP262089:RNP262112 RXL262089:RXL262112 SHH262089:SHH262112 SRD262089:SRD262112 TAZ262089:TAZ262112 TKV262089:TKV262112 TUR262089:TUR262112 UEN262089:UEN262112 UOJ262089:UOJ262112 UYF262089:UYF262112 VIB262089:VIB262112 VRX262089:VRX262112 WBT262089:WBT262112 WLP262089:WLP262112 WVL262089:WVL262112 C327626:C327649 IZ327625:IZ327648 SV327625:SV327648 ACR327625:ACR327648 AMN327625:AMN327648 AWJ327625:AWJ327648 BGF327625:BGF327648 BQB327625:BQB327648 BZX327625:BZX327648 CJT327625:CJT327648 CTP327625:CTP327648 DDL327625:DDL327648 DNH327625:DNH327648 DXD327625:DXD327648 EGZ327625:EGZ327648 EQV327625:EQV327648 FAR327625:FAR327648 FKN327625:FKN327648 FUJ327625:FUJ327648 GEF327625:GEF327648 GOB327625:GOB327648 GXX327625:GXX327648 HHT327625:HHT327648 HRP327625:HRP327648 IBL327625:IBL327648 ILH327625:ILH327648 IVD327625:IVD327648 JEZ327625:JEZ327648 JOV327625:JOV327648 JYR327625:JYR327648 KIN327625:KIN327648 KSJ327625:KSJ327648 LCF327625:LCF327648 LMB327625:LMB327648 LVX327625:LVX327648 MFT327625:MFT327648 MPP327625:MPP327648 MZL327625:MZL327648 NJH327625:NJH327648 NTD327625:NTD327648 OCZ327625:OCZ327648 OMV327625:OMV327648 OWR327625:OWR327648 PGN327625:PGN327648 PQJ327625:PQJ327648 QAF327625:QAF327648 QKB327625:QKB327648 QTX327625:QTX327648 RDT327625:RDT327648 RNP327625:RNP327648 RXL327625:RXL327648 SHH327625:SHH327648 SRD327625:SRD327648 TAZ327625:TAZ327648 TKV327625:TKV327648 TUR327625:TUR327648 UEN327625:UEN327648 UOJ327625:UOJ327648 UYF327625:UYF327648 VIB327625:VIB327648 VRX327625:VRX327648 WBT327625:WBT327648 WLP327625:WLP327648 WVL327625:WVL327648 C393162:C393185 IZ393161:IZ393184 SV393161:SV393184 ACR393161:ACR393184 AMN393161:AMN393184 AWJ393161:AWJ393184 BGF393161:BGF393184 BQB393161:BQB393184 BZX393161:BZX393184 CJT393161:CJT393184 CTP393161:CTP393184 DDL393161:DDL393184 DNH393161:DNH393184 DXD393161:DXD393184 EGZ393161:EGZ393184 EQV393161:EQV393184 FAR393161:FAR393184 FKN393161:FKN393184 FUJ393161:FUJ393184 GEF393161:GEF393184 GOB393161:GOB393184 GXX393161:GXX393184 HHT393161:HHT393184 HRP393161:HRP393184 IBL393161:IBL393184 ILH393161:ILH393184 IVD393161:IVD393184 JEZ393161:JEZ393184 JOV393161:JOV393184 JYR393161:JYR393184 KIN393161:KIN393184 KSJ393161:KSJ393184 LCF393161:LCF393184 LMB393161:LMB393184 LVX393161:LVX393184 MFT393161:MFT393184 MPP393161:MPP393184 MZL393161:MZL393184 NJH393161:NJH393184 NTD393161:NTD393184 OCZ393161:OCZ393184 OMV393161:OMV393184 OWR393161:OWR393184 PGN393161:PGN393184 PQJ393161:PQJ393184 QAF393161:QAF393184 QKB393161:QKB393184 QTX393161:QTX393184 RDT393161:RDT393184 RNP393161:RNP393184 RXL393161:RXL393184 SHH393161:SHH393184 SRD393161:SRD393184 TAZ393161:TAZ393184 TKV393161:TKV393184 TUR393161:TUR393184 UEN393161:UEN393184 UOJ393161:UOJ393184 UYF393161:UYF393184 VIB393161:VIB393184 VRX393161:VRX393184 WBT393161:WBT393184 WLP393161:WLP393184 WVL393161:WVL393184 C458698:C458721 IZ458697:IZ458720 SV458697:SV458720 ACR458697:ACR458720 AMN458697:AMN458720 AWJ458697:AWJ458720 BGF458697:BGF458720 BQB458697:BQB458720 BZX458697:BZX458720 CJT458697:CJT458720 CTP458697:CTP458720 DDL458697:DDL458720 DNH458697:DNH458720 DXD458697:DXD458720 EGZ458697:EGZ458720 EQV458697:EQV458720 FAR458697:FAR458720 FKN458697:FKN458720 FUJ458697:FUJ458720 GEF458697:GEF458720 GOB458697:GOB458720 GXX458697:GXX458720 HHT458697:HHT458720 HRP458697:HRP458720 IBL458697:IBL458720 ILH458697:ILH458720 IVD458697:IVD458720 JEZ458697:JEZ458720 JOV458697:JOV458720 JYR458697:JYR458720 KIN458697:KIN458720 KSJ458697:KSJ458720 LCF458697:LCF458720 LMB458697:LMB458720 LVX458697:LVX458720 MFT458697:MFT458720 MPP458697:MPP458720 MZL458697:MZL458720 NJH458697:NJH458720 NTD458697:NTD458720 OCZ458697:OCZ458720 OMV458697:OMV458720 OWR458697:OWR458720 PGN458697:PGN458720 PQJ458697:PQJ458720 QAF458697:QAF458720 QKB458697:QKB458720 QTX458697:QTX458720 RDT458697:RDT458720 RNP458697:RNP458720 RXL458697:RXL458720 SHH458697:SHH458720 SRD458697:SRD458720 TAZ458697:TAZ458720 TKV458697:TKV458720 TUR458697:TUR458720 UEN458697:UEN458720 UOJ458697:UOJ458720 UYF458697:UYF458720 VIB458697:VIB458720 VRX458697:VRX458720 WBT458697:WBT458720 WLP458697:WLP458720 WVL458697:WVL458720 C524234:C524257 IZ524233:IZ524256 SV524233:SV524256 ACR524233:ACR524256 AMN524233:AMN524256 AWJ524233:AWJ524256 BGF524233:BGF524256 BQB524233:BQB524256 BZX524233:BZX524256 CJT524233:CJT524256 CTP524233:CTP524256 DDL524233:DDL524256 DNH524233:DNH524256 DXD524233:DXD524256 EGZ524233:EGZ524256 EQV524233:EQV524256 FAR524233:FAR524256 FKN524233:FKN524256 FUJ524233:FUJ524256 GEF524233:GEF524256 GOB524233:GOB524256 GXX524233:GXX524256 HHT524233:HHT524256 HRP524233:HRP524256 IBL524233:IBL524256 ILH524233:ILH524256 IVD524233:IVD524256 JEZ524233:JEZ524256 JOV524233:JOV524256 JYR524233:JYR524256 KIN524233:KIN524256 KSJ524233:KSJ524256 LCF524233:LCF524256 LMB524233:LMB524256 LVX524233:LVX524256 MFT524233:MFT524256 MPP524233:MPP524256 MZL524233:MZL524256 NJH524233:NJH524256 NTD524233:NTD524256 OCZ524233:OCZ524256 OMV524233:OMV524256 OWR524233:OWR524256 PGN524233:PGN524256 PQJ524233:PQJ524256 QAF524233:QAF524256 QKB524233:QKB524256 QTX524233:QTX524256 RDT524233:RDT524256 RNP524233:RNP524256 RXL524233:RXL524256 SHH524233:SHH524256 SRD524233:SRD524256 TAZ524233:TAZ524256 TKV524233:TKV524256 TUR524233:TUR524256 UEN524233:UEN524256 UOJ524233:UOJ524256 UYF524233:UYF524256 VIB524233:VIB524256 VRX524233:VRX524256 WBT524233:WBT524256 WLP524233:WLP524256 WVL524233:WVL524256 C589770:C589793 IZ589769:IZ589792 SV589769:SV589792 ACR589769:ACR589792 AMN589769:AMN589792 AWJ589769:AWJ589792 BGF589769:BGF589792 BQB589769:BQB589792 BZX589769:BZX589792 CJT589769:CJT589792 CTP589769:CTP589792 DDL589769:DDL589792 DNH589769:DNH589792 DXD589769:DXD589792 EGZ589769:EGZ589792 EQV589769:EQV589792 FAR589769:FAR589792 FKN589769:FKN589792 FUJ589769:FUJ589792 GEF589769:GEF589792 GOB589769:GOB589792 GXX589769:GXX589792 HHT589769:HHT589792 HRP589769:HRP589792 IBL589769:IBL589792 ILH589769:ILH589792 IVD589769:IVD589792 JEZ589769:JEZ589792 JOV589769:JOV589792 JYR589769:JYR589792 KIN589769:KIN589792 KSJ589769:KSJ589792 LCF589769:LCF589792 LMB589769:LMB589792 LVX589769:LVX589792 MFT589769:MFT589792 MPP589769:MPP589792 MZL589769:MZL589792 NJH589769:NJH589792 NTD589769:NTD589792 OCZ589769:OCZ589792 OMV589769:OMV589792 OWR589769:OWR589792 PGN589769:PGN589792 PQJ589769:PQJ589792 QAF589769:QAF589792 QKB589769:QKB589792 QTX589769:QTX589792 RDT589769:RDT589792 RNP589769:RNP589792 RXL589769:RXL589792 SHH589769:SHH589792 SRD589769:SRD589792 TAZ589769:TAZ589792 TKV589769:TKV589792 TUR589769:TUR589792 UEN589769:UEN589792 UOJ589769:UOJ589792 UYF589769:UYF589792 VIB589769:VIB589792 VRX589769:VRX589792 WBT589769:WBT589792 WLP589769:WLP589792 WVL589769:WVL589792 C655306:C655329 IZ655305:IZ655328 SV655305:SV655328 ACR655305:ACR655328 AMN655305:AMN655328 AWJ655305:AWJ655328 BGF655305:BGF655328 BQB655305:BQB655328 BZX655305:BZX655328 CJT655305:CJT655328 CTP655305:CTP655328 DDL655305:DDL655328 DNH655305:DNH655328 DXD655305:DXD655328 EGZ655305:EGZ655328 EQV655305:EQV655328 FAR655305:FAR655328 FKN655305:FKN655328 FUJ655305:FUJ655328 GEF655305:GEF655328 GOB655305:GOB655328 GXX655305:GXX655328 HHT655305:HHT655328 HRP655305:HRP655328 IBL655305:IBL655328 ILH655305:ILH655328 IVD655305:IVD655328 JEZ655305:JEZ655328 JOV655305:JOV655328 JYR655305:JYR655328 KIN655305:KIN655328 KSJ655305:KSJ655328 LCF655305:LCF655328 LMB655305:LMB655328 LVX655305:LVX655328 MFT655305:MFT655328 MPP655305:MPP655328 MZL655305:MZL655328 NJH655305:NJH655328 NTD655305:NTD655328 OCZ655305:OCZ655328 OMV655305:OMV655328 OWR655305:OWR655328 PGN655305:PGN655328 PQJ655305:PQJ655328 QAF655305:QAF655328 QKB655305:QKB655328 QTX655305:QTX655328 RDT655305:RDT655328 RNP655305:RNP655328 RXL655305:RXL655328 SHH655305:SHH655328 SRD655305:SRD655328 TAZ655305:TAZ655328 TKV655305:TKV655328 TUR655305:TUR655328 UEN655305:UEN655328 UOJ655305:UOJ655328 UYF655305:UYF655328 VIB655305:VIB655328 VRX655305:VRX655328 WBT655305:WBT655328 WLP655305:WLP655328 WVL655305:WVL655328 C720842:C720865 IZ720841:IZ720864 SV720841:SV720864 ACR720841:ACR720864 AMN720841:AMN720864 AWJ720841:AWJ720864 BGF720841:BGF720864 BQB720841:BQB720864 BZX720841:BZX720864 CJT720841:CJT720864 CTP720841:CTP720864 DDL720841:DDL720864 DNH720841:DNH720864 DXD720841:DXD720864 EGZ720841:EGZ720864 EQV720841:EQV720864 FAR720841:FAR720864 FKN720841:FKN720864 FUJ720841:FUJ720864 GEF720841:GEF720864 GOB720841:GOB720864 GXX720841:GXX720864 HHT720841:HHT720864 HRP720841:HRP720864 IBL720841:IBL720864 ILH720841:ILH720864 IVD720841:IVD720864 JEZ720841:JEZ720864 JOV720841:JOV720864 JYR720841:JYR720864 KIN720841:KIN720864 KSJ720841:KSJ720864 LCF720841:LCF720864 LMB720841:LMB720864 LVX720841:LVX720864 MFT720841:MFT720864 MPP720841:MPP720864 MZL720841:MZL720864 NJH720841:NJH720864 NTD720841:NTD720864 OCZ720841:OCZ720864 OMV720841:OMV720864 OWR720841:OWR720864 PGN720841:PGN720864 PQJ720841:PQJ720864 QAF720841:QAF720864 QKB720841:QKB720864 QTX720841:QTX720864 RDT720841:RDT720864 RNP720841:RNP720864 RXL720841:RXL720864 SHH720841:SHH720864 SRD720841:SRD720864 TAZ720841:TAZ720864 TKV720841:TKV720864 TUR720841:TUR720864 UEN720841:UEN720864 UOJ720841:UOJ720864 UYF720841:UYF720864 VIB720841:VIB720864 VRX720841:VRX720864 WBT720841:WBT720864 WLP720841:WLP720864 WVL720841:WVL720864 C786378:C786401 IZ786377:IZ786400 SV786377:SV786400 ACR786377:ACR786400 AMN786377:AMN786400 AWJ786377:AWJ786400 BGF786377:BGF786400 BQB786377:BQB786400 BZX786377:BZX786400 CJT786377:CJT786400 CTP786377:CTP786400 DDL786377:DDL786400 DNH786377:DNH786400 DXD786377:DXD786400 EGZ786377:EGZ786400 EQV786377:EQV786400 FAR786377:FAR786400 FKN786377:FKN786400 FUJ786377:FUJ786400 GEF786377:GEF786400 GOB786377:GOB786400 GXX786377:GXX786400 HHT786377:HHT786400 HRP786377:HRP786400 IBL786377:IBL786400 ILH786377:ILH786400 IVD786377:IVD786400 JEZ786377:JEZ786400 JOV786377:JOV786400 JYR786377:JYR786400 KIN786377:KIN786400 KSJ786377:KSJ786400 LCF786377:LCF786400 LMB786377:LMB786400 LVX786377:LVX786400 MFT786377:MFT786400 MPP786377:MPP786400 MZL786377:MZL786400 NJH786377:NJH786400 NTD786377:NTD786400 OCZ786377:OCZ786400 OMV786377:OMV786400 OWR786377:OWR786400 PGN786377:PGN786400 PQJ786377:PQJ786400 QAF786377:QAF786400 QKB786377:QKB786400 QTX786377:QTX786400 RDT786377:RDT786400 RNP786377:RNP786400 RXL786377:RXL786400 SHH786377:SHH786400 SRD786377:SRD786400 TAZ786377:TAZ786400 TKV786377:TKV786400 TUR786377:TUR786400 UEN786377:UEN786400 UOJ786377:UOJ786400 UYF786377:UYF786400 VIB786377:VIB786400 VRX786377:VRX786400 WBT786377:WBT786400 WLP786377:WLP786400 WVL786377:WVL786400 C851914:C851937 IZ851913:IZ851936 SV851913:SV851936 ACR851913:ACR851936 AMN851913:AMN851936 AWJ851913:AWJ851936 BGF851913:BGF851936 BQB851913:BQB851936 BZX851913:BZX851936 CJT851913:CJT851936 CTP851913:CTP851936 DDL851913:DDL851936 DNH851913:DNH851936 DXD851913:DXD851936 EGZ851913:EGZ851936 EQV851913:EQV851936 FAR851913:FAR851936 FKN851913:FKN851936 FUJ851913:FUJ851936 GEF851913:GEF851936 GOB851913:GOB851936 GXX851913:GXX851936 HHT851913:HHT851936 HRP851913:HRP851936 IBL851913:IBL851936 ILH851913:ILH851936 IVD851913:IVD851936 JEZ851913:JEZ851936 JOV851913:JOV851936 JYR851913:JYR851936 KIN851913:KIN851936 KSJ851913:KSJ851936 LCF851913:LCF851936 LMB851913:LMB851936 LVX851913:LVX851936 MFT851913:MFT851936 MPP851913:MPP851936 MZL851913:MZL851936 NJH851913:NJH851936 NTD851913:NTD851936 OCZ851913:OCZ851936 OMV851913:OMV851936 OWR851913:OWR851936 PGN851913:PGN851936 PQJ851913:PQJ851936 QAF851913:QAF851936 QKB851913:QKB851936 QTX851913:QTX851936 RDT851913:RDT851936 RNP851913:RNP851936 RXL851913:RXL851936 SHH851913:SHH851936 SRD851913:SRD851936 TAZ851913:TAZ851936 TKV851913:TKV851936 TUR851913:TUR851936 UEN851913:UEN851936 UOJ851913:UOJ851936 UYF851913:UYF851936 VIB851913:VIB851936 VRX851913:VRX851936 WBT851913:WBT851936 WLP851913:WLP851936 WVL851913:WVL851936 C917450:C917473 IZ917449:IZ917472 SV917449:SV917472 ACR917449:ACR917472 AMN917449:AMN917472 AWJ917449:AWJ917472 BGF917449:BGF917472 BQB917449:BQB917472 BZX917449:BZX917472 CJT917449:CJT917472 CTP917449:CTP917472 DDL917449:DDL917472 DNH917449:DNH917472 DXD917449:DXD917472 EGZ917449:EGZ917472 EQV917449:EQV917472 FAR917449:FAR917472 FKN917449:FKN917472 FUJ917449:FUJ917472 GEF917449:GEF917472 GOB917449:GOB917472 GXX917449:GXX917472 HHT917449:HHT917472 HRP917449:HRP917472 IBL917449:IBL917472 ILH917449:ILH917472 IVD917449:IVD917472 JEZ917449:JEZ917472 JOV917449:JOV917472 JYR917449:JYR917472 KIN917449:KIN917472 KSJ917449:KSJ917472 LCF917449:LCF917472 LMB917449:LMB917472 LVX917449:LVX917472 MFT917449:MFT917472 MPP917449:MPP917472 MZL917449:MZL917472 NJH917449:NJH917472 NTD917449:NTD917472 OCZ917449:OCZ917472 OMV917449:OMV917472 OWR917449:OWR917472 PGN917449:PGN917472 PQJ917449:PQJ917472 QAF917449:QAF917472 QKB917449:QKB917472 QTX917449:QTX917472 RDT917449:RDT917472 RNP917449:RNP917472 RXL917449:RXL917472 SHH917449:SHH917472 SRD917449:SRD917472 TAZ917449:TAZ917472 TKV917449:TKV917472 TUR917449:TUR917472 UEN917449:UEN917472 UOJ917449:UOJ917472 UYF917449:UYF917472 VIB917449:VIB917472 VRX917449:VRX917472 WBT917449:WBT917472 WLP917449:WLP917472 WVL917449:WVL917472 C982986:C983009 IZ982985:IZ983008 SV982985:SV983008 ACR982985:ACR983008 AMN982985:AMN983008 AWJ982985:AWJ983008 BGF982985:BGF983008 BQB982985:BQB983008 BZX982985:BZX983008 CJT982985:CJT983008 CTP982985:CTP983008 DDL982985:DDL983008 DNH982985:DNH983008 DXD982985:DXD983008 EGZ982985:EGZ983008 EQV982985:EQV983008 FAR982985:FAR983008 FKN982985:FKN983008 FUJ982985:FUJ983008 GEF982985:GEF983008 GOB982985:GOB983008 GXX982985:GXX983008 HHT982985:HHT983008 HRP982985:HRP983008 IBL982985:IBL983008 ILH982985:ILH983008 IVD982985:IVD983008 JEZ982985:JEZ983008 JOV982985:JOV983008 JYR982985:JYR983008 KIN982985:KIN983008 KSJ982985:KSJ983008 LCF982985:LCF983008 LMB982985:LMB983008 LVX982985:LVX983008 MFT982985:MFT983008 MPP982985:MPP983008 MZL982985:MZL983008 NJH982985:NJH983008 NTD982985:NTD983008 OCZ982985:OCZ983008 OMV982985:OMV983008 OWR982985:OWR983008 PGN982985:PGN983008 PQJ982985:PQJ983008 QAF982985:QAF983008 QKB982985:QKB983008 QTX982985:QTX983008 RDT982985:RDT983008 RNP982985:RNP983008 RXL982985:RXL983008 SHH982985:SHH983008 SRD982985:SRD983008 TAZ982985:TAZ983008 TKV982985:TKV983008 TUR982985:TUR983008 UEN982985:UEN983008 UOJ982985:UOJ983008 UYF982985:UYF983008 VIB982985:VIB983008 VRX982985:VRX983008 WBT982985:WBT983008 WLP982985:WLP983008 WVL982985:WVL983008 D13:D16 SL24:SL28 D53:D55 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D33:D35 D46:D48 D40:D41 D60:D62 D67:D69 D74:D76 D81:D83 D103:D104 D96:D98 D88:D91 D21:D22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D53:D55 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D33:D35 D46:D48 D40:D41 D60:D62 D67:D69 D74:D76 D81:D83 D103:D104 D96:D98 D88:D91 D21:D22 D116:D117" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -3479,16 +3775,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3497,7 +3792,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3514,12 +3809,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5363143-8DAF-40E1-A39E-CD3464265D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638A294F-8913-4921-A556-00EDDA15A9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="900" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="615" windowWidth="17895" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="138">
   <si>
     <t>Database Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>Security Level</t>
-  </si>
-  <si>
     <t>A number describing how many people must be present</t>
   </si>
   <si>
@@ -147,57 +144,36 @@
     <t>People</t>
   </si>
   <si>
-    <t>IDNumber</t>
-  </si>
-  <si>
     <t>Starts with P</t>
   </si>
   <si>
     <t>Check it starts with P and is integer</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>First name of person</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Last name of person</t>
   </si>
   <si>
-    <t>DateOfBrith</t>
-  </si>
-  <si>
     <t>Person birthday</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>JobID</t>
   </si>
   <si>
     <t>Starts with J</t>
   </si>
   <si>
-    <t>Job Description</t>
-  </si>
-  <si>
     <t>Name of job associated with ID</t>
   </si>
   <si>
     <t>PK, FK</t>
   </si>
   <si>
-    <t>The IDNumber from People table</t>
-  </si>
-  <si>
     <t>The JobID from the Roles table</t>
   </si>
   <si>
@@ -210,36 +186,12 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>PeopleRoles</t>
-  </si>
-  <si>
-    <t>InvID</t>
-  </si>
-  <si>
     <t>Starts with I</t>
   </si>
   <si>
     <t>Check it starts with J and is integer</t>
   </si>
   <si>
-    <t>Check it starts with I and is integer</t>
-  </si>
-  <si>
-    <t>InvDescription</t>
-  </si>
-  <si>
-    <t>The unique number for inventory item</t>
-  </si>
-  <si>
-    <t>Description of inventory item</t>
-  </si>
-  <si>
-    <t>InventoryDescription</t>
-  </si>
-  <si>
-    <t>SettlementInventory</t>
-  </si>
-  <si>
     <t>The ID from settlements table</t>
   </si>
   <si>
@@ -261,21 +213,6 @@
     <t>Weapons</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>WeaponID</t>
-  </si>
-  <si>
-    <t>Unique ID for weapon</t>
-  </si>
-  <si>
-    <t>Starts with W</t>
-  </si>
-  <si>
-    <t>Check it starts with W and is integer</t>
-  </si>
-  <si>
     <t>WeaponDescription</t>
   </si>
   <si>
@@ -285,24 +222,9 @@
     <t>How much the weapon costs</t>
   </si>
   <si>
-    <t>How much the inventory item costs</t>
-  </si>
-  <si>
     <t>Food</t>
   </si>
   <si>
-    <t>FoodID</t>
-  </si>
-  <si>
-    <t>Unique ID for food item</t>
-  </si>
-  <si>
-    <t>Starts with F</t>
-  </si>
-  <si>
-    <t>Check it starts with F and is integer</t>
-  </si>
-  <si>
     <t>FoodDescription</t>
   </si>
   <si>
@@ -315,18 +237,6 @@
     <t>Vehicles</t>
   </si>
   <si>
-    <t>VehicleID</t>
-  </si>
-  <si>
-    <t>Unique ID for vehicle</t>
-  </si>
-  <si>
-    <t>Starts with V</t>
-  </si>
-  <si>
-    <t>Check it starts with V and is integer</t>
-  </si>
-  <si>
     <t>VehicleDescription</t>
   </si>
   <si>
@@ -336,10 +246,136 @@
     <t>Medicine</t>
   </si>
   <si>
-    <t>MedicineID</t>
-  </si>
-  <si>
-    <t>Unique ID for medicine</t>
+    <t>MedicineDescription</t>
+  </si>
+  <si>
+    <t>Description of the medicine</t>
+  </si>
+  <si>
+    <t>How much the medicine costs</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>HousingDescription</t>
+  </si>
+  <si>
+    <t>Description of the house</t>
+  </si>
+  <si>
+    <t>How much the house costs</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>TransID</t>
+  </si>
+  <si>
+    <t>Unique ID for Transactions</t>
+  </si>
+  <si>
+    <t>ID of person making transaction</t>
+  </si>
+  <si>
+    <t>Starts with T</t>
+  </si>
+  <si>
+    <t>Zombies</t>
+  </si>
+  <si>
+    <t>ZombieID</t>
+  </si>
+  <si>
+    <t>Unique ID for zombie</t>
+  </si>
+  <si>
+    <t>Starts with Z</t>
+  </si>
+  <si>
+    <t>Check it starts with Z and is integer</t>
+  </si>
+  <si>
+    <t>ZombieDescription</t>
+  </si>
+  <si>
+    <t>Description of the zombie</t>
+  </si>
+  <si>
+    <t>TransactionsDetails</t>
+  </si>
+  <si>
+    <t>Quantity of item bought</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>Check it starts with T and is integer</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>PeopleID</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>PeopleJobs</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>The ID for item</t>
+  </si>
+  <si>
+    <t>Foreign Key to Items table</t>
+  </si>
+  <si>
+    <t>WeaponPrice</t>
+  </si>
+  <si>
+    <t>FoodPrice</t>
+  </si>
+  <si>
+    <t>VehiclePrice</t>
+  </si>
+  <si>
+    <t>MedicinePrice</t>
+  </si>
+  <si>
+    <t>HousingPrice</t>
+  </si>
+  <si>
+    <t>TransTimeStamp</t>
+  </si>
+  <si>
+    <t>PeopleSettlements</t>
+  </si>
+  <si>
+    <t>The ID from the people table</t>
+  </si>
+  <si>
+    <t>The ID from settlement table</t>
+  </si>
+  <si>
+    <t>Check it starts with I</t>
+  </si>
+  <si>
+    <t>ItemType</t>
+  </si>
+  <si>
+    <t>Type of item</t>
+  </si>
+  <si>
+    <t>Missions</t>
+  </si>
+  <si>
+    <t>Unique ID for missions</t>
   </si>
   <si>
     <t>Starts with M</t>
@@ -348,106 +384,10 @@
     <t>Check it starts with M and is integer</t>
   </si>
   <si>
-    <t>MedicineDescription</t>
-  </si>
-  <si>
-    <t>Description of the medicine</t>
-  </si>
-  <si>
-    <t>How much the medicine costs</t>
-  </si>
-  <si>
-    <t>Housing</t>
-  </si>
-  <si>
-    <t>HousingID</t>
-  </si>
-  <si>
-    <t>Unique ID for housing</t>
-  </si>
-  <si>
-    <t>Starts with H</t>
-  </si>
-  <si>
-    <t>Check it starts with H and is integer</t>
-  </si>
-  <si>
-    <t>HousingDescription</t>
-  </si>
-  <si>
-    <t>Description of the house</t>
-  </si>
-  <si>
-    <t>How much the house costs</t>
-  </si>
-  <si>
-    <t>Transactions</t>
-  </si>
-  <si>
-    <t>TransID</t>
-  </si>
-  <si>
-    <t>Unique ID for Transactions</t>
-  </si>
-  <si>
-    <t>ID of person making transaction</t>
-  </si>
-  <si>
-    <t>Starts with T</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total price of transaction</t>
-  </si>
-  <si>
-    <t>Zombies</t>
-  </si>
-  <si>
-    <t>ZombieID</t>
-  </si>
-  <si>
-    <t>Unique ID for zombie</t>
-  </si>
-  <si>
-    <t>Starts with Z</t>
-  </si>
-  <si>
-    <t>Check it starts with Z and is integer</t>
-  </si>
-  <si>
-    <t>ZombieDescription</t>
-  </si>
-  <si>
-    <t>Description of the zombie</t>
-  </si>
-  <si>
-    <t>TransactionsDetails</t>
-  </si>
-  <si>
-    <t>Quantity of item bought</t>
-  </si>
-  <si>
-    <t>tinyint</t>
-  </si>
-  <si>
-    <t>Check it starts with T and is integer</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>ID of item purchased House/Med/Food/Weapon</t>
-  </si>
-  <si>
-    <t>Missions</t>
-  </si>
-  <si>
-    <t>MissionsID</t>
-  </si>
-  <si>
-    <t>Unique ID for missions</t>
+    <t>MissionDate</t>
+  </si>
+  <si>
+    <t>Date of the mission</t>
   </si>
   <si>
     <t>MissionObjective</t>
@@ -456,19 +396,58 @@
     <t>Description of the mission</t>
   </si>
   <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>MissionDate</t>
-  </si>
-  <si>
-    <t>Date of the mission</t>
-  </si>
-  <si>
-    <t>PricePerKill</t>
-  </si>
-  <si>
-    <t>Price for killing a zombie of this type</t>
+    <t>PeopleMissions</t>
+  </si>
+  <si>
+    <t>MissionID</t>
+  </si>
+  <si>
+    <t>ID from missions table</t>
+  </si>
+  <si>
+    <t>ID from people table</t>
+  </si>
+  <si>
+    <t>PeopleFirstName</t>
+  </si>
+  <si>
+    <t>PeopleLastName</t>
+  </si>
+  <si>
+    <t>PeopleDateOfBrith</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>SettlementItem</t>
+  </si>
+  <si>
+    <t>TransDateStamp</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SettlementSecurityLevel</t>
+  </si>
+  <si>
+    <t>The base pay for this job/day</t>
+  </si>
+  <si>
+    <t>JobBasePay/Day</t>
+  </si>
+  <si>
+    <t>Timestamp of what date it happens</t>
+  </si>
+  <si>
+    <t>Timestamp of wht time it happens</t>
+  </si>
+  <si>
+    <t>ZombiePricePerKill</t>
+  </si>
+  <si>
+    <t>Price by which zombie is rewarded per killing</t>
   </si>
 </sst>
 </file>
@@ -657,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -718,6 +697,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -726,6 +726,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,17 +1019,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1546,7 +1558,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44502.63261296296</v>
+        <v>44506.801807986114</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1557,17 +1569,17 @@
       <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -1618,7 +1630,9 @@
         <v>23</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="25" t="s">
         <v>28</v>
       </c>
@@ -1654,23 +1668,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
@@ -1683,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1731,7 +1745,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -1740,14 +1754,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
@@ -1757,10 +1771,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -1781,10 +1795,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -1805,13 +1819,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1829,17 +1843,17 @@
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -1875,45 +1889,45 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>61</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="11" t="s">
@@ -1925,22 +1939,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
@@ -1976,45 +1991,45 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="11" t="s">
@@ -2023,47 +2038,70 @@
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
@@ -2099,44 +2137,46 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
         <v>19</v>
@@ -2148,23 +2188,23 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>83</v>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="11" t="s">
         <v>22</v>
       </c>
@@ -2174,17 +2214,17 @@
       <c r="A39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
+      <c r="B39" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
@@ -2220,46 +2260,44 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>60</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="11" t="s">
         <v>19</v>
@@ -2270,115 +2308,117 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11" t="s">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11" t="s">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>79</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2388,719 +2428,699 @@
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>90</v>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>96</v>
-      </c>
+      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>98</v>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>103</v>
-      </c>
+      <c r="H69" s="11"/>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>105</v>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D70" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>111</v>
-      </c>
+      <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>113</v>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>132</v>
-      </c>
+      <c r="H83" s="11"/>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>118</v>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="B87" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D88" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E88" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="I88" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J88" s="9" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="13"/>
+      <c r="G89" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F90" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
       <c r="G90" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -3108,28 +3128,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C91" s="12" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C91" s="16" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="11" t="s">
         <v>16</v>
       </c>
@@ -3137,13 +3153,13 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="16"/>
       <c r="B92" s="16" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C92" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
@@ -3152,26 +3168,38 @@
       </c>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
-      <c r="J92" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="J92" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="17"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
+      <c r="B95" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="24"/>
     </row>
     <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
@@ -3207,42 +3235,40 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="E97" s="12"/>
       <c r="F97" s="13"/>
       <c r="G97" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>126</v>
-      </c>
+      <c r="H97" s="11"/>
       <c r="I97" s="11"/>
       <c r="J97" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B98" s="11" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -3256,23 +3282,23 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>144</v>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
       <c r="J99" s="11" t="s">
         <v>16</v>
       </c>
@@ -3283,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
@@ -3331,23 +3357,23 @@
         <v>13</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="F104" s="13"/>
       <c r="G104" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="11" t="s">
@@ -3357,13 +3383,13 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -3377,56 +3403,273 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="11" t="s">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11" t="s">
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="35"/>
+    </row>
+    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="30"/>
+      <c r="G111" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="35"/>
+    </row>
+    <row r="117" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="29"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B25:J25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65497:F65512 WVO983000:WVP983015 WLS983000:WLT983015 WBW983000:WBX983015 VSA983000:VSB983015 VIE983000:VIF983015 UYI983000:UYJ983015 UOM983000:UON983015 UEQ983000:UER983015 TUU983000:TUV983015 TKY983000:TKZ983015 TBC983000:TBD983015 SRG983000:SRH983015 SHK983000:SHL983015 RXO983000:RXP983015 RNS983000:RNT983015 RDW983000:RDX983015 QUA983000:QUB983015 QKE983000:QKF983015 QAI983000:QAJ983015 PQM983000:PQN983015 PGQ983000:PGR983015 OWU983000:OWV983015 OMY983000:OMZ983015 ODC983000:ODD983015 NTG983000:NTH983015 NJK983000:NJL983015 MZO983000:MZP983015 MPS983000:MPT983015 MFW983000:MFX983015 LWA983000:LWB983015 LME983000:LMF983015 LCI983000:LCJ983015 KSM983000:KSN983015 KIQ983000:KIR983015 JYU983000:JYV983015 JOY983000:JOZ983015 JFC983000:JFD983015 IVG983000:IVH983015 ILK983000:ILL983015 IBO983000:IBP983015 HRS983000:HRT983015 HHW983000:HHX983015 GYA983000:GYB983015 GOE983000:GOF983015 GEI983000:GEJ983015 FUM983000:FUN983015 FKQ983000:FKR983015 FAU983000:FAV983015 EQY983000:EQZ983015 EHC983000:EHD983015 DXG983000:DXH983015 DNK983000:DNL983015 DDO983000:DDP983015 CTS983000:CTT983015 CJW983000:CJX983015 CAA983000:CAB983015 BQE983000:BQF983015 BGI983000:BGJ983015 AWM983000:AWN983015 AMQ983000:AMR983015 ACU983000:ACV983015 SY983000:SZ983015 JC983000:JD983015 F983001:F983016 WVO917464:WVP917479 WLS917464:WLT917479 WBW917464:WBX917479 VSA917464:VSB917479 VIE917464:VIF917479 UYI917464:UYJ917479 UOM917464:UON917479 UEQ917464:UER917479 TUU917464:TUV917479 TKY917464:TKZ917479 TBC917464:TBD917479 SRG917464:SRH917479 SHK917464:SHL917479 RXO917464:RXP917479 RNS917464:RNT917479 RDW917464:RDX917479 QUA917464:QUB917479 QKE917464:QKF917479 QAI917464:QAJ917479 PQM917464:PQN917479 PGQ917464:PGR917479 OWU917464:OWV917479 OMY917464:OMZ917479 ODC917464:ODD917479 NTG917464:NTH917479 NJK917464:NJL917479 MZO917464:MZP917479 MPS917464:MPT917479 MFW917464:MFX917479 LWA917464:LWB917479 LME917464:LMF917479 LCI917464:LCJ917479 KSM917464:KSN917479 KIQ917464:KIR917479 JYU917464:JYV917479 JOY917464:JOZ917479 JFC917464:JFD917479 IVG917464:IVH917479 ILK917464:ILL917479 IBO917464:IBP917479 HRS917464:HRT917479 HHW917464:HHX917479 GYA917464:GYB917479 GOE917464:GOF917479 GEI917464:GEJ917479 FUM917464:FUN917479 FKQ917464:FKR917479 FAU917464:FAV917479 EQY917464:EQZ917479 EHC917464:EHD917479 DXG917464:DXH917479 DNK917464:DNL917479 DDO917464:DDP917479 CTS917464:CTT917479 CJW917464:CJX917479 CAA917464:CAB917479 BQE917464:BQF917479 BGI917464:BGJ917479 AWM917464:AWN917479 AMQ917464:AMR917479 ACU917464:ACV917479 SY917464:SZ917479 JC917464:JD917479 F917465:F917480 WVO851928:WVP851943 WLS851928:WLT851943 WBW851928:WBX851943 VSA851928:VSB851943 VIE851928:VIF851943 UYI851928:UYJ851943 UOM851928:UON851943 UEQ851928:UER851943 TUU851928:TUV851943 TKY851928:TKZ851943 TBC851928:TBD851943 SRG851928:SRH851943 SHK851928:SHL851943 RXO851928:RXP851943 RNS851928:RNT851943 RDW851928:RDX851943 QUA851928:QUB851943 QKE851928:QKF851943 QAI851928:QAJ851943 PQM851928:PQN851943 PGQ851928:PGR851943 OWU851928:OWV851943 OMY851928:OMZ851943 ODC851928:ODD851943 NTG851928:NTH851943 NJK851928:NJL851943 MZO851928:MZP851943 MPS851928:MPT851943 MFW851928:MFX851943 LWA851928:LWB851943 LME851928:LMF851943 LCI851928:LCJ851943 KSM851928:KSN851943 KIQ851928:KIR851943 JYU851928:JYV851943 JOY851928:JOZ851943 JFC851928:JFD851943 IVG851928:IVH851943 ILK851928:ILL851943 IBO851928:IBP851943 HRS851928:HRT851943 HHW851928:HHX851943 GYA851928:GYB851943 GOE851928:GOF851943 GEI851928:GEJ851943 FUM851928:FUN851943 FKQ851928:FKR851943 FAU851928:FAV851943 EQY851928:EQZ851943 EHC851928:EHD851943 DXG851928:DXH851943 DNK851928:DNL851943 DDO851928:DDP851943 CTS851928:CTT851943 CJW851928:CJX851943 CAA851928:CAB851943 BQE851928:BQF851943 BGI851928:BGJ851943 AWM851928:AWN851943 AMQ851928:AMR851943 ACU851928:ACV851943 SY851928:SZ851943 JC851928:JD851943 F851929:F851944 WVO786392:WVP786407 WLS786392:WLT786407 WBW786392:WBX786407 VSA786392:VSB786407 VIE786392:VIF786407 UYI786392:UYJ786407 UOM786392:UON786407 UEQ786392:UER786407 TUU786392:TUV786407 TKY786392:TKZ786407 TBC786392:TBD786407 SRG786392:SRH786407 SHK786392:SHL786407 RXO786392:RXP786407 RNS786392:RNT786407 RDW786392:RDX786407 QUA786392:QUB786407 QKE786392:QKF786407 QAI786392:QAJ786407 PQM786392:PQN786407 PGQ786392:PGR786407 OWU786392:OWV786407 OMY786392:OMZ786407 ODC786392:ODD786407 NTG786392:NTH786407 NJK786392:NJL786407 MZO786392:MZP786407 MPS786392:MPT786407 MFW786392:MFX786407 LWA786392:LWB786407 LME786392:LMF786407 LCI786392:LCJ786407 KSM786392:KSN786407 KIQ786392:KIR786407 JYU786392:JYV786407 JOY786392:JOZ786407 JFC786392:JFD786407 IVG786392:IVH786407 ILK786392:ILL786407 IBO786392:IBP786407 HRS786392:HRT786407 HHW786392:HHX786407 GYA786392:GYB786407 GOE786392:GOF786407 GEI786392:GEJ786407 FUM786392:FUN786407 FKQ786392:FKR786407 FAU786392:FAV786407 EQY786392:EQZ786407 EHC786392:EHD786407 DXG786392:DXH786407 DNK786392:DNL786407 DDO786392:DDP786407 CTS786392:CTT786407 CJW786392:CJX786407 CAA786392:CAB786407 BQE786392:BQF786407 BGI786392:BGJ786407 AWM786392:AWN786407 AMQ786392:AMR786407 ACU786392:ACV786407 SY786392:SZ786407 JC786392:JD786407 F786393:F786408 WVO720856:WVP720871 WLS720856:WLT720871 WBW720856:WBX720871 VSA720856:VSB720871 VIE720856:VIF720871 UYI720856:UYJ720871 UOM720856:UON720871 UEQ720856:UER720871 TUU720856:TUV720871 TKY720856:TKZ720871 TBC720856:TBD720871 SRG720856:SRH720871 SHK720856:SHL720871 RXO720856:RXP720871 RNS720856:RNT720871 RDW720856:RDX720871 QUA720856:QUB720871 QKE720856:QKF720871 QAI720856:QAJ720871 PQM720856:PQN720871 PGQ720856:PGR720871 OWU720856:OWV720871 OMY720856:OMZ720871 ODC720856:ODD720871 NTG720856:NTH720871 NJK720856:NJL720871 MZO720856:MZP720871 MPS720856:MPT720871 MFW720856:MFX720871 LWA720856:LWB720871 LME720856:LMF720871 LCI720856:LCJ720871 KSM720856:KSN720871 KIQ720856:KIR720871 JYU720856:JYV720871 JOY720856:JOZ720871 JFC720856:JFD720871 IVG720856:IVH720871 ILK720856:ILL720871 IBO720856:IBP720871 HRS720856:HRT720871 HHW720856:HHX720871 GYA720856:GYB720871 GOE720856:GOF720871 GEI720856:GEJ720871 FUM720856:FUN720871 FKQ720856:FKR720871 FAU720856:FAV720871 EQY720856:EQZ720871 EHC720856:EHD720871 DXG720856:DXH720871 DNK720856:DNL720871 DDO720856:DDP720871 CTS720856:CTT720871 CJW720856:CJX720871 CAA720856:CAB720871 BQE720856:BQF720871 BGI720856:BGJ720871 AWM720856:AWN720871 AMQ720856:AMR720871 ACU720856:ACV720871 SY720856:SZ720871 JC720856:JD720871 F720857:F720872 WVO655320:WVP655335 WLS655320:WLT655335 WBW655320:WBX655335 VSA655320:VSB655335 VIE655320:VIF655335 UYI655320:UYJ655335 UOM655320:UON655335 UEQ655320:UER655335 TUU655320:TUV655335 TKY655320:TKZ655335 TBC655320:TBD655335 SRG655320:SRH655335 SHK655320:SHL655335 RXO655320:RXP655335 RNS655320:RNT655335 RDW655320:RDX655335 QUA655320:QUB655335 QKE655320:QKF655335 QAI655320:QAJ655335 PQM655320:PQN655335 PGQ655320:PGR655335 OWU655320:OWV655335 OMY655320:OMZ655335 ODC655320:ODD655335 NTG655320:NTH655335 NJK655320:NJL655335 MZO655320:MZP655335 MPS655320:MPT655335 MFW655320:MFX655335 LWA655320:LWB655335 LME655320:LMF655335 LCI655320:LCJ655335 KSM655320:KSN655335 KIQ655320:KIR655335 JYU655320:JYV655335 JOY655320:JOZ655335 JFC655320:JFD655335 IVG655320:IVH655335 ILK655320:ILL655335 IBO655320:IBP655335 HRS655320:HRT655335 HHW655320:HHX655335 GYA655320:GYB655335 GOE655320:GOF655335 GEI655320:GEJ655335 FUM655320:FUN655335 FKQ655320:FKR655335 FAU655320:FAV655335 EQY655320:EQZ655335 EHC655320:EHD655335 DXG655320:DXH655335 DNK655320:DNL655335 DDO655320:DDP655335 CTS655320:CTT655335 CJW655320:CJX655335 CAA655320:CAB655335 BQE655320:BQF655335 BGI655320:BGJ655335 AWM655320:AWN655335 AMQ655320:AMR655335 ACU655320:ACV655335 SY655320:SZ655335 JC655320:JD655335 F655321:F655336 WVO589784:WVP589799 WLS589784:WLT589799 WBW589784:WBX589799 VSA589784:VSB589799 VIE589784:VIF589799 UYI589784:UYJ589799 UOM589784:UON589799 UEQ589784:UER589799 TUU589784:TUV589799 TKY589784:TKZ589799 TBC589784:TBD589799 SRG589784:SRH589799 SHK589784:SHL589799 RXO589784:RXP589799 RNS589784:RNT589799 RDW589784:RDX589799 QUA589784:QUB589799 QKE589784:QKF589799 QAI589784:QAJ589799 PQM589784:PQN589799 PGQ589784:PGR589799 OWU589784:OWV589799 OMY589784:OMZ589799 ODC589784:ODD589799 NTG589784:NTH589799 NJK589784:NJL589799 MZO589784:MZP589799 MPS589784:MPT589799 MFW589784:MFX589799 LWA589784:LWB589799 LME589784:LMF589799 LCI589784:LCJ589799 KSM589784:KSN589799 KIQ589784:KIR589799 JYU589784:JYV589799 JOY589784:JOZ589799 JFC589784:JFD589799 IVG589784:IVH589799 ILK589784:ILL589799 IBO589784:IBP589799 HRS589784:HRT589799 HHW589784:HHX589799 GYA589784:GYB589799 GOE589784:GOF589799 GEI589784:GEJ589799 FUM589784:FUN589799 FKQ589784:FKR589799 FAU589784:FAV589799 EQY589784:EQZ589799 EHC589784:EHD589799 DXG589784:DXH589799 DNK589784:DNL589799 DDO589784:DDP589799 CTS589784:CTT589799 CJW589784:CJX589799 CAA589784:CAB589799 BQE589784:BQF589799 BGI589784:BGJ589799 AWM589784:AWN589799 AMQ589784:AMR589799 ACU589784:ACV589799 SY589784:SZ589799 JC589784:JD589799 F589785:F589800 WVO524248:WVP524263 WLS524248:WLT524263 WBW524248:WBX524263 VSA524248:VSB524263 VIE524248:VIF524263 UYI524248:UYJ524263 UOM524248:UON524263 UEQ524248:UER524263 TUU524248:TUV524263 TKY524248:TKZ524263 TBC524248:TBD524263 SRG524248:SRH524263 SHK524248:SHL524263 RXO524248:RXP524263 RNS524248:RNT524263 RDW524248:RDX524263 QUA524248:QUB524263 QKE524248:QKF524263 QAI524248:QAJ524263 PQM524248:PQN524263 PGQ524248:PGR524263 OWU524248:OWV524263 OMY524248:OMZ524263 ODC524248:ODD524263 NTG524248:NTH524263 NJK524248:NJL524263 MZO524248:MZP524263 MPS524248:MPT524263 MFW524248:MFX524263 LWA524248:LWB524263 LME524248:LMF524263 LCI524248:LCJ524263 KSM524248:KSN524263 KIQ524248:KIR524263 JYU524248:JYV524263 JOY524248:JOZ524263 JFC524248:JFD524263 IVG524248:IVH524263 ILK524248:ILL524263 IBO524248:IBP524263 HRS524248:HRT524263 HHW524248:HHX524263 GYA524248:GYB524263 GOE524248:GOF524263 GEI524248:GEJ524263 FUM524248:FUN524263 FKQ524248:FKR524263 FAU524248:FAV524263 EQY524248:EQZ524263 EHC524248:EHD524263 DXG524248:DXH524263 DNK524248:DNL524263 DDO524248:DDP524263 CTS524248:CTT524263 CJW524248:CJX524263 CAA524248:CAB524263 BQE524248:BQF524263 BGI524248:BGJ524263 AWM524248:AWN524263 AMQ524248:AMR524263 ACU524248:ACV524263 SY524248:SZ524263 JC524248:JD524263 F524249:F524264 WVO458712:WVP458727 WLS458712:WLT458727 WBW458712:WBX458727 VSA458712:VSB458727 VIE458712:VIF458727 UYI458712:UYJ458727 UOM458712:UON458727 UEQ458712:UER458727 TUU458712:TUV458727 TKY458712:TKZ458727 TBC458712:TBD458727 SRG458712:SRH458727 SHK458712:SHL458727 RXO458712:RXP458727 RNS458712:RNT458727 RDW458712:RDX458727 QUA458712:QUB458727 QKE458712:QKF458727 QAI458712:QAJ458727 PQM458712:PQN458727 PGQ458712:PGR458727 OWU458712:OWV458727 OMY458712:OMZ458727 ODC458712:ODD458727 NTG458712:NTH458727 NJK458712:NJL458727 MZO458712:MZP458727 MPS458712:MPT458727 MFW458712:MFX458727 LWA458712:LWB458727 LME458712:LMF458727 LCI458712:LCJ458727 KSM458712:KSN458727 KIQ458712:KIR458727 JYU458712:JYV458727 JOY458712:JOZ458727 JFC458712:JFD458727 IVG458712:IVH458727 ILK458712:ILL458727 IBO458712:IBP458727 HRS458712:HRT458727 HHW458712:HHX458727 GYA458712:GYB458727 GOE458712:GOF458727 GEI458712:GEJ458727 FUM458712:FUN458727 FKQ458712:FKR458727 FAU458712:FAV458727 EQY458712:EQZ458727 EHC458712:EHD458727 DXG458712:DXH458727 DNK458712:DNL458727 DDO458712:DDP458727 CTS458712:CTT458727 CJW458712:CJX458727 CAA458712:CAB458727 BQE458712:BQF458727 BGI458712:BGJ458727 AWM458712:AWN458727 AMQ458712:AMR458727 ACU458712:ACV458727 SY458712:SZ458727 JC458712:JD458727 F458713:F458728 WVO393176:WVP393191 WLS393176:WLT393191 WBW393176:WBX393191 VSA393176:VSB393191 VIE393176:VIF393191 UYI393176:UYJ393191 UOM393176:UON393191 UEQ393176:UER393191 TUU393176:TUV393191 TKY393176:TKZ393191 TBC393176:TBD393191 SRG393176:SRH393191 SHK393176:SHL393191 RXO393176:RXP393191 RNS393176:RNT393191 RDW393176:RDX393191 QUA393176:QUB393191 QKE393176:QKF393191 QAI393176:QAJ393191 PQM393176:PQN393191 PGQ393176:PGR393191 OWU393176:OWV393191 OMY393176:OMZ393191 ODC393176:ODD393191 NTG393176:NTH393191 NJK393176:NJL393191 MZO393176:MZP393191 MPS393176:MPT393191 MFW393176:MFX393191 LWA393176:LWB393191 LME393176:LMF393191 LCI393176:LCJ393191 KSM393176:KSN393191 KIQ393176:KIR393191 JYU393176:JYV393191 JOY393176:JOZ393191 JFC393176:JFD393191 IVG393176:IVH393191 ILK393176:ILL393191 IBO393176:IBP393191 HRS393176:HRT393191 HHW393176:HHX393191 GYA393176:GYB393191 GOE393176:GOF393191 GEI393176:GEJ393191 FUM393176:FUN393191 FKQ393176:FKR393191 FAU393176:FAV393191 EQY393176:EQZ393191 EHC393176:EHD393191 DXG393176:DXH393191 DNK393176:DNL393191 DDO393176:DDP393191 CTS393176:CTT393191 CJW393176:CJX393191 CAA393176:CAB393191 BQE393176:BQF393191 BGI393176:BGJ393191 AWM393176:AWN393191 AMQ393176:AMR393191 ACU393176:ACV393191 SY393176:SZ393191 JC393176:JD393191 F393177:F393192 WVO327640:WVP327655 WLS327640:WLT327655 WBW327640:WBX327655 VSA327640:VSB327655 VIE327640:VIF327655 UYI327640:UYJ327655 UOM327640:UON327655 UEQ327640:UER327655 TUU327640:TUV327655 TKY327640:TKZ327655 TBC327640:TBD327655 SRG327640:SRH327655 SHK327640:SHL327655 RXO327640:RXP327655 RNS327640:RNT327655 RDW327640:RDX327655 QUA327640:QUB327655 QKE327640:QKF327655 QAI327640:QAJ327655 PQM327640:PQN327655 PGQ327640:PGR327655 OWU327640:OWV327655 OMY327640:OMZ327655 ODC327640:ODD327655 NTG327640:NTH327655 NJK327640:NJL327655 MZO327640:MZP327655 MPS327640:MPT327655 MFW327640:MFX327655 LWA327640:LWB327655 LME327640:LMF327655 LCI327640:LCJ327655 KSM327640:KSN327655 KIQ327640:KIR327655 JYU327640:JYV327655 JOY327640:JOZ327655 JFC327640:JFD327655 IVG327640:IVH327655 ILK327640:ILL327655 IBO327640:IBP327655 HRS327640:HRT327655 HHW327640:HHX327655 GYA327640:GYB327655 GOE327640:GOF327655 GEI327640:GEJ327655 FUM327640:FUN327655 FKQ327640:FKR327655 FAU327640:FAV327655 EQY327640:EQZ327655 EHC327640:EHD327655 DXG327640:DXH327655 DNK327640:DNL327655 DDO327640:DDP327655 CTS327640:CTT327655 CJW327640:CJX327655 CAA327640:CAB327655 BQE327640:BQF327655 BGI327640:BGJ327655 AWM327640:AWN327655 AMQ327640:AMR327655 ACU327640:ACV327655 SY327640:SZ327655 JC327640:JD327655 F327641:F327656 WVO262104:WVP262119 WLS262104:WLT262119 WBW262104:WBX262119 VSA262104:VSB262119 VIE262104:VIF262119 UYI262104:UYJ262119 UOM262104:UON262119 UEQ262104:UER262119 TUU262104:TUV262119 TKY262104:TKZ262119 TBC262104:TBD262119 SRG262104:SRH262119 SHK262104:SHL262119 RXO262104:RXP262119 RNS262104:RNT262119 RDW262104:RDX262119 QUA262104:QUB262119 QKE262104:QKF262119 QAI262104:QAJ262119 PQM262104:PQN262119 PGQ262104:PGR262119 OWU262104:OWV262119 OMY262104:OMZ262119 ODC262104:ODD262119 NTG262104:NTH262119 NJK262104:NJL262119 MZO262104:MZP262119 MPS262104:MPT262119 MFW262104:MFX262119 LWA262104:LWB262119 LME262104:LMF262119 LCI262104:LCJ262119 KSM262104:KSN262119 KIQ262104:KIR262119 JYU262104:JYV262119 JOY262104:JOZ262119 JFC262104:JFD262119 IVG262104:IVH262119 ILK262104:ILL262119 IBO262104:IBP262119 HRS262104:HRT262119 HHW262104:HHX262119 GYA262104:GYB262119 GOE262104:GOF262119 GEI262104:GEJ262119 FUM262104:FUN262119 FKQ262104:FKR262119 FAU262104:FAV262119 EQY262104:EQZ262119 EHC262104:EHD262119 DXG262104:DXH262119 DNK262104:DNL262119 DDO262104:DDP262119 CTS262104:CTT262119 CJW262104:CJX262119 CAA262104:CAB262119 BQE262104:BQF262119 BGI262104:BGJ262119 AWM262104:AWN262119 AMQ262104:AMR262119 ACU262104:ACV262119 SY262104:SZ262119 JC262104:JD262119 F262105:F262120 WVO196568:WVP196583 WLS196568:WLT196583 WBW196568:WBX196583 VSA196568:VSB196583 VIE196568:VIF196583 UYI196568:UYJ196583 UOM196568:UON196583 UEQ196568:UER196583 TUU196568:TUV196583 TKY196568:TKZ196583 TBC196568:TBD196583 SRG196568:SRH196583 SHK196568:SHL196583 RXO196568:RXP196583 RNS196568:RNT196583 RDW196568:RDX196583 QUA196568:QUB196583 QKE196568:QKF196583 QAI196568:QAJ196583 PQM196568:PQN196583 PGQ196568:PGR196583 OWU196568:OWV196583 OMY196568:OMZ196583 ODC196568:ODD196583 NTG196568:NTH196583 NJK196568:NJL196583 MZO196568:MZP196583 MPS196568:MPT196583 MFW196568:MFX196583 LWA196568:LWB196583 LME196568:LMF196583 LCI196568:LCJ196583 KSM196568:KSN196583 KIQ196568:KIR196583 JYU196568:JYV196583 JOY196568:JOZ196583 JFC196568:JFD196583 IVG196568:IVH196583 ILK196568:ILL196583 IBO196568:IBP196583 HRS196568:HRT196583 HHW196568:HHX196583 GYA196568:GYB196583 GOE196568:GOF196583 GEI196568:GEJ196583 FUM196568:FUN196583 FKQ196568:FKR196583 FAU196568:FAV196583 EQY196568:EQZ196583 EHC196568:EHD196583 DXG196568:DXH196583 DNK196568:DNL196583 DDO196568:DDP196583 CTS196568:CTT196583 CJW196568:CJX196583 CAA196568:CAB196583 BQE196568:BQF196583 BGI196568:BGJ196583 AWM196568:AWN196583 AMQ196568:AMR196583 ACU196568:ACV196583 SY196568:SZ196583 JC196568:JD196583 F196569:F196584 WVO131032:WVP131047 WLS131032:WLT131047 WBW131032:WBX131047 VSA131032:VSB131047 VIE131032:VIF131047 UYI131032:UYJ131047 UOM131032:UON131047 UEQ131032:UER131047 TUU131032:TUV131047 TKY131032:TKZ131047 TBC131032:TBD131047 SRG131032:SRH131047 SHK131032:SHL131047 RXO131032:RXP131047 RNS131032:RNT131047 RDW131032:RDX131047 QUA131032:QUB131047 QKE131032:QKF131047 QAI131032:QAJ131047 PQM131032:PQN131047 PGQ131032:PGR131047 OWU131032:OWV131047 OMY131032:OMZ131047 ODC131032:ODD131047 NTG131032:NTH131047 NJK131032:NJL131047 MZO131032:MZP131047 MPS131032:MPT131047 MFW131032:MFX131047 LWA131032:LWB131047 LME131032:LMF131047 LCI131032:LCJ131047 KSM131032:KSN131047 KIQ131032:KIR131047 JYU131032:JYV131047 JOY131032:JOZ131047 JFC131032:JFD131047 IVG131032:IVH131047 ILK131032:ILL131047 IBO131032:IBP131047 HRS131032:HRT131047 HHW131032:HHX131047 GYA131032:GYB131047 GOE131032:GOF131047 GEI131032:GEJ131047 FUM131032:FUN131047 FKQ131032:FKR131047 FAU131032:FAV131047 EQY131032:EQZ131047 EHC131032:EHD131047 DXG131032:DXH131047 DNK131032:DNL131047 DDO131032:DDP131047 CTS131032:CTT131047 CJW131032:CJX131047 CAA131032:CAB131047 BQE131032:BQF131047 BGI131032:BGJ131047 AWM131032:AWN131047 AMQ131032:AMR131047 ACU131032:ACV131047 SY131032:SZ131047 JC131032:JD131047 F131033:F131048 WVO65496:WVP65511 WLS65496:WLT65511 WBW65496:WBX65511 VSA65496:VSB65511 VIE65496:VIF65511 UYI65496:UYJ65511 UOM65496:UON65511 UEQ65496:UER65511 TUU65496:TUV65511 TKY65496:TKZ65511 TBC65496:TBD65511 SRG65496:SRH65511 SHK65496:SHL65511 RXO65496:RXP65511 RNS65496:RNT65511 RDW65496:RDX65511 QUA65496:QUB65511 QKE65496:QKF65511 QAI65496:QAJ65511 PQM65496:PQN65511 PGQ65496:PGR65511 OWU65496:OWV65511 OMY65496:OMZ65511 ODC65496:ODD65511 NTG65496:NTH65511 NJK65496:NJL65511 MZO65496:MZP65511 MPS65496:MPT65511 MFW65496:MFX65511 LWA65496:LWB65511 LME65496:LMF65511 LCI65496:LCJ65511 KSM65496:KSN65511 KIQ65496:KIR65511 JYU65496:JYV65511 JOY65496:JOZ65511 JFC65496:JFD65511 IVG65496:IVH65511 ILK65496:ILL65511 IBO65496:IBP65511 HRS65496:HRT65511 HHW65496:HHX65511 GYA65496:GYB65511 GOE65496:GOF65511 GEI65496:GEJ65511 FUM65496:FUN65511 FKQ65496:FKR65511 FAU65496:FAV65511 EQY65496:EQZ65511 EHC65496:EHD65511 DXG65496:DXH65511 DNK65496:DNL65511 DDO65496:DDP65511 CTS65496:CTT65511 CJW65496:CJX65511 CAA65496:CAB65511 BQE65496:BQF65511 BGI65496:BGJ65511 AWM65496:AWN65511 AMQ65496:AMR65511 ACU65496:ACV65511 SY65496:SZ65511 JC65496:JD65511 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65491:F65506 WVO982994:WVP983009 WLS982994:WLT983009 WBW982994:WBX983009 VSA982994:VSB983009 VIE982994:VIF983009 UYI982994:UYJ983009 UOM982994:UON983009 UEQ982994:UER983009 TUU982994:TUV983009 TKY982994:TKZ983009 TBC982994:TBD983009 SRG982994:SRH983009 SHK982994:SHL983009 RXO982994:RXP983009 RNS982994:RNT983009 RDW982994:RDX983009 QUA982994:QUB983009 QKE982994:QKF983009 QAI982994:QAJ983009 PQM982994:PQN983009 PGQ982994:PGR983009 OWU982994:OWV983009 OMY982994:OMZ983009 ODC982994:ODD983009 NTG982994:NTH983009 NJK982994:NJL983009 MZO982994:MZP983009 MPS982994:MPT983009 MFW982994:MFX983009 LWA982994:LWB983009 LME982994:LMF983009 LCI982994:LCJ983009 KSM982994:KSN983009 KIQ982994:KIR983009 JYU982994:JYV983009 JOY982994:JOZ983009 JFC982994:JFD983009 IVG982994:IVH983009 ILK982994:ILL983009 IBO982994:IBP983009 HRS982994:HRT983009 HHW982994:HHX983009 GYA982994:GYB983009 GOE982994:GOF983009 GEI982994:GEJ983009 FUM982994:FUN983009 FKQ982994:FKR983009 FAU982994:FAV983009 EQY982994:EQZ983009 EHC982994:EHD983009 DXG982994:DXH983009 DNK982994:DNL983009 DDO982994:DDP983009 CTS982994:CTT983009 CJW982994:CJX983009 CAA982994:CAB983009 BQE982994:BQF983009 BGI982994:BGJ983009 AWM982994:AWN983009 AMQ982994:AMR983009 ACU982994:ACV983009 SY982994:SZ983009 JC982994:JD983009 F982995:F983010 WVO917458:WVP917473 WLS917458:WLT917473 WBW917458:WBX917473 VSA917458:VSB917473 VIE917458:VIF917473 UYI917458:UYJ917473 UOM917458:UON917473 UEQ917458:UER917473 TUU917458:TUV917473 TKY917458:TKZ917473 TBC917458:TBD917473 SRG917458:SRH917473 SHK917458:SHL917473 RXO917458:RXP917473 RNS917458:RNT917473 RDW917458:RDX917473 QUA917458:QUB917473 QKE917458:QKF917473 QAI917458:QAJ917473 PQM917458:PQN917473 PGQ917458:PGR917473 OWU917458:OWV917473 OMY917458:OMZ917473 ODC917458:ODD917473 NTG917458:NTH917473 NJK917458:NJL917473 MZO917458:MZP917473 MPS917458:MPT917473 MFW917458:MFX917473 LWA917458:LWB917473 LME917458:LMF917473 LCI917458:LCJ917473 KSM917458:KSN917473 KIQ917458:KIR917473 JYU917458:JYV917473 JOY917458:JOZ917473 JFC917458:JFD917473 IVG917458:IVH917473 ILK917458:ILL917473 IBO917458:IBP917473 HRS917458:HRT917473 HHW917458:HHX917473 GYA917458:GYB917473 GOE917458:GOF917473 GEI917458:GEJ917473 FUM917458:FUN917473 FKQ917458:FKR917473 FAU917458:FAV917473 EQY917458:EQZ917473 EHC917458:EHD917473 DXG917458:DXH917473 DNK917458:DNL917473 DDO917458:DDP917473 CTS917458:CTT917473 CJW917458:CJX917473 CAA917458:CAB917473 BQE917458:BQF917473 BGI917458:BGJ917473 AWM917458:AWN917473 AMQ917458:AMR917473 ACU917458:ACV917473 SY917458:SZ917473 JC917458:JD917473 F917459:F917474 WVO851922:WVP851937 WLS851922:WLT851937 WBW851922:WBX851937 VSA851922:VSB851937 VIE851922:VIF851937 UYI851922:UYJ851937 UOM851922:UON851937 UEQ851922:UER851937 TUU851922:TUV851937 TKY851922:TKZ851937 TBC851922:TBD851937 SRG851922:SRH851937 SHK851922:SHL851937 RXO851922:RXP851937 RNS851922:RNT851937 RDW851922:RDX851937 QUA851922:QUB851937 QKE851922:QKF851937 QAI851922:QAJ851937 PQM851922:PQN851937 PGQ851922:PGR851937 OWU851922:OWV851937 OMY851922:OMZ851937 ODC851922:ODD851937 NTG851922:NTH851937 NJK851922:NJL851937 MZO851922:MZP851937 MPS851922:MPT851937 MFW851922:MFX851937 LWA851922:LWB851937 LME851922:LMF851937 LCI851922:LCJ851937 KSM851922:KSN851937 KIQ851922:KIR851937 JYU851922:JYV851937 JOY851922:JOZ851937 JFC851922:JFD851937 IVG851922:IVH851937 ILK851922:ILL851937 IBO851922:IBP851937 HRS851922:HRT851937 HHW851922:HHX851937 GYA851922:GYB851937 GOE851922:GOF851937 GEI851922:GEJ851937 FUM851922:FUN851937 FKQ851922:FKR851937 FAU851922:FAV851937 EQY851922:EQZ851937 EHC851922:EHD851937 DXG851922:DXH851937 DNK851922:DNL851937 DDO851922:DDP851937 CTS851922:CTT851937 CJW851922:CJX851937 CAA851922:CAB851937 BQE851922:BQF851937 BGI851922:BGJ851937 AWM851922:AWN851937 AMQ851922:AMR851937 ACU851922:ACV851937 SY851922:SZ851937 JC851922:JD851937 F851923:F851938 WVO786386:WVP786401 WLS786386:WLT786401 WBW786386:WBX786401 VSA786386:VSB786401 VIE786386:VIF786401 UYI786386:UYJ786401 UOM786386:UON786401 UEQ786386:UER786401 TUU786386:TUV786401 TKY786386:TKZ786401 TBC786386:TBD786401 SRG786386:SRH786401 SHK786386:SHL786401 RXO786386:RXP786401 RNS786386:RNT786401 RDW786386:RDX786401 QUA786386:QUB786401 QKE786386:QKF786401 QAI786386:QAJ786401 PQM786386:PQN786401 PGQ786386:PGR786401 OWU786386:OWV786401 OMY786386:OMZ786401 ODC786386:ODD786401 NTG786386:NTH786401 NJK786386:NJL786401 MZO786386:MZP786401 MPS786386:MPT786401 MFW786386:MFX786401 LWA786386:LWB786401 LME786386:LMF786401 LCI786386:LCJ786401 KSM786386:KSN786401 KIQ786386:KIR786401 JYU786386:JYV786401 JOY786386:JOZ786401 JFC786386:JFD786401 IVG786386:IVH786401 ILK786386:ILL786401 IBO786386:IBP786401 HRS786386:HRT786401 HHW786386:HHX786401 GYA786386:GYB786401 GOE786386:GOF786401 GEI786386:GEJ786401 FUM786386:FUN786401 FKQ786386:FKR786401 FAU786386:FAV786401 EQY786386:EQZ786401 EHC786386:EHD786401 DXG786386:DXH786401 DNK786386:DNL786401 DDO786386:DDP786401 CTS786386:CTT786401 CJW786386:CJX786401 CAA786386:CAB786401 BQE786386:BQF786401 BGI786386:BGJ786401 AWM786386:AWN786401 AMQ786386:AMR786401 ACU786386:ACV786401 SY786386:SZ786401 JC786386:JD786401 F786387:F786402 WVO720850:WVP720865 WLS720850:WLT720865 WBW720850:WBX720865 VSA720850:VSB720865 VIE720850:VIF720865 UYI720850:UYJ720865 UOM720850:UON720865 UEQ720850:UER720865 TUU720850:TUV720865 TKY720850:TKZ720865 TBC720850:TBD720865 SRG720850:SRH720865 SHK720850:SHL720865 RXO720850:RXP720865 RNS720850:RNT720865 RDW720850:RDX720865 QUA720850:QUB720865 QKE720850:QKF720865 QAI720850:QAJ720865 PQM720850:PQN720865 PGQ720850:PGR720865 OWU720850:OWV720865 OMY720850:OMZ720865 ODC720850:ODD720865 NTG720850:NTH720865 NJK720850:NJL720865 MZO720850:MZP720865 MPS720850:MPT720865 MFW720850:MFX720865 LWA720850:LWB720865 LME720850:LMF720865 LCI720850:LCJ720865 KSM720850:KSN720865 KIQ720850:KIR720865 JYU720850:JYV720865 JOY720850:JOZ720865 JFC720850:JFD720865 IVG720850:IVH720865 ILK720850:ILL720865 IBO720850:IBP720865 HRS720850:HRT720865 HHW720850:HHX720865 GYA720850:GYB720865 GOE720850:GOF720865 GEI720850:GEJ720865 FUM720850:FUN720865 FKQ720850:FKR720865 FAU720850:FAV720865 EQY720850:EQZ720865 EHC720850:EHD720865 DXG720850:DXH720865 DNK720850:DNL720865 DDO720850:DDP720865 CTS720850:CTT720865 CJW720850:CJX720865 CAA720850:CAB720865 BQE720850:BQF720865 BGI720850:BGJ720865 AWM720850:AWN720865 AMQ720850:AMR720865 ACU720850:ACV720865 SY720850:SZ720865 JC720850:JD720865 F720851:F720866 WVO655314:WVP655329 WLS655314:WLT655329 WBW655314:WBX655329 VSA655314:VSB655329 VIE655314:VIF655329 UYI655314:UYJ655329 UOM655314:UON655329 UEQ655314:UER655329 TUU655314:TUV655329 TKY655314:TKZ655329 TBC655314:TBD655329 SRG655314:SRH655329 SHK655314:SHL655329 RXO655314:RXP655329 RNS655314:RNT655329 RDW655314:RDX655329 QUA655314:QUB655329 QKE655314:QKF655329 QAI655314:QAJ655329 PQM655314:PQN655329 PGQ655314:PGR655329 OWU655314:OWV655329 OMY655314:OMZ655329 ODC655314:ODD655329 NTG655314:NTH655329 NJK655314:NJL655329 MZO655314:MZP655329 MPS655314:MPT655329 MFW655314:MFX655329 LWA655314:LWB655329 LME655314:LMF655329 LCI655314:LCJ655329 KSM655314:KSN655329 KIQ655314:KIR655329 JYU655314:JYV655329 JOY655314:JOZ655329 JFC655314:JFD655329 IVG655314:IVH655329 ILK655314:ILL655329 IBO655314:IBP655329 HRS655314:HRT655329 HHW655314:HHX655329 GYA655314:GYB655329 GOE655314:GOF655329 GEI655314:GEJ655329 FUM655314:FUN655329 FKQ655314:FKR655329 FAU655314:FAV655329 EQY655314:EQZ655329 EHC655314:EHD655329 DXG655314:DXH655329 DNK655314:DNL655329 DDO655314:DDP655329 CTS655314:CTT655329 CJW655314:CJX655329 CAA655314:CAB655329 BQE655314:BQF655329 BGI655314:BGJ655329 AWM655314:AWN655329 AMQ655314:AMR655329 ACU655314:ACV655329 SY655314:SZ655329 JC655314:JD655329 F655315:F655330 WVO589778:WVP589793 WLS589778:WLT589793 WBW589778:WBX589793 VSA589778:VSB589793 VIE589778:VIF589793 UYI589778:UYJ589793 UOM589778:UON589793 UEQ589778:UER589793 TUU589778:TUV589793 TKY589778:TKZ589793 TBC589778:TBD589793 SRG589778:SRH589793 SHK589778:SHL589793 RXO589778:RXP589793 RNS589778:RNT589793 RDW589778:RDX589793 QUA589778:QUB589793 QKE589778:QKF589793 QAI589778:QAJ589793 PQM589778:PQN589793 PGQ589778:PGR589793 OWU589778:OWV589793 OMY589778:OMZ589793 ODC589778:ODD589793 NTG589778:NTH589793 NJK589778:NJL589793 MZO589778:MZP589793 MPS589778:MPT589793 MFW589778:MFX589793 LWA589778:LWB589793 LME589778:LMF589793 LCI589778:LCJ589793 KSM589778:KSN589793 KIQ589778:KIR589793 JYU589778:JYV589793 JOY589778:JOZ589793 JFC589778:JFD589793 IVG589778:IVH589793 ILK589778:ILL589793 IBO589778:IBP589793 HRS589778:HRT589793 HHW589778:HHX589793 GYA589778:GYB589793 GOE589778:GOF589793 GEI589778:GEJ589793 FUM589778:FUN589793 FKQ589778:FKR589793 FAU589778:FAV589793 EQY589778:EQZ589793 EHC589778:EHD589793 DXG589778:DXH589793 DNK589778:DNL589793 DDO589778:DDP589793 CTS589778:CTT589793 CJW589778:CJX589793 CAA589778:CAB589793 BQE589778:BQF589793 BGI589778:BGJ589793 AWM589778:AWN589793 AMQ589778:AMR589793 ACU589778:ACV589793 SY589778:SZ589793 JC589778:JD589793 F589779:F589794 WVO524242:WVP524257 WLS524242:WLT524257 WBW524242:WBX524257 VSA524242:VSB524257 VIE524242:VIF524257 UYI524242:UYJ524257 UOM524242:UON524257 UEQ524242:UER524257 TUU524242:TUV524257 TKY524242:TKZ524257 TBC524242:TBD524257 SRG524242:SRH524257 SHK524242:SHL524257 RXO524242:RXP524257 RNS524242:RNT524257 RDW524242:RDX524257 QUA524242:QUB524257 QKE524242:QKF524257 QAI524242:QAJ524257 PQM524242:PQN524257 PGQ524242:PGR524257 OWU524242:OWV524257 OMY524242:OMZ524257 ODC524242:ODD524257 NTG524242:NTH524257 NJK524242:NJL524257 MZO524242:MZP524257 MPS524242:MPT524257 MFW524242:MFX524257 LWA524242:LWB524257 LME524242:LMF524257 LCI524242:LCJ524257 KSM524242:KSN524257 KIQ524242:KIR524257 JYU524242:JYV524257 JOY524242:JOZ524257 JFC524242:JFD524257 IVG524242:IVH524257 ILK524242:ILL524257 IBO524242:IBP524257 HRS524242:HRT524257 HHW524242:HHX524257 GYA524242:GYB524257 GOE524242:GOF524257 GEI524242:GEJ524257 FUM524242:FUN524257 FKQ524242:FKR524257 FAU524242:FAV524257 EQY524242:EQZ524257 EHC524242:EHD524257 DXG524242:DXH524257 DNK524242:DNL524257 DDO524242:DDP524257 CTS524242:CTT524257 CJW524242:CJX524257 CAA524242:CAB524257 BQE524242:BQF524257 BGI524242:BGJ524257 AWM524242:AWN524257 AMQ524242:AMR524257 ACU524242:ACV524257 SY524242:SZ524257 JC524242:JD524257 F524243:F524258 WVO458706:WVP458721 WLS458706:WLT458721 WBW458706:WBX458721 VSA458706:VSB458721 VIE458706:VIF458721 UYI458706:UYJ458721 UOM458706:UON458721 UEQ458706:UER458721 TUU458706:TUV458721 TKY458706:TKZ458721 TBC458706:TBD458721 SRG458706:SRH458721 SHK458706:SHL458721 RXO458706:RXP458721 RNS458706:RNT458721 RDW458706:RDX458721 QUA458706:QUB458721 QKE458706:QKF458721 QAI458706:QAJ458721 PQM458706:PQN458721 PGQ458706:PGR458721 OWU458706:OWV458721 OMY458706:OMZ458721 ODC458706:ODD458721 NTG458706:NTH458721 NJK458706:NJL458721 MZO458706:MZP458721 MPS458706:MPT458721 MFW458706:MFX458721 LWA458706:LWB458721 LME458706:LMF458721 LCI458706:LCJ458721 KSM458706:KSN458721 KIQ458706:KIR458721 JYU458706:JYV458721 JOY458706:JOZ458721 JFC458706:JFD458721 IVG458706:IVH458721 ILK458706:ILL458721 IBO458706:IBP458721 HRS458706:HRT458721 HHW458706:HHX458721 GYA458706:GYB458721 GOE458706:GOF458721 GEI458706:GEJ458721 FUM458706:FUN458721 FKQ458706:FKR458721 FAU458706:FAV458721 EQY458706:EQZ458721 EHC458706:EHD458721 DXG458706:DXH458721 DNK458706:DNL458721 DDO458706:DDP458721 CTS458706:CTT458721 CJW458706:CJX458721 CAA458706:CAB458721 BQE458706:BQF458721 BGI458706:BGJ458721 AWM458706:AWN458721 AMQ458706:AMR458721 ACU458706:ACV458721 SY458706:SZ458721 JC458706:JD458721 F458707:F458722 WVO393170:WVP393185 WLS393170:WLT393185 WBW393170:WBX393185 VSA393170:VSB393185 VIE393170:VIF393185 UYI393170:UYJ393185 UOM393170:UON393185 UEQ393170:UER393185 TUU393170:TUV393185 TKY393170:TKZ393185 TBC393170:TBD393185 SRG393170:SRH393185 SHK393170:SHL393185 RXO393170:RXP393185 RNS393170:RNT393185 RDW393170:RDX393185 QUA393170:QUB393185 QKE393170:QKF393185 QAI393170:QAJ393185 PQM393170:PQN393185 PGQ393170:PGR393185 OWU393170:OWV393185 OMY393170:OMZ393185 ODC393170:ODD393185 NTG393170:NTH393185 NJK393170:NJL393185 MZO393170:MZP393185 MPS393170:MPT393185 MFW393170:MFX393185 LWA393170:LWB393185 LME393170:LMF393185 LCI393170:LCJ393185 KSM393170:KSN393185 KIQ393170:KIR393185 JYU393170:JYV393185 JOY393170:JOZ393185 JFC393170:JFD393185 IVG393170:IVH393185 ILK393170:ILL393185 IBO393170:IBP393185 HRS393170:HRT393185 HHW393170:HHX393185 GYA393170:GYB393185 GOE393170:GOF393185 GEI393170:GEJ393185 FUM393170:FUN393185 FKQ393170:FKR393185 FAU393170:FAV393185 EQY393170:EQZ393185 EHC393170:EHD393185 DXG393170:DXH393185 DNK393170:DNL393185 DDO393170:DDP393185 CTS393170:CTT393185 CJW393170:CJX393185 CAA393170:CAB393185 BQE393170:BQF393185 BGI393170:BGJ393185 AWM393170:AWN393185 AMQ393170:AMR393185 ACU393170:ACV393185 SY393170:SZ393185 JC393170:JD393185 F393171:F393186 WVO327634:WVP327649 WLS327634:WLT327649 WBW327634:WBX327649 VSA327634:VSB327649 VIE327634:VIF327649 UYI327634:UYJ327649 UOM327634:UON327649 UEQ327634:UER327649 TUU327634:TUV327649 TKY327634:TKZ327649 TBC327634:TBD327649 SRG327634:SRH327649 SHK327634:SHL327649 RXO327634:RXP327649 RNS327634:RNT327649 RDW327634:RDX327649 QUA327634:QUB327649 QKE327634:QKF327649 QAI327634:QAJ327649 PQM327634:PQN327649 PGQ327634:PGR327649 OWU327634:OWV327649 OMY327634:OMZ327649 ODC327634:ODD327649 NTG327634:NTH327649 NJK327634:NJL327649 MZO327634:MZP327649 MPS327634:MPT327649 MFW327634:MFX327649 LWA327634:LWB327649 LME327634:LMF327649 LCI327634:LCJ327649 KSM327634:KSN327649 KIQ327634:KIR327649 JYU327634:JYV327649 JOY327634:JOZ327649 JFC327634:JFD327649 IVG327634:IVH327649 ILK327634:ILL327649 IBO327634:IBP327649 HRS327634:HRT327649 HHW327634:HHX327649 GYA327634:GYB327649 GOE327634:GOF327649 GEI327634:GEJ327649 FUM327634:FUN327649 FKQ327634:FKR327649 FAU327634:FAV327649 EQY327634:EQZ327649 EHC327634:EHD327649 DXG327634:DXH327649 DNK327634:DNL327649 DDO327634:DDP327649 CTS327634:CTT327649 CJW327634:CJX327649 CAA327634:CAB327649 BQE327634:BQF327649 BGI327634:BGJ327649 AWM327634:AWN327649 AMQ327634:AMR327649 ACU327634:ACV327649 SY327634:SZ327649 JC327634:JD327649 F327635:F327650 WVO262098:WVP262113 WLS262098:WLT262113 WBW262098:WBX262113 VSA262098:VSB262113 VIE262098:VIF262113 UYI262098:UYJ262113 UOM262098:UON262113 UEQ262098:UER262113 TUU262098:TUV262113 TKY262098:TKZ262113 TBC262098:TBD262113 SRG262098:SRH262113 SHK262098:SHL262113 RXO262098:RXP262113 RNS262098:RNT262113 RDW262098:RDX262113 QUA262098:QUB262113 QKE262098:QKF262113 QAI262098:QAJ262113 PQM262098:PQN262113 PGQ262098:PGR262113 OWU262098:OWV262113 OMY262098:OMZ262113 ODC262098:ODD262113 NTG262098:NTH262113 NJK262098:NJL262113 MZO262098:MZP262113 MPS262098:MPT262113 MFW262098:MFX262113 LWA262098:LWB262113 LME262098:LMF262113 LCI262098:LCJ262113 KSM262098:KSN262113 KIQ262098:KIR262113 JYU262098:JYV262113 JOY262098:JOZ262113 JFC262098:JFD262113 IVG262098:IVH262113 ILK262098:ILL262113 IBO262098:IBP262113 HRS262098:HRT262113 HHW262098:HHX262113 GYA262098:GYB262113 GOE262098:GOF262113 GEI262098:GEJ262113 FUM262098:FUN262113 FKQ262098:FKR262113 FAU262098:FAV262113 EQY262098:EQZ262113 EHC262098:EHD262113 DXG262098:DXH262113 DNK262098:DNL262113 DDO262098:DDP262113 CTS262098:CTT262113 CJW262098:CJX262113 CAA262098:CAB262113 BQE262098:BQF262113 BGI262098:BGJ262113 AWM262098:AWN262113 AMQ262098:AMR262113 ACU262098:ACV262113 SY262098:SZ262113 JC262098:JD262113 F262099:F262114 WVO196562:WVP196577 WLS196562:WLT196577 WBW196562:WBX196577 VSA196562:VSB196577 VIE196562:VIF196577 UYI196562:UYJ196577 UOM196562:UON196577 UEQ196562:UER196577 TUU196562:TUV196577 TKY196562:TKZ196577 TBC196562:TBD196577 SRG196562:SRH196577 SHK196562:SHL196577 RXO196562:RXP196577 RNS196562:RNT196577 RDW196562:RDX196577 QUA196562:QUB196577 QKE196562:QKF196577 QAI196562:QAJ196577 PQM196562:PQN196577 PGQ196562:PGR196577 OWU196562:OWV196577 OMY196562:OMZ196577 ODC196562:ODD196577 NTG196562:NTH196577 NJK196562:NJL196577 MZO196562:MZP196577 MPS196562:MPT196577 MFW196562:MFX196577 LWA196562:LWB196577 LME196562:LMF196577 LCI196562:LCJ196577 KSM196562:KSN196577 KIQ196562:KIR196577 JYU196562:JYV196577 JOY196562:JOZ196577 JFC196562:JFD196577 IVG196562:IVH196577 ILK196562:ILL196577 IBO196562:IBP196577 HRS196562:HRT196577 HHW196562:HHX196577 GYA196562:GYB196577 GOE196562:GOF196577 GEI196562:GEJ196577 FUM196562:FUN196577 FKQ196562:FKR196577 FAU196562:FAV196577 EQY196562:EQZ196577 EHC196562:EHD196577 DXG196562:DXH196577 DNK196562:DNL196577 DDO196562:DDP196577 CTS196562:CTT196577 CJW196562:CJX196577 CAA196562:CAB196577 BQE196562:BQF196577 BGI196562:BGJ196577 AWM196562:AWN196577 AMQ196562:AMR196577 ACU196562:ACV196577 SY196562:SZ196577 JC196562:JD196577 F196563:F196578 WVO131026:WVP131041 WLS131026:WLT131041 WBW131026:WBX131041 VSA131026:VSB131041 VIE131026:VIF131041 UYI131026:UYJ131041 UOM131026:UON131041 UEQ131026:UER131041 TUU131026:TUV131041 TKY131026:TKZ131041 TBC131026:TBD131041 SRG131026:SRH131041 SHK131026:SHL131041 RXO131026:RXP131041 RNS131026:RNT131041 RDW131026:RDX131041 QUA131026:QUB131041 QKE131026:QKF131041 QAI131026:QAJ131041 PQM131026:PQN131041 PGQ131026:PGR131041 OWU131026:OWV131041 OMY131026:OMZ131041 ODC131026:ODD131041 NTG131026:NTH131041 NJK131026:NJL131041 MZO131026:MZP131041 MPS131026:MPT131041 MFW131026:MFX131041 LWA131026:LWB131041 LME131026:LMF131041 LCI131026:LCJ131041 KSM131026:KSN131041 KIQ131026:KIR131041 JYU131026:JYV131041 JOY131026:JOZ131041 JFC131026:JFD131041 IVG131026:IVH131041 ILK131026:ILL131041 IBO131026:IBP131041 HRS131026:HRT131041 HHW131026:HHX131041 GYA131026:GYB131041 GOE131026:GOF131041 GEI131026:GEJ131041 FUM131026:FUN131041 FKQ131026:FKR131041 FAU131026:FAV131041 EQY131026:EQZ131041 EHC131026:EHD131041 DXG131026:DXH131041 DNK131026:DNL131041 DDO131026:DDP131041 CTS131026:CTT131041 CJW131026:CJX131041 CAA131026:CAB131041 BQE131026:BQF131041 BGI131026:BGJ131041 AWM131026:AWN131041 AMQ131026:AMR131041 ACU131026:ACV131041 SY131026:SZ131041 JC131026:JD131041 F131027:F131042 WVO65490:WVP65505 WLS65490:WLT65505 WBW65490:WBX65505 VSA65490:VSB65505 VIE65490:VIF65505 UYI65490:UYJ65505 UOM65490:UON65505 UEQ65490:UER65505 TUU65490:TUV65505 TKY65490:TKZ65505 TBC65490:TBD65505 SRG65490:SRH65505 SHK65490:SHL65505 RXO65490:RXP65505 RNS65490:RNT65505 RDW65490:RDX65505 QUA65490:QUB65505 QKE65490:QKF65505 QAI65490:QAJ65505 PQM65490:PQN65505 PGQ65490:PGR65505 OWU65490:OWV65505 OMY65490:OMZ65505 ODC65490:ODD65505 NTG65490:NTH65505 NJK65490:NJL65505 MZO65490:MZP65505 MPS65490:MPT65505 MFW65490:MFX65505 LWA65490:LWB65505 LME65490:LMF65505 LCI65490:LCJ65505 KSM65490:KSN65505 KIQ65490:KIR65505 JYU65490:JYV65505 JOY65490:JOZ65505 JFC65490:JFD65505 IVG65490:IVH65505 ILK65490:ILL65505 IBO65490:IBP65505 HRS65490:HRT65505 HHW65490:HHX65505 GYA65490:GYB65505 GOE65490:GOF65505 GEI65490:GEJ65505 FUM65490:FUN65505 FKQ65490:FKR65505 FAU65490:FAV65505 EQY65490:EQZ65505 EHC65490:EHD65505 DXG65490:DXH65505 DNK65490:DNL65505 DDO65490:DDP65505 CTS65490:CTT65505 CJW65490:CJX65505 CAA65490:CAB65505 BQE65490:BQF65505 BGI65490:BGJ65505 AWM65490:AWN65505 AMQ65490:AMR65505 ACU65490:ACV65505 SY65490:SZ65505 JC65490:JD65505 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65489:C65512 IZ65488:IZ65511 SV65488:SV65511 ACR65488:ACR65511 AMN65488:AMN65511 AWJ65488:AWJ65511 BGF65488:BGF65511 BQB65488:BQB65511 BZX65488:BZX65511 CJT65488:CJT65511 CTP65488:CTP65511 DDL65488:DDL65511 DNH65488:DNH65511 DXD65488:DXD65511 EGZ65488:EGZ65511 EQV65488:EQV65511 FAR65488:FAR65511 FKN65488:FKN65511 FUJ65488:FUJ65511 GEF65488:GEF65511 GOB65488:GOB65511 GXX65488:GXX65511 HHT65488:HHT65511 HRP65488:HRP65511 IBL65488:IBL65511 ILH65488:ILH65511 IVD65488:IVD65511 JEZ65488:JEZ65511 JOV65488:JOV65511 JYR65488:JYR65511 KIN65488:KIN65511 KSJ65488:KSJ65511 LCF65488:LCF65511 LMB65488:LMB65511 LVX65488:LVX65511 MFT65488:MFT65511 MPP65488:MPP65511 MZL65488:MZL65511 NJH65488:NJH65511 NTD65488:NTD65511 OCZ65488:OCZ65511 OMV65488:OMV65511 OWR65488:OWR65511 PGN65488:PGN65511 PQJ65488:PQJ65511 QAF65488:QAF65511 QKB65488:QKB65511 QTX65488:QTX65511 RDT65488:RDT65511 RNP65488:RNP65511 RXL65488:RXL65511 SHH65488:SHH65511 SRD65488:SRD65511 TAZ65488:TAZ65511 TKV65488:TKV65511 TUR65488:TUR65511 UEN65488:UEN65511 UOJ65488:UOJ65511 UYF65488:UYF65511 VIB65488:VIB65511 VRX65488:VRX65511 WBT65488:WBT65511 WLP65488:WLP65511 WVL65488:WVL65511 C131025:C131048 IZ131024:IZ131047 SV131024:SV131047 ACR131024:ACR131047 AMN131024:AMN131047 AWJ131024:AWJ131047 BGF131024:BGF131047 BQB131024:BQB131047 BZX131024:BZX131047 CJT131024:CJT131047 CTP131024:CTP131047 DDL131024:DDL131047 DNH131024:DNH131047 DXD131024:DXD131047 EGZ131024:EGZ131047 EQV131024:EQV131047 FAR131024:FAR131047 FKN131024:FKN131047 FUJ131024:FUJ131047 GEF131024:GEF131047 GOB131024:GOB131047 GXX131024:GXX131047 HHT131024:HHT131047 HRP131024:HRP131047 IBL131024:IBL131047 ILH131024:ILH131047 IVD131024:IVD131047 JEZ131024:JEZ131047 JOV131024:JOV131047 JYR131024:JYR131047 KIN131024:KIN131047 KSJ131024:KSJ131047 LCF131024:LCF131047 LMB131024:LMB131047 LVX131024:LVX131047 MFT131024:MFT131047 MPP131024:MPP131047 MZL131024:MZL131047 NJH131024:NJH131047 NTD131024:NTD131047 OCZ131024:OCZ131047 OMV131024:OMV131047 OWR131024:OWR131047 PGN131024:PGN131047 PQJ131024:PQJ131047 QAF131024:QAF131047 QKB131024:QKB131047 QTX131024:QTX131047 RDT131024:RDT131047 RNP131024:RNP131047 RXL131024:RXL131047 SHH131024:SHH131047 SRD131024:SRD131047 TAZ131024:TAZ131047 TKV131024:TKV131047 TUR131024:TUR131047 UEN131024:UEN131047 UOJ131024:UOJ131047 UYF131024:UYF131047 VIB131024:VIB131047 VRX131024:VRX131047 WBT131024:WBT131047 WLP131024:WLP131047 WVL131024:WVL131047 C196561:C196584 IZ196560:IZ196583 SV196560:SV196583 ACR196560:ACR196583 AMN196560:AMN196583 AWJ196560:AWJ196583 BGF196560:BGF196583 BQB196560:BQB196583 BZX196560:BZX196583 CJT196560:CJT196583 CTP196560:CTP196583 DDL196560:DDL196583 DNH196560:DNH196583 DXD196560:DXD196583 EGZ196560:EGZ196583 EQV196560:EQV196583 FAR196560:FAR196583 FKN196560:FKN196583 FUJ196560:FUJ196583 GEF196560:GEF196583 GOB196560:GOB196583 GXX196560:GXX196583 HHT196560:HHT196583 HRP196560:HRP196583 IBL196560:IBL196583 ILH196560:ILH196583 IVD196560:IVD196583 JEZ196560:JEZ196583 JOV196560:JOV196583 JYR196560:JYR196583 KIN196560:KIN196583 KSJ196560:KSJ196583 LCF196560:LCF196583 LMB196560:LMB196583 LVX196560:LVX196583 MFT196560:MFT196583 MPP196560:MPP196583 MZL196560:MZL196583 NJH196560:NJH196583 NTD196560:NTD196583 OCZ196560:OCZ196583 OMV196560:OMV196583 OWR196560:OWR196583 PGN196560:PGN196583 PQJ196560:PQJ196583 QAF196560:QAF196583 QKB196560:QKB196583 QTX196560:QTX196583 RDT196560:RDT196583 RNP196560:RNP196583 RXL196560:RXL196583 SHH196560:SHH196583 SRD196560:SRD196583 TAZ196560:TAZ196583 TKV196560:TKV196583 TUR196560:TUR196583 UEN196560:UEN196583 UOJ196560:UOJ196583 UYF196560:UYF196583 VIB196560:VIB196583 VRX196560:VRX196583 WBT196560:WBT196583 WLP196560:WLP196583 WVL196560:WVL196583 C262097:C262120 IZ262096:IZ262119 SV262096:SV262119 ACR262096:ACR262119 AMN262096:AMN262119 AWJ262096:AWJ262119 BGF262096:BGF262119 BQB262096:BQB262119 BZX262096:BZX262119 CJT262096:CJT262119 CTP262096:CTP262119 DDL262096:DDL262119 DNH262096:DNH262119 DXD262096:DXD262119 EGZ262096:EGZ262119 EQV262096:EQV262119 FAR262096:FAR262119 FKN262096:FKN262119 FUJ262096:FUJ262119 GEF262096:GEF262119 GOB262096:GOB262119 GXX262096:GXX262119 HHT262096:HHT262119 HRP262096:HRP262119 IBL262096:IBL262119 ILH262096:ILH262119 IVD262096:IVD262119 JEZ262096:JEZ262119 JOV262096:JOV262119 JYR262096:JYR262119 KIN262096:KIN262119 KSJ262096:KSJ262119 LCF262096:LCF262119 LMB262096:LMB262119 LVX262096:LVX262119 MFT262096:MFT262119 MPP262096:MPP262119 MZL262096:MZL262119 NJH262096:NJH262119 NTD262096:NTD262119 OCZ262096:OCZ262119 OMV262096:OMV262119 OWR262096:OWR262119 PGN262096:PGN262119 PQJ262096:PQJ262119 QAF262096:QAF262119 QKB262096:QKB262119 QTX262096:QTX262119 RDT262096:RDT262119 RNP262096:RNP262119 RXL262096:RXL262119 SHH262096:SHH262119 SRD262096:SRD262119 TAZ262096:TAZ262119 TKV262096:TKV262119 TUR262096:TUR262119 UEN262096:UEN262119 UOJ262096:UOJ262119 UYF262096:UYF262119 VIB262096:VIB262119 VRX262096:VRX262119 WBT262096:WBT262119 WLP262096:WLP262119 WVL262096:WVL262119 C327633:C327656 IZ327632:IZ327655 SV327632:SV327655 ACR327632:ACR327655 AMN327632:AMN327655 AWJ327632:AWJ327655 BGF327632:BGF327655 BQB327632:BQB327655 BZX327632:BZX327655 CJT327632:CJT327655 CTP327632:CTP327655 DDL327632:DDL327655 DNH327632:DNH327655 DXD327632:DXD327655 EGZ327632:EGZ327655 EQV327632:EQV327655 FAR327632:FAR327655 FKN327632:FKN327655 FUJ327632:FUJ327655 GEF327632:GEF327655 GOB327632:GOB327655 GXX327632:GXX327655 HHT327632:HHT327655 HRP327632:HRP327655 IBL327632:IBL327655 ILH327632:ILH327655 IVD327632:IVD327655 JEZ327632:JEZ327655 JOV327632:JOV327655 JYR327632:JYR327655 KIN327632:KIN327655 KSJ327632:KSJ327655 LCF327632:LCF327655 LMB327632:LMB327655 LVX327632:LVX327655 MFT327632:MFT327655 MPP327632:MPP327655 MZL327632:MZL327655 NJH327632:NJH327655 NTD327632:NTD327655 OCZ327632:OCZ327655 OMV327632:OMV327655 OWR327632:OWR327655 PGN327632:PGN327655 PQJ327632:PQJ327655 QAF327632:QAF327655 QKB327632:QKB327655 QTX327632:QTX327655 RDT327632:RDT327655 RNP327632:RNP327655 RXL327632:RXL327655 SHH327632:SHH327655 SRD327632:SRD327655 TAZ327632:TAZ327655 TKV327632:TKV327655 TUR327632:TUR327655 UEN327632:UEN327655 UOJ327632:UOJ327655 UYF327632:UYF327655 VIB327632:VIB327655 VRX327632:VRX327655 WBT327632:WBT327655 WLP327632:WLP327655 WVL327632:WVL327655 C393169:C393192 IZ393168:IZ393191 SV393168:SV393191 ACR393168:ACR393191 AMN393168:AMN393191 AWJ393168:AWJ393191 BGF393168:BGF393191 BQB393168:BQB393191 BZX393168:BZX393191 CJT393168:CJT393191 CTP393168:CTP393191 DDL393168:DDL393191 DNH393168:DNH393191 DXD393168:DXD393191 EGZ393168:EGZ393191 EQV393168:EQV393191 FAR393168:FAR393191 FKN393168:FKN393191 FUJ393168:FUJ393191 GEF393168:GEF393191 GOB393168:GOB393191 GXX393168:GXX393191 HHT393168:HHT393191 HRP393168:HRP393191 IBL393168:IBL393191 ILH393168:ILH393191 IVD393168:IVD393191 JEZ393168:JEZ393191 JOV393168:JOV393191 JYR393168:JYR393191 KIN393168:KIN393191 KSJ393168:KSJ393191 LCF393168:LCF393191 LMB393168:LMB393191 LVX393168:LVX393191 MFT393168:MFT393191 MPP393168:MPP393191 MZL393168:MZL393191 NJH393168:NJH393191 NTD393168:NTD393191 OCZ393168:OCZ393191 OMV393168:OMV393191 OWR393168:OWR393191 PGN393168:PGN393191 PQJ393168:PQJ393191 QAF393168:QAF393191 QKB393168:QKB393191 QTX393168:QTX393191 RDT393168:RDT393191 RNP393168:RNP393191 RXL393168:RXL393191 SHH393168:SHH393191 SRD393168:SRD393191 TAZ393168:TAZ393191 TKV393168:TKV393191 TUR393168:TUR393191 UEN393168:UEN393191 UOJ393168:UOJ393191 UYF393168:UYF393191 VIB393168:VIB393191 VRX393168:VRX393191 WBT393168:WBT393191 WLP393168:WLP393191 WVL393168:WVL393191 C458705:C458728 IZ458704:IZ458727 SV458704:SV458727 ACR458704:ACR458727 AMN458704:AMN458727 AWJ458704:AWJ458727 BGF458704:BGF458727 BQB458704:BQB458727 BZX458704:BZX458727 CJT458704:CJT458727 CTP458704:CTP458727 DDL458704:DDL458727 DNH458704:DNH458727 DXD458704:DXD458727 EGZ458704:EGZ458727 EQV458704:EQV458727 FAR458704:FAR458727 FKN458704:FKN458727 FUJ458704:FUJ458727 GEF458704:GEF458727 GOB458704:GOB458727 GXX458704:GXX458727 HHT458704:HHT458727 HRP458704:HRP458727 IBL458704:IBL458727 ILH458704:ILH458727 IVD458704:IVD458727 JEZ458704:JEZ458727 JOV458704:JOV458727 JYR458704:JYR458727 KIN458704:KIN458727 KSJ458704:KSJ458727 LCF458704:LCF458727 LMB458704:LMB458727 LVX458704:LVX458727 MFT458704:MFT458727 MPP458704:MPP458727 MZL458704:MZL458727 NJH458704:NJH458727 NTD458704:NTD458727 OCZ458704:OCZ458727 OMV458704:OMV458727 OWR458704:OWR458727 PGN458704:PGN458727 PQJ458704:PQJ458727 QAF458704:QAF458727 QKB458704:QKB458727 QTX458704:QTX458727 RDT458704:RDT458727 RNP458704:RNP458727 RXL458704:RXL458727 SHH458704:SHH458727 SRD458704:SRD458727 TAZ458704:TAZ458727 TKV458704:TKV458727 TUR458704:TUR458727 UEN458704:UEN458727 UOJ458704:UOJ458727 UYF458704:UYF458727 VIB458704:VIB458727 VRX458704:VRX458727 WBT458704:WBT458727 WLP458704:WLP458727 WVL458704:WVL458727 C524241:C524264 IZ524240:IZ524263 SV524240:SV524263 ACR524240:ACR524263 AMN524240:AMN524263 AWJ524240:AWJ524263 BGF524240:BGF524263 BQB524240:BQB524263 BZX524240:BZX524263 CJT524240:CJT524263 CTP524240:CTP524263 DDL524240:DDL524263 DNH524240:DNH524263 DXD524240:DXD524263 EGZ524240:EGZ524263 EQV524240:EQV524263 FAR524240:FAR524263 FKN524240:FKN524263 FUJ524240:FUJ524263 GEF524240:GEF524263 GOB524240:GOB524263 GXX524240:GXX524263 HHT524240:HHT524263 HRP524240:HRP524263 IBL524240:IBL524263 ILH524240:ILH524263 IVD524240:IVD524263 JEZ524240:JEZ524263 JOV524240:JOV524263 JYR524240:JYR524263 KIN524240:KIN524263 KSJ524240:KSJ524263 LCF524240:LCF524263 LMB524240:LMB524263 LVX524240:LVX524263 MFT524240:MFT524263 MPP524240:MPP524263 MZL524240:MZL524263 NJH524240:NJH524263 NTD524240:NTD524263 OCZ524240:OCZ524263 OMV524240:OMV524263 OWR524240:OWR524263 PGN524240:PGN524263 PQJ524240:PQJ524263 QAF524240:QAF524263 QKB524240:QKB524263 QTX524240:QTX524263 RDT524240:RDT524263 RNP524240:RNP524263 RXL524240:RXL524263 SHH524240:SHH524263 SRD524240:SRD524263 TAZ524240:TAZ524263 TKV524240:TKV524263 TUR524240:TUR524263 UEN524240:UEN524263 UOJ524240:UOJ524263 UYF524240:UYF524263 VIB524240:VIB524263 VRX524240:VRX524263 WBT524240:WBT524263 WLP524240:WLP524263 WVL524240:WVL524263 C589777:C589800 IZ589776:IZ589799 SV589776:SV589799 ACR589776:ACR589799 AMN589776:AMN589799 AWJ589776:AWJ589799 BGF589776:BGF589799 BQB589776:BQB589799 BZX589776:BZX589799 CJT589776:CJT589799 CTP589776:CTP589799 DDL589776:DDL589799 DNH589776:DNH589799 DXD589776:DXD589799 EGZ589776:EGZ589799 EQV589776:EQV589799 FAR589776:FAR589799 FKN589776:FKN589799 FUJ589776:FUJ589799 GEF589776:GEF589799 GOB589776:GOB589799 GXX589776:GXX589799 HHT589776:HHT589799 HRP589776:HRP589799 IBL589776:IBL589799 ILH589776:ILH589799 IVD589776:IVD589799 JEZ589776:JEZ589799 JOV589776:JOV589799 JYR589776:JYR589799 KIN589776:KIN589799 KSJ589776:KSJ589799 LCF589776:LCF589799 LMB589776:LMB589799 LVX589776:LVX589799 MFT589776:MFT589799 MPP589776:MPP589799 MZL589776:MZL589799 NJH589776:NJH589799 NTD589776:NTD589799 OCZ589776:OCZ589799 OMV589776:OMV589799 OWR589776:OWR589799 PGN589776:PGN589799 PQJ589776:PQJ589799 QAF589776:QAF589799 QKB589776:QKB589799 QTX589776:QTX589799 RDT589776:RDT589799 RNP589776:RNP589799 RXL589776:RXL589799 SHH589776:SHH589799 SRD589776:SRD589799 TAZ589776:TAZ589799 TKV589776:TKV589799 TUR589776:TUR589799 UEN589776:UEN589799 UOJ589776:UOJ589799 UYF589776:UYF589799 VIB589776:VIB589799 VRX589776:VRX589799 WBT589776:WBT589799 WLP589776:WLP589799 WVL589776:WVL589799 C655313:C655336 IZ655312:IZ655335 SV655312:SV655335 ACR655312:ACR655335 AMN655312:AMN655335 AWJ655312:AWJ655335 BGF655312:BGF655335 BQB655312:BQB655335 BZX655312:BZX655335 CJT655312:CJT655335 CTP655312:CTP655335 DDL655312:DDL655335 DNH655312:DNH655335 DXD655312:DXD655335 EGZ655312:EGZ655335 EQV655312:EQV655335 FAR655312:FAR655335 FKN655312:FKN655335 FUJ655312:FUJ655335 GEF655312:GEF655335 GOB655312:GOB655335 GXX655312:GXX655335 HHT655312:HHT655335 HRP655312:HRP655335 IBL655312:IBL655335 ILH655312:ILH655335 IVD655312:IVD655335 JEZ655312:JEZ655335 JOV655312:JOV655335 JYR655312:JYR655335 KIN655312:KIN655335 KSJ655312:KSJ655335 LCF655312:LCF655335 LMB655312:LMB655335 LVX655312:LVX655335 MFT655312:MFT655335 MPP655312:MPP655335 MZL655312:MZL655335 NJH655312:NJH655335 NTD655312:NTD655335 OCZ655312:OCZ655335 OMV655312:OMV655335 OWR655312:OWR655335 PGN655312:PGN655335 PQJ655312:PQJ655335 QAF655312:QAF655335 QKB655312:QKB655335 QTX655312:QTX655335 RDT655312:RDT655335 RNP655312:RNP655335 RXL655312:RXL655335 SHH655312:SHH655335 SRD655312:SRD655335 TAZ655312:TAZ655335 TKV655312:TKV655335 TUR655312:TUR655335 UEN655312:UEN655335 UOJ655312:UOJ655335 UYF655312:UYF655335 VIB655312:VIB655335 VRX655312:VRX655335 WBT655312:WBT655335 WLP655312:WLP655335 WVL655312:WVL655335 C720849:C720872 IZ720848:IZ720871 SV720848:SV720871 ACR720848:ACR720871 AMN720848:AMN720871 AWJ720848:AWJ720871 BGF720848:BGF720871 BQB720848:BQB720871 BZX720848:BZX720871 CJT720848:CJT720871 CTP720848:CTP720871 DDL720848:DDL720871 DNH720848:DNH720871 DXD720848:DXD720871 EGZ720848:EGZ720871 EQV720848:EQV720871 FAR720848:FAR720871 FKN720848:FKN720871 FUJ720848:FUJ720871 GEF720848:GEF720871 GOB720848:GOB720871 GXX720848:GXX720871 HHT720848:HHT720871 HRP720848:HRP720871 IBL720848:IBL720871 ILH720848:ILH720871 IVD720848:IVD720871 JEZ720848:JEZ720871 JOV720848:JOV720871 JYR720848:JYR720871 KIN720848:KIN720871 KSJ720848:KSJ720871 LCF720848:LCF720871 LMB720848:LMB720871 LVX720848:LVX720871 MFT720848:MFT720871 MPP720848:MPP720871 MZL720848:MZL720871 NJH720848:NJH720871 NTD720848:NTD720871 OCZ720848:OCZ720871 OMV720848:OMV720871 OWR720848:OWR720871 PGN720848:PGN720871 PQJ720848:PQJ720871 QAF720848:QAF720871 QKB720848:QKB720871 QTX720848:QTX720871 RDT720848:RDT720871 RNP720848:RNP720871 RXL720848:RXL720871 SHH720848:SHH720871 SRD720848:SRD720871 TAZ720848:TAZ720871 TKV720848:TKV720871 TUR720848:TUR720871 UEN720848:UEN720871 UOJ720848:UOJ720871 UYF720848:UYF720871 VIB720848:VIB720871 VRX720848:VRX720871 WBT720848:WBT720871 WLP720848:WLP720871 WVL720848:WVL720871 C786385:C786408 IZ786384:IZ786407 SV786384:SV786407 ACR786384:ACR786407 AMN786384:AMN786407 AWJ786384:AWJ786407 BGF786384:BGF786407 BQB786384:BQB786407 BZX786384:BZX786407 CJT786384:CJT786407 CTP786384:CTP786407 DDL786384:DDL786407 DNH786384:DNH786407 DXD786384:DXD786407 EGZ786384:EGZ786407 EQV786384:EQV786407 FAR786384:FAR786407 FKN786384:FKN786407 FUJ786384:FUJ786407 GEF786384:GEF786407 GOB786384:GOB786407 GXX786384:GXX786407 HHT786384:HHT786407 HRP786384:HRP786407 IBL786384:IBL786407 ILH786384:ILH786407 IVD786384:IVD786407 JEZ786384:JEZ786407 JOV786384:JOV786407 JYR786384:JYR786407 KIN786384:KIN786407 KSJ786384:KSJ786407 LCF786384:LCF786407 LMB786384:LMB786407 LVX786384:LVX786407 MFT786384:MFT786407 MPP786384:MPP786407 MZL786384:MZL786407 NJH786384:NJH786407 NTD786384:NTD786407 OCZ786384:OCZ786407 OMV786384:OMV786407 OWR786384:OWR786407 PGN786384:PGN786407 PQJ786384:PQJ786407 QAF786384:QAF786407 QKB786384:QKB786407 QTX786384:QTX786407 RDT786384:RDT786407 RNP786384:RNP786407 RXL786384:RXL786407 SHH786384:SHH786407 SRD786384:SRD786407 TAZ786384:TAZ786407 TKV786384:TKV786407 TUR786384:TUR786407 UEN786384:UEN786407 UOJ786384:UOJ786407 UYF786384:UYF786407 VIB786384:VIB786407 VRX786384:VRX786407 WBT786384:WBT786407 WLP786384:WLP786407 WVL786384:WVL786407 C851921:C851944 IZ851920:IZ851943 SV851920:SV851943 ACR851920:ACR851943 AMN851920:AMN851943 AWJ851920:AWJ851943 BGF851920:BGF851943 BQB851920:BQB851943 BZX851920:BZX851943 CJT851920:CJT851943 CTP851920:CTP851943 DDL851920:DDL851943 DNH851920:DNH851943 DXD851920:DXD851943 EGZ851920:EGZ851943 EQV851920:EQV851943 FAR851920:FAR851943 FKN851920:FKN851943 FUJ851920:FUJ851943 GEF851920:GEF851943 GOB851920:GOB851943 GXX851920:GXX851943 HHT851920:HHT851943 HRP851920:HRP851943 IBL851920:IBL851943 ILH851920:ILH851943 IVD851920:IVD851943 JEZ851920:JEZ851943 JOV851920:JOV851943 JYR851920:JYR851943 KIN851920:KIN851943 KSJ851920:KSJ851943 LCF851920:LCF851943 LMB851920:LMB851943 LVX851920:LVX851943 MFT851920:MFT851943 MPP851920:MPP851943 MZL851920:MZL851943 NJH851920:NJH851943 NTD851920:NTD851943 OCZ851920:OCZ851943 OMV851920:OMV851943 OWR851920:OWR851943 PGN851920:PGN851943 PQJ851920:PQJ851943 QAF851920:QAF851943 QKB851920:QKB851943 QTX851920:QTX851943 RDT851920:RDT851943 RNP851920:RNP851943 RXL851920:RXL851943 SHH851920:SHH851943 SRD851920:SRD851943 TAZ851920:TAZ851943 TKV851920:TKV851943 TUR851920:TUR851943 UEN851920:UEN851943 UOJ851920:UOJ851943 UYF851920:UYF851943 VIB851920:VIB851943 VRX851920:VRX851943 WBT851920:WBT851943 WLP851920:WLP851943 WVL851920:WVL851943 C917457:C917480 IZ917456:IZ917479 SV917456:SV917479 ACR917456:ACR917479 AMN917456:AMN917479 AWJ917456:AWJ917479 BGF917456:BGF917479 BQB917456:BQB917479 BZX917456:BZX917479 CJT917456:CJT917479 CTP917456:CTP917479 DDL917456:DDL917479 DNH917456:DNH917479 DXD917456:DXD917479 EGZ917456:EGZ917479 EQV917456:EQV917479 FAR917456:FAR917479 FKN917456:FKN917479 FUJ917456:FUJ917479 GEF917456:GEF917479 GOB917456:GOB917479 GXX917456:GXX917479 HHT917456:HHT917479 HRP917456:HRP917479 IBL917456:IBL917479 ILH917456:ILH917479 IVD917456:IVD917479 JEZ917456:JEZ917479 JOV917456:JOV917479 JYR917456:JYR917479 KIN917456:KIN917479 KSJ917456:KSJ917479 LCF917456:LCF917479 LMB917456:LMB917479 LVX917456:LVX917479 MFT917456:MFT917479 MPP917456:MPP917479 MZL917456:MZL917479 NJH917456:NJH917479 NTD917456:NTD917479 OCZ917456:OCZ917479 OMV917456:OMV917479 OWR917456:OWR917479 PGN917456:PGN917479 PQJ917456:PQJ917479 QAF917456:QAF917479 QKB917456:QKB917479 QTX917456:QTX917479 RDT917456:RDT917479 RNP917456:RNP917479 RXL917456:RXL917479 SHH917456:SHH917479 SRD917456:SRD917479 TAZ917456:TAZ917479 TKV917456:TKV917479 TUR917456:TUR917479 UEN917456:UEN917479 UOJ917456:UOJ917479 UYF917456:UYF917479 VIB917456:VIB917479 VRX917456:VRX917479 WBT917456:WBT917479 WLP917456:WLP917479 WVL917456:WVL917479 C982993:C983016 IZ982992:IZ983015 SV982992:SV983015 ACR982992:ACR983015 AMN982992:AMN983015 AWJ982992:AWJ983015 BGF982992:BGF983015 BQB982992:BQB983015 BZX982992:BZX983015 CJT982992:CJT983015 CTP982992:CTP983015 DDL982992:DDL983015 DNH982992:DNH983015 DXD982992:DXD983015 EGZ982992:EGZ983015 EQV982992:EQV983015 FAR982992:FAR983015 FKN982992:FKN983015 FUJ982992:FUJ983015 GEF982992:GEF983015 GOB982992:GOB983015 GXX982992:GXX983015 HHT982992:HHT983015 HRP982992:HRP983015 IBL982992:IBL983015 ILH982992:ILH983015 IVD982992:IVD983015 JEZ982992:JEZ983015 JOV982992:JOV983015 JYR982992:JYR983015 KIN982992:KIN983015 KSJ982992:KSJ983015 LCF982992:LCF983015 LMB982992:LMB983015 LVX982992:LVX983015 MFT982992:MFT983015 MPP982992:MPP983015 MZL982992:MZL983015 NJH982992:NJH983015 NTD982992:NTD983015 OCZ982992:OCZ983015 OMV982992:OMV983015 OWR982992:OWR983015 PGN982992:PGN983015 PQJ982992:PQJ983015 QAF982992:QAF983015 QKB982992:QKB983015 QTX982992:QTX983015 RDT982992:RDT983015 RNP982992:RNP983015 RXL982992:RXL983015 SHH982992:SHH983015 SRD982992:SRD983015 TAZ982992:TAZ983015 TKV982992:TKV983015 TUR982992:TUR983015 UEN982992:UEN983015 UOJ982992:UOJ983015 UYF982992:UYF983015 VIB982992:VIB983015 VRX982992:VRX983015 WBT982992:WBT983015 WLP982992:WLP983015 WVL982992:WVL983015 D13:D16 SL25:SL29 D48:D50 D6:D8 D34:D36 WLF14:WLF21 WBJ14:WBJ21 VRN14:VRN21 VHR14:VHR21 UXV14:UXV21 UNZ14:UNZ21 UED14:UED21 TUH14:TUH21 TKL14:TKL21 TAP14:TAP21 SQT14:SQT21 SGX14:SGX21 RXB14:RXB21 RNF14:RNF21 RDJ14:RDJ21 QTN14:QTN21 QJR14:QJR21 PZV14:PZV21 PPZ14:PPZ21 PGD14:PGD21 OWH14:OWH21 OML14:OML21 OCP14:OCP21 NST14:NST21 NIX14:NIX21 MZB14:MZB21 MPF14:MPF21 MFJ14:MFJ21 LVN14:LVN21 LLR14:LLR21 LBV14:LBV21 KRZ14:KRZ21 KID14:KID21 JYH14:JYH21 JOL14:JOL21 JEP14:JEP21 IUT14:IUT21 IKX14:IKX21 IBB14:IBB21 HRF14:HRF21 HHJ14:HHJ21 GXN14:GXN21 GNR14:GNR21 GDV14:GDV21 FTZ14:FTZ21 FKD14:FKD21 FAH14:FAH21 EQL14:EQL21 EGP14:EGP21 DWT14:DWT21 DMX14:DMX21 DDB14:DDB21 CTF14:CTF21 CJJ14:CJJ21 BZN14:BZN21 BPR14:BPR21 BFV14:BFV21 AVZ14:AVZ21 AMD14:AMD21 ACH14:ACH21 SL14:SL21 IP14:IP21 WVB14:WVB21 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D21:D22 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D27:D29 D41:D43 D55:D57 D62:D64 D69:D71 D76:D78 D83:D85 D97:D99 D90:D92 D104:D106" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65483:C65506 IZ65482:IZ65505 SV65482:SV65505 ACR65482:ACR65505 AMN65482:AMN65505 AWJ65482:AWJ65505 BGF65482:BGF65505 BQB65482:BQB65505 BZX65482:BZX65505 CJT65482:CJT65505 CTP65482:CTP65505 DDL65482:DDL65505 DNH65482:DNH65505 DXD65482:DXD65505 EGZ65482:EGZ65505 EQV65482:EQV65505 FAR65482:FAR65505 FKN65482:FKN65505 FUJ65482:FUJ65505 GEF65482:GEF65505 GOB65482:GOB65505 GXX65482:GXX65505 HHT65482:HHT65505 HRP65482:HRP65505 IBL65482:IBL65505 ILH65482:ILH65505 IVD65482:IVD65505 JEZ65482:JEZ65505 JOV65482:JOV65505 JYR65482:JYR65505 KIN65482:KIN65505 KSJ65482:KSJ65505 LCF65482:LCF65505 LMB65482:LMB65505 LVX65482:LVX65505 MFT65482:MFT65505 MPP65482:MPP65505 MZL65482:MZL65505 NJH65482:NJH65505 NTD65482:NTD65505 OCZ65482:OCZ65505 OMV65482:OMV65505 OWR65482:OWR65505 PGN65482:PGN65505 PQJ65482:PQJ65505 QAF65482:QAF65505 QKB65482:QKB65505 QTX65482:QTX65505 RDT65482:RDT65505 RNP65482:RNP65505 RXL65482:RXL65505 SHH65482:SHH65505 SRD65482:SRD65505 TAZ65482:TAZ65505 TKV65482:TKV65505 TUR65482:TUR65505 UEN65482:UEN65505 UOJ65482:UOJ65505 UYF65482:UYF65505 VIB65482:VIB65505 VRX65482:VRX65505 WBT65482:WBT65505 WLP65482:WLP65505 WVL65482:WVL65505 C131019:C131042 IZ131018:IZ131041 SV131018:SV131041 ACR131018:ACR131041 AMN131018:AMN131041 AWJ131018:AWJ131041 BGF131018:BGF131041 BQB131018:BQB131041 BZX131018:BZX131041 CJT131018:CJT131041 CTP131018:CTP131041 DDL131018:DDL131041 DNH131018:DNH131041 DXD131018:DXD131041 EGZ131018:EGZ131041 EQV131018:EQV131041 FAR131018:FAR131041 FKN131018:FKN131041 FUJ131018:FUJ131041 GEF131018:GEF131041 GOB131018:GOB131041 GXX131018:GXX131041 HHT131018:HHT131041 HRP131018:HRP131041 IBL131018:IBL131041 ILH131018:ILH131041 IVD131018:IVD131041 JEZ131018:JEZ131041 JOV131018:JOV131041 JYR131018:JYR131041 KIN131018:KIN131041 KSJ131018:KSJ131041 LCF131018:LCF131041 LMB131018:LMB131041 LVX131018:LVX131041 MFT131018:MFT131041 MPP131018:MPP131041 MZL131018:MZL131041 NJH131018:NJH131041 NTD131018:NTD131041 OCZ131018:OCZ131041 OMV131018:OMV131041 OWR131018:OWR131041 PGN131018:PGN131041 PQJ131018:PQJ131041 QAF131018:QAF131041 QKB131018:QKB131041 QTX131018:QTX131041 RDT131018:RDT131041 RNP131018:RNP131041 RXL131018:RXL131041 SHH131018:SHH131041 SRD131018:SRD131041 TAZ131018:TAZ131041 TKV131018:TKV131041 TUR131018:TUR131041 UEN131018:UEN131041 UOJ131018:UOJ131041 UYF131018:UYF131041 VIB131018:VIB131041 VRX131018:VRX131041 WBT131018:WBT131041 WLP131018:WLP131041 WVL131018:WVL131041 C196555:C196578 IZ196554:IZ196577 SV196554:SV196577 ACR196554:ACR196577 AMN196554:AMN196577 AWJ196554:AWJ196577 BGF196554:BGF196577 BQB196554:BQB196577 BZX196554:BZX196577 CJT196554:CJT196577 CTP196554:CTP196577 DDL196554:DDL196577 DNH196554:DNH196577 DXD196554:DXD196577 EGZ196554:EGZ196577 EQV196554:EQV196577 FAR196554:FAR196577 FKN196554:FKN196577 FUJ196554:FUJ196577 GEF196554:GEF196577 GOB196554:GOB196577 GXX196554:GXX196577 HHT196554:HHT196577 HRP196554:HRP196577 IBL196554:IBL196577 ILH196554:ILH196577 IVD196554:IVD196577 JEZ196554:JEZ196577 JOV196554:JOV196577 JYR196554:JYR196577 KIN196554:KIN196577 KSJ196554:KSJ196577 LCF196554:LCF196577 LMB196554:LMB196577 LVX196554:LVX196577 MFT196554:MFT196577 MPP196554:MPP196577 MZL196554:MZL196577 NJH196554:NJH196577 NTD196554:NTD196577 OCZ196554:OCZ196577 OMV196554:OMV196577 OWR196554:OWR196577 PGN196554:PGN196577 PQJ196554:PQJ196577 QAF196554:QAF196577 QKB196554:QKB196577 QTX196554:QTX196577 RDT196554:RDT196577 RNP196554:RNP196577 RXL196554:RXL196577 SHH196554:SHH196577 SRD196554:SRD196577 TAZ196554:TAZ196577 TKV196554:TKV196577 TUR196554:TUR196577 UEN196554:UEN196577 UOJ196554:UOJ196577 UYF196554:UYF196577 VIB196554:VIB196577 VRX196554:VRX196577 WBT196554:WBT196577 WLP196554:WLP196577 WVL196554:WVL196577 C262091:C262114 IZ262090:IZ262113 SV262090:SV262113 ACR262090:ACR262113 AMN262090:AMN262113 AWJ262090:AWJ262113 BGF262090:BGF262113 BQB262090:BQB262113 BZX262090:BZX262113 CJT262090:CJT262113 CTP262090:CTP262113 DDL262090:DDL262113 DNH262090:DNH262113 DXD262090:DXD262113 EGZ262090:EGZ262113 EQV262090:EQV262113 FAR262090:FAR262113 FKN262090:FKN262113 FUJ262090:FUJ262113 GEF262090:GEF262113 GOB262090:GOB262113 GXX262090:GXX262113 HHT262090:HHT262113 HRP262090:HRP262113 IBL262090:IBL262113 ILH262090:ILH262113 IVD262090:IVD262113 JEZ262090:JEZ262113 JOV262090:JOV262113 JYR262090:JYR262113 KIN262090:KIN262113 KSJ262090:KSJ262113 LCF262090:LCF262113 LMB262090:LMB262113 LVX262090:LVX262113 MFT262090:MFT262113 MPP262090:MPP262113 MZL262090:MZL262113 NJH262090:NJH262113 NTD262090:NTD262113 OCZ262090:OCZ262113 OMV262090:OMV262113 OWR262090:OWR262113 PGN262090:PGN262113 PQJ262090:PQJ262113 QAF262090:QAF262113 QKB262090:QKB262113 QTX262090:QTX262113 RDT262090:RDT262113 RNP262090:RNP262113 RXL262090:RXL262113 SHH262090:SHH262113 SRD262090:SRD262113 TAZ262090:TAZ262113 TKV262090:TKV262113 TUR262090:TUR262113 UEN262090:UEN262113 UOJ262090:UOJ262113 UYF262090:UYF262113 VIB262090:VIB262113 VRX262090:VRX262113 WBT262090:WBT262113 WLP262090:WLP262113 WVL262090:WVL262113 C327627:C327650 IZ327626:IZ327649 SV327626:SV327649 ACR327626:ACR327649 AMN327626:AMN327649 AWJ327626:AWJ327649 BGF327626:BGF327649 BQB327626:BQB327649 BZX327626:BZX327649 CJT327626:CJT327649 CTP327626:CTP327649 DDL327626:DDL327649 DNH327626:DNH327649 DXD327626:DXD327649 EGZ327626:EGZ327649 EQV327626:EQV327649 FAR327626:FAR327649 FKN327626:FKN327649 FUJ327626:FUJ327649 GEF327626:GEF327649 GOB327626:GOB327649 GXX327626:GXX327649 HHT327626:HHT327649 HRP327626:HRP327649 IBL327626:IBL327649 ILH327626:ILH327649 IVD327626:IVD327649 JEZ327626:JEZ327649 JOV327626:JOV327649 JYR327626:JYR327649 KIN327626:KIN327649 KSJ327626:KSJ327649 LCF327626:LCF327649 LMB327626:LMB327649 LVX327626:LVX327649 MFT327626:MFT327649 MPP327626:MPP327649 MZL327626:MZL327649 NJH327626:NJH327649 NTD327626:NTD327649 OCZ327626:OCZ327649 OMV327626:OMV327649 OWR327626:OWR327649 PGN327626:PGN327649 PQJ327626:PQJ327649 QAF327626:QAF327649 QKB327626:QKB327649 QTX327626:QTX327649 RDT327626:RDT327649 RNP327626:RNP327649 RXL327626:RXL327649 SHH327626:SHH327649 SRD327626:SRD327649 TAZ327626:TAZ327649 TKV327626:TKV327649 TUR327626:TUR327649 UEN327626:UEN327649 UOJ327626:UOJ327649 UYF327626:UYF327649 VIB327626:VIB327649 VRX327626:VRX327649 WBT327626:WBT327649 WLP327626:WLP327649 WVL327626:WVL327649 C393163:C393186 IZ393162:IZ393185 SV393162:SV393185 ACR393162:ACR393185 AMN393162:AMN393185 AWJ393162:AWJ393185 BGF393162:BGF393185 BQB393162:BQB393185 BZX393162:BZX393185 CJT393162:CJT393185 CTP393162:CTP393185 DDL393162:DDL393185 DNH393162:DNH393185 DXD393162:DXD393185 EGZ393162:EGZ393185 EQV393162:EQV393185 FAR393162:FAR393185 FKN393162:FKN393185 FUJ393162:FUJ393185 GEF393162:GEF393185 GOB393162:GOB393185 GXX393162:GXX393185 HHT393162:HHT393185 HRP393162:HRP393185 IBL393162:IBL393185 ILH393162:ILH393185 IVD393162:IVD393185 JEZ393162:JEZ393185 JOV393162:JOV393185 JYR393162:JYR393185 KIN393162:KIN393185 KSJ393162:KSJ393185 LCF393162:LCF393185 LMB393162:LMB393185 LVX393162:LVX393185 MFT393162:MFT393185 MPP393162:MPP393185 MZL393162:MZL393185 NJH393162:NJH393185 NTD393162:NTD393185 OCZ393162:OCZ393185 OMV393162:OMV393185 OWR393162:OWR393185 PGN393162:PGN393185 PQJ393162:PQJ393185 QAF393162:QAF393185 QKB393162:QKB393185 QTX393162:QTX393185 RDT393162:RDT393185 RNP393162:RNP393185 RXL393162:RXL393185 SHH393162:SHH393185 SRD393162:SRD393185 TAZ393162:TAZ393185 TKV393162:TKV393185 TUR393162:TUR393185 UEN393162:UEN393185 UOJ393162:UOJ393185 UYF393162:UYF393185 VIB393162:VIB393185 VRX393162:VRX393185 WBT393162:WBT393185 WLP393162:WLP393185 WVL393162:WVL393185 C458699:C458722 IZ458698:IZ458721 SV458698:SV458721 ACR458698:ACR458721 AMN458698:AMN458721 AWJ458698:AWJ458721 BGF458698:BGF458721 BQB458698:BQB458721 BZX458698:BZX458721 CJT458698:CJT458721 CTP458698:CTP458721 DDL458698:DDL458721 DNH458698:DNH458721 DXD458698:DXD458721 EGZ458698:EGZ458721 EQV458698:EQV458721 FAR458698:FAR458721 FKN458698:FKN458721 FUJ458698:FUJ458721 GEF458698:GEF458721 GOB458698:GOB458721 GXX458698:GXX458721 HHT458698:HHT458721 HRP458698:HRP458721 IBL458698:IBL458721 ILH458698:ILH458721 IVD458698:IVD458721 JEZ458698:JEZ458721 JOV458698:JOV458721 JYR458698:JYR458721 KIN458698:KIN458721 KSJ458698:KSJ458721 LCF458698:LCF458721 LMB458698:LMB458721 LVX458698:LVX458721 MFT458698:MFT458721 MPP458698:MPP458721 MZL458698:MZL458721 NJH458698:NJH458721 NTD458698:NTD458721 OCZ458698:OCZ458721 OMV458698:OMV458721 OWR458698:OWR458721 PGN458698:PGN458721 PQJ458698:PQJ458721 QAF458698:QAF458721 QKB458698:QKB458721 QTX458698:QTX458721 RDT458698:RDT458721 RNP458698:RNP458721 RXL458698:RXL458721 SHH458698:SHH458721 SRD458698:SRD458721 TAZ458698:TAZ458721 TKV458698:TKV458721 TUR458698:TUR458721 UEN458698:UEN458721 UOJ458698:UOJ458721 UYF458698:UYF458721 VIB458698:VIB458721 VRX458698:VRX458721 WBT458698:WBT458721 WLP458698:WLP458721 WVL458698:WVL458721 C524235:C524258 IZ524234:IZ524257 SV524234:SV524257 ACR524234:ACR524257 AMN524234:AMN524257 AWJ524234:AWJ524257 BGF524234:BGF524257 BQB524234:BQB524257 BZX524234:BZX524257 CJT524234:CJT524257 CTP524234:CTP524257 DDL524234:DDL524257 DNH524234:DNH524257 DXD524234:DXD524257 EGZ524234:EGZ524257 EQV524234:EQV524257 FAR524234:FAR524257 FKN524234:FKN524257 FUJ524234:FUJ524257 GEF524234:GEF524257 GOB524234:GOB524257 GXX524234:GXX524257 HHT524234:HHT524257 HRP524234:HRP524257 IBL524234:IBL524257 ILH524234:ILH524257 IVD524234:IVD524257 JEZ524234:JEZ524257 JOV524234:JOV524257 JYR524234:JYR524257 KIN524234:KIN524257 KSJ524234:KSJ524257 LCF524234:LCF524257 LMB524234:LMB524257 LVX524234:LVX524257 MFT524234:MFT524257 MPP524234:MPP524257 MZL524234:MZL524257 NJH524234:NJH524257 NTD524234:NTD524257 OCZ524234:OCZ524257 OMV524234:OMV524257 OWR524234:OWR524257 PGN524234:PGN524257 PQJ524234:PQJ524257 QAF524234:QAF524257 QKB524234:QKB524257 QTX524234:QTX524257 RDT524234:RDT524257 RNP524234:RNP524257 RXL524234:RXL524257 SHH524234:SHH524257 SRD524234:SRD524257 TAZ524234:TAZ524257 TKV524234:TKV524257 TUR524234:TUR524257 UEN524234:UEN524257 UOJ524234:UOJ524257 UYF524234:UYF524257 VIB524234:VIB524257 VRX524234:VRX524257 WBT524234:WBT524257 WLP524234:WLP524257 WVL524234:WVL524257 C589771:C589794 IZ589770:IZ589793 SV589770:SV589793 ACR589770:ACR589793 AMN589770:AMN589793 AWJ589770:AWJ589793 BGF589770:BGF589793 BQB589770:BQB589793 BZX589770:BZX589793 CJT589770:CJT589793 CTP589770:CTP589793 DDL589770:DDL589793 DNH589770:DNH589793 DXD589770:DXD589793 EGZ589770:EGZ589793 EQV589770:EQV589793 FAR589770:FAR589793 FKN589770:FKN589793 FUJ589770:FUJ589793 GEF589770:GEF589793 GOB589770:GOB589793 GXX589770:GXX589793 HHT589770:HHT589793 HRP589770:HRP589793 IBL589770:IBL589793 ILH589770:ILH589793 IVD589770:IVD589793 JEZ589770:JEZ589793 JOV589770:JOV589793 JYR589770:JYR589793 KIN589770:KIN589793 KSJ589770:KSJ589793 LCF589770:LCF589793 LMB589770:LMB589793 LVX589770:LVX589793 MFT589770:MFT589793 MPP589770:MPP589793 MZL589770:MZL589793 NJH589770:NJH589793 NTD589770:NTD589793 OCZ589770:OCZ589793 OMV589770:OMV589793 OWR589770:OWR589793 PGN589770:PGN589793 PQJ589770:PQJ589793 QAF589770:QAF589793 QKB589770:QKB589793 QTX589770:QTX589793 RDT589770:RDT589793 RNP589770:RNP589793 RXL589770:RXL589793 SHH589770:SHH589793 SRD589770:SRD589793 TAZ589770:TAZ589793 TKV589770:TKV589793 TUR589770:TUR589793 UEN589770:UEN589793 UOJ589770:UOJ589793 UYF589770:UYF589793 VIB589770:VIB589793 VRX589770:VRX589793 WBT589770:WBT589793 WLP589770:WLP589793 WVL589770:WVL589793 C655307:C655330 IZ655306:IZ655329 SV655306:SV655329 ACR655306:ACR655329 AMN655306:AMN655329 AWJ655306:AWJ655329 BGF655306:BGF655329 BQB655306:BQB655329 BZX655306:BZX655329 CJT655306:CJT655329 CTP655306:CTP655329 DDL655306:DDL655329 DNH655306:DNH655329 DXD655306:DXD655329 EGZ655306:EGZ655329 EQV655306:EQV655329 FAR655306:FAR655329 FKN655306:FKN655329 FUJ655306:FUJ655329 GEF655306:GEF655329 GOB655306:GOB655329 GXX655306:GXX655329 HHT655306:HHT655329 HRP655306:HRP655329 IBL655306:IBL655329 ILH655306:ILH655329 IVD655306:IVD655329 JEZ655306:JEZ655329 JOV655306:JOV655329 JYR655306:JYR655329 KIN655306:KIN655329 KSJ655306:KSJ655329 LCF655306:LCF655329 LMB655306:LMB655329 LVX655306:LVX655329 MFT655306:MFT655329 MPP655306:MPP655329 MZL655306:MZL655329 NJH655306:NJH655329 NTD655306:NTD655329 OCZ655306:OCZ655329 OMV655306:OMV655329 OWR655306:OWR655329 PGN655306:PGN655329 PQJ655306:PQJ655329 QAF655306:QAF655329 QKB655306:QKB655329 QTX655306:QTX655329 RDT655306:RDT655329 RNP655306:RNP655329 RXL655306:RXL655329 SHH655306:SHH655329 SRD655306:SRD655329 TAZ655306:TAZ655329 TKV655306:TKV655329 TUR655306:TUR655329 UEN655306:UEN655329 UOJ655306:UOJ655329 UYF655306:UYF655329 VIB655306:VIB655329 VRX655306:VRX655329 WBT655306:WBT655329 WLP655306:WLP655329 WVL655306:WVL655329 C720843:C720866 IZ720842:IZ720865 SV720842:SV720865 ACR720842:ACR720865 AMN720842:AMN720865 AWJ720842:AWJ720865 BGF720842:BGF720865 BQB720842:BQB720865 BZX720842:BZX720865 CJT720842:CJT720865 CTP720842:CTP720865 DDL720842:DDL720865 DNH720842:DNH720865 DXD720842:DXD720865 EGZ720842:EGZ720865 EQV720842:EQV720865 FAR720842:FAR720865 FKN720842:FKN720865 FUJ720842:FUJ720865 GEF720842:GEF720865 GOB720842:GOB720865 GXX720842:GXX720865 HHT720842:HHT720865 HRP720842:HRP720865 IBL720842:IBL720865 ILH720842:ILH720865 IVD720842:IVD720865 JEZ720842:JEZ720865 JOV720842:JOV720865 JYR720842:JYR720865 KIN720842:KIN720865 KSJ720842:KSJ720865 LCF720842:LCF720865 LMB720842:LMB720865 LVX720842:LVX720865 MFT720842:MFT720865 MPP720842:MPP720865 MZL720842:MZL720865 NJH720842:NJH720865 NTD720842:NTD720865 OCZ720842:OCZ720865 OMV720842:OMV720865 OWR720842:OWR720865 PGN720842:PGN720865 PQJ720842:PQJ720865 QAF720842:QAF720865 QKB720842:QKB720865 QTX720842:QTX720865 RDT720842:RDT720865 RNP720842:RNP720865 RXL720842:RXL720865 SHH720842:SHH720865 SRD720842:SRD720865 TAZ720842:TAZ720865 TKV720842:TKV720865 TUR720842:TUR720865 UEN720842:UEN720865 UOJ720842:UOJ720865 UYF720842:UYF720865 VIB720842:VIB720865 VRX720842:VRX720865 WBT720842:WBT720865 WLP720842:WLP720865 WVL720842:WVL720865 C786379:C786402 IZ786378:IZ786401 SV786378:SV786401 ACR786378:ACR786401 AMN786378:AMN786401 AWJ786378:AWJ786401 BGF786378:BGF786401 BQB786378:BQB786401 BZX786378:BZX786401 CJT786378:CJT786401 CTP786378:CTP786401 DDL786378:DDL786401 DNH786378:DNH786401 DXD786378:DXD786401 EGZ786378:EGZ786401 EQV786378:EQV786401 FAR786378:FAR786401 FKN786378:FKN786401 FUJ786378:FUJ786401 GEF786378:GEF786401 GOB786378:GOB786401 GXX786378:GXX786401 HHT786378:HHT786401 HRP786378:HRP786401 IBL786378:IBL786401 ILH786378:ILH786401 IVD786378:IVD786401 JEZ786378:JEZ786401 JOV786378:JOV786401 JYR786378:JYR786401 KIN786378:KIN786401 KSJ786378:KSJ786401 LCF786378:LCF786401 LMB786378:LMB786401 LVX786378:LVX786401 MFT786378:MFT786401 MPP786378:MPP786401 MZL786378:MZL786401 NJH786378:NJH786401 NTD786378:NTD786401 OCZ786378:OCZ786401 OMV786378:OMV786401 OWR786378:OWR786401 PGN786378:PGN786401 PQJ786378:PQJ786401 QAF786378:QAF786401 QKB786378:QKB786401 QTX786378:QTX786401 RDT786378:RDT786401 RNP786378:RNP786401 RXL786378:RXL786401 SHH786378:SHH786401 SRD786378:SRD786401 TAZ786378:TAZ786401 TKV786378:TKV786401 TUR786378:TUR786401 UEN786378:UEN786401 UOJ786378:UOJ786401 UYF786378:UYF786401 VIB786378:VIB786401 VRX786378:VRX786401 WBT786378:WBT786401 WLP786378:WLP786401 WVL786378:WVL786401 C851915:C851938 IZ851914:IZ851937 SV851914:SV851937 ACR851914:ACR851937 AMN851914:AMN851937 AWJ851914:AWJ851937 BGF851914:BGF851937 BQB851914:BQB851937 BZX851914:BZX851937 CJT851914:CJT851937 CTP851914:CTP851937 DDL851914:DDL851937 DNH851914:DNH851937 DXD851914:DXD851937 EGZ851914:EGZ851937 EQV851914:EQV851937 FAR851914:FAR851937 FKN851914:FKN851937 FUJ851914:FUJ851937 GEF851914:GEF851937 GOB851914:GOB851937 GXX851914:GXX851937 HHT851914:HHT851937 HRP851914:HRP851937 IBL851914:IBL851937 ILH851914:ILH851937 IVD851914:IVD851937 JEZ851914:JEZ851937 JOV851914:JOV851937 JYR851914:JYR851937 KIN851914:KIN851937 KSJ851914:KSJ851937 LCF851914:LCF851937 LMB851914:LMB851937 LVX851914:LVX851937 MFT851914:MFT851937 MPP851914:MPP851937 MZL851914:MZL851937 NJH851914:NJH851937 NTD851914:NTD851937 OCZ851914:OCZ851937 OMV851914:OMV851937 OWR851914:OWR851937 PGN851914:PGN851937 PQJ851914:PQJ851937 QAF851914:QAF851937 QKB851914:QKB851937 QTX851914:QTX851937 RDT851914:RDT851937 RNP851914:RNP851937 RXL851914:RXL851937 SHH851914:SHH851937 SRD851914:SRD851937 TAZ851914:TAZ851937 TKV851914:TKV851937 TUR851914:TUR851937 UEN851914:UEN851937 UOJ851914:UOJ851937 UYF851914:UYF851937 VIB851914:VIB851937 VRX851914:VRX851937 WBT851914:WBT851937 WLP851914:WLP851937 WVL851914:WVL851937 C917451:C917474 IZ917450:IZ917473 SV917450:SV917473 ACR917450:ACR917473 AMN917450:AMN917473 AWJ917450:AWJ917473 BGF917450:BGF917473 BQB917450:BQB917473 BZX917450:BZX917473 CJT917450:CJT917473 CTP917450:CTP917473 DDL917450:DDL917473 DNH917450:DNH917473 DXD917450:DXD917473 EGZ917450:EGZ917473 EQV917450:EQV917473 FAR917450:FAR917473 FKN917450:FKN917473 FUJ917450:FUJ917473 GEF917450:GEF917473 GOB917450:GOB917473 GXX917450:GXX917473 HHT917450:HHT917473 HRP917450:HRP917473 IBL917450:IBL917473 ILH917450:ILH917473 IVD917450:IVD917473 JEZ917450:JEZ917473 JOV917450:JOV917473 JYR917450:JYR917473 KIN917450:KIN917473 KSJ917450:KSJ917473 LCF917450:LCF917473 LMB917450:LMB917473 LVX917450:LVX917473 MFT917450:MFT917473 MPP917450:MPP917473 MZL917450:MZL917473 NJH917450:NJH917473 NTD917450:NTD917473 OCZ917450:OCZ917473 OMV917450:OMV917473 OWR917450:OWR917473 PGN917450:PGN917473 PQJ917450:PQJ917473 QAF917450:QAF917473 QKB917450:QKB917473 QTX917450:QTX917473 RDT917450:RDT917473 RNP917450:RNP917473 RXL917450:RXL917473 SHH917450:SHH917473 SRD917450:SRD917473 TAZ917450:TAZ917473 TKV917450:TKV917473 TUR917450:TUR917473 UEN917450:UEN917473 UOJ917450:UOJ917473 UYF917450:UYF917473 VIB917450:VIB917473 VRX917450:VRX917473 WBT917450:WBT917473 WLP917450:WLP917473 WVL917450:WVL917473 C982987:C983010 IZ982986:IZ983009 SV982986:SV983009 ACR982986:ACR983009 AMN982986:AMN983009 AWJ982986:AWJ983009 BGF982986:BGF983009 BQB982986:BQB983009 BZX982986:BZX983009 CJT982986:CJT983009 CTP982986:CTP983009 DDL982986:DDL983009 DNH982986:DNH983009 DXD982986:DXD983009 EGZ982986:EGZ983009 EQV982986:EQV983009 FAR982986:FAR983009 FKN982986:FKN983009 FUJ982986:FUJ983009 GEF982986:GEF983009 GOB982986:GOB983009 GXX982986:GXX983009 HHT982986:HHT983009 HRP982986:HRP983009 IBL982986:IBL983009 ILH982986:ILH983009 IVD982986:IVD983009 JEZ982986:JEZ983009 JOV982986:JOV983009 JYR982986:JYR983009 KIN982986:KIN983009 KSJ982986:KSJ983009 LCF982986:LCF983009 LMB982986:LMB983009 LVX982986:LVX983009 MFT982986:MFT983009 MPP982986:MPP983009 MZL982986:MZL983009 NJH982986:NJH983009 NTD982986:NTD983009 OCZ982986:OCZ983009 OMV982986:OMV983009 OWR982986:OWR983009 PGN982986:PGN983009 PQJ982986:PQJ983009 QAF982986:QAF983009 QKB982986:QKB983009 QTX982986:QTX983009 RDT982986:RDT983009 RNP982986:RNP983009 RXL982986:RXL983009 SHH982986:SHH983009 SRD982986:SRD983009 TAZ982986:TAZ983009 TKV982986:TKV983009 TUR982986:TUR983009 UEN982986:UEN983009 UOJ982986:UOJ983009 UYF982986:UYF983009 VIB982986:VIB983009 VRX982986:VRX983009 WBT982986:WBT983009 WLP982986:WLP983009 WVL982986:WVL983009 D13:D16 SL24:SL28 D54:D56 D6:D8 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D30 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ALT31:ALT32 ACH24:ACH28 AVP31:AVP32 AMD24:AMD28 BFL31:BFL32 AVZ24:AVZ28 BPH31:BPH32 BFV24:BFV28 BZD31:BZD32 BPR24:BPR28 CIZ31:CIZ32 BZN24:BZN28 CSV31:CSV32 CJJ24:CJJ28 DCR31:DCR32 CTF24:CTF28 DMN31:DMN32 DDB24:DDB28 DWJ31:DWJ32 DMX24:DMX28 EGF31:EGF32 DWT24:DWT28 EQB31:EQB32 EGP24:EGP28 EZX31:EZX32 EQL24:EQL28 FJT31:FJT32 FAH24:FAH28 FTP31:FTP32 FKD24:FKD28 GDL31:GDL32 FTZ24:FTZ28 GNH31:GNH32 GDV24:GDV28 GXD31:GXD32 GNR24:GNR28 HGZ31:HGZ32 GXN24:GXN28 HQV31:HQV32 HHJ24:HHJ28 IAR31:IAR32 HRF24:HRF28 IKN31:IKN32 IBB24:IBB28 IUJ31:IUJ32 IKX24:IKX28 JEF31:JEF32 IUT24:IUT28 JOB31:JOB32 JEP24:JEP28 JXX31:JXX32 JOL24:JOL28 KHT31:KHT32 JYH24:JYH28 KRP31:KRP32 KID24:KID28 LBL31:LBL32 KRZ24:KRZ28 LLH31:LLH32 LBV24:LBV28 LVD31:LVD32 LLR24:LLR28 MEZ31:MEZ32 LVN24:LVN28 MOV31:MOV32 MFJ24:MFJ28 MYR31:MYR32 MPF24:MPF28 NIN31:NIN32 MZB24:MZB28 NSJ31:NSJ32 NIX24:NIX28 OCF31:OCF32 NST24:NST28 OMB31:OMB32 OCP24:OCP28 OVX31:OVX32 OML24:OML28 PFT31:PFT32 OWH24:OWH28 PPP31:PPP32 PGD24:PGD28 PZL31:PZL32 PPZ24:PPZ28 QJH31:QJH32 PZV24:PZV28 QTD31:QTD32 QJR24:QJR28 RCZ31:RCZ32 QTN24:QTN28 RMV31:RMV32 RDJ24:RDJ28 RWR31:RWR32 RNF24:RNF28 SGN31:SGN32 RXB24:RXB28 SQJ31:SQJ32 SGX24:SGX28 TAF31:TAF32 SQT24:SQT28 TKB31:TKB32 TAP24:TAP28 TTX31:TTX32 TKL24:TKL28 UDT31:UDT32 TUH24:TUH28 UNP31:UNP32 UED24:UED28 UXL31:UXL32 UNZ24:UNZ28 VHH31:VHH32 UXV24:UXV28 VRD31:VRD32 VHR24:VHR28 WAZ31:WAZ32 VRN24:VRN28 WKV31:WKV32 WBJ24:WBJ28 WUR31:WUR32 WLF24:WLF28 IF31:IF32 WVB24:WVB28 SB31:SB32 IP24:IP28 WLF14:WLF22 D34:D36 D47:D49 D41:D42 D61:D63 D68:D70 D75:D77 D82:D84 D89:D93 D97:D99 D21:D22 WVB14:WVB22 IP14:IP22 SL14:SL22 ACH14:ACH22 AMD14:AMD22 AVZ14:AVZ22 BFV14:BFV22 BPR14:BPR22 BZN14:BZN22 CJJ14:CJJ22 CTF14:CTF22 DDB14:DDB22 DMX14:DMX22 DWT14:DWT22 EGP14:EGP22 EQL14:EQL22 FAH14:FAH22 FKD14:FKD22 FTZ14:FTZ22 GDV14:GDV22 GNR14:GNR22 GXN14:GXN22 HHJ14:HHJ22 HRF14:HRF22 IBB14:IBB22 IKX14:IKX22 IUT14:IUT22 JEP14:JEP22 JOL14:JOL22 JYH14:JYH22 KID14:KID22 KRZ14:KRZ22 LBV14:LBV22 LLR14:LLR22 LVN14:LVN22 MFJ14:MFJ22 MPF14:MPF22 MZB14:MZB22 NIX14:NIX22 NST14:NST22 OCP14:OCP22 OML14:OML22 OWH14:OWH22 PGD14:PGD22 PPZ14:PPZ22 PZV14:PZV22 QJR14:QJR22 QTN14:QTN22 RDJ14:RDJ22 RNF14:RNF22 RXB14:RXB22 SGX14:SGX22 SQT14:SQT22 TAP14:TAP22 TKL14:TKL22 TUH14:TUH22 UED14:UED22 UNZ14:UNZ22 UXV14:UXV22 VHR14:VHR22 VRN14:VRN22 WBJ14:WBJ22 ABX31:ABX32 D104:D106 D118:D119" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3615,18 +3858,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephane\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5776B-1094-484B-90CC-845B261460DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD93E819-C215-489D-B121-3DF5043D6217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8175" yWindow="375" windowWidth="20025" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
   <si>
     <t>Database Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>Security Level</t>
-  </si>
-  <si>
     <t>A number describing how many people must be present</t>
   </si>
   <si>
@@ -153,21 +150,12 @@
     <t>Check it starts with P and is integer</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>First name of person</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Last name of person</t>
   </si>
   <si>
-    <t>DateOfBrith</t>
-  </si>
-  <si>
     <t>Person birthday</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>Starts with J</t>
   </si>
   <si>
-    <t>Job Description</t>
-  </si>
-  <si>
     <t>Name of job associated with ID</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t>Check it starts with J and is integer</t>
   </si>
   <si>
-    <t>SettlementInventory</t>
-  </si>
-  <si>
     <t>The ID from settlements table</t>
   </si>
   <si>
@@ -300,12 +282,6 @@
     <t>Starts with T</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total price of transaction</t>
-  </si>
-  <si>
     <t>Zombies</t>
   </si>
   <si>
@@ -378,12 +354,6 @@
     <t>TransTimeStamp</t>
   </si>
   <si>
-    <t>Timestamp of when it was made</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>PeopleSettlements</t>
   </si>
   <si>
@@ -405,9 +375,6 @@
     <t>Missions</t>
   </si>
   <si>
-    <t>MissionsID</t>
-  </si>
-  <si>
     <t>Unique ID for missions</t>
   </si>
   <si>
@@ -439,6 +406,51 @@
   </si>
   <si>
     <t>ID from people table</t>
+  </si>
+  <si>
+    <t>PeopleFirstName</t>
+  </si>
+  <si>
+    <t>PeopleLastName</t>
+  </si>
+  <si>
+    <t>PeopleDateOfBrith</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>SettlementItem</t>
+  </si>
+  <si>
+    <t>TransDateStamp</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SettlementSecurityLevel</t>
+  </si>
+  <si>
+    <t>The base pay for this job/day</t>
+  </si>
+  <si>
+    <t>JobBasePay/Day</t>
+  </si>
+  <si>
+    <t>Timestamp of what date it happens</t>
+  </si>
+  <si>
+    <t>Timestamp of wht time it happens</t>
+  </si>
+  <si>
+    <t>ZombiePricePerKill</t>
+  </si>
+  <si>
+    <t>Price by which zombie is rewarded per killing</t>
+  </si>
+  <si>
+    <t>ID from zombies Table</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,17 +1022,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -1546,7 +1561,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44502.834875</v>
+        <v>44506.87106701389</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1618,7 +1633,9 @@
         <v>23</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="28" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="25" t="s">
         <v>28</v>
       </c>
@@ -1654,23 +1671,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
@@ -1683,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -1731,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>14</v>
@@ -1740,14 +1757,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
@@ -1757,10 +1774,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>17</v>
@@ -1781,10 +1798,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>17</v>
@@ -1805,13 +1822,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -1830,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1875,21 +1892,21 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
         <v>19</v>
       </c>
@@ -1901,21 +1918,21 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="11" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -1980,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>14</v>
@@ -1989,14 +2006,14 @@
         <v>27</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
@@ -2006,10 +2023,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>17</v>
@@ -2027,109 +2044,117 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
         <v>19</v>
       </c>
@@ -2140,17 +2165,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
         <v>19</v>
@@ -2161,197 +2190,193 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="B39" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="24"/>
+    </row>
+    <row r="40" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="B41" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11" t="s">
+      <c r="E41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="B45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J46" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="F47" s="13"/>
       <c r="G47" s="11" t="s">
         <v>19</v>
       </c>
@@ -2362,17 +2387,21 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="11" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F48" s="12"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
@@ -2383,94 +2412,94 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="B52" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="24"/>
+    </row>
+    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J53" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="B54" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -2479,126 +2508,126 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>67</v>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="17"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="B59" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+    </row>
+    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="11" t="s">
+      <c r="B61" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -2607,115 +2636,115 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>71</v>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="24"/>
-    </row>
-    <row r="66" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="B66" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="24"/>
+    </row>
+    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="11" t="s">
+      <c r="B68" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="11" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -2724,115 +2753,115 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>71</v>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
-    </row>
-    <row r="73" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="B73" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="24"/>
+    </row>
+    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="11" t="s">
+      <c r="B75" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="11" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -2841,115 +2870,115 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>78</v>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="B80" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="24"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="11" t="s">
+      <c r="B82" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -2958,146 +2987,146 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>82</v>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="24"/>
-    </row>
-    <row r="87" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="B87" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="24"/>
+    </row>
+    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D88" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E88" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F88" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G88" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I88" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J88" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F89" s="13"/>
       <c r="G89" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="I89" s="11"/>
       <c r="J89" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>89</v>
+      <c r="A90" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
       <c r="J90" s="11" t="s">
         <v>16</v>
       </c>
@@ -3105,13 +3134,13 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="16"/>
       <c r="B91" s="16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
@@ -3124,96 +3153,106 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="17"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="24"/>
-    </row>
-    <row r="95" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+      <c r="B95" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="24"/>
+    </row>
+    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J96" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -3222,341 +3261,415 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>98</v>
+      <c r="A98" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="24"/>
-    </row>
-    <row r="102" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="B102" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="24"/>
+    </row>
+    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B103" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D103" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E103" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G103" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H103" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J103" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="B104" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="11" t="s">
+      <c r="E104" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="11"/>
+      <c r="H104" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="I104" s="11"/>
       <c r="J104" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B107" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="35"/>
-    </row>
-    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32" t="s">
+      <c r="B109" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="35"/>
+    </row>
+    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="26" t="s">
+      <c r="B110" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C110" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="27" t="s">
+      <c r="D110" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="E110" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F110" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G110" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H108" s="27" t="s">
+      <c r="H110" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="27" t="s">
+      <c r="I110" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J108" s="27" t="s">
+      <c r="J110" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C109" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" s="28" t="s">
+      <c r="B111" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="30"/>
-      <c r="G109" s="28" t="s">
+      <c r="E111" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="30"/>
+      <c r="G111" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="28"/>
+      <c r="H111" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="I111" s="28"/>
       <c r="J111" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="30"/>
+      <c r="G114" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
+      <c r="B116" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="35"/>
+    </row>
+    <row r="117" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B117" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C117" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D117" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="27" t="s">
+      <c r="E117" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F117" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="27" t="s">
+      <c r="G117" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H115" s="27" t="s">
+      <c r="H117" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="27" t="s">
+      <c r="I117" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J115" s="27" t="s">
+      <c r="J117" s="27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" s="28" t="s">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="28" t="s">
+      <c r="E119" s="29"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28" t="s">
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3566,28 +3679,28 @@
     <mergeCell ref="B25:J25"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65491:F65506 WVO982994:WVP983009 WLS982994:WLT983009 WBW982994:WBX983009 VSA982994:VSB983009 VIE982994:VIF983009 UYI982994:UYJ983009 UOM982994:UON983009 UEQ982994:UER983009 TUU982994:TUV983009 TKY982994:TKZ983009 TBC982994:TBD983009 SRG982994:SRH983009 SHK982994:SHL983009 RXO982994:RXP983009 RNS982994:RNT983009 RDW982994:RDX983009 QUA982994:QUB983009 QKE982994:QKF983009 QAI982994:QAJ983009 PQM982994:PQN983009 PGQ982994:PGR983009 OWU982994:OWV983009 OMY982994:OMZ983009 ODC982994:ODD983009 NTG982994:NTH983009 NJK982994:NJL983009 MZO982994:MZP983009 MPS982994:MPT983009 MFW982994:MFX983009 LWA982994:LWB983009 LME982994:LMF983009 LCI982994:LCJ983009 KSM982994:KSN983009 KIQ982994:KIR983009 JYU982994:JYV983009 JOY982994:JOZ983009 JFC982994:JFD983009 IVG982994:IVH983009 ILK982994:ILL983009 IBO982994:IBP983009 HRS982994:HRT983009 HHW982994:HHX983009 GYA982994:GYB983009 GOE982994:GOF983009 GEI982994:GEJ983009 FUM982994:FUN983009 FKQ982994:FKR983009 FAU982994:FAV983009 EQY982994:EQZ983009 EHC982994:EHD983009 DXG982994:DXH983009 DNK982994:DNL983009 DDO982994:DDP983009 CTS982994:CTT983009 CJW982994:CJX983009 CAA982994:CAB983009 BQE982994:BQF983009 BGI982994:BGJ983009 AWM982994:AWN983009 AMQ982994:AMR983009 ACU982994:ACV983009 SY982994:SZ983009 JC982994:JD983009 F982995:F983010 WVO917458:WVP917473 WLS917458:WLT917473 WBW917458:WBX917473 VSA917458:VSB917473 VIE917458:VIF917473 UYI917458:UYJ917473 UOM917458:UON917473 UEQ917458:UER917473 TUU917458:TUV917473 TKY917458:TKZ917473 TBC917458:TBD917473 SRG917458:SRH917473 SHK917458:SHL917473 RXO917458:RXP917473 RNS917458:RNT917473 RDW917458:RDX917473 QUA917458:QUB917473 QKE917458:QKF917473 QAI917458:QAJ917473 PQM917458:PQN917473 PGQ917458:PGR917473 OWU917458:OWV917473 OMY917458:OMZ917473 ODC917458:ODD917473 NTG917458:NTH917473 NJK917458:NJL917473 MZO917458:MZP917473 MPS917458:MPT917473 MFW917458:MFX917473 LWA917458:LWB917473 LME917458:LMF917473 LCI917458:LCJ917473 KSM917458:KSN917473 KIQ917458:KIR917473 JYU917458:JYV917473 JOY917458:JOZ917473 JFC917458:JFD917473 IVG917458:IVH917473 ILK917458:ILL917473 IBO917458:IBP917473 HRS917458:HRT917473 HHW917458:HHX917473 GYA917458:GYB917473 GOE917458:GOF917473 GEI917458:GEJ917473 FUM917458:FUN917473 FKQ917458:FKR917473 FAU917458:FAV917473 EQY917458:EQZ917473 EHC917458:EHD917473 DXG917458:DXH917473 DNK917458:DNL917473 DDO917458:DDP917473 CTS917458:CTT917473 CJW917458:CJX917473 CAA917458:CAB917473 BQE917458:BQF917473 BGI917458:BGJ917473 AWM917458:AWN917473 AMQ917458:AMR917473 ACU917458:ACV917473 SY917458:SZ917473 JC917458:JD917473 F917459:F917474 WVO851922:WVP851937 WLS851922:WLT851937 WBW851922:WBX851937 VSA851922:VSB851937 VIE851922:VIF851937 UYI851922:UYJ851937 UOM851922:UON851937 UEQ851922:UER851937 TUU851922:TUV851937 TKY851922:TKZ851937 TBC851922:TBD851937 SRG851922:SRH851937 SHK851922:SHL851937 RXO851922:RXP851937 RNS851922:RNT851937 RDW851922:RDX851937 QUA851922:QUB851937 QKE851922:QKF851937 QAI851922:QAJ851937 PQM851922:PQN851937 PGQ851922:PGR851937 OWU851922:OWV851937 OMY851922:OMZ851937 ODC851922:ODD851937 NTG851922:NTH851937 NJK851922:NJL851937 MZO851922:MZP851937 MPS851922:MPT851937 MFW851922:MFX851937 LWA851922:LWB851937 LME851922:LMF851937 LCI851922:LCJ851937 KSM851922:KSN851937 KIQ851922:KIR851937 JYU851922:JYV851937 JOY851922:JOZ851937 JFC851922:JFD851937 IVG851922:IVH851937 ILK851922:ILL851937 IBO851922:IBP851937 HRS851922:HRT851937 HHW851922:HHX851937 GYA851922:GYB851937 GOE851922:GOF851937 GEI851922:GEJ851937 FUM851922:FUN851937 FKQ851922:FKR851937 FAU851922:FAV851937 EQY851922:EQZ851937 EHC851922:EHD851937 DXG851922:DXH851937 DNK851922:DNL851937 DDO851922:DDP851937 CTS851922:CTT851937 CJW851922:CJX851937 CAA851922:CAB851937 BQE851922:BQF851937 BGI851922:BGJ851937 AWM851922:AWN851937 AMQ851922:AMR851937 ACU851922:ACV851937 SY851922:SZ851937 JC851922:JD851937 F851923:F851938 WVO786386:WVP786401 WLS786386:WLT786401 WBW786386:WBX786401 VSA786386:VSB786401 VIE786386:VIF786401 UYI786386:UYJ786401 UOM786386:UON786401 UEQ786386:UER786401 TUU786386:TUV786401 TKY786386:TKZ786401 TBC786386:TBD786401 SRG786386:SRH786401 SHK786386:SHL786401 RXO786386:RXP786401 RNS786386:RNT786401 RDW786386:RDX786401 QUA786386:QUB786401 QKE786386:QKF786401 QAI786386:QAJ786401 PQM786386:PQN786401 PGQ786386:PGR786401 OWU786386:OWV786401 OMY786386:OMZ786401 ODC786386:ODD786401 NTG786386:NTH786401 NJK786386:NJL786401 MZO786386:MZP786401 MPS786386:MPT786401 MFW786386:MFX786401 LWA786386:LWB786401 LME786386:LMF786401 LCI786386:LCJ786401 KSM786386:KSN786401 KIQ786386:KIR786401 JYU786386:JYV786401 JOY786386:JOZ786401 JFC786386:JFD786401 IVG786386:IVH786401 ILK786386:ILL786401 IBO786386:IBP786401 HRS786386:HRT786401 HHW786386:HHX786401 GYA786386:GYB786401 GOE786386:GOF786401 GEI786386:GEJ786401 FUM786386:FUN786401 FKQ786386:FKR786401 FAU786386:FAV786401 EQY786386:EQZ786401 EHC786386:EHD786401 DXG786386:DXH786401 DNK786386:DNL786401 DDO786386:DDP786401 CTS786386:CTT786401 CJW786386:CJX786401 CAA786386:CAB786401 BQE786386:BQF786401 BGI786386:BGJ786401 AWM786386:AWN786401 AMQ786386:AMR786401 ACU786386:ACV786401 SY786386:SZ786401 JC786386:JD786401 F786387:F786402 WVO720850:WVP720865 WLS720850:WLT720865 WBW720850:WBX720865 VSA720850:VSB720865 VIE720850:VIF720865 UYI720850:UYJ720865 UOM720850:UON720865 UEQ720850:UER720865 TUU720850:TUV720865 TKY720850:TKZ720865 TBC720850:TBD720865 SRG720850:SRH720865 SHK720850:SHL720865 RXO720850:RXP720865 RNS720850:RNT720865 RDW720850:RDX720865 QUA720850:QUB720865 QKE720850:QKF720865 QAI720850:QAJ720865 PQM720850:PQN720865 PGQ720850:PGR720865 OWU720850:OWV720865 OMY720850:OMZ720865 ODC720850:ODD720865 NTG720850:NTH720865 NJK720850:NJL720865 MZO720850:MZP720865 MPS720850:MPT720865 MFW720850:MFX720865 LWA720850:LWB720865 LME720850:LMF720865 LCI720850:LCJ720865 KSM720850:KSN720865 KIQ720850:KIR720865 JYU720850:JYV720865 JOY720850:JOZ720865 JFC720850:JFD720865 IVG720850:IVH720865 ILK720850:ILL720865 IBO720850:IBP720865 HRS720850:HRT720865 HHW720850:HHX720865 GYA720850:GYB720865 GOE720850:GOF720865 GEI720850:GEJ720865 FUM720850:FUN720865 FKQ720850:FKR720865 FAU720850:FAV720865 EQY720850:EQZ720865 EHC720850:EHD720865 DXG720850:DXH720865 DNK720850:DNL720865 DDO720850:DDP720865 CTS720850:CTT720865 CJW720850:CJX720865 CAA720850:CAB720865 BQE720850:BQF720865 BGI720850:BGJ720865 AWM720850:AWN720865 AMQ720850:AMR720865 ACU720850:ACV720865 SY720850:SZ720865 JC720850:JD720865 F720851:F720866 WVO655314:WVP655329 WLS655314:WLT655329 WBW655314:WBX655329 VSA655314:VSB655329 VIE655314:VIF655329 UYI655314:UYJ655329 UOM655314:UON655329 UEQ655314:UER655329 TUU655314:TUV655329 TKY655314:TKZ655329 TBC655314:TBD655329 SRG655314:SRH655329 SHK655314:SHL655329 RXO655314:RXP655329 RNS655314:RNT655329 RDW655314:RDX655329 QUA655314:QUB655329 QKE655314:QKF655329 QAI655314:QAJ655329 PQM655314:PQN655329 PGQ655314:PGR655329 OWU655314:OWV655329 OMY655314:OMZ655329 ODC655314:ODD655329 NTG655314:NTH655329 NJK655314:NJL655329 MZO655314:MZP655329 MPS655314:MPT655329 MFW655314:MFX655329 LWA655314:LWB655329 LME655314:LMF655329 LCI655314:LCJ655329 KSM655314:KSN655329 KIQ655314:KIR655329 JYU655314:JYV655329 JOY655314:JOZ655329 JFC655314:JFD655329 IVG655314:IVH655329 ILK655314:ILL655329 IBO655314:IBP655329 HRS655314:HRT655329 HHW655314:HHX655329 GYA655314:GYB655329 GOE655314:GOF655329 GEI655314:GEJ655329 FUM655314:FUN655329 FKQ655314:FKR655329 FAU655314:FAV655329 EQY655314:EQZ655329 EHC655314:EHD655329 DXG655314:DXH655329 DNK655314:DNL655329 DDO655314:DDP655329 CTS655314:CTT655329 CJW655314:CJX655329 CAA655314:CAB655329 BQE655314:BQF655329 BGI655314:BGJ655329 AWM655314:AWN655329 AMQ655314:AMR655329 ACU655314:ACV655329 SY655314:SZ655329 JC655314:JD655329 F655315:F655330 WVO589778:WVP589793 WLS589778:WLT589793 WBW589778:WBX589793 VSA589778:VSB589793 VIE589778:VIF589793 UYI589778:UYJ589793 UOM589778:UON589793 UEQ589778:UER589793 TUU589778:TUV589793 TKY589778:TKZ589793 TBC589778:TBD589793 SRG589778:SRH589793 SHK589778:SHL589793 RXO589778:RXP589793 RNS589778:RNT589793 RDW589778:RDX589793 QUA589778:QUB589793 QKE589778:QKF589793 QAI589778:QAJ589793 PQM589778:PQN589793 PGQ589778:PGR589793 OWU589778:OWV589793 OMY589778:OMZ589793 ODC589778:ODD589793 NTG589778:NTH589793 NJK589778:NJL589793 MZO589778:MZP589793 MPS589778:MPT589793 MFW589778:MFX589793 LWA589778:LWB589793 LME589778:LMF589793 LCI589778:LCJ589793 KSM589778:KSN589793 KIQ589778:KIR589793 JYU589778:JYV589793 JOY589778:JOZ589793 JFC589778:JFD589793 IVG589778:IVH589793 ILK589778:ILL589793 IBO589778:IBP589793 HRS589778:HRT589793 HHW589778:HHX589793 GYA589778:GYB589793 GOE589778:GOF589793 GEI589778:GEJ589793 FUM589778:FUN589793 FKQ589778:FKR589793 FAU589778:FAV589793 EQY589778:EQZ589793 EHC589778:EHD589793 DXG589778:DXH589793 DNK589778:DNL589793 DDO589778:DDP589793 CTS589778:CTT589793 CJW589778:CJX589793 CAA589778:CAB589793 BQE589778:BQF589793 BGI589778:BGJ589793 AWM589778:AWN589793 AMQ589778:AMR589793 ACU589778:ACV589793 SY589778:SZ589793 JC589778:JD589793 F589779:F589794 WVO524242:WVP524257 WLS524242:WLT524257 WBW524242:WBX524257 VSA524242:VSB524257 VIE524242:VIF524257 UYI524242:UYJ524257 UOM524242:UON524257 UEQ524242:UER524257 TUU524242:TUV524257 TKY524242:TKZ524257 TBC524242:TBD524257 SRG524242:SRH524257 SHK524242:SHL524257 RXO524242:RXP524257 RNS524242:RNT524257 RDW524242:RDX524257 QUA524242:QUB524257 QKE524242:QKF524257 QAI524242:QAJ524257 PQM524242:PQN524257 PGQ524242:PGR524257 OWU524242:OWV524257 OMY524242:OMZ524257 ODC524242:ODD524257 NTG524242:NTH524257 NJK524242:NJL524257 MZO524242:MZP524257 MPS524242:MPT524257 MFW524242:MFX524257 LWA524242:LWB524257 LME524242:LMF524257 LCI524242:LCJ524257 KSM524242:KSN524257 KIQ524242:KIR524257 JYU524242:JYV524257 JOY524242:JOZ524257 JFC524242:JFD524257 IVG524242:IVH524257 ILK524242:ILL524257 IBO524242:IBP524257 HRS524242:HRT524257 HHW524242:HHX524257 GYA524242:GYB524257 GOE524242:GOF524257 GEI524242:GEJ524257 FUM524242:FUN524257 FKQ524242:FKR524257 FAU524242:FAV524257 EQY524242:EQZ524257 EHC524242:EHD524257 DXG524242:DXH524257 DNK524242:DNL524257 DDO524242:DDP524257 CTS524242:CTT524257 CJW524242:CJX524257 CAA524242:CAB524257 BQE524242:BQF524257 BGI524242:BGJ524257 AWM524242:AWN524257 AMQ524242:AMR524257 ACU524242:ACV524257 SY524242:SZ524257 JC524242:JD524257 F524243:F524258 WVO458706:WVP458721 WLS458706:WLT458721 WBW458706:WBX458721 VSA458706:VSB458721 VIE458706:VIF458721 UYI458706:UYJ458721 UOM458706:UON458721 UEQ458706:UER458721 TUU458706:TUV458721 TKY458706:TKZ458721 TBC458706:TBD458721 SRG458706:SRH458721 SHK458706:SHL458721 RXO458706:RXP458721 RNS458706:RNT458721 RDW458706:RDX458721 QUA458706:QUB458721 QKE458706:QKF458721 QAI458706:QAJ458721 PQM458706:PQN458721 PGQ458706:PGR458721 OWU458706:OWV458721 OMY458706:OMZ458721 ODC458706:ODD458721 NTG458706:NTH458721 NJK458706:NJL458721 MZO458706:MZP458721 MPS458706:MPT458721 MFW458706:MFX458721 LWA458706:LWB458721 LME458706:LMF458721 LCI458706:LCJ458721 KSM458706:KSN458721 KIQ458706:KIR458721 JYU458706:JYV458721 JOY458706:JOZ458721 JFC458706:JFD458721 IVG458706:IVH458721 ILK458706:ILL458721 IBO458706:IBP458721 HRS458706:HRT458721 HHW458706:HHX458721 GYA458706:GYB458721 GOE458706:GOF458721 GEI458706:GEJ458721 FUM458706:FUN458721 FKQ458706:FKR458721 FAU458706:FAV458721 EQY458706:EQZ458721 EHC458706:EHD458721 DXG458706:DXH458721 DNK458706:DNL458721 DDO458706:DDP458721 CTS458706:CTT458721 CJW458706:CJX458721 CAA458706:CAB458721 BQE458706:BQF458721 BGI458706:BGJ458721 AWM458706:AWN458721 AMQ458706:AMR458721 ACU458706:ACV458721 SY458706:SZ458721 JC458706:JD458721 F458707:F458722 WVO393170:WVP393185 WLS393170:WLT393185 WBW393170:WBX393185 VSA393170:VSB393185 VIE393170:VIF393185 UYI393170:UYJ393185 UOM393170:UON393185 UEQ393170:UER393185 TUU393170:TUV393185 TKY393170:TKZ393185 TBC393170:TBD393185 SRG393170:SRH393185 SHK393170:SHL393185 RXO393170:RXP393185 RNS393170:RNT393185 RDW393170:RDX393185 QUA393170:QUB393185 QKE393170:QKF393185 QAI393170:QAJ393185 PQM393170:PQN393185 PGQ393170:PGR393185 OWU393170:OWV393185 OMY393170:OMZ393185 ODC393170:ODD393185 NTG393170:NTH393185 NJK393170:NJL393185 MZO393170:MZP393185 MPS393170:MPT393185 MFW393170:MFX393185 LWA393170:LWB393185 LME393170:LMF393185 LCI393170:LCJ393185 KSM393170:KSN393185 KIQ393170:KIR393185 JYU393170:JYV393185 JOY393170:JOZ393185 JFC393170:JFD393185 IVG393170:IVH393185 ILK393170:ILL393185 IBO393170:IBP393185 HRS393170:HRT393185 HHW393170:HHX393185 GYA393170:GYB393185 GOE393170:GOF393185 GEI393170:GEJ393185 FUM393170:FUN393185 FKQ393170:FKR393185 FAU393170:FAV393185 EQY393170:EQZ393185 EHC393170:EHD393185 DXG393170:DXH393185 DNK393170:DNL393185 DDO393170:DDP393185 CTS393170:CTT393185 CJW393170:CJX393185 CAA393170:CAB393185 BQE393170:BQF393185 BGI393170:BGJ393185 AWM393170:AWN393185 AMQ393170:AMR393185 ACU393170:ACV393185 SY393170:SZ393185 JC393170:JD393185 F393171:F393186 WVO327634:WVP327649 WLS327634:WLT327649 WBW327634:WBX327649 VSA327634:VSB327649 VIE327634:VIF327649 UYI327634:UYJ327649 UOM327634:UON327649 UEQ327634:UER327649 TUU327634:TUV327649 TKY327634:TKZ327649 TBC327634:TBD327649 SRG327634:SRH327649 SHK327634:SHL327649 RXO327634:RXP327649 RNS327634:RNT327649 RDW327634:RDX327649 QUA327634:QUB327649 QKE327634:QKF327649 QAI327634:QAJ327649 PQM327634:PQN327649 PGQ327634:PGR327649 OWU327634:OWV327649 OMY327634:OMZ327649 ODC327634:ODD327649 NTG327634:NTH327649 NJK327634:NJL327649 MZO327634:MZP327649 MPS327634:MPT327649 MFW327634:MFX327649 LWA327634:LWB327649 LME327634:LMF327649 LCI327634:LCJ327649 KSM327634:KSN327649 KIQ327634:KIR327649 JYU327634:JYV327649 JOY327634:JOZ327649 JFC327634:JFD327649 IVG327634:IVH327649 ILK327634:ILL327649 IBO327634:IBP327649 HRS327634:HRT327649 HHW327634:HHX327649 GYA327634:GYB327649 GOE327634:GOF327649 GEI327634:GEJ327649 FUM327634:FUN327649 FKQ327634:FKR327649 FAU327634:FAV327649 EQY327634:EQZ327649 EHC327634:EHD327649 DXG327634:DXH327649 DNK327634:DNL327649 DDO327634:DDP327649 CTS327634:CTT327649 CJW327634:CJX327649 CAA327634:CAB327649 BQE327634:BQF327649 BGI327634:BGJ327649 AWM327634:AWN327649 AMQ327634:AMR327649 ACU327634:ACV327649 SY327634:SZ327649 JC327634:JD327649 F327635:F327650 WVO262098:WVP262113 WLS262098:WLT262113 WBW262098:WBX262113 VSA262098:VSB262113 VIE262098:VIF262113 UYI262098:UYJ262113 UOM262098:UON262113 UEQ262098:UER262113 TUU262098:TUV262113 TKY262098:TKZ262113 TBC262098:TBD262113 SRG262098:SRH262113 SHK262098:SHL262113 RXO262098:RXP262113 RNS262098:RNT262113 RDW262098:RDX262113 QUA262098:QUB262113 QKE262098:QKF262113 QAI262098:QAJ262113 PQM262098:PQN262113 PGQ262098:PGR262113 OWU262098:OWV262113 OMY262098:OMZ262113 ODC262098:ODD262113 NTG262098:NTH262113 NJK262098:NJL262113 MZO262098:MZP262113 MPS262098:MPT262113 MFW262098:MFX262113 LWA262098:LWB262113 LME262098:LMF262113 LCI262098:LCJ262113 KSM262098:KSN262113 KIQ262098:KIR262113 JYU262098:JYV262113 JOY262098:JOZ262113 JFC262098:JFD262113 IVG262098:IVH262113 ILK262098:ILL262113 IBO262098:IBP262113 HRS262098:HRT262113 HHW262098:HHX262113 GYA262098:GYB262113 GOE262098:GOF262113 GEI262098:GEJ262113 FUM262098:FUN262113 FKQ262098:FKR262113 FAU262098:FAV262113 EQY262098:EQZ262113 EHC262098:EHD262113 DXG262098:DXH262113 DNK262098:DNL262113 DDO262098:DDP262113 CTS262098:CTT262113 CJW262098:CJX262113 CAA262098:CAB262113 BQE262098:BQF262113 BGI262098:BGJ262113 AWM262098:AWN262113 AMQ262098:AMR262113 ACU262098:ACV262113 SY262098:SZ262113 JC262098:JD262113 F262099:F262114 WVO196562:WVP196577 WLS196562:WLT196577 WBW196562:WBX196577 VSA196562:VSB196577 VIE196562:VIF196577 UYI196562:UYJ196577 UOM196562:UON196577 UEQ196562:UER196577 TUU196562:TUV196577 TKY196562:TKZ196577 TBC196562:TBD196577 SRG196562:SRH196577 SHK196562:SHL196577 RXO196562:RXP196577 RNS196562:RNT196577 RDW196562:RDX196577 QUA196562:QUB196577 QKE196562:QKF196577 QAI196562:QAJ196577 PQM196562:PQN196577 PGQ196562:PGR196577 OWU196562:OWV196577 OMY196562:OMZ196577 ODC196562:ODD196577 NTG196562:NTH196577 NJK196562:NJL196577 MZO196562:MZP196577 MPS196562:MPT196577 MFW196562:MFX196577 LWA196562:LWB196577 LME196562:LMF196577 LCI196562:LCJ196577 KSM196562:KSN196577 KIQ196562:KIR196577 JYU196562:JYV196577 JOY196562:JOZ196577 JFC196562:JFD196577 IVG196562:IVH196577 ILK196562:ILL196577 IBO196562:IBP196577 HRS196562:HRT196577 HHW196562:HHX196577 GYA196562:GYB196577 GOE196562:GOF196577 GEI196562:GEJ196577 FUM196562:FUN196577 FKQ196562:FKR196577 FAU196562:FAV196577 EQY196562:EQZ196577 EHC196562:EHD196577 DXG196562:DXH196577 DNK196562:DNL196577 DDO196562:DDP196577 CTS196562:CTT196577 CJW196562:CJX196577 CAA196562:CAB196577 BQE196562:BQF196577 BGI196562:BGJ196577 AWM196562:AWN196577 AMQ196562:AMR196577 ACU196562:ACV196577 SY196562:SZ196577 JC196562:JD196577 F196563:F196578 WVO131026:WVP131041 WLS131026:WLT131041 WBW131026:WBX131041 VSA131026:VSB131041 VIE131026:VIF131041 UYI131026:UYJ131041 UOM131026:UON131041 UEQ131026:UER131041 TUU131026:TUV131041 TKY131026:TKZ131041 TBC131026:TBD131041 SRG131026:SRH131041 SHK131026:SHL131041 RXO131026:RXP131041 RNS131026:RNT131041 RDW131026:RDX131041 QUA131026:QUB131041 QKE131026:QKF131041 QAI131026:QAJ131041 PQM131026:PQN131041 PGQ131026:PGR131041 OWU131026:OWV131041 OMY131026:OMZ131041 ODC131026:ODD131041 NTG131026:NTH131041 NJK131026:NJL131041 MZO131026:MZP131041 MPS131026:MPT131041 MFW131026:MFX131041 LWA131026:LWB131041 LME131026:LMF131041 LCI131026:LCJ131041 KSM131026:KSN131041 KIQ131026:KIR131041 JYU131026:JYV131041 JOY131026:JOZ131041 JFC131026:JFD131041 IVG131026:IVH131041 ILK131026:ILL131041 IBO131026:IBP131041 HRS131026:HRT131041 HHW131026:HHX131041 GYA131026:GYB131041 GOE131026:GOF131041 GEI131026:GEJ131041 FUM131026:FUN131041 FKQ131026:FKR131041 FAU131026:FAV131041 EQY131026:EQZ131041 EHC131026:EHD131041 DXG131026:DXH131041 DNK131026:DNL131041 DDO131026:DDP131041 CTS131026:CTT131041 CJW131026:CJX131041 CAA131026:CAB131041 BQE131026:BQF131041 BGI131026:BGJ131041 AWM131026:AWN131041 AMQ131026:AMR131041 ACU131026:ACV131041 SY131026:SZ131041 JC131026:JD131041 F131027:F131042 WVO65490:WVP65505 WLS65490:WLT65505 WBW65490:WBX65505 VSA65490:VSB65505 VIE65490:VIF65505 UYI65490:UYJ65505 UOM65490:UON65505 UEQ65490:UER65505 TUU65490:TUV65505 TKY65490:TKZ65505 TBC65490:TBD65505 SRG65490:SRH65505 SHK65490:SHL65505 RXO65490:RXP65505 RNS65490:RNT65505 RDW65490:RDX65505 QUA65490:QUB65505 QKE65490:QKF65505 QAI65490:QAJ65505 PQM65490:PQN65505 PGQ65490:PGR65505 OWU65490:OWV65505 OMY65490:OMZ65505 ODC65490:ODD65505 NTG65490:NTH65505 NJK65490:NJL65505 MZO65490:MZP65505 MPS65490:MPT65505 MFW65490:MFX65505 LWA65490:LWB65505 LME65490:LMF65505 LCI65490:LCJ65505 KSM65490:KSN65505 KIQ65490:KIR65505 JYU65490:JYV65505 JOY65490:JOZ65505 JFC65490:JFD65505 IVG65490:IVH65505 ILK65490:ILL65505 IBO65490:IBP65505 HRS65490:HRT65505 HHW65490:HHX65505 GYA65490:GYB65505 GOE65490:GOF65505 GEI65490:GEJ65505 FUM65490:FUN65505 FKQ65490:FKR65505 FAU65490:FAV65505 EQY65490:EQZ65505 EHC65490:EHD65505 DXG65490:DXH65505 DNK65490:DNL65505 DDO65490:DDP65505 CTS65490:CTT65505 CJW65490:CJX65505 CAA65490:CAB65505 BQE65490:BQF65505 BGI65490:BGJ65505 AWM65490:AWN65505 AMQ65490:AMR65505 ACU65490:ACV65505 SY65490:SZ65505 JC65490:JD65505 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D53:D55 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D33:D35 D46:D48 D40:D41 D60:D62 D67:D69 D74:D76 D81:D83 D103:D104 D96:D98 D88:D91 D21:D22 D116:D117" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65483:C65506 IZ65482:IZ65505 SV65482:SV65505 ACR65482:ACR65505 AMN65482:AMN65505 AWJ65482:AWJ65505 BGF65482:BGF65505 BQB65482:BQB65505 BZX65482:BZX65505 CJT65482:CJT65505 CTP65482:CTP65505 DDL65482:DDL65505 DNH65482:DNH65505 DXD65482:DXD65505 EGZ65482:EGZ65505 EQV65482:EQV65505 FAR65482:FAR65505 FKN65482:FKN65505 FUJ65482:FUJ65505 GEF65482:GEF65505 GOB65482:GOB65505 GXX65482:GXX65505 HHT65482:HHT65505 HRP65482:HRP65505 IBL65482:IBL65505 ILH65482:ILH65505 IVD65482:IVD65505 JEZ65482:JEZ65505 JOV65482:JOV65505 JYR65482:JYR65505 KIN65482:KIN65505 KSJ65482:KSJ65505 LCF65482:LCF65505 LMB65482:LMB65505 LVX65482:LVX65505 MFT65482:MFT65505 MPP65482:MPP65505 MZL65482:MZL65505 NJH65482:NJH65505 NTD65482:NTD65505 OCZ65482:OCZ65505 OMV65482:OMV65505 OWR65482:OWR65505 PGN65482:PGN65505 PQJ65482:PQJ65505 QAF65482:QAF65505 QKB65482:QKB65505 QTX65482:QTX65505 RDT65482:RDT65505 RNP65482:RNP65505 RXL65482:RXL65505 SHH65482:SHH65505 SRD65482:SRD65505 TAZ65482:TAZ65505 TKV65482:TKV65505 TUR65482:TUR65505 UEN65482:UEN65505 UOJ65482:UOJ65505 UYF65482:UYF65505 VIB65482:VIB65505 VRX65482:VRX65505 WBT65482:WBT65505 WLP65482:WLP65505 WVL65482:WVL65505 C131019:C131042 IZ131018:IZ131041 SV131018:SV131041 ACR131018:ACR131041 AMN131018:AMN131041 AWJ131018:AWJ131041 BGF131018:BGF131041 BQB131018:BQB131041 BZX131018:BZX131041 CJT131018:CJT131041 CTP131018:CTP131041 DDL131018:DDL131041 DNH131018:DNH131041 DXD131018:DXD131041 EGZ131018:EGZ131041 EQV131018:EQV131041 FAR131018:FAR131041 FKN131018:FKN131041 FUJ131018:FUJ131041 GEF131018:GEF131041 GOB131018:GOB131041 GXX131018:GXX131041 HHT131018:HHT131041 HRP131018:HRP131041 IBL131018:IBL131041 ILH131018:ILH131041 IVD131018:IVD131041 JEZ131018:JEZ131041 JOV131018:JOV131041 JYR131018:JYR131041 KIN131018:KIN131041 KSJ131018:KSJ131041 LCF131018:LCF131041 LMB131018:LMB131041 LVX131018:LVX131041 MFT131018:MFT131041 MPP131018:MPP131041 MZL131018:MZL131041 NJH131018:NJH131041 NTD131018:NTD131041 OCZ131018:OCZ131041 OMV131018:OMV131041 OWR131018:OWR131041 PGN131018:PGN131041 PQJ131018:PQJ131041 QAF131018:QAF131041 QKB131018:QKB131041 QTX131018:QTX131041 RDT131018:RDT131041 RNP131018:RNP131041 RXL131018:RXL131041 SHH131018:SHH131041 SRD131018:SRD131041 TAZ131018:TAZ131041 TKV131018:TKV131041 TUR131018:TUR131041 UEN131018:UEN131041 UOJ131018:UOJ131041 UYF131018:UYF131041 VIB131018:VIB131041 VRX131018:VRX131041 WBT131018:WBT131041 WLP131018:WLP131041 WVL131018:WVL131041 C196555:C196578 IZ196554:IZ196577 SV196554:SV196577 ACR196554:ACR196577 AMN196554:AMN196577 AWJ196554:AWJ196577 BGF196554:BGF196577 BQB196554:BQB196577 BZX196554:BZX196577 CJT196554:CJT196577 CTP196554:CTP196577 DDL196554:DDL196577 DNH196554:DNH196577 DXD196554:DXD196577 EGZ196554:EGZ196577 EQV196554:EQV196577 FAR196554:FAR196577 FKN196554:FKN196577 FUJ196554:FUJ196577 GEF196554:GEF196577 GOB196554:GOB196577 GXX196554:GXX196577 HHT196554:HHT196577 HRP196554:HRP196577 IBL196554:IBL196577 ILH196554:ILH196577 IVD196554:IVD196577 JEZ196554:JEZ196577 JOV196554:JOV196577 JYR196554:JYR196577 KIN196554:KIN196577 KSJ196554:KSJ196577 LCF196554:LCF196577 LMB196554:LMB196577 LVX196554:LVX196577 MFT196554:MFT196577 MPP196554:MPP196577 MZL196554:MZL196577 NJH196554:NJH196577 NTD196554:NTD196577 OCZ196554:OCZ196577 OMV196554:OMV196577 OWR196554:OWR196577 PGN196554:PGN196577 PQJ196554:PQJ196577 QAF196554:QAF196577 QKB196554:QKB196577 QTX196554:QTX196577 RDT196554:RDT196577 RNP196554:RNP196577 RXL196554:RXL196577 SHH196554:SHH196577 SRD196554:SRD196577 TAZ196554:TAZ196577 TKV196554:TKV196577 TUR196554:TUR196577 UEN196554:UEN196577 UOJ196554:UOJ196577 UYF196554:UYF196577 VIB196554:VIB196577 VRX196554:VRX196577 WBT196554:WBT196577 WLP196554:WLP196577 WVL196554:WVL196577 C262091:C262114 IZ262090:IZ262113 SV262090:SV262113 ACR262090:ACR262113 AMN262090:AMN262113 AWJ262090:AWJ262113 BGF262090:BGF262113 BQB262090:BQB262113 BZX262090:BZX262113 CJT262090:CJT262113 CTP262090:CTP262113 DDL262090:DDL262113 DNH262090:DNH262113 DXD262090:DXD262113 EGZ262090:EGZ262113 EQV262090:EQV262113 FAR262090:FAR262113 FKN262090:FKN262113 FUJ262090:FUJ262113 GEF262090:GEF262113 GOB262090:GOB262113 GXX262090:GXX262113 HHT262090:HHT262113 HRP262090:HRP262113 IBL262090:IBL262113 ILH262090:ILH262113 IVD262090:IVD262113 JEZ262090:JEZ262113 JOV262090:JOV262113 JYR262090:JYR262113 KIN262090:KIN262113 KSJ262090:KSJ262113 LCF262090:LCF262113 LMB262090:LMB262113 LVX262090:LVX262113 MFT262090:MFT262113 MPP262090:MPP262113 MZL262090:MZL262113 NJH262090:NJH262113 NTD262090:NTD262113 OCZ262090:OCZ262113 OMV262090:OMV262113 OWR262090:OWR262113 PGN262090:PGN262113 PQJ262090:PQJ262113 QAF262090:QAF262113 QKB262090:QKB262113 QTX262090:QTX262113 RDT262090:RDT262113 RNP262090:RNP262113 RXL262090:RXL262113 SHH262090:SHH262113 SRD262090:SRD262113 TAZ262090:TAZ262113 TKV262090:TKV262113 TUR262090:TUR262113 UEN262090:UEN262113 UOJ262090:UOJ262113 UYF262090:UYF262113 VIB262090:VIB262113 VRX262090:VRX262113 WBT262090:WBT262113 WLP262090:WLP262113 WVL262090:WVL262113 C327627:C327650 IZ327626:IZ327649 SV327626:SV327649 ACR327626:ACR327649 AMN327626:AMN327649 AWJ327626:AWJ327649 BGF327626:BGF327649 BQB327626:BQB327649 BZX327626:BZX327649 CJT327626:CJT327649 CTP327626:CTP327649 DDL327626:DDL327649 DNH327626:DNH327649 DXD327626:DXD327649 EGZ327626:EGZ327649 EQV327626:EQV327649 FAR327626:FAR327649 FKN327626:FKN327649 FUJ327626:FUJ327649 GEF327626:GEF327649 GOB327626:GOB327649 GXX327626:GXX327649 HHT327626:HHT327649 HRP327626:HRP327649 IBL327626:IBL327649 ILH327626:ILH327649 IVD327626:IVD327649 JEZ327626:JEZ327649 JOV327626:JOV327649 JYR327626:JYR327649 KIN327626:KIN327649 KSJ327626:KSJ327649 LCF327626:LCF327649 LMB327626:LMB327649 LVX327626:LVX327649 MFT327626:MFT327649 MPP327626:MPP327649 MZL327626:MZL327649 NJH327626:NJH327649 NTD327626:NTD327649 OCZ327626:OCZ327649 OMV327626:OMV327649 OWR327626:OWR327649 PGN327626:PGN327649 PQJ327626:PQJ327649 QAF327626:QAF327649 QKB327626:QKB327649 QTX327626:QTX327649 RDT327626:RDT327649 RNP327626:RNP327649 RXL327626:RXL327649 SHH327626:SHH327649 SRD327626:SRD327649 TAZ327626:TAZ327649 TKV327626:TKV327649 TUR327626:TUR327649 UEN327626:UEN327649 UOJ327626:UOJ327649 UYF327626:UYF327649 VIB327626:VIB327649 VRX327626:VRX327649 WBT327626:WBT327649 WLP327626:WLP327649 WVL327626:WVL327649 C393163:C393186 IZ393162:IZ393185 SV393162:SV393185 ACR393162:ACR393185 AMN393162:AMN393185 AWJ393162:AWJ393185 BGF393162:BGF393185 BQB393162:BQB393185 BZX393162:BZX393185 CJT393162:CJT393185 CTP393162:CTP393185 DDL393162:DDL393185 DNH393162:DNH393185 DXD393162:DXD393185 EGZ393162:EGZ393185 EQV393162:EQV393185 FAR393162:FAR393185 FKN393162:FKN393185 FUJ393162:FUJ393185 GEF393162:GEF393185 GOB393162:GOB393185 GXX393162:GXX393185 HHT393162:HHT393185 HRP393162:HRP393185 IBL393162:IBL393185 ILH393162:ILH393185 IVD393162:IVD393185 JEZ393162:JEZ393185 JOV393162:JOV393185 JYR393162:JYR393185 KIN393162:KIN393185 KSJ393162:KSJ393185 LCF393162:LCF393185 LMB393162:LMB393185 LVX393162:LVX393185 MFT393162:MFT393185 MPP393162:MPP393185 MZL393162:MZL393185 NJH393162:NJH393185 NTD393162:NTD393185 OCZ393162:OCZ393185 OMV393162:OMV393185 OWR393162:OWR393185 PGN393162:PGN393185 PQJ393162:PQJ393185 QAF393162:QAF393185 QKB393162:QKB393185 QTX393162:QTX393185 RDT393162:RDT393185 RNP393162:RNP393185 RXL393162:RXL393185 SHH393162:SHH393185 SRD393162:SRD393185 TAZ393162:TAZ393185 TKV393162:TKV393185 TUR393162:TUR393185 UEN393162:UEN393185 UOJ393162:UOJ393185 UYF393162:UYF393185 VIB393162:VIB393185 VRX393162:VRX393185 WBT393162:WBT393185 WLP393162:WLP393185 WVL393162:WVL393185 C458699:C458722 IZ458698:IZ458721 SV458698:SV458721 ACR458698:ACR458721 AMN458698:AMN458721 AWJ458698:AWJ458721 BGF458698:BGF458721 BQB458698:BQB458721 BZX458698:BZX458721 CJT458698:CJT458721 CTP458698:CTP458721 DDL458698:DDL458721 DNH458698:DNH458721 DXD458698:DXD458721 EGZ458698:EGZ458721 EQV458698:EQV458721 FAR458698:FAR458721 FKN458698:FKN458721 FUJ458698:FUJ458721 GEF458698:GEF458721 GOB458698:GOB458721 GXX458698:GXX458721 HHT458698:HHT458721 HRP458698:HRP458721 IBL458698:IBL458721 ILH458698:ILH458721 IVD458698:IVD458721 JEZ458698:JEZ458721 JOV458698:JOV458721 JYR458698:JYR458721 KIN458698:KIN458721 KSJ458698:KSJ458721 LCF458698:LCF458721 LMB458698:LMB458721 LVX458698:LVX458721 MFT458698:MFT458721 MPP458698:MPP458721 MZL458698:MZL458721 NJH458698:NJH458721 NTD458698:NTD458721 OCZ458698:OCZ458721 OMV458698:OMV458721 OWR458698:OWR458721 PGN458698:PGN458721 PQJ458698:PQJ458721 QAF458698:QAF458721 QKB458698:QKB458721 QTX458698:QTX458721 RDT458698:RDT458721 RNP458698:RNP458721 RXL458698:RXL458721 SHH458698:SHH458721 SRD458698:SRD458721 TAZ458698:TAZ458721 TKV458698:TKV458721 TUR458698:TUR458721 UEN458698:UEN458721 UOJ458698:UOJ458721 UYF458698:UYF458721 VIB458698:VIB458721 VRX458698:VRX458721 WBT458698:WBT458721 WLP458698:WLP458721 WVL458698:WVL458721 C524235:C524258 IZ524234:IZ524257 SV524234:SV524257 ACR524234:ACR524257 AMN524234:AMN524257 AWJ524234:AWJ524257 BGF524234:BGF524257 BQB524234:BQB524257 BZX524234:BZX524257 CJT524234:CJT524257 CTP524234:CTP524257 DDL524234:DDL524257 DNH524234:DNH524257 DXD524234:DXD524257 EGZ524234:EGZ524257 EQV524234:EQV524257 FAR524234:FAR524257 FKN524234:FKN524257 FUJ524234:FUJ524257 GEF524234:GEF524257 GOB524234:GOB524257 GXX524234:GXX524257 HHT524234:HHT524257 HRP524234:HRP524257 IBL524234:IBL524257 ILH524234:ILH524257 IVD524234:IVD524257 JEZ524234:JEZ524257 JOV524234:JOV524257 JYR524234:JYR524257 KIN524234:KIN524257 KSJ524234:KSJ524257 LCF524234:LCF524257 LMB524234:LMB524257 LVX524234:LVX524257 MFT524234:MFT524257 MPP524234:MPP524257 MZL524234:MZL524257 NJH524234:NJH524257 NTD524234:NTD524257 OCZ524234:OCZ524257 OMV524234:OMV524257 OWR524234:OWR524257 PGN524234:PGN524257 PQJ524234:PQJ524257 QAF524234:QAF524257 QKB524234:QKB524257 QTX524234:QTX524257 RDT524234:RDT524257 RNP524234:RNP524257 RXL524234:RXL524257 SHH524234:SHH524257 SRD524234:SRD524257 TAZ524234:TAZ524257 TKV524234:TKV524257 TUR524234:TUR524257 UEN524234:UEN524257 UOJ524234:UOJ524257 UYF524234:UYF524257 VIB524234:VIB524257 VRX524234:VRX524257 WBT524234:WBT524257 WLP524234:WLP524257 WVL524234:WVL524257 C589771:C589794 IZ589770:IZ589793 SV589770:SV589793 ACR589770:ACR589793 AMN589770:AMN589793 AWJ589770:AWJ589793 BGF589770:BGF589793 BQB589770:BQB589793 BZX589770:BZX589793 CJT589770:CJT589793 CTP589770:CTP589793 DDL589770:DDL589793 DNH589770:DNH589793 DXD589770:DXD589793 EGZ589770:EGZ589793 EQV589770:EQV589793 FAR589770:FAR589793 FKN589770:FKN589793 FUJ589770:FUJ589793 GEF589770:GEF589793 GOB589770:GOB589793 GXX589770:GXX589793 HHT589770:HHT589793 HRP589770:HRP589793 IBL589770:IBL589793 ILH589770:ILH589793 IVD589770:IVD589793 JEZ589770:JEZ589793 JOV589770:JOV589793 JYR589770:JYR589793 KIN589770:KIN589793 KSJ589770:KSJ589793 LCF589770:LCF589793 LMB589770:LMB589793 LVX589770:LVX589793 MFT589770:MFT589793 MPP589770:MPP589793 MZL589770:MZL589793 NJH589770:NJH589793 NTD589770:NTD589793 OCZ589770:OCZ589793 OMV589770:OMV589793 OWR589770:OWR589793 PGN589770:PGN589793 PQJ589770:PQJ589793 QAF589770:QAF589793 QKB589770:QKB589793 QTX589770:QTX589793 RDT589770:RDT589793 RNP589770:RNP589793 RXL589770:RXL589793 SHH589770:SHH589793 SRD589770:SRD589793 TAZ589770:TAZ589793 TKV589770:TKV589793 TUR589770:TUR589793 UEN589770:UEN589793 UOJ589770:UOJ589793 UYF589770:UYF589793 VIB589770:VIB589793 VRX589770:VRX589793 WBT589770:WBT589793 WLP589770:WLP589793 WVL589770:WVL589793 C655307:C655330 IZ655306:IZ655329 SV655306:SV655329 ACR655306:ACR655329 AMN655306:AMN655329 AWJ655306:AWJ655329 BGF655306:BGF655329 BQB655306:BQB655329 BZX655306:BZX655329 CJT655306:CJT655329 CTP655306:CTP655329 DDL655306:DDL655329 DNH655306:DNH655329 DXD655306:DXD655329 EGZ655306:EGZ655329 EQV655306:EQV655329 FAR655306:FAR655329 FKN655306:FKN655329 FUJ655306:FUJ655329 GEF655306:GEF655329 GOB655306:GOB655329 GXX655306:GXX655329 HHT655306:HHT655329 HRP655306:HRP655329 IBL655306:IBL655329 ILH655306:ILH655329 IVD655306:IVD655329 JEZ655306:JEZ655329 JOV655306:JOV655329 JYR655306:JYR655329 KIN655306:KIN655329 KSJ655306:KSJ655329 LCF655306:LCF655329 LMB655306:LMB655329 LVX655306:LVX655329 MFT655306:MFT655329 MPP655306:MPP655329 MZL655306:MZL655329 NJH655306:NJH655329 NTD655306:NTD655329 OCZ655306:OCZ655329 OMV655306:OMV655329 OWR655306:OWR655329 PGN655306:PGN655329 PQJ655306:PQJ655329 QAF655306:QAF655329 QKB655306:QKB655329 QTX655306:QTX655329 RDT655306:RDT655329 RNP655306:RNP655329 RXL655306:RXL655329 SHH655306:SHH655329 SRD655306:SRD655329 TAZ655306:TAZ655329 TKV655306:TKV655329 TUR655306:TUR655329 UEN655306:UEN655329 UOJ655306:UOJ655329 UYF655306:UYF655329 VIB655306:VIB655329 VRX655306:VRX655329 WBT655306:WBT655329 WLP655306:WLP655329 WVL655306:WVL655329 C720843:C720866 IZ720842:IZ720865 SV720842:SV720865 ACR720842:ACR720865 AMN720842:AMN720865 AWJ720842:AWJ720865 BGF720842:BGF720865 BQB720842:BQB720865 BZX720842:BZX720865 CJT720842:CJT720865 CTP720842:CTP720865 DDL720842:DDL720865 DNH720842:DNH720865 DXD720842:DXD720865 EGZ720842:EGZ720865 EQV720842:EQV720865 FAR720842:FAR720865 FKN720842:FKN720865 FUJ720842:FUJ720865 GEF720842:GEF720865 GOB720842:GOB720865 GXX720842:GXX720865 HHT720842:HHT720865 HRP720842:HRP720865 IBL720842:IBL720865 ILH720842:ILH720865 IVD720842:IVD720865 JEZ720842:JEZ720865 JOV720842:JOV720865 JYR720842:JYR720865 KIN720842:KIN720865 KSJ720842:KSJ720865 LCF720842:LCF720865 LMB720842:LMB720865 LVX720842:LVX720865 MFT720842:MFT720865 MPP720842:MPP720865 MZL720842:MZL720865 NJH720842:NJH720865 NTD720842:NTD720865 OCZ720842:OCZ720865 OMV720842:OMV720865 OWR720842:OWR720865 PGN720842:PGN720865 PQJ720842:PQJ720865 QAF720842:QAF720865 QKB720842:QKB720865 QTX720842:QTX720865 RDT720842:RDT720865 RNP720842:RNP720865 RXL720842:RXL720865 SHH720842:SHH720865 SRD720842:SRD720865 TAZ720842:TAZ720865 TKV720842:TKV720865 TUR720842:TUR720865 UEN720842:UEN720865 UOJ720842:UOJ720865 UYF720842:UYF720865 VIB720842:VIB720865 VRX720842:VRX720865 WBT720842:WBT720865 WLP720842:WLP720865 WVL720842:WVL720865 C786379:C786402 IZ786378:IZ786401 SV786378:SV786401 ACR786378:ACR786401 AMN786378:AMN786401 AWJ786378:AWJ786401 BGF786378:BGF786401 BQB786378:BQB786401 BZX786378:BZX786401 CJT786378:CJT786401 CTP786378:CTP786401 DDL786378:DDL786401 DNH786378:DNH786401 DXD786378:DXD786401 EGZ786378:EGZ786401 EQV786378:EQV786401 FAR786378:FAR786401 FKN786378:FKN786401 FUJ786378:FUJ786401 GEF786378:GEF786401 GOB786378:GOB786401 GXX786378:GXX786401 HHT786378:HHT786401 HRP786378:HRP786401 IBL786378:IBL786401 ILH786378:ILH786401 IVD786378:IVD786401 JEZ786378:JEZ786401 JOV786378:JOV786401 JYR786378:JYR786401 KIN786378:KIN786401 KSJ786378:KSJ786401 LCF786378:LCF786401 LMB786378:LMB786401 LVX786378:LVX786401 MFT786378:MFT786401 MPP786378:MPP786401 MZL786378:MZL786401 NJH786378:NJH786401 NTD786378:NTD786401 OCZ786378:OCZ786401 OMV786378:OMV786401 OWR786378:OWR786401 PGN786378:PGN786401 PQJ786378:PQJ786401 QAF786378:QAF786401 QKB786378:QKB786401 QTX786378:QTX786401 RDT786378:RDT786401 RNP786378:RNP786401 RXL786378:RXL786401 SHH786378:SHH786401 SRD786378:SRD786401 TAZ786378:TAZ786401 TKV786378:TKV786401 TUR786378:TUR786401 UEN786378:UEN786401 UOJ786378:UOJ786401 UYF786378:UYF786401 VIB786378:VIB786401 VRX786378:VRX786401 WBT786378:WBT786401 WLP786378:WLP786401 WVL786378:WVL786401 C851915:C851938 IZ851914:IZ851937 SV851914:SV851937 ACR851914:ACR851937 AMN851914:AMN851937 AWJ851914:AWJ851937 BGF851914:BGF851937 BQB851914:BQB851937 BZX851914:BZX851937 CJT851914:CJT851937 CTP851914:CTP851937 DDL851914:DDL851937 DNH851914:DNH851937 DXD851914:DXD851937 EGZ851914:EGZ851937 EQV851914:EQV851937 FAR851914:FAR851937 FKN851914:FKN851937 FUJ851914:FUJ851937 GEF851914:GEF851937 GOB851914:GOB851937 GXX851914:GXX851937 HHT851914:HHT851937 HRP851914:HRP851937 IBL851914:IBL851937 ILH851914:ILH851937 IVD851914:IVD851937 JEZ851914:JEZ851937 JOV851914:JOV851937 JYR851914:JYR851937 KIN851914:KIN851937 KSJ851914:KSJ851937 LCF851914:LCF851937 LMB851914:LMB851937 LVX851914:LVX851937 MFT851914:MFT851937 MPP851914:MPP851937 MZL851914:MZL851937 NJH851914:NJH851937 NTD851914:NTD851937 OCZ851914:OCZ851937 OMV851914:OMV851937 OWR851914:OWR851937 PGN851914:PGN851937 PQJ851914:PQJ851937 QAF851914:QAF851937 QKB851914:QKB851937 QTX851914:QTX851937 RDT851914:RDT851937 RNP851914:RNP851937 RXL851914:RXL851937 SHH851914:SHH851937 SRD851914:SRD851937 TAZ851914:TAZ851937 TKV851914:TKV851937 TUR851914:TUR851937 UEN851914:UEN851937 UOJ851914:UOJ851937 UYF851914:UYF851937 VIB851914:VIB851937 VRX851914:VRX851937 WBT851914:WBT851937 WLP851914:WLP851937 WVL851914:WVL851937 C917451:C917474 IZ917450:IZ917473 SV917450:SV917473 ACR917450:ACR917473 AMN917450:AMN917473 AWJ917450:AWJ917473 BGF917450:BGF917473 BQB917450:BQB917473 BZX917450:BZX917473 CJT917450:CJT917473 CTP917450:CTP917473 DDL917450:DDL917473 DNH917450:DNH917473 DXD917450:DXD917473 EGZ917450:EGZ917473 EQV917450:EQV917473 FAR917450:FAR917473 FKN917450:FKN917473 FUJ917450:FUJ917473 GEF917450:GEF917473 GOB917450:GOB917473 GXX917450:GXX917473 HHT917450:HHT917473 HRP917450:HRP917473 IBL917450:IBL917473 ILH917450:ILH917473 IVD917450:IVD917473 JEZ917450:JEZ917473 JOV917450:JOV917473 JYR917450:JYR917473 KIN917450:KIN917473 KSJ917450:KSJ917473 LCF917450:LCF917473 LMB917450:LMB917473 LVX917450:LVX917473 MFT917450:MFT917473 MPP917450:MPP917473 MZL917450:MZL917473 NJH917450:NJH917473 NTD917450:NTD917473 OCZ917450:OCZ917473 OMV917450:OMV917473 OWR917450:OWR917473 PGN917450:PGN917473 PQJ917450:PQJ917473 QAF917450:QAF917473 QKB917450:QKB917473 QTX917450:QTX917473 RDT917450:RDT917473 RNP917450:RNP917473 RXL917450:RXL917473 SHH917450:SHH917473 SRD917450:SRD917473 TAZ917450:TAZ917473 TKV917450:TKV917473 TUR917450:TUR917473 UEN917450:UEN917473 UOJ917450:UOJ917473 UYF917450:UYF917473 VIB917450:VIB917473 VRX917450:VRX917473 WBT917450:WBT917473 WLP917450:WLP917473 WVL917450:WVL917473 C982987:C983010 IZ982986:IZ983009 SV982986:SV983009 ACR982986:ACR983009 AMN982986:AMN983009 AWJ982986:AWJ983009 BGF982986:BGF983009 BQB982986:BQB983009 BZX982986:BZX983009 CJT982986:CJT983009 CTP982986:CTP983009 DDL982986:DDL983009 DNH982986:DNH983009 DXD982986:DXD983009 EGZ982986:EGZ983009 EQV982986:EQV983009 FAR982986:FAR983009 FKN982986:FKN983009 FUJ982986:FUJ983009 GEF982986:GEF983009 GOB982986:GOB983009 GXX982986:GXX983009 HHT982986:HHT983009 HRP982986:HRP983009 IBL982986:IBL983009 ILH982986:ILH983009 IVD982986:IVD983009 JEZ982986:JEZ983009 JOV982986:JOV983009 JYR982986:JYR983009 KIN982986:KIN983009 KSJ982986:KSJ983009 LCF982986:LCF983009 LMB982986:LMB983009 LVX982986:LVX983009 MFT982986:MFT983009 MPP982986:MPP983009 MZL982986:MZL983009 NJH982986:NJH983009 NTD982986:NTD983009 OCZ982986:OCZ983009 OMV982986:OMV983009 OWR982986:OWR983009 PGN982986:PGN983009 PQJ982986:PQJ983009 QAF982986:QAF983009 QKB982986:QKB983009 QTX982986:QTX983009 RDT982986:RDT983009 RNP982986:RNP983009 RXL982986:RXL983009 SHH982986:SHH983009 SRD982986:SRD983009 TAZ982986:TAZ983009 TKV982986:TKV983009 TUR982986:TUR983009 UEN982986:UEN983009 UOJ982986:UOJ983009 UYF982986:UYF983009 VIB982986:VIB983009 VRX982986:VRX983009 WBT982986:WBT983009 WLP982986:WLP983009 WVL982986:WVL983009 D13:D16 SL24:SL28 D54:D56 D6:D8 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D30 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ALT31:ALT32 ACH24:ACH28 AVP31:AVP32 AMD24:AMD28 BFL31:BFL32 AVZ24:AVZ28 BPH31:BPH32 BFV24:BFV28 BZD31:BZD32 BPR24:BPR28 CIZ31:CIZ32 BZN24:BZN28 CSV31:CSV32 CJJ24:CJJ28 DCR31:DCR32 CTF24:CTF28 DMN31:DMN32 DDB24:DDB28 DWJ31:DWJ32 DMX24:DMX28 EGF31:EGF32 DWT24:DWT28 EQB31:EQB32 EGP24:EGP28 EZX31:EZX32 EQL24:EQL28 FJT31:FJT32 FAH24:FAH28 FTP31:FTP32 FKD24:FKD28 GDL31:GDL32 FTZ24:FTZ28 GNH31:GNH32 GDV24:GDV28 GXD31:GXD32 GNR24:GNR28 HGZ31:HGZ32 GXN24:GXN28 HQV31:HQV32 HHJ24:HHJ28 IAR31:IAR32 HRF24:HRF28 IKN31:IKN32 IBB24:IBB28 IUJ31:IUJ32 IKX24:IKX28 JEF31:JEF32 IUT24:IUT28 JOB31:JOB32 JEP24:JEP28 JXX31:JXX32 JOL24:JOL28 KHT31:KHT32 JYH24:JYH28 KRP31:KRP32 KID24:KID28 LBL31:LBL32 KRZ24:KRZ28 LLH31:LLH32 LBV24:LBV28 LVD31:LVD32 LLR24:LLR28 MEZ31:MEZ32 LVN24:LVN28 MOV31:MOV32 MFJ24:MFJ28 MYR31:MYR32 MPF24:MPF28 NIN31:NIN32 MZB24:MZB28 NSJ31:NSJ32 NIX24:NIX28 OCF31:OCF32 NST24:NST28 OMB31:OMB32 OCP24:OCP28 OVX31:OVX32 OML24:OML28 PFT31:PFT32 OWH24:OWH28 PPP31:PPP32 PGD24:PGD28 PZL31:PZL32 PPZ24:PPZ28 QJH31:QJH32 PZV24:PZV28 QTD31:QTD32 QJR24:QJR28 RCZ31:RCZ32 QTN24:QTN28 RMV31:RMV32 RDJ24:RDJ28 RWR31:RWR32 RNF24:RNF28 SGN31:SGN32 RXB24:RXB28 SQJ31:SQJ32 SGX24:SGX28 TAF31:TAF32 SQT24:SQT28 TKB31:TKB32 TAP24:TAP28 TTX31:TTX32 TKL24:TKL28 UDT31:UDT32 TUH24:TUH28 UNP31:UNP32 UED24:UED28 UXL31:UXL32 UNZ24:UNZ28 VHH31:VHH32 UXV24:UXV28 VRD31:VRD32 VHR24:VHR28 WAZ31:WAZ32 VRN24:VRN28 WKV31:WKV32 WBJ24:WBJ28 WUR31:WUR32 WLF24:WLF28 IF31:IF32 WVB24:WVB28 SB31:SB32 IP24:IP28 WLF14:WLF22 D34:D36 D47:D49 D41:D42 D61:D63 D68:D70 D75:D77 D82:D84 D89:D93 D97:D99 D21:D22 WVB14:WVB22 IP14:IP22 SL14:SL22 ACH14:ACH22 AMD14:AMD22 AVZ14:AVZ22 BFV14:BFV22 BPR14:BPR22 BZN14:BZN22 CJJ14:CJJ22 CTF14:CTF22 DDB14:DDB22 DMX14:DMX22 DWT14:DWT22 EGP14:EGP22 EQL14:EQL22 FAH14:FAH22 FKD14:FKD22 FTZ14:FTZ22 GDV14:GDV22 GNR14:GNR22 GXN14:GXN22 HHJ14:HHJ22 HRF14:HRF22 IBB14:IBB22 IKX14:IKX22 IUT14:IUT22 JEP14:JEP22 JOL14:JOL22 JYH14:JYH22 KID14:KID22 KRZ14:KRZ22 LBV14:LBV22 LLR14:LLR22 LVN14:LVN22 MFJ14:MFJ22 MPF14:MPF22 MZB14:MZB22 NIX14:NIX22 NST14:NST22 OCP14:OCP22 OML14:OML22 OWH14:OWH22 PGD14:PGD22 PPZ14:PPZ22 PZV14:PZV22 QJR14:QJR22 QTN14:QTN22 RDJ14:RDJ22 RNF14:RNF22 RXB14:RXB22 SGX14:SGX22 SQT14:SQT22 TAP14:TAP22 TKL14:TKL22 TUH14:TUH22 UED14:UED22 UNZ14:UNZ22 UXV14:UXV22 VHR14:VHR22 VRN14:VRN22 WBJ14:WBJ22 ABX31:ABX32 D104:D106 D118:D119 D114" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3776,18 +3889,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Doomsday_DD.xlsx
+++ b/Doomsday_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC5776B-1094-484B-90CC-845B261460DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55439A-2E0D-4646-A6EE-A4B04205A899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="139">
   <si>
     <t>Database Name</t>
   </si>
@@ -129,9 +129,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>Security Level</t>
-  </si>
-  <si>
     <t>A number describing how many people must be present</t>
   </si>
   <si>
@@ -153,21 +150,12 @@
     <t>Check it starts with P and is integer</t>
   </si>
   <si>
-    <t>FirstName</t>
-  </si>
-  <si>
     <t>First name of person</t>
   </si>
   <si>
-    <t>LastName</t>
-  </si>
-  <si>
     <t>Last name of person</t>
   </si>
   <si>
-    <t>DateOfBrith</t>
-  </si>
-  <si>
     <t>Person birthday</t>
   </si>
   <si>
@@ -180,9 +168,6 @@
     <t>Starts with J</t>
   </si>
   <si>
-    <t>Job Description</t>
-  </si>
-  <si>
     <t>Name of job associated with ID</t>
   </si>
   <si>
@@ -300,12 +285,6 @@
     <t>Starts with T</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Total price of transaction</t>
-  </si>
-  <si>
     <t>Zombies</t>
   </si>
   <si>
@@ -378,12 +357,6 @@
     <t>TransTimeStamp</t>
   </si>
   <si>
-    <t>Timestamp of when it was made</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
     <t>PeopleSettlements</t>
   </si>
   <si>
@@ -405,9 +378,6 @@
     <t>Missions</t>
   </si>
   <si>
-    <t>MissionsID</t>
-  </si>
-  <si>
     <t>Unique ID for missions</t>
   </si>
   <si>
@@ -439,6 +409,48 @@
   </si>
   <si>
     <t>ID from people table</t>
+  </si>
+  <si>
+    <t>ID from zombies Table</t>
+  </si>
+  <si>
+    <t>ZombiePricePerKill</t>
+  </si>
+  <si>
+    <t>Price by which zombie is rewarded per killing</t>
+  </si>
+  <si>
+    <t>JobDescription</t>
+  </si>
+  <si>
+    <t>JobBasePay/Day</t>
+  </si>
+  <si>
+    <t>The base pay for this job/day</t>
+  </si>
+  <si>
+    <t>TransDateStamp</t>
+  </si>
+  <si>
+    <t>Timestamp of what date it happens</t>
+  </si>
+  <si>
+    <t>Timestamp of wht time it happens</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>SettlementSecurityLevel</t>
+  </si>
+  <si>
+    <t>PeopleFirstName</t>
+  </si>
+  <si>
+    <t>PeopleLastName</t>
+  </si>
+  <si>
+    <t>PeopleDateOfBrith</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -685,6 +697,140 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -717,6 +863,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1007,23 +1177,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="258" max="258" width="23.85546875" customWidth="1"/>
     <col min="259" max="259" width="28.85546875" customWidth="1"/>
@@ -1546,7 +1716,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44502.834875</v>
+        <v>44506.953932291668</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1554,273 +1724,275 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="65" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="25" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
+    </row>
+    <row r="12" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="76"/>
+      <c r="G13" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="I13" s="74"/>
+      <c r="J13" s="74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
+      <c r="D14" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="75"/>
+      <c r="G14" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D15" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="75"/>
+      <c r="G15" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11" t="s">
+      <c r="D16" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11" t="s">
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1829,17 +2001,17 @@
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="B19" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -1875,19 +2047,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
@@ -1901,19 +2073,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
@@ -1928,106 +2100,128 @@
     <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="B25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11" t="s">
+      <c r="E27" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="50"/>
+      <c r="G27" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="49"/>
+      <c r="G28" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="11" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2039,97 +2233,72 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
         <v>19</v>
       </c>
@@ -2140,17 +2309,21 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
         <v>19</v>
@@ -2161,197 +2334,193 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="24"/>
-    </row>
-    <row r="39" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="B39" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J40" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="B41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11" t="s">
+      <c r="E41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="B45" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J46" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="12"/>
+        <v>54</v>
+      </c>
+      <c r="F47" s="13"/>
       <c r="G47" s="11" t="s">
         <v>19</v>
       </c>
@@ -2362,17 +2531,21 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
+      <c r="A48" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="11" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="F48" s="12"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
@@ -2383,94 +2556,94 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="24"/>
-    </row>
-    <row r="52" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="B52" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J53" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="11" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -2479,126 +2652,126 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>67</v>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="17"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
-    </row>
-    <row r="59" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="B59" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J60" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="11" t="s">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -2607,115 +2780,115 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>71</v>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="24"/>
-    </row>
-    <row r="66" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="B66" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="11" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="11" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -2724,115 +2897,115 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>71</v>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="24"/>
-    </row>
-    <row r="73" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="B73" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J74" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="11" t="s">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="11" t="s">
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -2841,115 +3014,115 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>78</v>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
-    </row>
-    <row r="80" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="B80" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="11" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -2958,262 +3131,260 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="62"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="62"/>
+      <c r="I87" s="62"/>
+      <c r="J87" s="63"/>
+    </row>
+    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16" t="s">
+      <c r="F89" s="57"/>
+      <c r="G89" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I89" s="55"/>
+      <c r="J89" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14" t="s">
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="60"/>
+      <c r="B91" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="60"/>
+      <c r="B92" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D92" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="23"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="24"/>
-    </row>
-    <row r="87" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="B95" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D96" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G96" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="I96" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J96" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="24"/>
-    </row>
-    <row r="95" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -3222,375 +3393,440 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>98</v>
+      <c r="A98" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
       <c r="J98" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="14" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="24"/>
-    </row>
-    <row r="102" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="B102" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="45"/>
+    </row>
+    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B103" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C103" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D103" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E103" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F103" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G103" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H103" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I103" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J103" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D103" s="11" t="s">
+      <c r="B104" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="11" t="s">
+      <c r="E104" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="39"/>
+      <c r="G104" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11" t="s">
+      <c r="H104" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="38"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="42"/>
+      <c r="B106" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="34"/>
+    </row>
+    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="29"/>
+      <c r="G111" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="F114" s="29"/>
+      <c r="G114" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="91"/>
+      <c r="H117" s="91"/>
+      <c r="I117" s="91"/>
+      <c r="J117" s="92"/>
+    </row>
+    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B119" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="11" t="s">
+      <c r="C119" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" s="86"/>
+      <c r="F119" s="86"/>
+      <c r="G119" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="33" t="s">
+      <c r="H119" s="85"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
-      <c r="I107" s="34"/>
-      <c r="J107" s="35"/>
-    </row>
-    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="28" t="s">
+      <c r="C120" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" s="28" t="s">
+      <c r="D120" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="30"/>
-      <c r="G109" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="28" t="s">
+      <c r="E120" s="86"/>
+      <c r="F120" s="87"/>
+      <c r="G120" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C111" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="35"/>
-    </row>
-    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I115" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J115" s="27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C116" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E116" s="29"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="29"/>
-      <c r="F117" s="29"/>
-      <c r="G117" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28" t="s">
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="B25:J25"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B25:J25"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D53:D55 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D33:D35 D46:D48 D40:D41 D60:D62 D67:D69 D74:D76 D81:D83 D103:D104 D96:D98 D88:D91 D21:D22 D116:D117" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D54:D56 D6:D8 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D34:D36 D47:D49 D41:D42 D61:D63 D68:D70 D75:D77 D82:D84 D104:D105 D97:D99 D89:D92 D21:D22 D119:D120" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -3775,15 +4011,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3792,7 +4029,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3809,4 +4046,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>